--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="462">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -907,6 +907,12 @@
     <t>['14', '38', '45+3', '45+8', '58']</t>
   </si>
   <si>
+    <t>['9', '48', '58', '90+5']</t>
+  </si>
+  <si>
+    <t>['1', '64', '73', '75']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1383,6 +1389,18 @@
   <si>
     <t>['19', '31']</t>
   </si>
+  <si>
+    <t>['45+3', '81']</t>
+  </si>
+  <si>
+    <t>['84', '90+2']</t>
+  </si>
+  <si>
+    <t>['83', '90+3']</t>
+  </si>
+  <si>
+    <t>['14', '28', '69', '88']</t>
+  </si>
 </sst>
 </file>
 
@@ -1743,7 +1761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP321"/>
+  <dimension ref="A1:BP330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2080,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ2">
         <v>1.38</v>
@@ -2208,7 +2226,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2286,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ3">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2495,7 +2513,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2620,7 +2638,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2698,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2907,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3032,7 +3050,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3113,7 +3131,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3238,7 +3256,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3316,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ8">
         <v>1.44</v>
@@ -3522,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ9">
         <v>1.44</v>
@@ -3650,7 +3668,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3731,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3934,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -4552,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ14">
         <v>1.06</v>
@@ -4758,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ15">
         <v>0.5600000000000001</v>
@@ -5298,7 +5316,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5376,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5504,7 +5522,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5585,7 +5603,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ19">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5791,7 +5809,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6203,7 +6221,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ22">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR22">
         <v>1.72</v>
@@ -6328,7 +6346,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6406,7 +6424,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ23">
         <v>1.44</v>
@@ -6534,7 +6552,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6612,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ24">
         <v>1.38</v>
@@ -6821,7 +6839,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ25">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR25">
         <v>1.78</v>
@@ -7024,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ26">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -7152,7 +7170,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7230,10 +7248,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR27">
         <v>0.83</v>
@@ -7358,7 +7376,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7436,10 +7454,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -7564,7 +7582,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7976,7 +7994,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8054,10 +8072,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ31">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -8182,7 +8200,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8594,7 +8612,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -8672,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ34">
         <v>0.5600000000000001</v>
@@ -8878,7 +8896,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ35">
         <v>1.06</v>
@@ -9418,7 +9436,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9496,7 +9514,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>1.13</v>
@@ -9624,7 +9642,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9705,7 +9723,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9830,7 +9848,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9911,7 +9929,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR40">
         <v>1.93</v>
@@ -10036,7 +10054,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10117,7 +10135,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ41">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -10242,7 +10260,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10320,10 +10338,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ42">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR42">
         <v>1.11</v>
@@ -10448,7 +10466,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10526,10 +10544,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ43">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR43">
         <v>1.79</v>
@@ -10732,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ44">
         <v>1.13</v>
@@ -10941,7 +10959,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR45">
         <v>1.78</v>
@@ -11556,10 +11574,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR48">
         <v>1.44</v>
@@ -11762,7 +11780,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ49">
         <v>1.06</v>
@@ -12096,7 +12114,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12177,7 +12195,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR51">
         <v>2.05</v>
@@ -12302,7 +12320,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12383,7 +12401,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR52">
         <v>0.75</v>
@@ -12508,7 +12526,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12792,7 +12810,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ54">
         <v>1.44</v>
@@ -12920,7 +12938,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13204,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ56">
         <v>1.06</v>
@@ -13332,7 +13350,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13413,7 +13431,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
@@ -13538,7 +13556,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13619,7 +13637,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ58">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13744,7 +13762,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13822,7 +13840,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ59">
         <v>1.44</v>
@@ -13950,7 +13968,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14028,7 +14046,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -14156,7 +14174,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14237,7 +14255,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR61">
         <v>1.76</v>
@@ -14362,7 +14380,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14440,10 +14458,10 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ62">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR62">
         <v>1.29</v>
@@ -14646,10 +14664,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR63">
         <v>1.12</v>
@@ -14774,7 +14792,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14980,7 +14998,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15058,7 +15076,7 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ65">
         <v>0.88</v>
@@ -15186,7 +15204,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -15264,10 +15282,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -15473,7 +15491,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ67">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR67">
         <v>2.4</v>
@@ -15676,10 +15694,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ68">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -16088,7 +16106,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>1.06</v>
@@ -16216,7 +16234,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16628,7 +16646,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16706,7 +16724,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ73">
         <v>1.44</v>
@@ -16834,7 +16852,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16912,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ74">
         <v>1.13</v>
@@ -17040,7 +17058,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -17121,7 +17139,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR75">
         <v>0.91</v>
@@ -17246,7 +17264,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17452,7 +17470,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17530,7 +17548,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ77">
         <v>1.13</v>
@@ -17739,7 +17757,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17864,7 +17882,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17945,7 +17963,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ79">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR79">
         <v>1.27</v>
@@ -18070,7 +18088,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18151,7 +18169,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ80">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -18482,7 +18500,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18560,7 +18578,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ82">
         <v>1.63</v>
@@ -18769,7 +18787,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ83">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR83">
         <v>2.31</v>
@@ -18894,7 +18912,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -18975,7 +18993,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -19100,7 +19118,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19178,10 +19196,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -19306,7 +19324,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19384,7 +19402,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ86">
         <v>0.88</v>
@@ -19590,7 +19608,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ87">
         <v>1.38</v>
@@ -19718,7 +19736,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19799,7 +19817,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -20002,7 +20020,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -20130,7 +20148,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20208,7 +20226,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ90">
         <v>1.06</v>
@@ -20336,7 +20354,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20417,7 +20435,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ91">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR91">
         <v>2.46</v>
@@ -20623,7 +20641,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR92">
         <v>1.13</v>
@@ -21035,7 +21053,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR94">
         <v>1.6</v>
@@ -21238,7 +21256,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ95">
         <v>0.5600000000000001</v>
@@ -21447,7 +21465,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ96">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR96">
         <v>1.78</v>
@@ -21778,7 +21796,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21984,7 +22002,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22190,7 +22208,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22268,10 +22286,10 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ100">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -22474,7 +22492,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ101">
         <v>1.13</v>
@@ -22602,7 +22620,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22680,10 +22698,10 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR102">
         <v>1.76</v>
@@ -22808,7 +22826,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22886,7 +22904,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ103">
         <v>1.38</v>
@@ -23092,7 +23110,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ104">
         <v>1.13</v>
@@ -23301,7 +23319,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ105">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR105">
         <v>1.17</v>
@@ -23507,7 +23525,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ106">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23916,7 +23934,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ108">
         <v>0.5600000000000001</v>
@@ -24044,7 +24062,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24125,7 +24143,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ109">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -24250,7 +24268,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24537,7 +24555,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR111">
         <v>1.72</v>
@@ -24662,7 +24680,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24740,10 +24758,10 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ112">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR112">
         <v>1.12</v>
@@ -24868,7 +24886,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -24946,10 +24964,10 @@
         <v>0.4</v>
       </c>
       <c r="AP113">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR113">
         <v>1.98</v>
@@ -25152,7 +25170,7 @@
         <v>0</v>
       </c>
       <c r="AP114">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ114">
         <v>1.13</v>
@@ -25486,7 +25504,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25567,7 +25585,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ116">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR116">
         <v>1.57</v>
@@ -25692,7 +25710,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25770,7 +25788,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.44</v>
@@ -25898,7 +25916,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26104,7 +26122,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26185,7 +26203,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ119">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR119">
         <v>1.07</v>
@@ -26310,7 +26328,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26388,7 +26406,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ120">
         <v>1.06</v>
@@ -26516,7 +26534,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26722,7 +26740,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26803,7 +26821,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ122">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -26928,7 +26946,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27009,7 +27027,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR123">
         <v>1.13</v>
@@ -27418,7 +27436,7 @@
         <v>0.83</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ125">
         <v>0.5600000000000001</v>
@@ -27546,7 +27564,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27624,10 +27642,10 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ126">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27752,7 +27770,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27830,10 +27848,10 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ127">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -28036,7 +28054,7 @@
         <v>0.83</v>
       </c>
       <c r="AP128">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ128">
         <v>1.13</v>
@@ -28657,7 +28675,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ131">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR131">
         <v>1.72</v>
@@ -28782,7 +28800,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28860,7 +28878,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ132">
         <v>1.44</v>
@@ -29066,7 +29084,7 @@
         <v>1.33</v>
       </c>
       <c r="AP133">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ133">
         <v>1.06</v>
@@ -29194,7 +29212,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29275,7 +29293,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ134">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR134">
         <v>1.08</v>
@@ -29400,7 +29418,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29481,7 +29499,7 @@
         <v>2</v>
       </c>
       <c r="AQ135">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR135">
         <v>1.25</v>
@@ -29890,10 +29908,10 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ137">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR137">
         <v>1.42</v>
@@ -30096,7 +30114,7 @@
         <v>0.17</v>
       </c>
       <c r="AP138">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
         <v>1.13</v>
@@ -30508,10 +30526,10 @@
         <v>1.67</v>
       </c>
       <c r="AP140">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ140">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR140">
         <v>1.88</v>
@@ -30842,7 +30860,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -30920,10 +30938,10 @@
         <v>1.43</v>
       </c>
       <c r="AP142">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ142">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR142">
         <v>1.38</v>
@@ -31048,7 +31066,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31126,10 +31144,10 @@
         <v>1.29</v>
       </c>
       <c r="AP143">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ143">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR143">
         <v>1.7</v>
@@ -31332,10 +31350,10 @@
         <v>0.14</v>
       </c>
       <c r="AP144">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR144">
         <v>1.54</v>
@@ -31460,7 +31478,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31538,7 +31556,7 @@
         <v>1.57</v>
       </c>
       <c r="AP145">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ145">
         <v>1.63</v>
@@ -31666,7 +31684,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31744,10 +31762,10 @@
         <v>1.57</v>
       </c>
       <c r="AP146">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ146">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR146">
         <v>1.74</v>
@@ -31872,7 +31890,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31950,10 +31968,10 @@
         <v>1.14</v>
       </c>
       <c r="AP147">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ147">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR147">
         <v>1.16</v>
@@ -32078,7 +32096,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32156,10 +32174,10 @@
         <v>1.43</v>
       </c>
       <c r="AP148">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ148">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR148">
         <v>1.08</v>
@@ -32284,7 +32302,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32365,7 +32383,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ149">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -32568,10 +32586,10 @@
         <v>0.71</v>
       </c>
       <c r="AP150">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ150">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR150">
         <v>1.48</v>
@@ -32696,7 +32714,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33314,7 +33332,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33520,7 +33538,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33726,7 +33744,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33932,7 +33950,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34138,7 +34156,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34834,10 +34852,10 @@
         <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ161">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR161">
         <v>1.54</v>
@@ -34962,7 +34980,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35040,7 +35058,7 @@
         <v>1.75</v>
       </c>
       <c r="AP162">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ162">
         <v>1.63</v>
@@ -35168,7 +35186,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35246,10 +35264,10 @@
         <v>1.38</v>
       </c>
       <c r="AP163">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ163">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR163">
         <v>1.48</v>
@@ -35374,7 +35392,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35452,10 +35470,10 @@
         <v>1.13</v>
       </c>
       <c r="AP164">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ164">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -35580,7 +35598,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35658,10 +35676,10 @@
         <v>1.5</v>
       </c>
       <c r="AP165">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ165">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR165">
         <v>1.31</v>
@@ -35864,10 +35882,10 @@
         <v>0.13</v>
       </c>
       <c r="AP166">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ166">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR166">
         <v>1.59</v>
@@ -35992,7 +36010,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36070,10 +36088,10 @@
         <v>0.63</v>
       </c>
       <c r="AP167">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ167">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR167">
         <v>1.06</v>
@@ -36198,7 +36216,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36276,10 +36294,10 @@
         <v>1.38</v>
       </c>
       <c r="AP168">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ168">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR168">
         <v>1.46</v>
@@ -36482,10 +36500,10 @@
         <v>2.38</v>
       </c>
       <c r="AP169">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ169">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR169">
         <v>1.39</v>
@@ -36610,7 +36628,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36691,7 +36709,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ170">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR170">
         <v>1.79</v>
@@ -37022,7 +37040,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37640,7 +37658,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -38258,7 +38276,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38876,7 +38894,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -38954,10 +38972,10 @@
         <v>1.22</v>
       </c>
       <c r="AP181">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ181">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR181">
         <v>1.08</v>
@@ -39082,7 +39100,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39163,7 +39181,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ182">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR182">
         <v>1.74</v>
@@ -39366,10 +39384,10 @@
         <v>0.22</v>
       </c>
       <c r="AP183">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ183">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR183">
         <v>1.34</v>
@@ -39494,7 +39512,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39572,10 +39590,10 @@
         <v>1.56</v>
       </c>
       <c r="AP184">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ184">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR184">
         <v>1.59</v>
@@ -39700,7 +39718,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39778,7 +39796,7 @@
         <v>1.89</v>
       </c>
       <c r="AP185">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ185">
         <v>1.63</v>
@@ -39906,7 +39924,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -39984,10 +40002,10 @@
         <v>2.5</v>
       </c>
       <c r="AP186">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ186">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR186">
         <v>1.43</v>
@@ -40190,10 +40208,10 @@
         <v>2.22</v>
       </c>
       <c r="AP187">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ187">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR187">
         <v>1.17</v>
@@ -40318,7 +40336,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40396,10 +40414,10 @@
         <v>1.33</v>
       </c>
       <c r="AP188">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ188">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR188">
         <v>1.51</v>
@@ -40524,7 +40542,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40602,10 +40620,10 @@
         <v>1.33</v>
       </c>
       <c r="AP189">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ189">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR189">
         <v>1.54</v>
@@ -40730,7 +40748,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40808,10 +40826,10 @@
         <v>1.67</v>
       </c>
       <c r="AP190">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ190">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR190">
         <v>1.66</v>
@@ -40936,7 +40954,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41017,7 +41035,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ191">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR191">
         <v>1.71</v>
@@ -41348,7 +41366,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41426,7 +41444,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP193">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ193">
         <v>0.5600000000000001</v>
@@ -41632,10 +41650,10 @@
         <v>2</v>
       </c>
       <c r="AP194">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ194">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR194">
         <v>1.41</v>
@@ -41760,7 +41778,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -41966,7 +41984,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42253,7 +42271,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ197">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR197">
         <v>1.62</v>
@@ -42378,7 +42396,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42456,7 +42474,7 @@
         <v>0.89</v>
       </c>
       <c r="AP198">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ198">
         <v>0.88</v>
@@ -42584,7 +42602,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42790,7 +42808,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -42996,7 +43014,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43077,7 +43095,7 @@
         <v>2</v>
       </c>
       <c r="AQ201">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR201">
         <v>1.75</v>
@@ -43202,7 +43220,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43280,7 +43298,7 @@
         <v>1.44</v>
       </c>
       <c r="AP202">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ202">
         <v>1.38</v>
@@ -43408,7 +43426,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43486,10 +43504,10 @@
         <v>1.4</v>
       </c>
       <c r="AP203">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ203">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR203">
         <v>1.57</v>
@@ -43614,7 +43632,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43695,7 +43713,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ204">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR204">
         <v>1.5</v>
@@ -43820,7 +43838,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -43898,7 +43916,7 @@
         <v>1.11</v>
       </c>
       <c r="AP205">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ205">
         <v>1.44</v>
@@ -44107,7 +44125,7 @@
         <v>2</v>
       </c>
       <c r="AQ206">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR206">
         <v>1.56</v>
@@ -44232,7 +44250,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44310,7 +44328,7 @@
         <v>1.11</v>
       </c>
       <c r="AP207">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ207">
         <v>1.44</v>
@@ -44644,7 +44662,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -44722,10 +44740,10 @@
         <v>1.3</v>
       </c>
       <c r="AP209">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ209">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR209">
         <v>1.16</v>
@@ -44928,10 +44946,10 @@
         <v>0.2</v>
       </c>
       <c r="AP210">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ210">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -45056,7 +45074,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45137,7 +45155,7 @@
         <v>2</v>
       </c>
       <c r="AQ211">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR211">
         <v>1.61</v>
@@ -45262,7 +45280,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45340,7 +45358,7 @@
         <v>1.3</v>
       </c>
       <c r="AP212">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ212">
         <v>1.44</v>
@@ -45468,7 +45486,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45546,10 +45564,10 @@
         <v>2.4</v>
       </c>
       <c r="AP213">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ213">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR213">
         <v>1.61</v>
@@ -45674,7 +45692,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45752,7 +45770,7 @@
         <v>1.3</v>
       </c>
       <c r="AP214">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ214">
         <v>1.38</v>
@@ -45880,7 +45898,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46086,7 +46104,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46164,10 +46182,10 @@
         <v>1.45</v>
       </c>
       <c r="AP216">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ216">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR216">
         <v>1.58</v>
@@ -46292,7 +46310,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46373,7 +46391,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ217">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR217">
         <v>1.44</v>
@@ -46498,7 +46516,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46576,7 +46594,7 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ218">
         <v>1</v>
@@ -46704,7 +46722,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -46782,10 +46800,10 @@
         <v>1.36</v>
       </c>
       <c r="AP219">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ219">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR219">
         <v>1.13</v>
@@ -46910,7 +46928,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -46991,7 +47009,7 @@
         <v>2</v>
       </c>
       <c r="AQ220">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR220">
         <v>1.85</v>
@@ -47322,7 +47340,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47734,7 +47752,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -47815,7 +47833,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ224">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR224">
         <v>1.11</v>
@@ -47940,7 +47958,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48021,7 +48039,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR225">
         <v>1.21</v>
@@ -48146,7 +48164,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48227,7 +48245,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ226">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR226">
         <v>2.02</v>
@@ -48352,7 +48370,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48430,7 +48448,7 @@
         <v>0.5</v>
       </c>
       <c r="AP227">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ227">
         <v>1.13</v>
@@ -48558,7 +48576,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -48842,7 +48860,7 @@
         <v>1.2</v>
       </c>
       <c r="AP229">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ229">
         <v>1.06</v>
@@ -48970,7 +48988,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49048,7 +49066,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ230">
         <v>1.06</v>
@@ -49257,7 +49275,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ231">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR231">
         <v>1.47</v>
@@ -49382,7 +49400,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49666,7 +49684,7 @@
         <v>0.73</v>
       </c>
       <c r="AP233">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ233">
         <v>0.5600000000000001</v>
@@ -49794,7 +49812,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -49872,10 +49890,10 @@
         <v>0.17</v>
       </c>
       <c r="AP234">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ234">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR234">
         <v>1.13</v>
@@ -50000,7 +50018,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50081,7 +50099,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ235">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR235">
         <v>1.81</v>
@@ -50412,7 +50430,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50490,7 +50508,7 @@
         <v>0.91</v>
       </c>
       <c r="AP237">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ237">
         <v>1</v>
@@ -50618,7 +50636,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50696,7 +50714,7 @@
         <v>1.45</v>
       </c>
       <c r="AP238">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ238">
         <v>1.44</v>
@@ -50905,7 +50923,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ239">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR239">
         <v>2</v>
@@ -51030,7 +51048,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51236,7 +51254,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51314,10 +51332,10 @@
         <v>2.5</v>
       </c>
       <c r="AP241">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ241">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR241">
         <v>1.39</v>
@@ -51523,7 +51541,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ242">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR242">
         <v>1.61</v>
@@ -51648,7 +51666,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51726,10 +51744,10 @@
         <v>1.83</v>
       </c>
       <c r="AP243">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ243">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR243">
         <v>1.2</v>
@@ -51854,7 +51872,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -51935,7 +51953,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ244">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR244">
         <v>1.15</v>
@@ -52141,7 +52159,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ245">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR245">
         <v>1.98</v>
@@ -52344,7 +52362,7 @@
         <v>0.73</v>
       </c>
       <c r="AP246">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ246">
         <v>1.13</v>
@@ -52550,7 +52568,7 @@
         <v>1.92</v>
       </c>
       <c r="AP247">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ247">
         <v>1.63</v>
@@ -52756,7 +52774,7 @@
         <v>0.82</v>
       </c>
       <c r="AP248">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ248">
         <v>0.88</v>
@@ -52884,7 +52902,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -52962,7 +52980,7 @@
         <v>0.91</v>
       </c>
       <c r="AP249">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ249">
         <v>1.13</v>
@@ -53171,7 +53189,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ250">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR250">
         <v>1.85</v>
@@ -53502,7 +53520,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53580,10 +53598,10 @@
         <v>2.38</v>
       </c>
       <c r="AP252">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ252">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR252">
         <v>1.61</v>
@@ -53708,7 +53726,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53786,7 +53804,7 @@
         <v>0.92</v>
       </c>
       <c r="AP253">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ253">
         <v>1.13</v>
@@ -53914,7 +53932,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -53992,7 +54010,7 @@
         <v>1.08</v>
       </c>
       <c r="AP254">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ254">
         <v>1.06</v>
@@ -54120,7 +54138,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54201,7 +54219,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ255">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR255">
         <v>1.18</v>
@@ -54326,7 +54344,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54404,7 +54422,7 @@
         <v>1.08</v>
       </c>
       <c r="AP256">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ256">
         <v>1</v>
@@ -54532,7 +54550,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -54819,7 +54837,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ258">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR258">
         <v>1.79</v>
@@ -54944,7 +54962,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55022,7 +55040,7 @@
         <v>1.58</v>
       </c>
       <c r="AP259">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ259">
         <v>1.44</v>
@@ -55150,7 +55168,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55228,10 +55246,10 @@
         <v>1.62</v>
       </c>
       <c r="AP260">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ260">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR260">
         <v>1.6</v>
@@ -55356,7 +55374,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55562,7 +55580,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55643,7 +55661,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ262">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR262">
         <v>1.96</v>
@@ -55768,7 +55786,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -55846,7 +55864,7 @@
         <v>1.17</v>
       </c>
       <c r="AP263">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ263">
         <v>1.44</v>
@@ -55974,7 +55992,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56261,7 +56279,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ265">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR265">
         <v>1.6</v>
@@ -56467,7 +56485,7 @@
         <v>2</v>
       </c>
       <c r="AQ266">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR266">
         <v>1.91</v>
@@ -56673,7 +56691,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ267">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR267">
         <v>1.78</v>
@@ -56798,7 +56816,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -56876,7 +56894,7 @@
         <v>0.83</v>
       </c>
       <c r="AP268">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ268">
         <v>0.88</v>
@@ -57082,7 +57100,7 @@
         <v>1.08</v>
       </c>
       <c r="AP269">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ269">
         <v>1.13</v>
@@ -57291,7 +57309,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ270">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR270">
         <v>1.5</v>
@@ -57497,7 +57515,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ271">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR271">
         <v>1.81</v>
@@ -57700,7 +57718,7 @@
         <v>0.67</v>
       </c>
       <c r="AP272">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ272">
         <v>0.5600000000000001</v>
@@ -57909,7 +57927,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ273">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR273">
         <v>1.46</v>
@@ -58034,7 +58052,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58115,7 +58133,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ274">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR274">
         <v>1.79</v>
@@ -58240,7 +58258,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q275">
         <v>2.5</v>
@@ -58524,7 +58542,7 @@
         <v>0.77</v>
       </c>
       <c r="AP276">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ276">
         <v>0.88</v>
@@ -58730,7 +58748,7 @@
         <v>1.08</v>
       </c>
       <c r="AP277">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ277">
         <v>1.44</v>
@@ -59270,7 +59288,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59351,7 +59369,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ280">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR280">
         <v>1.76</v>
@@ -59476,7 +59494,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59554,10 +59572,10 @@
         <v>1.86</v>
       </c>
       <c r="AP281">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ281">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR281">
         <v>1.53</v>
@@ -59682,7 +59700,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59760,10 +59778,10 @@
         <v>1.5</v>
       </c>
       <c r="AP282">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ282">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR282">
         <v>1.26</v>
@@ -59888,7 +59906,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -59969,7 +59987,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ283">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR283">
         <v>1.16</v>
@@ -60172,7 +60190,7 @@
         <v>1.23</v>
       </c>
       <c r="AP284">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ284">
         <v>1.06</v>
@@ -60300,7 +60318,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60378,7 +60396,7 @@
         <v>1.64</v>
       </c>
       <c r="AP285">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ285">
         <v>1.63</v>
@@ -60506,7 +60524,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60587,7 +60605,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ286">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR286">
         <v>1.99</v>
@@ -60712,7 +60730,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -60996,7 +61014,7 @@
         <v>1.23</v>
       </c>
       <c r="AP288">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ288">
         <v>1</v>
@@ -61205,7 +61223,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ289">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR289">
         <v>1.99</v>
@@ -61330,7 +61348,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -61408,7 +61426,7 @@
         <v>1.08</v>
       </c>
       <c r="AP290">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ290">
         <v>1.06</v>
@@ -62154,7 +62172,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62566,7 +62584,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62772,7 +62790,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -62978,7 +62996,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63596,7 +63614,7 @@
         <v>180</v>
       </c>
       <c r="P301" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q301">
         <v>6</v>
@@ -63674,10 +63692,10 @@
         <v>1.8</v>
       </c>
       <c r="AP301">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ301">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AR301">
         <v>1.43</v>
@@ -63802,7 +63820,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -63880,10 +63898,10 @@
         <v>1.53</v>
       </c>
       <c r="AP302">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AQ302">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR302">
         <v>1.26</v>
@@ -64086,10 +64104,10 @@
         <v>1.53</v>
       </c>
       <c r="AP303">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ303">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR303">
         <v>1.54</v>
@@ -64214,7 +64232,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64292,10 +64310,10 @@
         <v>1</v>
       </c>
       <c r="AP304">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AQ304">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR304">
         <v>1.26</v>
@@ -64498,7 +64516,7 @@
         <v>1.73</v>
       </c>
       <c r="AP305">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AQ305">
         <v>1.63</v>
@@ -64707,7 +64725,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ306">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AR306">
         <v>1.74</v>
@@ -64832,7 +64850,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -64910,10 +64928,10 @@
         <v>2.33</v>
       </c>
       <c r="AP307">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AQ307">
-        <v>2.19</v>
+        <v>2.24</v>
       </c>
       <c r="AR307">
         <v>1.6</v>
@@ -65116,10 +65134,10 @@
         <v>1.4</v>
       </c>
       <c r="AP308">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ308">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR308">
         <v>1.65</v>
@@ -65322,10 +65340,10 @@
         <v>1.4</v>
       </c>
       <c r="AP309">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ309">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR309">
         <v>1.52</v>
@@ -65450,7 +65468,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65528,10 +65546,10 @@
         <v>1.6</v>
       </c>
       <c r="AP310">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AQ310">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AR310">
         <v>1.21</v>
@@ -65656,7 +65674,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65862,7 +65880,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66068,7 +66086,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66480,7 +66498,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66686,7 +66704,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66892,7 +66910,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67098,7 +67116,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67873,6 +67891,1860 @@
       </c>
       <c r="BP321">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="322" spans="1:68">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>7467000</v>
+      </c>
+      <c r="C322" t="s">
+        <v>68</v>
+      </c>
+      <c r="D322" t="s">
+        <v>69</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F322">
+        <v>33</v>
+      </c>
+      <c r="G322" t="s">
+        <v>77</v>
+      </c>
+      <c r="H322" t="s">
+        <v>80</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
+      </c>
+      <c r="K322">
+        <v>2</v>
+      </c>
+      <c r="L322">
+        <v>4</v>
+      </c>
+      <c r="M322">
+        <v>2</v>
+      </c>
+      <c r="N322">
+        <v>6</v>
+      </c>
+      <c r="O322" t="s">
+        <v>297</v>
+      </c>
+      <c r="P322" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q322">
+        <v>2.88</v>
+      </c>
+      <c r="R322">
+        <v>2.38</v>
+      </c>
+      <c r="S322">
+        <v>3.2</v>
+      </c>
+      <c r="T322">
+        <v>1.29</v>
+      </c>
+      <c r="U322">
+        <v>3.5</v>
+      </c>
+      <c r="V322">
+        <v>2.38</v>
+      </c>
+      <c r="W322">
+        <v>1.53</v>
+      </c>
+      <c r="X322">
+        <v>5.5</v>
+      </c>
+      <c r="Y322">
+        <v>1.14</v>
+      </c>
+      <c r="Z322">
+        <v>2.6</v>
+      </c>
+      <c r="AA322">
+        <v>3.5</v>
+      </c>
+      <c r="AB322">
+        <v>2.55</v>
+      </c>
+      <c r="AC322">
+        <v>1.04</v>
+      </c>
+      <c r="AD322">
+        <v>10</v>
+      </c>
+      <c r="AE322">
+        <v>1.18</v>
+      </c>
+      <c r="AF322">
+        <v>4.75</v>
+      </c>
+      <c r="AG322">
+        <v>1.7</v>
+      </c>
+      <c r="AH322">
+        <v>2.05</v>
+      </c>
+      <c r="AI322">
+        <v>1.5</v>
+      </c>
+      <c r="AJ322">
+        <v>2.5</v>
+      </c>
+      <c r="AK322">
+        <v>1.44</v>
+      </c>
+      <c r="AL322">
+        <v>1.29</v>
+      </c>
+      <c r="AM322">
+        <v>1.53</v>
+      </c>
+      <c r="AN322">
+        <v>1.56</v>
+      </c>
+      <c r="AO322">
+        <v>1.44</v>
+      </c>
+      <c r="AP322">
+        <v>1.65</v>
+      </c>
+      <c r="AQ322">
+        <v>1.35</v>
+      </c>
+      <c r="AR322">
+        <v>1.62</v>
+      </c>
+      <c r="AS322">
+        <v>1.48</v>
+      </c>
+      <c r="AT322">
+        <v>3.1</v>
+      </c>
+      <c r="AU322">
+        <v>9</v>
+      </c>
+      <c r="AV322">
+        <v>4</v>
+      </c>
+      <c r="AW322">
+        <v>8</v>
+      </c>
+      <c r="AX322">
+        <v>9</v>
+      </c>
+      <c r="AY322">
+        <v>19</v>
+      </c>
+      <c r="AZ322">
+        <v>15</v>
+      </c>
+      <c r="BA322">
+        <v>4</v>
+      </c>
+      <c r="BB322">
+        <v>7</v>
+      </c>
+      <c r="BC322">
+        <v>11</v>
+      </c>
+      <c r="BD322">
+        <v>2.08</v>
+      </c>
+      <c r="BE322">
+        <v>6.5</v>
+      </c>
+      <c r="BF322">
+        <v>1.9</v>
+      </c>
+      <c r="BG322">
+        <v>1.23</v>
+      </c>
+      <c r="BH322">
+        <v>3.65</v>
+      </c>
+      <c r="BI322">
+        <v>1.4</v>
+      </c>
+      <c r="BJ322">
+        <v>2.65</v>
+      </c>
+      <c r="BK322">
+        <v>1.68</v>
+      </c>
+      <c r="BL322">
+        <v>2.02</v>
+      </c>
+      <c r="BM322">
+        <v>2.07</v>
+      </c>
+      <c r="BN322">
+        <v>1.65</v>
+      </c>
+      <c r="BO322">
+        <v>2.65</v>
+      </c>
+      <c r="BP322">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="323" spans="1:68">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>7467001</v>
+      </c>
+      <c r="C323" t="s">
+        <v>68</v>
+      </c>
+      <c r="D323" t="s">
+        <v>69</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F323">
+        <v>33</v>
+      </c>
+      <c r="G323" t="s">
+        <v>82</v>
+      </c>
+      <c r="H323" t="s">
+        <v>88</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+      <c r="O323" t="s">
+        <v>91</v>
+      </c>
+      <c r="P323" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q323">
+        <v>3</v>
+      </c>
+      <c r="R323">
+        <v>2.25</v>
+      </c>
+      <c r="S323">
+        <v>3.25</v>
+      </c>
+      <c r="T323">
+        <v>1.36</v>
+      </c>
+      <c r="U323">
+        <v>3</v>
+      </c>
+      <c r="V323">
+        <v>2.63</v>
+      </c>
+      <c r="W323">
+        <v>1.44</v>
+      </c>
+      <c r="X323">
+        <v>7</v>
+      </c>
+      <c r="Y323">
+        <v>1.1</v>
+      </c>
+      <c r="Z323">
+        <v>2.25</v>
+      </c>
+      <c r="AA323">
+        <v>3.5</v>
+      </c>
+      <c r="AB323">
+        <v>3.1</v>
+      </c>
+      <c r="AC323">
+        <v>1.05</v>
+      </c>
+      <c r="AD323">
+        <v>9.5</v>
+      </c>
+      <c r="AE323">
+        <v>1.25</v>
+      </c>
+      <c r="AF323">
+        <v>3.9</v>
+      </c>
+      <c r="AG323">
+        <v>1.7</v>
+      </c>
+      <c r="AH323">
+        <v>2.05</v>
+      </c>
+      <c r="AI323">
+        <v>1.62</v>
+      </c>
+      <c r="AJ323">
+        <v>2.2</v>
+      </c>
+      <c r="AK323">
+        <v>1.41</v>
+      </c>
+      <c r="AL323">
+        <v>1.29</v>
+      </c>
+      <c r="AM323">
+        <v>1.57</v>
+      </c>
+      <c r="AN323">
+        <v>1.25</v>
+      </c>
+      <c r="AO323">
+        <v>1.5</v>
+      </c>
+      <c r="AP323">
+        <v>1.24</v>
+      </c>
+      <c r="AQ323">
+        <v>1.47</v>
+      </c>
+      <c r="AR323">
+        <v>1.51</v>
+      </c>
+      <c r="AS323">
+        <v>1.69</v>
+      </c>
+      <c r="AT323">
+        <v>3.2</v>
+      </c>
+      <c r="AU323">
+        <v>0</v>
+      </c>
+      <c r="AV323">
+        <v>5</v>
+      </c>
+      <c r="AW323">
+        <v>5</v>
+      </c>
+      <c r="AX323">
+        <v>11</v>
+      </c>
+      <c r="AY323">
+        <v>7</v>
+      </c>
+      <c r="AZ323">
+        <v>18</v>
+      </c>
+      <c r="BA323">
+        <v>5</v>
+      </c>
+      <c r="BB323">
+        <v>4</v>
+      </c>
+      <c r="BC323">
+        <v>9</v>
+      </c>
+      <c r="BD323">
+        <v>1.89</v>
+      </c>
+      <c r="BE323">
+        <v>6.75</v>
+      </c>
+      <c r="BF323">
+        <v>2.08</v>
+      </c>
+      <c r="BG323">
+        <v>1.19</v>
+      </c>
+      <c r="BH323">
+        <v>4.1</v>
+      </c>
+      <c r="BI323">
+        <v>1.32</v>
+      </c>
+      <c r="BJ323">
+        <v>3.05</v>
+      </c>
+      <c r="BK323">
+        <v>1.53</v>
+      </c>
+      <c r="BL323">
+        <v>2.3</v>
+      </c>
+      <c r="BM323">
+        <v>1.85</v>
+      </c>
+      <c r="BN323">
+        <v>1.83</v>
+      </c>
+      <c r="BO323">
+        <v>2.3</v>
+      </c>
+      <c r="BP323">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="324" spans="1:68">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>7467002</v>
+      </c>
+      <c r="C324" t="s">
+        <v>68</v>
+      </c>
+      <c r="D324" t="s">
+        <v>69</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F324">
+        <v>33</v>
+      </c>
+      <c r="G324" t="s">
+        <v>73</v>
+      </c>
+      <c r="H324" t="s">
+        <v>85</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+      <c r="M324">
+        <v>2</v>
+      </c>
+      <c r="N324">
+        <v>2</v>
+      </c>
+      <c r="O324" t="s">
+        <v>91</v>
+      </c>
+      <c r="P324" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q324">
+        <v>4.33</v>
+      </c>
+      <c r="R324">
+        <v>2.2</v>
+      </c>
+      <c r="S324">
+        <v>2.5</v>
+      </c>
+      <c r="T324">
+        <v>1.36</v>
+      </c>
+      <c r="U324">
+        <v>3</v>
+      </c>
+      <c r="V324">
+        <v>2.75</v>
+      </c>
+      <c r="W324">
+        <v>1.4</v>
+      </c>
+      <c r="X324">
+        <v>7</v>
+      </c>
+      <c r="Y324">
+        <v>1.1</v>
+      </c>
+      <c r="Z324">
+        <v>4.5</v>
+      </c>
+      <c r="AA324">
+        <v>4</v>
+      </c>
+      <c r="AB324">
+        <v>1.74</v>
+      </c>
+      <c r="AC324">
+        <v>1.05</v>
+      </c>
+      <c r="AD324">
+        <v>9.5</v>
+      </c>
+      <c r="AE324">
+        <v>1.25</v>
+      </c>
+      <c r="AF324">
+        <v>3.7</v>
+      </c>
+      <c r="AG324">
+        <v>1.65</v>
+      </c>
+      <c r="AH324">
+        <v>2.15</v>
+      </c>
+      <c r="AI324">
+        <v>1.7</v>
+      </c>
+      <c r="AJ324">
+        <v>2.05</v>
+      </c>
+      <c r="AK324">
+        <v>1.8</v>
+      </c>
+      <c r="AL324">
+        <v>1.29</v>
+      </c>
+      <c r="AM324">
+        <v>1.26</v>
+      </c>
+      <c r="AN324">
+        <v>1.25</v>
+      </c>
+      <c r="AO324">
+        <v>1.38</v>
+      </c>
+      <c r="AP324">
+        <v>1.18</v>
+      </c>
+      <c r="AQ324">
+        <v>1.47</v>
+      </c>
+      <c r="AR324">
+        <v>1.39</v>
+      </c>
+      <c r="AS324">
+        <v>1.78</v>
+      </c>
+      <c r="AT324">
+        <v>3.17</v>
+      </c>
+      <c r="AU324">
+        <v>3</v>
+      </c>
+      <c r="AV324">
+        <v>8</v>
+      </c>
+      <c r="AW324">
+        <v>6</v>
+      </c>
+      <c r="AX324">
+        <v>5</v>
+      </c>
+      <c r="AY324">
+        <v>13</v>
+      </c>
+      <c r="AZ324">
+        <v>16</v>
+      </c>
+      <c r="BA324">
+        <v>2</v>
+      </c>
+      <c r="BB324">
+        <v>5</v>
+      </c>
+      <c r="BC324">
+        <v>7</v>
+      </c>
+      <c r="BD324">
+        <v>2.9</v>
+      </c>
+      <c r="BE324">
+        <v>7</v>
+      </c>
+      <c r="BF324">
+        <v>1.49</v>
+      </c>
+      <c r="BG324">
+        <v>1.19</v>
+      </c>
+      <c r="BH324">
+        <v>4.1</v>
+      </c>
+      <c r="BI324">
+        <v>1.34</v>
+      </c>
+      <c r="BJ324">
+        <v>2.95</v>
+      </c>
+      <c r="BK324">
+        <v>1.56</v>
+      </c>
+      <c r="BL324">
+        <v>2.23</v>
+      </c>
+      <c r="BM324">
+        <v>1.91</v>
+      </c>
+      <c r="BN324">
+        <v>1.78</v>
+      </c>
+      <c r="BO324">
+        <v>2.4</v>
+      </c>
+      <c r="BP324">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:68">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>7467008</v>
+      </c>
+      <c r="C325" t="s">
+        <v>68</v>
+      </c>
+      <c r="D325" t="s">
+        <v>69</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45766.45833333334</v>
+      </c>
+      <c r="F325">
+        <v>33</v>
+      </c>
+      <c r="G325" t="s">
+        <v>76</v>
+      </c>
+      <c r="H325" t="s">
+        <v>84</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>1</v>
+      </c>
+      <c r="M325">
+        <v>1</v>
+      </c>
+      <c r="N325">
+        <v>2</v>
+      </c>
+      <c r="O325" t="s">
+        <v>254</v>
+      </c>
+      <c r="P325" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q325">
+        <v>2.05</v>
+      </c>
+      <c r="R325">
+        <v>2.4</v>
+      </c>
+      <c r="S325">
+        <v>6</v>
+      </c>
+      <c r="T325">
+        <v>1.33</v>
+      </c>
+      <c r="U325">
+        <v>3.25</v>
+      </c>
+      <c r="V325">
+        <v>2.5</v>
+      </c>
+      <c r="W325">
+        <v>1.5</v>
+      </c>
+      <c r="X325">
+        <v>6.5</v>
+      </c>
+      <c r="Y325">
+        <v>1.11</v>
+      </c>
+      <c r="Z325">
+        <v>1.44</v>
+      </c>
+      <c r="AA325">
+        <v>4.6</v>
+      </c>
+      <c r="AB325">
+        <v>7</v>
+      </c>
+      <c r="AC325">
+        <v>1.04</v>
+      </c>
+      <c r="AD325">
+        <v>10</v>
+      </c>
+      <c r="AE325">
+        <v>1.22</v>
+      </c>
+      <c r="AF325">
+        <v>4.2</v>
+      </c>
+      <c r="AG325">
+        <v>1.55</v>
+      </c>
+      <c r="AH325">
+        <v>2.3</v>
+      </c>
+      <c r="AI325">
+        <v>1.8</v>
+      </c>
+      <c r="AJ325">
+        <v>1.95</v>
+      </c>
+      <c r="AK325">
+        <v>1.14</v>
+      </c>
+      <c r="AL325">
+        <v>1.22</v>
+      </c>
+      <c r="AM325">
+        <v>2.37</v>
+      </c>
+      <c r="AN325">
+        <v>1.13</v>
+      </c>
+      <c r="AO325">
+        <v>0.31</v>
+      </c>
+      <c r="AP325">
+        <v>1.12</v>
+      </c>
+      <c r="AQ325">
+        <v>0.35</v>
+      </c>
+      <c r="AR325">
+        <v>1.25</v>
+      </c>
+      <c r="AS325">
+        <v>1.08</v>
+      </c>
+      <c r="AT325">
+        <v>2.33</v>
+      </c>
+      <c r="AU325">
+        <v>5</v>
+      </c>
+      <c r="AV325">
+        <v>5</v>
+      </c>
+      <c r="AW325">
+        <v>8</v>
+      </c>
+      <c r="AX325">
+        <v>10</v>
+      </c>
+      <c r="AY325">
+        <v>17</v>
+      </c>
+      <c r="AZ325">
+        <v>17</v>
+      </c>
+      <c r="BA325">
+        <v>2</v>
+      </c>
+      <c r="BB325">
+        <v>5</v>
+      </c>
+      <c r="BC325">
+        <v>7</v>
+      </c>
+      <c r="BD325">
+        <v>1.42</v>
+      </c>
+      <c r="BE325">
+        <v>7</v>
+      </c>
+      <c r="BF325">
+        <v>3.15</v>
+      </c>
+      <c r="BG325">
+        <v>1.21</v>
+      </c>
+      <c r="BH325">
+        <v>3.8</v>
+      </c>
+      <c r="BI325">
+        <v>1.38</v>
+      </c>
+      <c r="BJ325">
+        <v>2.75</v>
+      </c>
+      <c r="BK325">
+        <v>1.62</v>
+      </c>
+      <c r="BL325">
+        <v>2.12</v>
+      </c>
+      <c r="BM325">
+        <v>2</v>
+      </c>
+      <c r="BN325">
+        <v>1.71</v>
+      </c>
+      <c r="BO325">
+        <v>2.55</v>
+      </c>
+      <c r="BP325">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="326" spans="1:68">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>7466999</v>
+      </c>
+      <c r="C326" t="s">
+        <v>68</v>
+      </c>
+      <c r="D326" t="s">
+        <v>69</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45766.5625</v>
+      </c>
+      <c r="F326">
+        <v>33</v>
+      </c>
+      <c r="G326" t="s">
+        <v>86</v>
+      </c>
+      <c r="H326" t="s">
+        <v>74</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326">
+        <v>1</v>
+      </c>
+      <c r="K326">
+        <v>2</v>
+      </c>
+      <c r="L326">
+        <v>4</v>
+      </c>
+      <c r="M326">
+        <v>1</v>
+      </c>
+      <c r="N326">
+        <v>5</v>
+      </c>
+      <c r="O326" t="s">
+        <v>298</v>
+      </c>
+      <c r="P326" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q326">
+        <v>2.88</v>
+      </c>
+      <c r="R326">
+        <v>2.3</v>
+      </c>
+      <c r="S326">
+        <v>3.4</v>
+      </c>
+      <c r="T326">
+        <v>1.3</v>
+      </c>
+      <c r="U326">
+        <v>3.4</v>
+      </c>
+      <c r="V326">
+        <v>2.5</v>
+      </c>
+      <c r="W326">
+        <v>1.5</v>
+      </c>
+      <c r="X326">
+        <v>6</v>
+      </c>
+      <c r="Y326">
+        <v>1.13</v>
+      </c>
+      <c r="Z326">
+        <v>2.35</v>
+      </c>
+      <c r="AA326">
+        <v>3.5</v>
+      </c>
+      <c r="AB326">
+        <v>2.95</v>
+      </c>
+      <c r="AC326">
+        <v>1.04</v>
+      </c>
+      <c r="AD326">
+        <v>10</v>
+      </c>
+      <c r="AE326">
+        <v>1.22</v>
+      </c>
+      <c r="AF326">
+        <v>4.2</v>
+      </c>
+      <c r="AG326">
+        <v>1.75</v>
+      </c>
+      <c r="AH326">
+        <v>2</v>
+      </c>
+      <c r="AI326">
+        <v>1.53</v>
+      </c>
+      <c r="AJ326">
+        <v>2.38</v>
+      </c>
+      <c r="AK326">
+        <v>1.41</v>
+      </c>
+      <c r="AL326">
+        <v>1.28</v>
+      </c>
+      <c r="AM326">
+        <v>1.57</v>
+      </c>
+      <c r="AN326">
+        <v>1.94</v>
+      </c>
+      <c r="AO326">
+        <v>1.69</v>
+      </c>
+      <c r="AP326">
+        <v>2</v>
+      </c>
+      <c r="AQ326">
+        <v>1.59</v>
+      </c>
+      <c r="AR326">
+        <v>1.64</v>
+      </c>
+      <c r="AS326">
+        <v>1.37</v>
+      </c>
+      <c r="AT326">
+        <v>3.01</v>
+      </c>
+      <c r="AU326">
+        <v>10</v>
+      </c>
+      <c r="AV326">
+        <v>4</v>
+      </c>
+      <c r="AW326">
+        <v>14</v>
+      </c>
+      <c r="AX326">
+        <v>7</v>
+      </c>
+      <c r="AY326">
+        <v>28</v>
+      </c>
+      <c r="AZ326">
+        <v>14</v>
+      </c>
+      <c r="BA326">
+        <v>7</v>
+      </c>
+      <c r="BB326">
+        <v>7</v>
+      </c>
+      <c r="BC326">
+        <v>14</v>
+      </c>
+      <c r="BD326">
+        <v>1.6</v>
+      </c>
+      <c r="BE326">
+        <v>6.75</v>
+      </c>
+      <c r="BF326">
+        <v>2.55</v>
+      </c>
+      <c r="BG326">
+        <v>1.18</v>
+      </c>
+      <c r="BH326">
+        <v>4.2</v>
+      </c>
+      <c r="BI326">
+        <v>1.32</v>
+      </c>
+      <c r="BJ326">
+        <v>3.05</v>
+      </c>
+      <c r="BK326">
+        <v>1.52</v>
+      </c>
+      <c r="BL326">
+        <v>2.32</v>
+      </c>
+      <c r="BM326">
+        <v>1.84</v>
+      </c>
+      <c r="BN326">
+        <v>1.84</v>
+      </c>
+      <c r="BO326">
+        <v>2.3</v>
+      </c>
+      <c r="BP326">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="327" spans="1:68">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>7467003</v>
+      </c>
+      <c r="C327" t="s">
+        <v>68</v>
+      </c>
+      <c r="D327" t="s">
+        <v>69</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45767.41666666666</v>
+      </c>
+      <c r="F327">
+        <v>33</v>
+      </c>
+      <c r="G327" t="s">
+        <v>83</v>
+      </c>
+      <c r="H327" t="s">
+        <v>78</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>1</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327">
+        <v>2</v>
+      </c>
+      <c r="N327">
+        <v>3</v>
+      </c>
+      <c r="O327" t="s">
+        <v>172</v>
+      </c>
+      <c r="P327" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q327">
+        <v>3.4</v>
+      </c>
+      <c r="R327">
+        <v>2.2</v>
+      </c>
+      <c r="S327">
+        <v>3.1</v>
+      </c>
+      <c r="T327">
+        <v>1.36</v>
+      </c>
+      <c r="U327">
+        <v>3</v>
+      </c>
+      <c r="V327">
+        <v>2.63</v>
+      </c>
+      <c r="W327">
+        <v>1.44</v>
+      </c>
+      <c r="X327">
+        <v>7</v>
+      </c>
+      <c r="Y327">
+        <v>1.1</v>
+      </c>
+      <c r="Z327">
+        <v>3.6</v>
+      </c>
+      <c r="AA327">
+        <v>3.9</v>
+      </c>
+      <c r="AB327">
+        <v>1.95</v>
+      </c>
+      <c r="AC327">
+        <v>1.05</v>
+      </c>
+      <c r="AD327">
+        <v>9</v>
+      </c>
+      <c r="AE327">
+        <v>1.28</v>
+      </c>
+      <c r="AF327">
+        <v>3.5</v>
+      </c>
+      <c r="AG327">
+        <v>1.83</v>
+      </c>
+      <c r="AH327">
+        <v>1.91</v>
+      </c>
+      <c r="AI327">
+        <v>1.67</v>
+      </c>
+      <c r="AJ327">
+        <v>2.1</v>
+      </c>
+      <c r="AK327">
+        <v>1.55</v>
+      </c>
+      <c r="AL327">
+        <v>1.31</v>
+      </c>
+      <c r="AM327">
+        <v>1.4</v>
+      </c>
+      <c r="AN327">
+        <v>1.63</v>
+      </c>
+      <c r="AO327">
+        <v>1.38</v>
+      </c>
+      <c r="AP327">
+        <v>1.53</v>
+      </c>
+      <c r="AQ327">
+        <v>1.47</v>
+      </c>
+      <c r="AR327">
+        <v>1.6</v>
+      </c>
+      <c r="AS327">
+        <v>1.56</v>
+      </c>
+      <c r="AT327">
+        <v>3.16</v>
+      </c>
+      <c r="AU327">
+        <v>2</v>
+      </c>
+      <c r="AV327">
+        <v>9</v>
+      </c>
+      <c r="AW327">
+        <v>5</v>
+      </c>
+      <c r="AX327">
+        <v>5</v>
+      </c>
+      <c r="AY327">
+        <v>8</v>
+      </c>
+      <c r="AZ327">
+        <v>16</v>
+      </c>
+      <c r="BA327">
+        <v>5</v>
+      </c>
+      <c r="BB327">
+        <v>4</v>
+      </c>
+      <c r="BC327">
+        <v>9</v>
+      </c>
+      <c r="BD327">
+        <v>1.95</v>
+      </c>
+      <c r="BE327">
+        <v>6.4</v>
+      </c>
+      <c r="BF327">
+        <v>2.05</v>
+      </c>
+      <c r="BG327">
+        <v>1.26</v>
+      </c>
+      <c r="BH327">
+        <v>3.4</v>
+      </c>
+      <c r="BI327">
+        <v>1.46</v>
+      </c>
+      <c r="BJ327">
+        <v>2.48</v>
+      </c>
+      <c r="BK327">
+        <v>1.75</v>
+      </c>
+      <c r="BL327">
+        <v>1.95</v>
+      </c>
+      <c r="BM327">
+        <v>2.18</v>
+      </c>
+      <c r="BN327">
+        <v>1.58</v>
+      </c>
+      <c r="BO327">
+        <v>2.8</v>
+      </c>
+      <c r="BP327">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="328" spans="1:68">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>7467004</v>
+      </c>
+      <c r="C328" t="s">
+        <v>68</v>
+      </c>
+      <c r="D328" t="s">
+        <v>69</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45767.41666666666</v>
+      </c>
+      <c r="F328">
+        <v>33</v>
+      </c>
+      <c r="G328" t="s">
+        <v>71</v>
+      </c>
+      <c r="H328" t="s">
+        <v>72</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>2</v>
+      </c>
+      <c r="K328">
+        <v>2</v>
+      </c>
+      <c r="L328">
+        <v>0</v>
+      </c>
+      <c r="M328">
+        <v>4</v>
+      </c>
+      <c r="N328">
+        <v>4</v>
+      </c>
+      <c r="O328" t="s">
+        <v>91</v>
+      </c>
+      <c r="P328" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q328">
+        <v>7</v>
+      </c>
+      <c r="R328">
+        <v>2.4</v>
+      </c>
+      <c r="S328">
+        <v>1.91</v>
+      </c>
+      <c r="T328">
+        <v>1.33</v>
+      </c>
+      <c r="U328">
+        <v>3.25</v>
+      </c>
+      <c r="V328">
+        <v>2.63</v>
+      </c>
+      <c r="W328">
+        <v>1.44</v>
+      </c>
+      <c r="X328">
+        <v>6.5</v>
+      </c>
+      <c r="Y328">
+        <v>1.11</v>
+      </c>
+      <c r="Z328">
+        <v>8</v>
+      </c>
+      <c r="AA328">
+        <v>5.4</v>
+      </c>
+      <c r="AB328">
+        <v>1.33</v>
+      </c>
+      <c r="AC328">
+        <v>1.04</v>
+      </c>
+      <c r="AD328">
+        <v>10</v>
+      </c>
+      <c r="AE328">
+        <v>1.22</v>
+      </c>
+      <c r="AF328">
+        <v>4.2</v>
+      </c>
+      <c r="AG328">
+        <v>1.7</v>
+      </c>
+      <c r="AH328">
+        <v>2.05</v>
+      </c>
+      <c r="AI328">
+        <v>1.95</v>
+      </c>
+      <c r="AJ328">
+        <v>1.8</v>
+      </c>
+      <c r="AK328">
+        <v>2.87</v>
+      </c>
+      <c r="AL328">
+        <v>1.18</v>
+      </c>
+      <c r="AM328">
+        <v>1.09</v>
+      </c>
+      <c r="AN328">
+        <v>0.44</v>
+      </c>
+      <c r="AO328">
+        <v>1.75</v>
+      </c>
+      <c r="AP328">
+        <v>0.41</v>
+      </c>
+      <c r="AQ328">
+        <v>1.82</v>
+      </c>
+      <c r="AR328">
+        <v>1.23</v>
+      </c>
+      <c r="AS328">
+        <v>1.42</v>
+      </c>
+      <c r="AT328">
+        <v>2.65</v>
+      </c>
+      <c r="AU328">
+        <v>0</v>
+      </c>
+      <c r="AV328">
+        <v>8</v>
+      </c>
+      <c r="AW328">
+        <v>5</v>
+      </c>
+      <c r="AX328">
+        <v>17</v>
+      </c>
+      <c r="AY328">
+        <v>7</v>
+      </c>
+      <c r="AZ328">
+        <v>29</v>
+      </c>
+      <c r="BA328">
+        <v>0</v>
+      </c>
+      <c r="BB328">
+        <v>12</v>
+      </c>
+      <c r="BC328">
+        <v>12</v>
+      </c>
+      <c r="BD328">
+        <v>4.35</v>
+      </c>
+      <c r="BE328">
+        <v>8.5</v>
+      </c>
+      <c r="BF328">
+        <v>1.24</v>
+      </c>
+      <c r="BG328">
+        <v>1.23</v>
+      </c>
+      <c r="BH328">
+        <v>3.65</v>
+      </c>
+      <c r="BI328">
+        <v>1.41</v>
+      </c>
+      <c r="BJ328">
+        <v>2.65</v>
+      </c>
+      <c r="BK328">
+        <v>1.66</v>
+      </c>
+      <c r="BL328">
+        <v>2.07</v>
+      </c>
+      <c r="BM328">
+        <v>2.02</v>
+      </c>
+      <c r="BN328">
+        <v>1.68</v>
+      </c>
+      <c r="BO328">
+        <v>2.55</v>
+      </c>
+      <c r="BP328">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="329" spans="1:68">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>7467006</v>
+      </c>
+      <c r="C329" t="s">
+        <v>68</v>
+      </c>
+      <c r="D329" t="s">
+        <v>69</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45767.41666666666</v>
+      </c>
+      <c r="F329">
+        <v>33</v>
+      </c>
+      <c r="G329" t="s">
+        <v>70</v>
+      </c>
+      <c r="H329" t="s">
+        <v>87</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+      <c r="M329">
+        <v>1</v>
+      </c>
+      <c r="N329">
+        <v>1</v>
+      </c>
+      <c r="O329" t="s">
+        <v>91</v>
+      </c>
+      <c r="P329" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q329">
+        <v>2.63</v>
+      </c>
+      <c r="R329">
+        <v>2.2</v>
+      </c>
+      <c r="S329">
+        <v>4</v>
+      </c>
+      <c r="T329">
+        <v>1.4</v>
+      </c>
+      <c r="U329">
+        <v>2.75</v>
+      </c>
+      <c r="V329">
+        <v>2.75</v>
+      </c>
+      <c r="W329">
+        <v>1.4</v>
+      </c>
+      <c r="X329">
+        <v>8</v>
+      </c>
+      <c r="Y329">
+        <v>1.08</v>
+      </c>
+      <c r="Z329">
+        <v>2</v>
+      </c>
+      <c r="AA329">
+        <v>3.6</v>
+      </c>
+      <c r="AB329">
+        <v>3.6</v>
+      </c>
+      <c r="AC329">
+        <v>1.05</v>
+      </c>
+      <c r="AD329">
+        <v>9.5</v>
+      </c>
+      <c r="AE329">
+        <v>1.28</v>
+      </c>
+      <c r="AF329">
+        <v>3.55</v>
+      </c>
+      <c r="AG329">
+        <v>1.91</v>
+      </c>
+      <c r="AH329">
+        <v>1.91</v>
+      </c>
+      <c r="AI329">
+        <v>1.8</v>
+      </c>
+      <c r="AJ329">
+        <v>1.95</v>
+      </c>
+      <c r="AK329">
+        <v>1.22</v>
+      </c>
+      <c r="AL329">
+        <v>1.27</v>
+      </c>
+      <c r="AM329">
+        <v>1.95</v>
+      </c>
+      <c r="AN329">
+        <v>1.31</v>
+      </c>
+      <c r="AO329">
+        <v>1.13</v>
+      </c>
+      <c r="AP329">
+        <v>1.24</v>
+      </c>
+      <c r="AQ329">
+        <v>1.24</v>
+      </c>
+      <c r="AR329">
+        <v>1.51</v>
+      </c>
+      <c r="AS329">
+        <v>1.36</v>
+      </c>
+      <c r="AT329">
+        <v>2.87</v>
+      </c>
+      <c r="AU329">
+        <v>3</v>
+      </c>
+      <c r="AV329">
+        <v>3</v>
+      </c>
+      <c r="AW329">
+        <v>10</v>
+      </c>
+      <c r="AX329">
+        <v>2</v>
+      </c>
+      <c r="AY329">
+        <v>18</v>
+      </c>
+      <c r="AZ329">
+        <v>6</v>
+      </c>
+      <c r="BA329">
+        <v>9</v>
+      </c>
+      <c r="BB329">
+        <v>2</v>
+      </c>
+      <c r="BC329">
+        <v>11</v>
+      </c>
+      <c r="BD329">
+        <v>1.38</v>
+      </c>
+      <c r="BE329">
+        <v>7</v>
+      </c>
+      <c r="BF329">
+        <v>3.3</v>
+      </c>
+      <c r="BG329">
+        <v>1.2</v>
+      </c>
+      <c r="BH329">
+        <v>3.95</v>
+      </c>
+      <c r="BI329">
+        <v>1.34</v>
+      </c>
+      <c r="BJ329">
+        <v>2.9</v>
+      </c>
+      <c r="BK329">
+        <v>1.57</v>
+      </c>
+      <c r="BL329">
+        <v>2.23</v>
+      </c>
+      <c r="BM329">
+        <v>1.9</v>
+      </c>
+      <c r="BN329">
+        <v>1.79</v>
+      </c>
+      <c r="BO329">
+        <v>2.35</v>
+      </c>
+      <c r="BP329">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:68">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>7467005</v>
+      </c>
+      <c r="C330" t="s">
+        <v>68</v>
+      </c>
+      <c r="D330" t="s">
+        <v>69</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45767.52083333334</v>
+      </c>
+      <c r="F330">
+        <v>33</v>
+      </c>
+      <c r="G330" t="s">
+        <v>79</v>
+      </c>
+      <c r="H330" t="s">
+        <v>89</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+      <c r="M330">
+        <v>1</v>
+      </c>
+      <c r="N330">
+        <v>1</v>
+      </c>
+      <c r="O330" t="s">
+        <v>91</v>
+      </c>
+      <c r="P330" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q330">
+        <v>9</v>
+      </c>
+      <c r="R330">
+        <v>2.88</v>
+      </c>
+      <c r="S330">
+        <v>1.62</v>
+      </c>
+      <c r="T330">
+        <v>1.25</v>
+      </c>
+      <c r="U330">
+        <v>3.75</v>
+      </c>
+      <c r="V330">
+        <v>2.1</v>
+      </c>
+      <c r="W330">
+        <v>1.67</v>
+      </c>
+      <c r="X330">
+        <v>4.5</v>
+      </c>
+      <c r="Y330">
+        <v>1.18</v>
+      </c>
+      <c r="Z330">
+        <v>11</v>
+      </c>
+      <c r="AA330">
+        <v>6.5</v>
+      </c>
+      <c r="AB330">
+        <v>1.24</v>
+      </c>
+      <c r="AC330">
+        <v>1.01</v>
+      </c>
+      <c r="AD330">
+        <v>17</v>
+      </c>
+      <c r="AE330">
+        <v>1.13</v>
+      </c>
+      <c r="AF330">
+        <v>5.75</v>
+      </c>
+      <c r="AG330">
+        <v>1.37</v>
+      </c>
+      <c r="AH330">
+        <v>2.94</v>
+      </c>
+      <c r="AI330">
+        <v>1.95</v>
+      </c>
+      <c r="AJ330">
+        <v>1.8</v>
+      </c>
+      <c r="AK330">
+        <v>3.8</v>
+      </c>
+      <c r="AL330">
+        <v>1.12</v>
+      </c>
+      <c r="AM330">
+        <v>1.06</v>
+      </c>
+      <c r="AN330">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO330">
+        <v>2.19</v>
+      </c>
+      <c r="AP330">
+        <v>0.53</v>
+      </c>
+      <c r="AQ330">
+        <v>2.24</v>
+      </c>
+      <c r="AR330">
+        <v>1.19</v>
+      </c>
+      <c r="AS330">
+        <v>1.95</v>
+      </c>
+      <c r="AT330">
+        <v>3.14</v>
+      </c>
+      <c r="AU330">
+        <v>0</v>
+      </c>
+      <c r="AV330">
+        <v>11</v>
+      </c>
+      <c r="AW330">
+        <v>6</v>
+      </c>
+      <c r="AX330">
+        <v>18</v>
+      </c>
+      <c r="AY330">
+        <v>6</v>
+      </c>
+      <c r="AZ330">
+        <v>36</v>
+      </c>
+      <c r="BA330">
+        <v>1</v>
+      </c>
+      <c r="BB330">
+        <v>13</v>
+      </c>
+      <c r="BC330">
+        <v>14</v>
+      </c>
+      <c r="BD330">
+        <v>4.8</v>
+      </c>
+      <c r="BE330">
+        <v>8.5</v>
+      </c>
+      <c r="BF330">
+        <v>1.21</v>
+      </c>
+      <c r="BG330">
+        <v>1.19</v>
+      </c>
+      <c r="BH330">
+        <v>4.1</v>
+      </c>
+      <c r="BI330">
+        <v>1.33</v>
+      </c>
+      <c r="BJ330">
+        <v>2.95</v>
+      </c>
+      <c r="BK330">
+        <v>1.55</v>
+      </c>
+      <c r="BL330">
+        <v>2.28</v>
+      </c>
+      <c r="BM330">
+        <v>1.85</v>
+      </c>
+      <c r="BN330">
+        <v>1.83</v>
+      </c>
+      <c r="BO330">
+        <v>2.3</v>
+      </c>
+      <c r="BP330">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="463">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1401,6 +1401,9 @@
   <si>
     <t>['14', '28', '69', '88']</t>
   </si>
+  <si>
+    <t>['5', '16']</t>
+  </si>
 </sst>
 </file>
 
@@ -1761,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP330"/>
+  <dimension ref="A1:BP331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4364,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13">
         <v>1.13</v>
@@ -4985,7 +4988,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ16">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -9105,7 +9108,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ36">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR36">
         <v>1.93</v>
@@ -9926,7 +9929,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ40">
         <v>1.82</v>
@@ -11368,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ47">
         <v>1.13</v>
@@ -11989,7 +11992,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ50">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -15903,7 +15906,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR69">
         <v>1.45</v>
@@ -16518,7 +16521,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ72">
         <v>1.06</v>
@@ -18581,7 +18584,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ82">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR82">
         <v>1.04</v>
@@ -22080,7 +22083,7 @@
         <v>2.5</v>
       </c>
       <c r="AP99">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ99">
         <v>1.44</v>
@@ -24346,7 +24349,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ110">
         <v>0.88</v>
@@ -25379,7 +25382,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ115">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR115">
         <v>2.22</v>
@@ -28466,7 +28469,7 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ130">
         <v>1.38</v>
@@ -29705,7 +29708,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ136">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR136">
         <v>2.3</v>
@@ -31559,7 +31562,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ145">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR145">
         <v>1.4</v>
@@ -32380,7 +32383,7 @@
         <v>2.29</v>
       </c>
       <c r="AP149">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ149">
         <v>1.47</v>
@@ -35061,7 +35064,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ162">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR162">
         <v>1.71</v>
@@ -36706,7 +36709,7 @@
         <v>2.43</v>
       </c>
       <c r="AP170">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ170">
         <v>2.24</v>
@@ -39178,7 +39181,7 @@
         <v>0.89</v>
       </c>
       <c r="AP182">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ182">
         <v>1.24</v>
@@ -39799,7 +39802,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ185">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR185">
         <v>1.32</v>
@@ -41032,7 +41035,7 @@
         <v>1.5</v>
       </c>
       <c r="AP191">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ191">
         <v>1.59</v>
@@ -42889,7 +42892,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ200">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR200">
         <v>1.18</v>
@@ -47215,7 +47218,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ221">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR221">
         <v>1.77</v>
@@ -48654,7 +48657,7 @@
         <v>0.5</v>
       </c>
       <c r="AP228">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ228">
         <v>0.5600000000000001</v>
@@ -52571,7 +52574,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ247">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR247">
         <v>1.54</v>
@@ -53392,7 +53395,7 @@
         <v>1.18</v>
       </c>
       <c r="AP251">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ251">
         <v>1.06</v>
@@ -55455,7 +55458,7 @@
         <v>2</v>
       </c>
       <c r="AQ261">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR261">
         <v>1.6</v>
@@ -56688,7 +56691,7 @@
         <v>1.38</v>
       </c>
       <c r="AP267">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ267">
         <v>1.47</v>
@@ -59366,7 +59369,7 @@
         <v>1.57</v>
       </c>
       <c r="AP280">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ280">
         <v>1.47</v>
@@ -60399,7 +60402,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ285">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR285">
         <v>1.24</v>
@@ -64519,7 +64522,7 @@
         <v>2</v>
       </c>
       <c r="AQ305">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR305">
         <v>1.6</v>
@@ -64722,7 +64725,7 @@
         <v>0.33</v>
       </c>
       <c r="AP306">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ306">
         <v>0.35</v>
@@ -69745,6 +69748,212 @@
       </c>
       <c r="BP330">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="331" spans="1:68">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>7467007</v>
+      </c>
+      <c r="C331" t="s">
+        <v>68</v>
+      </c>
+      <c r="D331" t="s">
+        <v>69</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45768.66666666666</v>
+      </c>
+      <c r="F331">
+        <v>33</v>
+      </c>
+      <c r="G331" t="s">
+        <v>81</v>
+      </c>
+      <c r="H331" t="s">
+        <v>75</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>2</v>
+      </c>
+      <c r="K331">
+        <v>2</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>2</v>
+      </c>
+      <c r="N331">
+        <v>3</v>
+      </c>
+      <c r="O331" t="s">
+        <v>90</v>
+      </c>
+      <c r="P331" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q331">
+        <v>3</v>
+      </c>
+      <c r="R331">
+        <v>2.38</v>
+      </c>
+      <c r="S331">
+        <v>3.1</v>
+      </c>
+      <c r="T331">
+        <v>1.3</v>
+      </c>
+      <c r="U331">
+        <v>3.4</v>
+      </c>
+      <c r="V331">
+        <v>2.38</v>
+      </c>
+      <c r="W331">
+        <v>1.53</v>
+      </c>
+      <c r="X331">
+        <v>6</v>
+      </c>
+      <c r="Y331">
+        <v>1.13</v>
+      </c>
+      <c r="Z331">
+        <v>2.05</v>
+      </c>
+      <c r="AA331">
+        <v>3.7</v>
+      </c>
+      <c r="AB331">
+        <v>3.4</v>
+      </c>
+      <c r="AC331">
+        <v>1.04</v>
+      </c>
+      <c r="AD331">
+        <v>10</v>
+      </c>
+      <c r="AE331">
+        <v>1.2</v>
+      </c>
+      <c r="AF331">
+        <v>4.5</v>
+      </c>
+      <c r="AG331">
+        <v>1.6</v>
+      </c>
+      <c r="AH331">
+        <v>2.2</v>
+      </c>
+      <c r="AI331">
+        <v>1.5</v>
+      </c>
+      <c r="AJ331">
+        <v>2.5</v>
+      </c>
+      <c r="AK331">
+        <v>1.45</v>
+      </c>
+      <c r="AL331">
+        <v>1.22</v>
+      </c>
+      <c r="AM331">
+        <v>1.53</v>
+      </c>
+      <c r="AN331">
+        <v>1.31</v>
+      </c>
+      <c r="AO331">
+        <v>1.63</v>
+      </c>
+      <c r="AP331">
+        <v>1.24</v>
+      </c>
+      <c r="AQ331">
+        <v>1.71</v>
+      </c>
+      <c r="AR331">
+        <v>1.74</v>
+      </c>
+      <c r="AS331">
+        <v>1.4</v>
+      </c>
+      <c r="AT331">
+        <v>3.14</v>
+      </c>
+      <c r="AU331">
+        <v>7</v>
+      </c>
+      <c r="AV331">
+        <v>4</v>
+      </c>
+      <c r="AW331">
+        <v>16</v>
+      </c>
+      <c r="AX331">
+        <v>1</v>
+      </c>
+      <c r="AY331">
+        <v>28</v>
+      </c>
+      <c r="AZ331">
+        <v>5</v>
+      </c>
+      <c r="BA331">
+        <v>7</v>
+      </c>
+      <c r="BB331">
+        <v>1</v>
+      </c>
+      <c r="BC331">
+        <v>8</v>
+      </c>
+      <c r="BD331">
+        <v>1.57</v>
+      </c>
+      <c r="BE331">
+        <v>9</v>
+      </c>
+      <c r="BF331">
+        <v>2.62</v>
+      </c>
+      <c r="BG331">
+        <v>1.08</v>
+      </c>
+      <c r="BH331">
+        <v>5.45</v>
+      </c>
+      <c r="BI331">
+        <v>1.21</v>
+      </c>
+      <c r="BJ331">
+        <v>3.58</v>
+      </c>
+      <c r="BK331">
+        <v>1.4</v>
+      </c>
+      <c r="BL331">
+        <v>2.64</v>
+      </c>
+      <c r="BM331">
+        <v>1.7</v>
+      </c>
+      <c r="BN331">
+        <v>2.03</v>
+      </c>
+      <c r="BO331">
+        <v>2.11</v>
+      </c>
+      <c r="BP331">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="464">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -913,6 +913,9 @@
     <t>['1', '64', '73', '75']</t>
   </si>
   <si>
+    <t>['7', '90+4']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1764,7 +1767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP331"/>
+  <dimension ref="A1:BP332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2229,7 +2232,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2641,7 +2644,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3053,7 +3056,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3259,7 +3262,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3340,7 +3343,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ8">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3671,7 +3674,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -5191,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -5319,7 +5322,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5525,7 +5528,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -6349,7 +6352,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6430,7 +6433,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ23">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR23">
         <v>0.86</v>
@@ -6555,7 +6558,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -7173,7 +7176,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7379,7 +7382,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7585,7 +7588,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7997,7 +8000,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8203,7 +8206,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8615,7 +8618,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9311,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -9439,7 +9442,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9645,7 +9648,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9851,7 +9854,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10057,7 +10060,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10263,7 +10266,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10469,7 +10472,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -12117,7 +12120,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12195,7 +12198,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ51">
         <v>1.82</v>
@@ -12323,7 +12326,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12529,7 +12532,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12941,7 +12944,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13353,7 +13356,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13559,7 +13562,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13765,7 +13768,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13846,7 +13849,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ59">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -13971,7 +13974,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14177,7 +14180,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14383,7 +14386,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14795,7 +14798,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14873,7 +14876,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ64">
         <v>1.38</v>
@@ -15001,7 +15004,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15207,7 +15210,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -16237,7 +16240,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16649,7 +16652,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16730,7 +16733,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ73">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR73">
         <v>2.01</v>
@@ -16855,7 +16858,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17061,7 +17064,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -17267,7 +17270,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17473,7 +17476,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17885,7 +17888,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18091,7 +18094,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18503,7 +18506,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18787,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ83">
         <v>0.35</v>
@@ -18915,7 +18918,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19121,7 +19124,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19327,7 +19330,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19739,7 +19742,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -20151,7 +20154,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20357,7 +20360,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -21799,7 +21802,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -22005,7 +22008,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22086,7 +22089,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ99">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR99">
         <v>1.99</v>
@@ -22211,7 +22214,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22623,7 +22626,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22829,7 +22832,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23734,7 +23737,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR107">
         <v>1.75</v>
@@ -24065,7 +24068,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24271,7 +24274,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24683,7 +24686,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24889,7 +24892,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25507,7 +25510,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25713,7 +25716,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25919,7 +25922,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25997,7 +26000,7 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -26125,7 +26128,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26331,7 +26334,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26537,7 +26540,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26743,7 +26746,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26949,7 +26952,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27567,7 +27570,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27773,7 +27776,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -28266,7 +28269,7 @@
         <v>2</v>
       </c>
       <c r="AQ129">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR129">
         <v>1.64</v>
@@ -28803,7 +28806,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29215,7 +29218,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29421,7 +29424,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29705,7 +29708,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ136">
         <v>1.71</v>
@@ -30863,7 +30866,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31069,7 +31072,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31481,7 +31484,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31687,7 +31690,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31893,7 +31896,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32099,7 +32102,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32305,7 +32308,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32717,7 +32720,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33335,7 +33338,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33541,7 +33544,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33622,7 +33625,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ155">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR155">
         <v>1.52</v>
@@ -33747,7 +33750,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33953,7 +33956,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34031,7 +34034,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ157">
         <v>1.06</v>
@@ -34159,7 +34162,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34983,7 +34986,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35189,7 +35192,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35395,7 +35398,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35601,7 +35604,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -36013,7 +36016,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36219,7 +36222,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36631,7 +36634,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36915,7 +36918,7 @@
         <v>0.75</v>
       </c>
       <c r="AP171">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ171">
         <v>1.13</v>
@@ -37043,7 +37046,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37536,7 +37539,7 @@
         <v>2</v>
       </c>
       <c r="AQ174">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR174">
         <v>1.48</v>
@@ -37661,7 +37664,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -38279,7 +38282,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38897,7 +38900,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39103,7 +39106,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39515,7 +39518,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39721,7 +39724,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39927,7 +39930,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40339,7 +40342,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40545,7 +40548,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40751,7 +40754,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40957,7 +40960,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41369,7 +41372,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41781,7 +41784,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -41987,7 +41990,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42065,7 +42068,7 @@
         <v>1.33</v>
       </c>
       <c r="AP196">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ196">
         <v>1.06</v>
@@ -42399,7 +42402,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42605,7 +42608,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42811,7 +42814,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43017,7 +43020,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43223,7 +43226,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43429,7 +43432,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43635,7 +43638,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43841,7 +43844,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44253,7 +44256,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44334,7 +44337,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ207">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR207">
         <v>1.34</v>
@@ -44665,7 +44668,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45077,7 +45080,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45283,7 +45286,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45489,7 +45492,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45695,7 +45698,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45901,7 +45904,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -45982,7 +45985,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ215">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR215">
         <v>1.97</v>
@@ -46107,7 +46110,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46313,7 +46316,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46519,7 +46522,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46725,7 +46728,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -46931,7 +46934,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47343,7 +47346,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47755,7 +47758,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -47961,7 +47964,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48167,7 +48170,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48245,7 +48248,7 @@
         <v>1.91</v>
       </c>
       <c r="AP226">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ226">
         <v>1.47</v>
@@ -48373,7 +48376,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48579,7 +48582,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -48991,7 +48994,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49403,7 +49406,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49815,7 +49818,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50021,7 +50024,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50308,7 +50311,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ236">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR236">
         <v>1.21</v>
@@ -50433,7 +50436,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50639,7 +50642,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -51051,7 +51054,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51257,7 +51260,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51669,7 +51672,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51875,7 +51878,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -52159,7 +52162,7 @@
         <v>1.75</v>
       </c>
       <c r="AP245">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ245">
         <v>1.59</v>
@@ -52905,7 +52908,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53523,7 +53526,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53729,7 +53732,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53935,7 +53938,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54141,7 +54144,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54347,7 +54350,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54553,7 +54556,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -54965,7 +54968,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55171,7 +55174,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55377,7 +55380,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55583,7 +55586,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55661,7 +55664,7 @@
         <v>2.29</v>
       </c>
       <c r="AP262">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ262">
         <v>2.24</v>
@@ -55789,7 +55792,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -55870,7 +55873,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ263">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR263">
         <v>1.48</v>
@@ -55995,7 +55998,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56819,7 +56822,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -58055,7 +58058,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58261,7 +58264,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q275">
         <v>2.5</v>
@@ -58754,7 +58757,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ277">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR277">
         <v>1.64</v>
@@ -59291,7 +59294,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59497,7 +59500,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59703,7 +59706,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59909,7 +59912,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60321,7 +60324,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60527,7 +60530,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60605,7 +60608,7 @@
         <v>1.57</v>
       </c>
       <c r="AP286">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ286">
         <v>1.35</v>
@@ -60733,7 +60736,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61351,7 +61354,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -62175,7 +62178,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62459,7 +62462,7 @@
         <v>0.57</v>
       </c>
       <c r="AP295">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ295">
         <v>0.5600000000000001</v>
@@ -62587,7 +62590,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62793,7 +62796,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -62874,7 +62877,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ297">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR297">
         <v>1.58</v>
@@ -62999,7 +63002,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63617,7 +63620,7 @@
         <v>180</v>
       </c>
       <c r="P301" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q301">
         <v>6</v>
@@ -63823,7 +63826,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64235,7 +64238,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64853,7 +64856,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65471,7 +65474,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65677,7 +65680,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65755,7 +65758,7 @@
         <v>1.64</v>
       </c>
       <c r="AP311">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AQ311">
         <v>1.44</v>
@@ -65883,7 +65886,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66089,7 +66092,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66170,7 +66173,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ313">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AR313">
         <v>1.18</v>
@@ -66501,7 +66504,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66707,7 +66710,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66913,7 +66916,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67119,7 +67122,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67943,7 +67946,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68355,7 +68358,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -68973,7 +68976,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69179,7 +69182,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69797,7 +69800,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -69954,6 +69957,212 @@
       </c>
       <c r="BP331">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="332" spans="1:68">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>7467014</v>
+      </c>
+      <c r="C332" t="s">
+        <v>68</v>
+      </c>
+      <c r="D332" t="s">
+        <v>69</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45769.66666666666</v>
+      </c>
+      <c r="F332">
+        <v>34</v>
+      </c>
+      <c r="G332" t="s">
+        <v>85</v>
+      </c>
+      <c r="H332" t="s">
+        <v>86</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+      <c r="K332">
+        <v>2</v>
+      </c>
+      <c r="L332">
+        <v>2</v>
+      </c>
+      <c r="M332">
+        <v>1</v>
+      </c>
+      <c r="N332">
+        <v>3</v>
+      </c>
+      <c r="O332" t="s">
+        <v>299</v>
+      </c>
+      <c r="P332" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q332">
+        <v>2.25</v>
+      </c>
+      <c r="R332">
+        <v>2.5</v>
+      </c>
+      <c r="S332">
+        <v>4.33</v>
+      </c>
+      <c r="T332">
+        <v>1.25</v>
+      </c>
+      <c r="U332">
+        <v>3.75</v>
+      </c>
+      <c r="V332">
+        <v>2.2</v>
+      </c>
+      <c r="W332">
+        <v>1.62</v>
+      </c>
+      <c r="X332">
+        <v>5</v>
+      </c>
+      <c r="Y332">
+        <v>1.17</v>
+      </c>
+      <c r="Z332">
+        <v>1.74</v>
+      </c>
+      <c r="AA332">
+        <v>4</v>
+      </c>
+      <c r="AB332">
+        <v>4.4</v>
+      </c>
+      <c r="AC332">
+        <v>1.01</v>
+      </c>
+      <c r="AD332">
+        <v>13</v>
+      </c>
+      <c r="AE332">
+        <v>1.17</v>
+      </c>
+      <c r="AF332">
+        <v>5</v>
+      </c>
+      <c r="AG332">
+        <v>1.55</v>
+      </c>
+      <c r="AH332">
+        <v>2.3</v>
+      </c>
+      <c r="AI332">
+        <v>1.5</v>
+      </c>
+      <c r="AJ332">
+        <v>2.5</v>
+      </c>
+      <c r="AK332">
+        <v>1.28</v>
+      </c>
+      <c r="AL332">
+        <v>1.2</v>
+      </c>
+      <c r="AM332">
+        <v>1.9</v>
+      </c>
+      <c r="AN332">
+        <v>2.06</v>
+      </c>
+      <c r="AO332">
+        <v>1.44</v>
+      </c>
+      <c r="AP332">
+        <v>2.12</v>
+      </c>
+      <c r="AQ332">
+        <v>1.35</v>
+      </c>
+      <c r="AR332">
+        <v>1.96</v>
+      </c>
+      <c r="AS332">
+        <v>1.28</v>
+      </c>
+      <c r="AT332">
+        <v>3.24</v>
+      </c>
+      <c r="AU332">
+        <v>7</v>
+      </c>
+      <c r="AV332">
+        <v>4</v>
+      </c>
+      <c r="AW332">
+        <v>8</v>
+      </c>
+      <c r="AX332">
+        <v>4</v>
+      </c>
+      <c r="AY332">
+        <v>16</v>
+      </c>
+      <c r="AZ332">
+        <v>10</v>
+      </c>
+      <c r="BA332">
+        <v>10</v>
+      </c>
+      <c r="BB332">
+        <v>2</v>
+      </c>
+      <c r="BC332">
+        <v>12</v>
+      </c>
+      <c r="BD332">
+        <v>1.5</v>
+      </c>
+      <c r="BE332">
+        <v>7</v>
+      </c>
+      <c r="BF332">
+        <v>2.85</v>
+      </c>
+      <c r="BG332">
+        <v>1.21</v>
+      </c>
+      <c r="BH332">
+        <v>3.8</v>
+      </c>
+      <c r="BI332">
+        <v>1.37</v>
+      </c>
+      <c r="BJ332">
+        <v>2.8</v>
+      </c>
+      <c r="BK332">
+        <v>1.61</v>
+      </c>
+      <c r="BL332">
+        <v>2.15</v>
+      </c>
+      <c r="BM332">
+        <v>1.96</v>
+      </c>
+      <c r="BN332">
+        <v>1.73</v>
+      </c>
+      <c r="BO332">
+        <v>2.48</v>
+      </c>
+      <c r="BP332">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="466">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -916,6 +916,9 @@
     <t>['7', '90+4']</t>
   </si>
   <si>
+    <t>['3', '42']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1407,6 +1410,9 @@
   <si>
     <t>['5', '16']</t>
   </si>
+  <si>
+    <t>['27', '83']</t>
+  </si>
 </sst>
 </file>
 
@@ -1767,7 +1773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP332"/>
+  <dimension ref="A1:BP333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2232,7 +2238,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2516,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ4">
         <v>1.24</v>
@@ -2644,7 +2650,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3056,7 +3062,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3262,7 +3268,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3549,7 +3555,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ9">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3674,7 +3680,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -5322,7 +5328,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5528,7 +5534,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -6224,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ22">
         <v>1.35</v>
@@ -6352,7 +6358,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6558,7 +6564,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -7176,7 +7182,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7382,7 +7388,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7588,7 +7594,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7669,7 +7675,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -8000,7 +8006,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8206,7 +8212,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8618,7 +8624,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9442,7 +9448,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9648,7 +9654,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9854,7 +9860,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10060,7 +10066,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10266,7 +10272,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10472,7 +10478,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -12120,7 +12126,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12326,7 +12332,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12532,7 +12538,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12819,7 +12825,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ54">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12944,7 +12950,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13022,7 +13028,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ55">
         <v>0.5600000000000001</v>
@@ -13356,7 +13362,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13562,7 +13568,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13768,7 +13774,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13974,7 +13980,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14180,7 +14186,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14386,7 +14392,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14798,7 +14804,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -15004,7 +15010,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15210,7 +15216,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -15494,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ67">
         <v>0.35</v>
@@ -16240,7 +16246,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16652,7 +16658,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16858,7 +16864,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17064,7 +17070,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -17270,7 +17276,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17476,7 +17482,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17888,7 +17894,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18094,7 +18100,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18381,7 +18387,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ81">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18506,7 +18512,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18918,7 +18924,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19124,7 +19130,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19330,7 +19336,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19742,7 +19748,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -20154,7 +20160,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20360,7 +20366,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20438,7 +20444,7 @@
         <v>3</v>
       </c>
       <c r="AP91">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ91">
         <v>2.24</v>
@@ -21802,7 +21808,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21883,7 +21889,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ98">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -22008,7 +22014,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22214,7 +22220,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22626,7 +22632,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22832,7 +22838,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -24068,7 +24074,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24274,7 +24280,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24686,7 +24692,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24892,7 +24898,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25382,7 +25388,7 @@
         <v>2.2</v>
       </c>
       <c r="AP115">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ115">
         <v>1.71</v>
@@ -25510,7 +25516,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25716,7 +25722,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25797,7 +25803,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -25922,7 +25928,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26128,7 +26134,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26334,7 +26340,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26540,7 +26546,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26746,7 +26752,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26952,7 +26958,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27570,7 +27576,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27776,7 +27782,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -28806,7 +28812,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28887,7 +28893,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ132">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR132">
         <v>1.18</v>
@@ -29218,7 +29224,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29424,7 +29430,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -30326,7 +30332,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ139">
         <v>1.06</v>
@@ -30866,7 +30872,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31072,7 +31078,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31484,7 +31490,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31690,7 +31696,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31896,7 +31902,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32102,7 +32108,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32308,7 +32314,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32720,7 +32726,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33004,7 +33010,7 @@
         <v>0.71</v>
       </c>
       <c r="AP152">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ152">
         <v>1.13</v>
@@ -33338,7 +33344,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33544,7 +33550,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33750,7 +33756,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33831,7 +33837,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ156">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR156">
         <v>1.53</v>
@@ -33956,7 +33962,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34162,7 +34168,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34986,7 +34992,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35192,7 +35198,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35398,7 +35404,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35604,7 +35610,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -36016,7 +36022,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36222,7 +36228,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36634,7 +36640,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37046,7 +37052,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37664,7 +37670,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -37951,7 +37957,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ176">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR176">
         <v>1.74</v>
@@ -38282,7 +38288,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38772,7 +38778,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ180">
         <v>0.88</v>
@@ -38900,7 +38906,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39106,7 +39112,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39518,7 +39524,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39724,7 +39730,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39930,7 +39936,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40342,7 +40348,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40548,7 +40554,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40754,7 +40760,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40960,7 +40966,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41372,7 +41378,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41784,7 +41790,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -41990,7 +41996,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42402,7 +42408,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42608,7 +42614,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42814,7 +42820,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43020,7 +43026,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43226,7 +43232,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43432,7 +43438,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43638,7 +43644,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43844,7 +43850,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -43925,7 +43931,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ205">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR205">
         <v>1.11</v>
@@ -44256,7 +44262,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44540,7 +44546,7 @@
         <v>1.11</v>
       </c>
       <c r="AP208">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ208">
         <v>1</v>
@@ -44668,7 +44674,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45080,7 +45086,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45286,7 +45292,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45367,7 +45373,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ212">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR212">
         <v>1.29</v>
@@ -45492,7 +45498,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45698,7 +45704,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45904,7 +45910,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -45982,7 +45988,7 @@
         <v>1.3</v>
       </c>
       <c r="AP215">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ215">
         <v>1.35</v>
@@ -46110,7 +46116,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46316,7 +46322,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46522,7 +46528,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46728,7 +46734,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -46934,7 +46940,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47346,7 +47352,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47758,7 +47764,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -47964,7 +47970,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48170,7 +48176,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48376,7 +48382,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48582,7 +48588,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -48994,7 +49000,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49406,7 +49412,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49818,7 +49824,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50024,7 +50030,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50436,7 +50442,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50642,7 +50648,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50723,7 +50729,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ238">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR238">
         <v>1.51</v>
@@ -50926,7 +50932,7 @@
         <v>1.5</v>
       </c>
       <c r="AP239">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ239">
         <v>1.47</v>
@@ -51054,7 +51060,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51260,7 +51266,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51672,7 +51678,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51878,7 +51884,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -52908,7 +52914,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53526,7 +53532,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53732,7 +53738,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53938,7 +53944,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54144,7 +54150,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54350,7 +54356,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54556,7 +54562,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -54634,7 +54640,7 @@
         <v>1.08</v>
       </c>
       <c r="AP257">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ257">
         <v>1.06</v>
@@ -54968,7 +54974,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55049,7 +55055,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ259">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR259">
         <v>1.64</v>
@@ -55174,7 +55180,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55380,7 +55386,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55586,7 +55592,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55792,7 +55798,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -55998,7 +56004,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56822,7 +56828,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -58058,7 +58064,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58264,7 +58270,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q275">
         <v>2.5</v>
@@ -59294,7 +59300,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59500,7 +59506,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59706,7 +59712,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59912,7 +59918,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60324,7 +60330,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60530,7 +60536,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60736,7 +60742,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61226,7 +61232,7 @@
         <v>1.5</v>
       </c>
       <c r="AP289">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ289">
         <v>1.47</v>
@@ -61354,7 +61360,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -61638,7 +61644,7 @@
         <v>1.57</v>
       </c>
       <c r="AP291">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ291">
         <v>1.38</v>
@@ -62178,7 +62184,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62259,7 +62265,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ294">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR294">
         <v>1.19</v>
@@ -62590,7 +62596,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62796,7 +62802,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -63002,7 +63008,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63620,7 +63626,7 @@
         <v>180</v>
       </c>
       <c r="P301" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q301">
         <v>6</v>
@@ -63826,7 +63832,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64238,7 +64244,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64856,7 +64862,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65474,7 +65480,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65680,7 +65686,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65761,7 +65767,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ311">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR311">
         <v>1.95</v>
@@ -65886,7 +65892,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66092,7 +66098,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66504,7 +66510,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66582,7 +66588,7 @@
         <v>1.13</v>
       </c>
       <c r="AP315">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AQ315">
         <v>1.13</v>
@@ -66710,7 +66716,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66916,7 +66922,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67122,7 +67128,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67821,7 +67827,7 @@
         <v>2</v>
       </c>
       <c r="AQ321">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR321">
         <v>1.65</v>
@@ -67946,7 +67952,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68358,7 +68364,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -68976,7 +68982,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69182,7 +69188,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69800,7 +69806,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -70163,6 +70169,212 @@
       </c>
       <c r="BP332">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="333" spans="1:68">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>7467010</v>
+      </c>
+      <c r="C333" t="s">
+        <v>68</v>
+      </c>
+      <c r="D333" t="s">
+        <v>69</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45770.66666666666</v>
+      </c>
+      <c r="F333">
+        <v>34</v>
+      </c>
+      <c r="G333" t="s">
+        <v>72</v>
+      </c>
+      <c r="H333" t="s">
+        <v>82</v>
+      </c>
+      <c r="I333">
+        <v>2</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333">
+        <v>3</v>
+      </c>
+      <c r="L333">
+        <v>2</v>
+      </c>
+      <c r="M333">
+        <v>2</v>
+      </c>
+      <c r="N333">
+        <v>4</v>
+      </c>
+      <c r="O333" t="s">
+        <v>300</v>
+      </c>
+      <c r="P333" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q333">
+        <v>2</v>
+      </c>
+      <c r="R333">
+        <v>2.3</v>
+      </c>
+      <c r="S333">
+        <v>6.5</v>
+      </c>
+      <c r="T333">
+        <v>1.36</v>
+      </c>
+      <c r="U333">
+        <v>3</v>
+      </c>
+      <c r="V333">
+        <v>2.75</v>
+      </c>
+      <c r="W333">
+        <v>1.4</v>
+      </c>
+      <c r="X333">
+        <v>7</v>
+      </c>
+      <c r="Y333">
+        <v>1.1</v>
+      </c>
+      <c r="Z333">
+        <v>1.56</v>
+      </c>
+      <c r="AA333">
+        <v>4.1</v>
+      </c>
+      <c r="AB333">
+        <v>5.8</v>
+      </c>
+      <c r="AC333">
+        <v>1.04</v>
+      </c>
+      <c r="AD333">
+        <v>10</v>
+      </c>
+      <c r="AE333">
+        <v>1.25</v>
+      </c>
+      <c r="AF333">
+        <v>3.75</v>
+      </c>
+      <c r="AG333">
+        <v>1.7</v>
+      </c>
+      <c r="AH333">
+        <v>2.05</v>
+      </c>
+      <c r="AI333">
+        <v>2</v>
+      </c>
+      <c r="AJ333">
+        <v>1.75</v>
+      </c>
+      <c r="AK333">
+        <v>1.11</v>
+      </c>
+      <c r="AL333">
+        <v>1.17</v>
+      </c>
+      <c r="AM333">
+        <v>2.55</v>
+      </c>
+      <c r="AN333">
+        <v>2.19</v>
+      </c>
+      <c r="AO333">
+        <v>1.44</v>
+      </c>
+      <c r="AP333">
+        <v>2.12</v>
+      </c>
+      <c r="AQ333">
+        <v>1.41</v>
+      </c>
+      <c r="AR333">
+        <v>1.94</v>
+      </c>
+      <c r="AS333">
+        <v>1.35</v>
+      </c>
+      <c r="AT333">
+        <v>3.29</v>
+      </c>
+      <c r="AU333">
+        <v>7</v>
+      </c>
+      <c r="AV333">
+        <v>5</v>
+      </c>
+      <c r="AW333">
+        <v>6</v>
+      </c>
+      <c r="AX333">
+        <v>11</v>
+      </c>
+      <c r="AY333">
+        <v>16</v>
+      </c>
+      <c r="AZ333">
+        <v>20</v>
+      </c>
+      <c r="BA333">
+        <v>3</v>
+      </c>
+      <c r="BB333">
+        <v>6</v>
+      </c>
+      <c r="BC333">
+        <v>9</v>
+      </c>
+      <c r="BD333">
+        <v>1.19</v>
+      </c>
+      <c r="BE333">
+        <v>9</v>
+      </c>
+      <c r="BF333">
+        <v>4.9</v>
+      </c>
+      <c r="BG333">
+        <v>1.2</v>
+      </c>
+      <c r="BH333">
+        <v>3.95</v>
+      </c>
+      <c r="BI333">
+        <v>1.34</v>
+      </c>
+      <c r="BJ333">
+        <v>2.9</v>
+      </c>
+      <c r="BK333">
+        <v>1.57</v>
+      </c>
+      <c r="BL333">
+        <v>2.23</v>
+      </c>
+      <c r="BM333">
+        <v>1.91</v>
+      </c>
+      <c r="BN333">
+        <v>1.77</v>
+      </c>
+      <c r="BO333">
+        <v>2.4</v>
+      </c>
+      <c r="BP333">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="467">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -919,6 +919,9 @@
     <t>['3', '42']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1773,7 +1776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP333"/>
+  <dimension ref="A1:BP334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2238,7 +2241,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2650,7 +2653,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3062,7 +3065,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3268,7 +3271,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3680,7 +3683,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3758,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ10">
         <v>1.47</v>
@@ -4379,7 +4382,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ13">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -5328,7 +5331,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5534,7 +5537,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -6358,7 +6361,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6564,7 +6567,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -7182,7 +7185,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7388,7 +7391,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7594,7 +7597,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7672,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ29">
         <v>1.41</v>
@@ -8006,7 +8009,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8212,7 +8215,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8624,7 +8627,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9448,7 +9451,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9529,7 +9532,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9654,7 +9657,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9860,7 +9863,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10066,7 +10069,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10272,7 +10275,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10478,7 +10481,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10765,7 +10768,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ44">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR44">
         <v>1</v>
@@ -12126,7 +12129,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12332,7 +12335,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12538,7 +12541,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12950,7 +12953,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13362,7 +13365,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13440,7 +13443,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ57">
         <v>1.35</v>
@@ -13568,7 +13571,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13774,7 +13777,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13980,7 +13983,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14186,7 +14189,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14392,7 +14395,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14804,7 +14807,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -15010,7 +15013,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15216,7 +15219,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -15912,7 +15915,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ69">
         <v>1.71</v>
@@ -16246,7 +16249,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16658,7 +16661,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16864,7 +16867,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17070,7 +17073,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -17276,7 +17279,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17482,7 +17485,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17563,7 +17566,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -17894,7 +17897,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18100,7 +18103,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18512,7 +18515,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18924,7 +18927,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19130,7 +19133,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19336,7 +19339,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19748,7 +19751,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19826,7 +19829,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ88">
         <v>1.59</v>
@@ -20160,7 +20163,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20366,7 +20369,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20859,7 +20862,7 @@
         <v>0.31</v>
       </c>
       <c r="AQ93">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR93">
         <v>1.09</v>
@@ -21808,7 +21811,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -22014,7 +22017,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22220,7 +22223,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22632,7 +22635,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22838,7 +22841,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23125,7 +23128,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ104">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -24074,7 +24077,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24280,7 +24283,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24564,7 +24567,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ111">
         <v>1.82</v>
@@ -24692,7 +24695,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24898,7 +24901,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25516,7 +25519,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25722,7 +25725,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25928,7 +25931,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26134,7 +26137,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26340,7 +26343,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26546,7 +26549,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26752,7 +26755,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26958,7 +26961,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27576,7 +27579,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27782,7 +27785,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -28069,7 +28072,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ128">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR128">
         <v>1.43</v>
@@ -28272,7 +28275,7 @@
         <v>1.67</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ129">
         <v>1.35</v>
@@ -28812,7 +28815,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29224,7 +29227,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29430,7 +29433,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -30872,7 +30875,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31078,7 +31081,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31490,7 +31493,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31696,7 +31699,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31902,7 +31905,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32108,7 +32111,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32314,7 +32317,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32726,7 +32729,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33013,7 +33016,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ152">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR152">
         <v>2.08</v>
@@ -33344,7 +33347,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33550,7 +33553,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33756,7 +33759,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33962,7 +33965,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34168,7 +34171,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34452,7 +34455,7 @@
         <v>0.14</v>
       </c>
       <c r="AP159">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ159">
         <v>1.13</v>
@@ -34992,7 +34995,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35198,7 +35201,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35404,7 +35407,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35610,7 +35613,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -36022,7 +36025,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36228,7 +36231,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36640,7 +36643,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36927,7 +36930,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ171">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR171">
         <v>2.11</v>
@@ -37052,7 +37055,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37670,7 +37673,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -37748,7 +37751,7 @@
         <v>1.25</v>
       </c>
       <c r="AP175">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ175">
         <v>1.38</v>
@@ -38288,7 +38291,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38906,7 +38909,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39112,7 +39115,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39524,7 +39527,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39730,7 +39733,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39936,7 +39939,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40348,7 +40351,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40554,7 +40557,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40760,7 +40763,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40966,7 +40969,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41253,7 +41256,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ192">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR192">
         <v>1.73</v>
@@ -41378,7 +41381,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41790,7 +41793,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -41996,7 +41999,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42408,7 +42411,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42614,7 +42617,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42820,7 +42823,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43026,7 +43029,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43104,7 +43107,7 @@
         <v>1.5</v>
       </c>
       <c r="AP201">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ201">
         <v>1.47</v>
@@ -43232,7 +43235,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43438,7 +43441,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43644,7 +43647,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43850,7 +43853,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44262,7 +44265,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44674,7 +44677,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45086,7 +45089,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45292,7 +45295,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45498,7 +45501,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45704,7 +45707,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45910,7 +45913,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46116,7 +46119,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46322,7 +46325,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46528,7 +46531,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46734,7 +46737,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -46940,7 +46943,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47018,7 +47021,7 @@
         <v>0.82</v>
       </c>
       <c r="AP220">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ220">
         <v>1.24</v>
@@ -47352,7 +47355,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47433,7 +47436,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ222">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR222">
         <v>1.58</v>
@@ -47764,7 +47767,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -47970,7 +47973,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48176,7 +48179,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48382,7 +48385,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48588,7 +48591,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -49000,7 +49003,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49412,7 +49415,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49824,7 +49827,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50030,7 +50033,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50442,7 +50445,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50648,7 +50651,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -51060,7 +51063,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51138,7 +51141,7 @@
         <v>1.18</v>
       </c>
       <c r="AP240">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ240">
         <v>1.06</v>
@@ -51266,7 +51269,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51678,7 +51681,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51884,7 +51887,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -52914,7 +52917,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -52995,7 +52998,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ249">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR249">
         <v>1.43</v>
@@ -53532,7 +53535,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53738,7 +53741,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53944,7 +53947,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54150,7 +54153,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54356,7 +54359,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54562,7 +54565,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -54974,7 +54977,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55180,7 +55183,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55386,7 +55389,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55592,7 +55595,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55798,7 +55801,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -56004,7 +56007,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56494,7 +56497,7 @@
         <v>0.38</v>
       </c>
       <c r="AP266">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ266">
         <v>0.35</v>
@@ -56828,7 +56831,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -57115,7 +57118,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ269">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR269">
         <v>1.65</v>
@@ -58064,7 +58067,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58270,7 +58273,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q275">
         <v>2.5</v>
@@ -58969,7 +58972,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ278">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR278">
         <v>1.27</v>
@@ -59172,7 +59175,7 @@
         <v>0.62</v>
       </c>
       <c r="AP279">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ279">
         <v>0.5600000000000001</v>
@@ -59300,7 +59303,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59506,7 +59509,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59712,7 +59715,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59918,7 +59921,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60330,7 +60333,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60536,7 +60539,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60742,7 +60745,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61360,7 +61363,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -62184,7 +62187,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62596,7 +62599,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62802,7 +62805,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -63008,7 +63011,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63295,7 +63298,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ299">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR299">
         <v>1.87</v>
@@ -63498,7 +63501,7 @@
         <v>1.14</v>
       </c>
       <c r="AP300">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ300">
         <v>1</v>
@@ -63626,7 +63629,7 @@
         <v>180</v>
       </c>
       <c r="P301" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q301">
         <v>6</v>
@@ -63832,7 +63835,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64244,7 +64247,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64862,7 +64865,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65480,7 +65483,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65686,7 +65689,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65892,7 +65895,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66098,7 +66101,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66385,7 +66388,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ314">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR314">
         <v>1.42</v>
@@ -66510,7 +66513,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66716,7 +66719,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66922,7 +66925,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67128,7 +67131,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67206,7 +67209,7 @@
         <v>0.87</v>
       </c>
       <c r="AP318">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ318">
         <v>0.88</v>
@@ -67952,7 +67955,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68364,7 +68367,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -68982,7 +68985,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69188,7 +69191,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69806,7 +69809,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -70218,7 +70221,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70375,6 +70378,212 @@
       </c>
       <c r="BP333">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="334" spans="1:68">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>7467012</v>
+      </c>
+      <c r="C334" t="s">
+        <v>68</v>
+      </c>
+      <c r="D334" t="s">
+        <v>69</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45773.35416666666</v>
+      </c>
+      <c r="F334">
+        <v>34</v>
+      </c>
+      <c r="G334" t="s">
+        <v>78</v>
+      </c>
+      <c r="H334" t="s">
+        <v>73</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>1</v>
+      </c>
+      <c r="L334">
+        <v>1</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334">
+        <v>1</v>
+      </c>
+      <c r="O334" t="s">
+        <v>301</v>
+      </c>
+      <c r="P334" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q334">
+        <v>2.2</v>
+      </c>
+      <c r="R334">
+        <v>2.25</v>
+      </c>
+      <c r="S334">
+        <v>6</v>
+      </c>
+      <c r="T334">
+        <v>1.4</v>
+      </c>
+      <c r="U334">
+        <v>2.75</v>
+      </c>
+      <c r="V334">
+        <v>2.75</v>
+      </c>
+      <c r="W334">
+        <v>1.4</v>
+      </c>
+      <c r="X334">
+        <v>8</v>
+      </c>
+      <c r="Y334">
+        <v>1.08</v>
+      </c>
+      <c r="Z334">
+        <v>1.56</v>
+      </c>
+      <c r="AA334">
+        <v>4.1</v>
+      </c>
+      <c r="AB334">
+        <v>6</v>
+      </c>
+      <c r="AC334">
+        <v>1.05</v>
+      </c>
+      <c r="AD334">
+        <v>9.5</v>
+      </c>
+      <c r="AE334">
+        <v>1.3</v>
+      </c>
+      <c r="AF334">
+        <v>3.45</v>
+      </c>
+      <c r="AG334">
+        <v>1.75</v>
+      </c>
+      <c r="AH334">
+        <v>1.95</v>
+      </c>
+      <c r="AI334">
+        <v>1.95</v>
+      </c>
+      <c r="AJ334">
+        <v>1.8</v>
+      </c>
+      <c r="AK334">
+        <v>1.16</v>
+      </c>
+      <c r="AL334">
+        <v>1.25</v>
+      </c>
+      <c r="AM334">
+        <v>2.15</v>
+      </c>
+      <c r="AN334">
+        <v>2</v>
+      </c>
+      <c r="AO334">
+        <v>1.13</v>
+      </c>
+      <c r="AP334">
+        <v>2.06</v>
+      </c>
+      <c r="AQ334">
+        <v>1.06</v>
+      </c>
+      <c r="AR334">
+        <v>2.08</v>
+      </c>
+      <c r="AS334">
+        <v>1.15</v>
+      </c>
+      <c r="AT334">
+        <v>3.23</v>
+      </c>
+      <c r="AU334">
+        <v>8</v>
+      </c>
+      <c r="AV334">
+        <v>4</v>
+      </c>
+      <c r="AW334">
+        <v>3</v>
+      </c>
+      <c r="AX334">
+        <v>3</v>
+      </c>
+      <c r="AY334">
+        <v>13</v>
+      </c>
+      <c r="AZ334">
+        <v>8</v>
+      </c>
+      <c r="BA334">
+        <v>10</v>
+      </c>
+      <c r="BB334">
+        <v>2</v>
+      </c>
+      <c r="BC334">
+        <v>12</v>
+      </c>
+      <c r="BD334">
+        <v>1.3</v>
+      </c>
+      <c r="BE334">
+        <v>7.5</v>
+      </c>
+      <c r="BF334">
+        <v>3.8</v>
+      </c>
+      <c r="BG334">
+        <v>1.24</v>
+      </c>
+      <c r="BH334">
+        <v>3.55</v>
+      </c>
+      <c r="BI334">
+        <v>1.41</v>
+      </c>
+      <c r="BJ334">
+        <v>2.65</v>
+      </c>
+      <c r="BK334">
+        <v>1.7</v>
+      </c>
+      <c r="BL334">
+        <v>2.02</v>
+      </c>
+      <c r="BM334">
+        <v>2.06</v>
+      </c>
+      <c r="BN334">
+        <v>1.66</v>
+      </c>
+      <c r="BO334">
+        <v>2.55</v>
+      </c>
+      <c r="BP334">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="472">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -922,6 +922,15 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['45+4', '56', '80']</t>
+  </si>
+  <si>
+    <t>['33', '56', '85']</t>
+  </si>
+  <si>
+    <t>['13', '89', '90+2']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1416,6 +1425,12 @@
   <si>
     <t>['27', '83']</t>
   </si>
+  <si>
+    <t>['72', '90+2']</t>
+  </si>
+  <si>
+    <t>['48', '83']</t>
+  </si>
 </sst>
 </file>
 
@@ -1776,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP334"/>
+  <dimension ref="A1:BP338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2116,7 +2131,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ2">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2241,7 +2256,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2653,7 +2668,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2937,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ6">
         <v>0.35</v>
@@ -3065,7 +3080,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3271,7 +3286,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3683,7 +3698,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -4173,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ12">
         <v>1.06</v>
@@ -4588,7 +4603,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ14">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4794,7 +4809,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ15">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4997,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ16">
         <v>1.71</v>
@@ -5206,7 +5221,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5331,7 +5346,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5537,7 +5552,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5615,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ19">
         <v>1.47</v>
@@ -6361,7 +6376,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6567,7 +6582,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6648,7 +6663,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ24">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR24">
         <v>0.77</v>
@@ -7185,7 +7200,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7391,7 +7406,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7597,7 +7612,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7881,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -8009,7 +8024,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8215,7 +8230,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8293,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ32">
         <v>1.06</v>
@@ -8499,10 +8514,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ33">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR33">
         <v>1.6</v>
@@ -8627,7 +8642,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -8708,7 +8723,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ34">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR34">
         <v>1.29</v>
@@ -8914,7 +8929,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ35">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.87</v>
@@ -9451,7 +9466,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9657,7 +9672,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9863,7 +9878,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10069,7 +10084,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10147,7 +10162,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ41">
         <v>1.59</v>
@@ -10275,7 +10290,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10481,7 +10496,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11177,10 +11192,10 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ46">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR46">
         <v>0.83</v>
@@ -12001,7 +12016,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -12129,7 +12144,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12335,7 +12350,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12413,7 +12428,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ52">
         <v>1.47</v>
@@ -12541,7 +12556,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12622,7 +12637,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ53">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12953,7 +12968,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13034,7 +13049,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ55">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -13240,7 +13255,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ56">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.59</v>
@@ -13365,7 +13380,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13571,7 +13586,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13649,7 +13664,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ58">
         <v>2.24</v>
@@ -13777,7 +13792,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13983,7 +13998,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14189,7 +14204,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14395,7 +14410,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14807,7 +14822,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14888,7 +14903,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR64">
         <v>2.4</v>
@@ -15013,7 +15028,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15094,7 +15109,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ65">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -15219,7 +15234,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -16249,7 +16264,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16327,7 +16342,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16536,7 +16551,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ72">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.91</v>
@@ -16661,7 +16676,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16867,7 +16882,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17073,7 +17088,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -17151,7 +17166,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ75">
         <v>1.35</v>
@@ -17279,7 +17294,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17357,10 +17372,10 @@
         <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ76">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR76">
         <v>0.91</v>
@@ -17485,7 +17500,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17897,7 +17912,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -17975,7 +17990,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ79">
         <v>1.47</v>
@@ -18103,7 +18118,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18515,7 +18530,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18927,7 +18942,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19005,7 +19020,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ84">
         <v>1.24</v>
@@ -19133,7 +19148,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19339,7 +19354,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19420,7 +19435,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ86">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -19626,7 +19641,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ87">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19751,7 +19766,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -20163,7 +20178,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20369,7 +20384,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20653,7 +20668,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ92">
         <v>1.82</v>
@@ -20859,7 +20874,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ93">
         <v>1.06</v>
@@ -21274,7 +21289,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ95">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR95">
         <v>1.12</v>
@@ -21686,7 +21701,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ97">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.51</v>
@@ -21811,7 +21826,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21889,7 +21904,7 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ98">
         <v>1.41</v>
@@ -22017,7 +22032,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22223,7 +22238,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22635,7 +22650,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22841,7 +22856,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22922,7 +22937,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ103">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -23331,7 +23346,7 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ105">
         <v>0.35</v>
@@ -23537,7 +23552,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ106">
         <v>1.47</v>
@@ -23952,7 +23967,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ108">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -24077,7 +24092,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24283,7 +24298,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24364,7 +24379,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ110">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24695,7 +24710,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24901,7 +24916,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25519,7 +25534,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25725,7 +25740,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25931,7 +25946,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26137,7 +26152,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26215,7 +26230,7 @@
         <v>2.6</v>
       </c>
       <c r="AP119">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ119">
         <v>2.24</v>
@@ -26343,7 +26358,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26549,7 +26564,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26627,10 +26642,10 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ121">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.12</v>
@@ -26755,7 +26770,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26833,7 +26848,7 @@
         <v>0</v>
       </c>
       <c r="AP122">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ122">
         <v>0.35</v>
@@ -26961,7 +26976,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27039,7 +27054,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ123">
         <v>1.47</v>
@@ -27248,7 +27263,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ124">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR124">
         <v>1.52</v>
@@ -27454,7 +27469,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ125">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR125">
         <v>1.7</v>
@@ -27579,7 +27594,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27785,7 +27800,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -28484,7 +28499,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ130">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR130">
         <v>1.95</v>
@@ -28815,7 +28830,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29102,7 +29117,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ133">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.02</v>
@@ -29227,7 +29242,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29305,7 +29320,7 @@
         <v>2.17</v>
       </c>
       <c r="AP134">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ134">
         <v>1.47</v>
@@ -29433,7 +29448,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29511,7 +29526,7 @@
         <v>2.67</v>
       </c>
       <c r="AP135">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ135">
         <v>2.24</v>
@@ -30875,7 +30890,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31081,7 +31096,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31493,7 +31508,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31699,7 +31714,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31905,7 +31920,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32111,7 +32126,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32317,7 +32332,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32729,7 +32744,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32807,10 +32822,10 @@
         <v>0.71</v>
       </c>
       <c r="AP151">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ151">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR151">
         <v>1.14</v>
@@ -33219,10 +33234,10 @@
         <v>0.71</v>
       </c>
       <c r="AP153">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ153">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR153">
         <v>1.32</v>
@@ -33347,7 +33362,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33428,7 +33443,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ154">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR154">
         <v>1.76</v>
@@ -33553,7 +33568,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33759,7 +33774,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33837,7 +33852,7 @@
         <v>0.86</v>
       </c>
       <c r="AP156">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ156">
         <v>1.41</v>
@@ -33965,7 +33980,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34171,7 +34186,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34249,7 +34264,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -34664,7 +34679,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ160">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR160">
         <v>1.69</v>
@@ -34995,7 +35010,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35201,7 +35216,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35407,7 +35422,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35613,7 +35628,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -36025,7 +36040,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36231,7 +36246,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36643,7 +36658,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37055,7 +37070,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37133,10 +37148,10 @@
         <v>1.13</v>
       </c>
       <c r="AP172">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ172">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR172">
         <v>1.06</v>
@@ -37545,7 +37560,7 @@
         <v>1.25</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ174">
         <v>1.35</v>
@@ -37673,7 +37688,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -37754,7 +37769,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ175">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR175">
         <v>1.78</v>
@@ -38163,7 +38178,7 @@
         <v>1.13</v>
       </c>
       <c r="AP177">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ177">
         <v>1.06</v>
@@ -38291,7 +38306,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38372,7 +38387,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ178">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR178">
         <v>1.73</v>
@@ -38575,7 +38590,7 @@
         <v>0.13</v>
       </c>
       <c r="AP179">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ179">
         <v>1.13</v>
@@ -38784,7 +38799,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ180">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR180">
         <v>2.03</v>
@@ -38909,7 +38924,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39115,7 +39130,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39527,7 +39542,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39733,7 +39748,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39939,7 +39954,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40351,7 +40366,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40557,7 +40572,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40763,7 +40778,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40969,7 +40984,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41381,7 +41396,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41462,7 +41477,7 @@
         <v>2</v>
       </c>
       <c r="AQ193">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR193">
         <v>1.51</v>
@@ -41793,7 +41808,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -41871,7 +41886,7 @@
         <v>0.22</v>
       </c>
       <c r="AP195">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ195">
         <v>1.13</v>
@@ -41999,7 +42014,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42080,7 +42095,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ196">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR196">
         <v>2.09</v>
@@ -42283,7 +42298,7 @@
         <v>1.8</v>
       </c>
       <c r="AP197">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ197">
         <v>1.82</v>
@@ -42411,7 +42426,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42492,7 +42507,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ198">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR198">
         <v>1.57</v>
@@ -42617,7 +42632,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42823,7 +42838,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -42901,7 +42916,7 @@
         <v>2</v>
       </c>
       <c r="AP200">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ200">
         <v>1.71</v>
@@ -43029,7 +43044,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43235,7 +43250,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43316,7 +43331,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ202">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR202">
         <v>1.35</v>
@@ -43441,7 +43456,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43647,7 +43662,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43853,7 +43868,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44137,7 +44152,7 @@
         <v>0.9</v>
       </c>
       <c r="AP206">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ206">
         <v>1.24</v>
@@ -44265,7 +44280,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44677,7 +44692,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45089,7 +45104,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45167,7 +45182,7 @@
         <v>1.45</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ211">
         <v>1.47</v>
@@ -45295,7 +45310,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45501,7 +45516,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45707,7 +45722,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45788,7 +45803,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ214">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR214">
         <v>1.2</v>
@@ -45913,7 +45928,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46119,7 +46134,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46325,7 +46340,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46531,7 +46546,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46737,7 +46752,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -46943,7 +46958,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47355,7 +47370,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47433,7 +47448,7 @@
         <v>0.7</v>
       </c>
       <c r="AP222">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ222">
         <v>1.06</v>
@@ -47642,7 +47657,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ223">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR223">
         <v>1.79</v>
@@ -47767,7 +47782,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -47845,7 +47860,7 @@
         <v>1.64</v>
       </c>
       <c r="AP224">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ224">
         <v>1.59</v>
@@ -47973,7 +47988,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48051,7 +48066,7 @@
         <v>1.73</v>
       </c>
       <c r="AP225">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ225">
         <v>1.82</v>
@@ -48179,7 +48194,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48385,7 +48400,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48591,7 +48606,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -48672,7 +48687,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ228">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR228">
         <v>1.71</v>
@@ -48878,7 +48893,7 @@
         <v>2</v>
       </c>
       <c r="AQ229">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR229">
         <v>1.51</v>
@@ -49003,7 +49018,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49415,7 +49430,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49493,10 +49508,10 @@
         <v>1.45</v>
       </c>
       <c r="AP232">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ232">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR232">
         <v>1.61</v>
@@ -49702,7 +49717,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ233">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR233">
         <v>1.37</v>
@@ -49827,7 +49842,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50033,7 +50048,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50317,7 +50332,7 @@
         <v>1.27</v>
       </c>
       <c r="AP236">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ236">
         <v>1.35</v>
@@ -50445,7 +50460,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50651,7 +50666,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -51063,7 +51078,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51144,7 +51159,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ240">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR240">
         <v>1.89</v>
@@ -51269,7 +51284,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51553,7 +51568,7 @@
         <v>1.75</v>
       </c>
       <c r="AP242">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ242">
         <v>1.47</v>
@@ -51681,7 +51696,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51887,7 +51902,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -51965,7 +51980,7 @@
         <v>1.58</v>
       </c>
       <c r="AP244">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ244">
         <v>1.47</v>
@@ -52792,7 +52807,7 @@
         <v>2</v>
       </c>
       <c r="AQ248">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR248">
         <v>1.52</v>
@@ -52917,7 +52932,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53535,7 +53550,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53741,7 +53756,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53947,7 +53962,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54153,7 +54168,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54231,7 +54246,7 @@
         <v>1.46</v>
       </c>
       <c r="AP255">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ255">
         <v>1.35</v>
@@ -54359,7 +54374,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54565,7 +54580,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -54646,7 +54661,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ257">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR257">
         <v>1.97</v>
@@ -54977,7 +54992,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55183,7 +55198,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55389,7 +55404,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55467,7 +55482,7 @@
         <v>1.77</v>
       </c>
       <c r="AP261">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ261">
         <v>1.71</v>
@@ -55595,7 +55610,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55801,7 +55816,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -56007,7 +56022,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56085,10 +56100,10 @@
         <v>1.58</v>
       </c>
       <c r="AP264">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ264">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR264">
         <v>1.21</v>
@@ -56291,7 +56306,7 @@
         <v>1.69</v>
       </c>
       <c r="AP265">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ265">
         <v>1.47</v>
@@ -56831,7 +56846,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -56912,7 +56927,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ268">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR268">
         <v>1.55</v>
@@ -57736,7 +57751,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ272">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR272">
         <v>1.27</v>
@@ -58067,7 +58082,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58273,7 +58288,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q275">
         <v>2.5</v>
@@ -58351,10 +58366,10 @@
         <v>1.69</v>
       </c>
       <c r="AP275">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ275">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR275">
         <v>1.59</v>
@@ -58560,7 +58575,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ276">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR276">
         <v>1.51</v>
@@ -58969,7 +58984,7 @@
         <v>1.08</v>
       </c>
       <c r="AP278">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ278">
         <v>1.06</v>
@@ -59178,7 +59193,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ279">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR279">
         <v>1.96</v>
@@ -59303,7 +59318,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59509,7 +59524,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59715,7 +59730,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59921,7 +59936,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -59999,7 +60014,7 @@
         <v>0.86</v>
       </c>
       <c r="AP283">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ283">
         <v>1.24</v>
@@ -60208,7 +60223,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ284">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR284">
         <v>1.4</v>
@@ -60333,7 +60348,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60539,7 +60554,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60745,7 +60760,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61363,7 +61378,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -61650,7 +61665,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ291">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR291">
         <v>1.96</v>
@@ -61853,10 +61868,10 @@
         <v>1.21</v>
       </c>
       <c r="AP292">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ292">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR292">
         <v>1.28</v>
@@ -62187,7 +62202,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62265,7 +62280,7 @@
         <v>1.69</v>
       </c>
       <c r="AP294">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ294">
         <v>1.41</v>
@@ -62474,7 +62489,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ295">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR295">
         <v>1.96</v>
@@ -62599,7 +62614,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62677,7 +62692,7 @@
         <v>1.21</v>
       </c>
       <c r="AP296">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ296">
         <v>1.13</v>
@@ -62805,7 +62820,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -62883,7 +62898,7 @@
         <v>1.21</v>
       </c>
       <c r="AP297">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ297">
         <v>1.35</v>
@@ -63011,7 +63026,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63092,7 +63107,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ298">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR298">
         <v>1.79</v>
@@ -63629,7 +63644,7 @@
         <v>180</v>
       </c>
       <c r="P301" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q301">
         <v>6</v>
@@ -63835,7 +63850,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64247,7 +64262,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64865,7 +64880,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65483,7 +65498,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65689,7 +65704,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65895,7 +65910,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -65973,10 +65988,10 @@
         <v>0.53</v>
       </c>
       <c r="AP312">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ312">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR312">
         <v>1.58</v>
@@ -66101,7 +66116,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66179,7 +66194,7 @@
         <v>1.33</v>
       </c>
       <c r="AP313">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AQ313">
         <v>1.35</v>
@@ -66513,7 +66528,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66719,7 +66734,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66797,7 +66812,7 @@
         <v>1.07</v>
       </c>
       <c r="AP316">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AQ316">
         <v>1</v>
@@ -66925,7 +66940,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67006,7 +67021,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ317">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR317">
         <v>1.89</v>
@@ -67131,7 +67146,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67212,7 +67227,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ318">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AR318">
         <v>1.97</v>
@@ -67415,7 +67430,7 @@
         <v>1.13</v>
       </c>
       <c r="AP319">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ319">
         <v>1.06</v>
@@ -67624,7 +67639,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ320">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AR320">
         <v>1.84</v>
@@ -67827,7 +67842,7 @@
         <v>1.53</v>
       </c>
       <c r="AP321">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ321">
         <v>1.41</v>
@@ -67955,7 +67970,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68367,7 +68382,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -68985,7 +69000,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69191,7 +69206,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69809,7 +69824,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -70221,7 +70236,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70584,6 +70599,830 @@
       </c>
       <c r="BP334">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="335" spans="1:68">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>7467015</v>
+      </c>
+      <c r="C335" t="s">
+        <v>68</v>
+      </c>
+      <c r="D335" t="s">
+        <v>69</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F335">
+        <v>34</v>
+      </c>
+      <c r="G335" t="s">
+        <v>74</v>
+      </c>
+      <c r="H335" t="s">
+        <v>71</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>1</v>
+      </c>
+      <c r="L335">
+        <v>3</v>
+      </c>
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>3</v>
+      </c>
+      <c r="O335" t="s">
+        <v>302</v>
+      </c>
+      <c r="P335" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q335">
+        <v>1.57</v>
+      </c>
+      <c r="R335">
+        <v>2.88</v>
+      </c>
+      <c r="S335">
+        <v>9</v>
+      </c>
+      <c r="T335">
+        <v>1.22</v>
+      </c>
+      <c r="U335">
+        <v>4</v>
+      </c>
+      <c r="V335">
+        <v>2</v>
+      </c>
+      <c r="W335">
+        <v>1.73</v>
+      </c>
+      <c r="X335">
+        <v>4.33</v>
+      </c>
+      <c r="Y335">
+        <v>1.2</v>
+      </c>
+      <c r="Z335">
+        <v>1.3</v>
+      </c>
+      <c r="AA335">
+        <v>5.6</v>
+      </c>
+      <c r="AB335">
+        <v>10</v>
+      </c>
+      <c r="AC335">
+        <v>1.02</v>
+      </c>
+      <c r="AD335">
+        <v>21</v>
+      </c>
+      <c r="AE335">
+        <v>1.12</v>
+      </c>
+      <c r="AF335">
+        <v>5.75</v>
+      </c>
+      <c r="AG335">
+        <v>1.55</v>
+      </c>
+      <c r="AH335">
+        <v>2.3</v>
+      </c>
+      <c r="AI335">
+        <v>1.95</v>
+      </c>
+      <c r="AJ335">
+        <v>1.8</v>
+      </c>
+      <c r="AK335">
+        <v>1.04</v>
+      </c>
+      <c r="AL335">
+        <v>1.11</v>
+      </c>
+      <c r="AM335">
+        <v>4.1</v>
+      </c>
+      <c r="AN335">
+        <v>2</v>
+      </c>
+      <c r="AO335">
+        <v>0.88</v>
+      </c>
+      <c r="AP335">
+        <v>2.06</v>
+      </c>
+      <c r="AQ335">
+        <v>0.82</v>
+      </c>
+      <c r="AR335">
+        <v>1.66</v>
+      </c>
+      <c r="AS335">
+        <v>1.02</v>
+      </c>
+      <c r="AT335">
+        <v>2.68</v>
+      </c>
+      <c r="AU335">
+        <v>6</v>
+      </c>
+      <c r="AV335">
+        <v>0</v>
+      </c>
+      <c r="AW335">
+        <v>20</v>
+      </c>
+      <c r="AX335">
+        <v>5</v>
+      </c>
+      <c r="AY335">
+        <v>35</v>
+      </c>
+      <c r="AZ335">
+        <v>8</v>
+      </c>
+      <c r="BA335">
+        <v>11</v>
+      </c>
+      <c r="BB335">
+        <v>2</v>
+      </c>
+      <c r="BC335">
+        <v>13</v>
+      </c>
+      <c r="BD335">
+        <v>1.2</v>
+      </c>
+      <c r="BE335">
+        <v>9</v>
+      </c>
+      <c r="BF335">
+        <v>4.8</v>
+      </c>
+      <c r="BG335">
+        <v>1.17</v>
+      </c>
+      <c r="BH335">
+        <v>4.35</v>
+      </c>
+      <c r="BI335">
+        <v>1.3</v>
+      </c>
+      <c r="BJ335">
+        <v>3.15</v>
+      </c>
+      <c r="BK335">
+        <v>1.49</v>
+      </c>
+      <c r="BL335">
+        <v>2.4</v>
+      </c>
+      <c r="BM335">
+        <v>1.78</v>
+      </c>
+      <c r="BN335">
+        <v>1.9</v>
+      </c>
+      <c r="BO335">
+        <v>2.18</v>
+      </c>
+      <c r="BP335">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="336" spans="1:68">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>7467017</v>
+      </c>
+      <c r="C336" t="s">
+        <v>68</v>
+      </c>
+      <c r="D336" t="s">
+        <v>69</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F336">
+        <v>34</v>
+      </c>
+      <c r="G336" t="s">
+        <v>84</v>
+      </c>
+      <c r="H336" t="s">
+        <v>83</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>1</v>
+      </c>
+      <c r="L336">
+        <v>1</v>
+      </c>
+      <c r="M336">
+        <v>2</v>
+      </c>
+      <c r="N336">
+        <v>3</v>
+      </c>
+      <c r="O336" t="s">
+        <v>211</v>
+      </c>
+      <c r="P336" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q336">
+        <v>5</v>
+      </c>
+      <c r="R336">
+        <v>2.3</v>
+      </c>
+      <c r="S336">
+        <v>2.2</v>
+      </c>
+      <c r="T336">
+        <v>1.33</v>
+      </c>
+      <c r="U336">
+        <v>3.25</v>
+      </c>
+      <c r="V336">
+        <v>2.63</v>
+      </c>
+      <c r="W336">
+        <v>1.44</v>
+      </c>
+      <c r="X336">
+        <v>6.5</v>
+      </c>
+      <c r="Y336">
+        <v>1.11</v>
+      </c>
+      <c r="Z336">
+        <v>6</v>
+      </c>
+      <c r="AA336">
+        <v>4.4</v>
+      </c>
+      <c r="AB336">
+        <v>1.5</v>
+      </c>
+      <c r="AC336">
+        <v>1.04</v>
+      </c>
+      <c r="AD336">
+        <v>10</v>
+      </c>
+      <c r="AE336">
+        <v>1.22</v>
+      </c>
+      <c r="AF336">
+        <v>4.2</v>
+      </c>
+      <c r="AG336">
+        <v>1.57</v>
+      </c>
+      <c r="AH336">
+        <v>2.25</v>
+      </c>
+      <c r="AI336">
+        <v>1.7</v>
+      </c>
+      <c r="AJ336">
+        <v>2.05</v>
+      </c>
+      <c r="AK336">
+        <v>2.25</v>
+      </c>
+      <c r="AL336">
+        <v>1.23</v>
+      </c>
+      <c r="AM336">
+        <v>1.16</v>
+      </c>
+      <c r="AN336">
+        <v>0.31</v>
+      </c>
+      <c r="AO336">
+        <v>1.38</v>
+      </c>
+      <c r="AP336">
+        <v>0.29</v>
+      </c>
+      <c r="AQ336">
+        <v>1.47</v>
+      </c>
+      <c r="AR336">
+        <v>1.16</v>
+      </c>
+      <c r="AS336">
+        <v>1.46</v>
+      </c>
+      <c r="AT336">
+        <v>2.62</v>
+      </c>
+      <c r="AU336">
+        <v>-1</v>
+      </c>
+      <c r="AV336">
+        <v>-1</v>
+      </c>
+      <c r="AW336">
+        <v>-1</v>
+      </c>
+      <c r="AX336">
+        <v>-1</v>
+      </c>
+      <c r="AY336">
+        <v>-1</v>
+      </c>
+      <c r="AZ336">
+        <v>-1</v>
+      </c>
+      <c r="BA336">
+        <v>-1</v>
+      </c>
+      <c r="BB336">
+        <v>-1</v>
+      </c>
+      <c r="BC336">
+        <v>-1</v>
+      </c>
+      <c r="BD336">
+        <v>3.2</v>
+      </c>
+      <c r="BE336">
+        <v>7</v>
+      </c>
+      <c r="BF336">
+        <v>1.4</v>
+      </c>
+      <c r="BG336">
+        <v>1.2</v>
+      </c>
+      <c r="BH336">
+        <v>3.9</v>
+      </c>
+      <c r="BI336">
+        <v>1.36</v>
+      </c>
+      <c r="BJ336">
+        <v>2.8</v>
+      </c>
+      <c r="BK336">
+        <v>1.6</v>
+      </c>
+      <c r="BL336">
+        <v>2.17</v>
+      </c>
+      <c r="BM336">
+        <v>1.94</v>
+      </c>
+      <c r="BN336">
+        <v>1.76</v>
+      </c>
+      <c r="BO336">
+        <v>2.4</v>
+      </c>
+      <c r="BP336">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="337" spans="1:68">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>7467018</v>
+      </c>
+      <c r="C337" t="s">
+        <v>68</v>
+      </c>
+      <c r="D337" t="s">
+        <v>69</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F337">
+        <v>34</v>
+      </c>
+      <c r="G337" t="s">
+        <v>87</v>
+      </c>
+      <c r="H337" t="s">
+        <v>79</v>
+      </c>
+      <c r="I337">
+        <v>1</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>1</v>
+      </c>
+      <c r="L337">
+        <v>3</v>
+      </c>
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>3</v>
+      </c>
+      <c r="O337" t="s">
+        <v>303</v>
+      </c>
+      <c r="P337" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q337">
+        <v>2.1</v>
+      </c>
+      <c r="R337">
+        <v>2.3</v>
+      </c>
+      <c r="S337">
+        <v>5.5</v>
+      </c>
+      <c r="T337">
+        <v>1.36</v>
+      </c>
+      <c r="U337">
+        <v>3</v>
+      </c>
+      <c r="V337">
+        <v>2.63</v>
+      </c>
+      <c r="W337">
+        <v>1.44</v>
+      </c>
+      <c r="X337">
+        <v>7</v>
+      </c>
+      <c r="Y337">
+        <v>1.1</v>
+      </c>
+      <c r="Z337">
+        <v>1.65</v>
+      </c>
+      <c r="AA337">
+        <v>4.1</v>
+      </c>
+      <c r="AB337">
+        <v>4.9</v>
+      </c>
+      <c r="AC337">
+        <v>1.04</v>
+      </c>
+      <c r="AD337">
+        <v>10</v>
+      </c>
+      <c r="AE337">
+        <v>1.25</v>
+      </c>
+      <c r="AF337">
+        <v>3.8</v>
+      </c>
+      <c r="AG337">
+        <v>1.6</v>
+      </c>
+      <c r="AH337">
+        <v>2.25</v>
+      </c>
+      <c r="AI337">
+        <v>1.91</v>
+      </c>
+      <c r="AJ337">
+        <v>1.91</v>
+      </c>
+      <c r="AK337">
+        <v>1.15</v>
+      </c>
+      <c r="AL337">
+        <v>1.23</v>
+      </c>
+      <c r="AM337">
+        <v>2.3</v>
+      </c>
+      <c r="AN337">
+        <v>1.06</v>
+      </c>
+      <c r="AO337">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP337">
+        <v>1.18</v>
+      </c>
+      <c r="AQ337">
+        <v>0.53</v>
+      </c>
+      <c r="AR337">
+        <v>1.29</v>
+      </c>
+      <c r="AS337">
+        <v>1.03</v>
+      </c>
+      <c r="AT337">
+        <v>2.32</v>
+      </c>
+      <c r="AU337">
+        <v>-1</v>
+      </c>
+      <c r="AV337">
+        <v>-1</v>
+      </c>
+      <c r="AW337">
+        <v>-1</v>
+      </c>
+      <c r="AX337">
+        <v>-1</v>
+      </c>
+      <c r="AY337">
+        <v>-1</v>
+      </c>
+      <c r="AZ337">
+        <v>-1</v>
+      </c>
+      <c r="BA337">
+        <v>-1</v>
+      </c>
+      <c r="BB337">
+        <v>-1</v>
+      </c>
+      <c r="BC337">
+        <v>-1</v>
+      </c>
+      <c r="BD337">
+        <v>1.35</v>
+      </c>
+      <c r="BE337">
+        <v>7</v>
+      </c>
+      <c r="BF337">
+        <v>3.55</v>
+      </c>
+      <c r="BG337">
+        <v>1.24</v>
+      </c>
+      <c r="BH337">
+        <v>3.55</v>
+      </c>
+      <c r="BI337">
+        <v>1.44</v>
+      </c>
+      <c r="BJ337">
+        <v>2.55</v>
+      </c>
+      <c r="BK337">
+        <v>1.72</v>
+      </c>
+      <c r="BL337">
+        <v>1.98</v>
+      </c>
+      <c r="BM337">
+        <v>2.1</v>
+      </c>
+      <c r="BN337">
+        <v>1.64</v>
+      </c>
+      <c r="BO337">
+        <v>2.65</v>
+      </c>
+      <c r="BP337">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="338" spans="1:68">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>7467011</v>
+      </c>
+      <c r="C338" t="s">
+        <v>68</v>
+      </c>
+      <c r="D338" t="s">
+        <v>69</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45773.45833333334</v>
+      </c>
+      <c r="F338">
+        <v>34</v>
+      </c>
+      <c r="G338" t="s">
+        <v>80</v>
+      </c>
+      <c r="H338" t="s">
+        <v>76</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>1</v>
+      </c>
+      <c r="L338">
+        <v>3</v>
+      </c>
+      <c r="M338">
+        <v>2</v>
+      </c>
+      <c r="N338">
+        <v>5</v>
+      </c>
+      <c r="O338" t="s">
+        <v>304</v>
+      </c>
+      <c r="P338" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q338">
+        <v>2.2</v>
+      </c>
+      <c r="R338">
+        <v>2.38</v>
+      </c>
+      <c r="S338">
+        <v>5</v>
+      </c>
+      <c r="T338">
+        <v>1.33</v>
+      </c>
+      <c r="U338">
+        <v>3.25</v>
+      </c>
+      <c r="V338">
+        <v>2.5</v>
+      </c>
+      <c r="W338">
+        <v>1.5</v>
+      </c>
+      <c r="X338">
+        <v>6.5</v>
+      </c>
+      <c r="Y338">
+        <v>1.11</v>
+      </c>
+      <c r="Z338">
+        <v>1.69</v>
+      </c>
+      <c r="AA338">
+        <v>4</v>
+      </c>
+      <c r="AB338">
+        <v>4.9</v>
+      </c>
+      <c r="AC338">
+        <v>1.04</v>
+      </c>
+      <c r="AD338">
+        <v>10</v>
+      </c>
+      <c r="AE338">
+        <v>1.22</v>
+      </c>
+      <c r="AF338">
+        <v>4.2</v>
+      </c>
+      <c r="AG338">
+        <v>1.65</v>
+      </c>
+      <c r="AH338">
+        <v>2.1</v>
+      </c>
+      <c r="AI338">
+        <v>1.7</v>
+      </c>
+      <c r="AJ338">
+        <v>2.05</v>
+      </c>
+      <c r="AK338">
+        <v>1.18</v>
+      </c>
+      <c r="AL338">
+        <v>1.23</v>
+      </c>
+      <c r="AM338">
+        <v>2.15</v>
+      </c>
+      <c r="AN338">
+        <v>1.56</v>
+      </c>
+      <c r="AO338">
+        <v>1.06</v>
+      </c>
+      <c r="AP338">
+        <v>1.65</v>
+      </c>
+      <c r="AQ338">
+        <v>1</v>
+      </c>
+      <c r="AR338">
+        <v>1.63</v>
+      </c>
+      <c r="AS338">
+        <v>1.38</v>
+      </c>
+      <c r="AT338">
+        <v>3.01</v>
+      </c>
+      <c r="AU338">
+        <v>10</v>
+      </c>
+      <c r="AV338">
+        <v>5</v>
+      </c>
+      <c r="AW338">
+        <v>7</v>
+      </c>
+      <c r="AX338">
+        <v>8</v>
+      </c>
+      <c r="AY338">
+        <v>20</v>
+      </c>
+      <c r="AZ338">
+        <v>16</v>
+      </c>
+      <c r="BA338">
+        <v>8</v>
+      </c>
+      <c r="BB338">
+        <v>1</v>
+      </c>
+      <c r="BC338">
+        <v>9</v>
+      </c>
+      <c r="BD338">
+        <v>1.44</v>
+      </c>
+      <c r="BE338">
+        <v>7</v>
+      </c>
+      <c r="BF338">
+        <v>3.15</v>
+      </c>
+      <c r="BG338">
+        <v>1.23</v>
+      </c>
+      <c r="BH338">
+        <v>3.65</v>
+      </c>
+      <c r="BI338">
+        <v>1.41</v>
+      </c>
+      <c r="BJ338">
+        <v>2.65</v>
+      </c>
+      <c r="BK338">
+        <v>1.67</v>
+      </c>
+      <c r="BL338">
+        <v>2.05</v>
+      </c>
+      <c r="BM338">
+        <v>2.06</v>
+      </c>
+      <c r="BN338">
+        <v>1.66</v>
+      </c>
+      <c r="BO338">
+        <v>2.6</v>
+      </c>
+      <c r="BP338">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -70947,31 +70947,31 @@
         <v>2.62</v>
       </c>
       <c r="AU336">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV336">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW336">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX336">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AY336">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ336">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="BA336">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB336">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BC336">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD336">
         <v>3.2</v>
@@ -71153,31 +71153,31 @@
         <v>2.32</v>
       </c>
       <c r="AU337">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV337">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW337">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AX337">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY337">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="AZ337">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA337">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB337">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC337">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD337">
         <v>1.35</v>
@@ -71365,16 +71365,16 @@
         <v>5</v>
       </c>
       <c r="AW338">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX338">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AY338">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ338">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA338">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="473">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -931,6 +931,9 @@
     <t>['13', '89', '90+2']</t>
   </si>
   <si>
+    <t>['16', '24', '34', '63', '69']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1791,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP338"/>
+  <dimension ref="A1:BP340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2256,7 +2259,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2668,7 +2671,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3080,7 +3083,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3286,7 +3289,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3698,7 +3701,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3985,7 +3988,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5346,7 +5349,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5552,7 +5555,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5836,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ20">
         <v>1.59</v>
@@ -6042,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ21">
         <v>1.13</v>
@@ -6376,7 +6379,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6582,7 +6585,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -7200,7 +7203,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7406,7 +7409,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7612,7 +7615,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7899,7 +7902,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR30">
         <v>0.47</v>
@@ -8024,7 +8027,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8230,7 +8233,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8642,7 +8645,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9132,7 +9135,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ36">
         <v>1.71</v>
@@ -9466,7 +9469,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9672,7 +9675,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9750,7 +9753,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ39">
         <v>1.47</v>
@@ -9878,7 +9881,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10084,7 +10087,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10290,7 +10293,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10496,7 +10499,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10986,7 +10989,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ45">
         <v>1.47</v>
@@ -12144,7 +12147,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12350,7 +12353,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -12556,7 +12559,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12968,7 +12971,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13380,7 +13383,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13586,7 +13589,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13792,7 +13795,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13998,7 +14001,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14079,7 +14082,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR60">
         <v>1.43</v>
@@ -14204,7 +14207,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14282,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ61">
         <v>0.35</v>
@@ -14410,7 +14413,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14822,7 +14825,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -15028,7 +15031,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15234,7 +15237,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -16264,7 +16267,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16345,7 +16348,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16676,7 +16679,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16882,7 +16885,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17088,7 +17091,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -17294,7 +17297,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17500,7 +17503,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17784,7 +17787,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ78">
         <v>1.82</v>
@@ -17912,7 +17915,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18118,7 +18121,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18196,7 +18199,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ80">
         <v>1.47</v>
@@ -18530,7 +18533,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18942,7 +18945,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19148,7 +19151,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19354,7 +19357,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19766,7 +19769,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -20053,7 +20056,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR89">
         <v>1.28</v>
@@ -20178,7 +20181,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20384,7 +20387,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -21080,7 +21083,7 @@
         <v>2.5</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ94">
         <v>1.47</v>
@@ -21492,7 +21495,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ96">
         <v>1.35</v>
@@ -21826,7 +21829,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -22032,7 +22035,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22238,7 +22241,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22650,7 +22653,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22856,7 +22859,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23758,7 +23761,7 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ107">
         <v>1.35</v>
@@ -24092,7 +24095,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24298,7 +24301,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24710,7 +24713,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24916,7 +24919,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25534,7 +25537,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25612,7 +25615,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ116">
         <v>1.35</v>
@@ -25740,7 +25743,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25946,7 +25949,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26027,7 +26030,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR118">
         <v>2.34</v>
@@ -26152,7 +26155,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26358,7 +26361,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26564,7 +26567,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26770,7 +26773,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26976,7 +26979,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27594,7 +27597,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27800,7 +27803,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -28702,7 +28705,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ131">
         <v>1.47</v>
@@ -28830,7 +28833,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29242,7 +29245,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29448,7 +29451,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -30762,10 +30765,10 @@
         <v>1.17</v>
       </c>
       <c r="AP141">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30890,7 +30893,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31096,7 +31099,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31508,7 +31511,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31714,7 +31717,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31920,7 +31923,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32126,7 +32129,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32332,7 +32335,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32744,7 +32747,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33362,7 +33365,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33440,7 +33443,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ154">
         <v>1.47</v>
@@ -33568,7 +33571,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33774,7 +33777,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33980,7 +33983,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34186,7 +34189,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34267,7 +34270,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR158">
         <v>1.06</v>
@@ -34676,7 +34679,7 @@
         <v>1.14</v>
       </c>
       <c r="AP160">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -35010,7 +35013,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35216,7 +35219,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35422,7 +35425,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35628,7 +35631,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -36040,7 +36043,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36246,7 +36249,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36658,7 +36661,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37070,7 +37073,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37357,7 +37360,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ173">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR173">
         <v>1.56</v>
@@ -37688,7 +37691,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -37972,7 +37975,7 @@
         <v>1.13</v>
       </c>
       <c r="AP176">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ176">
         <v>1.41</v>
@@ -38306,7 +38309,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38384,7 +38387,7 @@
         <v>0.63</v>
       </c>
       <c r="AP178">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ178">
         <v>0.53</v>
@@ -38924,7 +38927,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39130,7 +39133,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39542,7 +39545,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39748,7 +39751,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39954,7 +39957,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40366,7 +40369,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40572,7 +40575,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40778,7 +40781,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40984,7 +40987,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41268,7 +41271,7 @@
         <v>0.78</v>
       </c>
       <c r="AP192">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ192">
         <v>1.06</v>
@@ -41396,7 +41399,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41808,7 +41811,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -42014,7 +42017,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42426,7 +42429,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42632,7 +42635,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42710,7 +42713,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ199">
         <v>1.06</v>
@@ -42838,7 +42841,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43044,7 +43047,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43250,7 +43253,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43456,7 +43459,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43662,7 +43665,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43868,7 +43871,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44280,7 +44283,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44567,7 +44570,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ208">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR208">
         <v>1.98</v>
@@ -44692,7 +44695,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45104,7 +45107,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45310,7 +45313,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45516,7 +45519,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45722,7 +45725,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45928,7 +45931,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46134,7 +46137,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46340,7 +46343,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46546,7 +46549,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46627,7 +46630,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ218">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR218">
         <v>1.33</v>
@@ -46752,7 +46755,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -46958,7 +46961,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47242,7 +47245,7 @@
         <v>2.09</v>
       </c>
       <c r="AP221">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ221">
         <v>1.71</v>
@@ -47370,7 +47373,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47654,7 +47657,7 @@
         <v>0.9</v>
       </c>
       <c r="AP223">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ223">
         <v>0.82</v>
@@ -47782,7 +47785,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -47988,7 +47991,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48194,7 +48197,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48400,7 +48403,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48606,7 +48609,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -49018,7 +49021,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49430,7 +49433,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49842,7 +49845,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50048,7 +50051,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50126,7 +50129,7 @@
         <v>2.45</v>
       </c>
       <c r="AP235">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ235">
         <v>2.24</v>
@@ -50460,7 +50463,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50541,7 +50544,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ237">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR237">
         <v>1.59</v>
@@ -50666,7 +50669,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -51078,7 +51081,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51284,7 +51287,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51696,7 +51699,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51902,7 +51905,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -52932,7 +52935,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53216,7 +53219,7 @@
         <v>0.75</v>
       </c>
       <c r="AP250">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ250">
         <v>1.24</v>
@@ -53550,7 +53553,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53756,7 +53759,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53962,7 +53965,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54168,7 +54171,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54374,7 +54377,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54455,7 +54458,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ256">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR256">
         <v>1.19</v>
@@ -54580,7 +54583,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -54864,7 +54867,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP258">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ258">
         <v>1.24</v>
@@ -54992,7 +54995,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55198,7 +55201,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55404,7 +55407,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55610,7 +55613,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55816,7 +55819,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -56022,7 +56025,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56846,7 +56849,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -57542,7 +57545,7 @@
         <v>1.62</v>
       </c>
       <c r="AP271">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ271">
         <v>1.59</v>
@@ -58082,7 +58085,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58160,7 +58163,7 @@
         <v>0.36</v>
       </c>
       <c r="AP274">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ274">
         <v>0.35</v>
@@ -58288,7 +58291,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q275">
         <v>2.5</v>
@@ -59318,7 +59321,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59524,7 +59527,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59730,7 +59733,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59936,7 +59939,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60348,7 +60351,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60554,7 +60557,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60760,7 +60763,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -60838,7 +60841,7 @@
         <v>1.08</v>
       </c>
       <c r="AP287">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ287">
         <v>1.13</v>
@@ -61047,7 +61050,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ288">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR288">
         <v>1.6</v>
@@ -61378,7 +61381,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -62202,7 +62205,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62614,7 +62617,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62820,7 +62823,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -63026,7 +63029,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63104,7 +63107,7 @@
         <v>0.71</v>
       </c>
       <c r="AP298">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ298">
         <v>0.82</v>
@@ -63310,7 +63313,7 @@
         <v>1.07</v>
       </c>
       <c r="AP299">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ299">
         <v>1.06</v>
@@ -63519,7 +63522,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ300">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR300">
         <v>2</v>
@@ -63644,7 +63647,7 @@
         <v>180</v>
       </c>
       <c r="P301" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q301">
         <v>6</v>
@@ -63850,7 +63853,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64262,7 +64265,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64880,7 +64883,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65498,7 +65501,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65704,7 +65707,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65910,7 +65913,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66116,7 +66119,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66528,7 +66531,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66734,7 +66737,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66815,7 +66818,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ316">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR316">
         <v>1.27</v>
@@ -66940,7 +66943,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67018,7 +67021,7 @@
         <v>1.13</v>
       </c>
       <c r="AP317">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AQ317">
         <v>1</v>
@@ -67146,7 +67149,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67636,7 +67639,7 @@
         <v>1.47</v>
       </c>
       <c r="AP320">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ320">
         <v>1.47</v>
@@ -67970,7 +67973,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68382,7 +68385,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -69000,7 +69003,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69206,7 +69209,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69824,7 +69827,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -70236,7 +70239,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70854,7 +70857,7 @@
         <v>211</v>
       </c>
       <c r="P336" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -71266,7 +71269,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q338">
         <v>2.2</v>
@@ -71423,6 +71426,418 @@
       </c>
       <c r="BP338">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="339" spans="1:68">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>7467009</v>
+      </c>
+      <c r="C339" t="s">
+        <v>68</v>
+      </c>
+      <c r="D339" t="s">
+        <v>69</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45774.41666666666</v>
+      </c>
+      <c r="F339">
+        <v>34</v>
+      </c>
+      <c r="G339" t="s">
+        <v>88</v>
+      </c>
+      <c r="H339" t="s">
+        <v>70</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>1</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="M339">
+        <v>1</v>
+      </c>
+      <c r="N339">
+        <v>2</v>
+      </c>
+      <c r="O339" t="s">
+        <v>94</v>
+      </c>
+      <c r="P339" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q339">
+        <v>2.25</v>
+      </c>
+      <c r="R339">
+        <v>2.38</v>
+      </c>
+      <c r="S339">
+        <v>4.75</v>
+      </c>
+      <c r="T339">
+        <v>1.33</v>
+      </c>
+      <c r="U339">
+        <v>3.25</v>
+      </c>
+      <c r="V339">
+        <v>2.5</v>
+      </c>
+      <c r="W339">
+        <v>1.5</v>
+      </c>
+      <c r="X339">
+        <v>6.5</v>
+      </c>
+      <c r="Y339">
+        <v>1.11</v>
+      </c>
+      <c r="Z339">
+        <v>1.95</v>
+      </c>
+      <c r="AA339">
+        <v>3.7</v>
+      </c>
+      <c r="AB339">
+        <v>3.8</v>
+      </c>
+      <c r="AC339">
+        <v>1.04</v>
+      </c>
+      <c r="AD339">
+        <v>10</v>
+      </c>
+      <c r="AE339">
+        <v>1.2</v>
+      </c>
+      <c r="AF339">
+        <v>4.33</v>
+      </c>
+      <c r="AG339">
+        <v>1.73</v>
+      </c>
+      <c r="AH339">
+        <v>2</v>
+      </c>
+      <c r="AI339">
+        <v>1.7</v>
+      </c>
+      <c r="AJ339">
+        <v>2.05</v>
+      </c>
+      <c r="AK339">
+        <v>1.18</v>
+      </c>
+      <c r="AL339">
+        <v>1.23</v>
+      </c>
+      <c r="AM339">
+        <v>2.2</v>
+      </c>
+      <c r="AN339">
+        <v>1.5</v>
+      </c>
+      <c r="AO339">
+        <v>1.06</v>
+      </c>
+      <c r="AP339">
+        <v>1.47</v>
+      </c>
+      <c r="AQ339">
+        <v>1.06</v>
+      </c>
+      <c r="AR339">
+        <v>1.8</v>
+      </c>
+      <c r="AS339">
+        <v>1.47</v>
+      </c>
+      <c r="AT339">
+        <v>3.27</v>
+      </c>
+      <c r="AU339">
+        <v>2</v>
+      </c>
+      <c r="AV339">
+        <v>7</v>
+      </c>
+      <c r="AW339">
+        <v>7</v>
+      </c>
+      <c r="AX339">
+        <v>19</v>
+      </c>
+      <c r="AY339">
+        <v>10</v>
+      </c>
+      <c r="AZ339">
+        <v>38</v>
+      </c>
+      <c r="BA339">
+        <v>5</v>
+      </c>
+      <c r="BB339">
+        <v>10</v>
+      </c>
+      <c r="BC339">
+        <v>15</v>
+      </c>
+      <c r="BD339">
+        <v>1.38</v>
+      </c>
+      <c r="BE339">
+        <v>7.5</v>
+      </c>
+      <c r="BF339">
+        <v>3.3</v>
+      </c>
+      <c r="BG339">
+        <v>1.16</v>
+      </c>
+      <c r="BH339">
+        <v>4.4</v>
+      </c>
+      <c r="BI339">
+        <v>1.29</v>
+      </c>
+      <c r="BJ339">
+        <v>3.2</v>
+      </c>
+      <c r="BK339">
+        <v>1.49</v>
+      </c>
+      <c r="BL339">
+        <v>2.4</v>
+      </c>
+      <c r="BM339">
+        <v>1.75</v>
+      </c>
+      <c r="BN339">
+        <v>1.95</v>
+      </c>
+      <c r="BO339">
+        <v>2.17</v>
+      </c>
+      <c r="BP339">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:68">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>7467013</v>
+      </c>
+      <c r="C340" t="s">
+        <v>68</v>
+      </c>
+      <c r="D340" t="s">
+        <v>69</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45774.52083333334</v>
+      </c>
+      <c r="F340">
+        <v>34</v>
+      </c>
+      <c r="G340" t="s">
+        <v>89</v>
+      </c>
+      <c r="H340" t="s">
+        <v>81</v>
+      </c>
+      <c r="I340">
+        <v>3</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+      <c r="K340">
+        <v>4</v>
+      </c>
+      <c r="L340">
+        <v>5</v>
+      </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
+      <c r="N340">
+        <v>6</v>
+      </c>
+      <c r="O340" t="s">
+        <v>305</v>
+      </c>
+      <c r="P340" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q340">
+        <v>1.62</v>
+      </c>
+      <c r="R340">
+        <v>3</v>
+      </c>
+      <c r="S340">
+        <v>7.5</v>
+      </c>
+      <c r="T340">
+        <v>1.18</v>
+      </c>
+      <c r="U340">
+        <v>4.5</v>
+      </c>
+      <c r="V340">
+        <v>1.83</v>
+      </c>
+      <c r="W340">
+        <v>1.83</v>
+      </c>
+      <c r="X340">
+        <v>3.75</v>
+      </c>
+      <c r="Y340">
+        <v>1.25</v>
+      </c>
+      <c r="Z340">
+        <v>1.35</v>
+      </c>
+      <c r="AA340">
+        <v>5.4</v>
+      </c>
+      <c r="AB340">
+        <v>8</v>
+      </c>
+      <c r="AC340">
+        <v>1.01</v>
+      </c>
+      <c r="AD340">
+        <v>26</v>
+      </c>
+      <c r="AE340">
+        <v>1.09</v>
+      </c>
+      <c r="AF340">
+        <v>7</v>
+      </c>
+      <c r="AG340">
+        <v>1.29</v>
+      </c>
+      <c r="AH340">
+        <v>3.4</v>
+      </c>
+      <c r="AI340">
+        <v>1.62</v>
+      </c>
+      <c r="AJ340">
+        <v>2.2</v>
+      </c>
+      <c r="AK340">
+        <v>1.07</v>
+      </c>
+      <c r="AL340">
+        <v>1.12</v>
+      </c>
+      <c r="AM340">
+        <v>3.6</v>
+      </c>
+      <c r="AN340">
+        <v>2.56</v>
+      </c>
+      <c r="AO340">
+        <v>1</v>
+      </c>
+      <c r="AP340">
+        <v>2.59</v>
+      </c>
+      <c r="AQ340">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR340">
+        <v>1.89</v>
+      </c>
+      <c r="AS340">
+        <v>1.54</v>
+      </c>
+      <c r="AT340">
+        <v>3.43</v>
+      </c>
+      <c r="AU340">
+        <v>9</v>
+      </c>
+      <c r="AV340">
+        <v>4</v>
+      </c>
+      <c r="AW340">
+        <v>17</v>
+      </c>
+      <c r="AX340">
+        <v>5</v>
+      </c>
+      <c r="AY340">
+        <v>36</v>
+      </c>
+      <c r="AZ340">
+        <v>11</v>
+      </c>
+      <c r="BA340">
+        <v>8</v>
+      </c>
+      <c r="BB340">
+        <v>2</v>
+      </c>
+      <c r="BC340">
+        <v>10</v>
+      </c>
+      <c r="BD340">
+        <v>1.22</v>
+      </c>
+      <c r="BE340">
+        <v>9</v>
+      </c>
+      <c r="BF340">
+        <v>4.4</v>
+      </c>
+      <c r="BG340">
+        <v>1.11</v>
+      </c>
+      <c r="BH340">
+        <v>5.3</v>
+      </c>
+      <c r="BI340">
+        <v>1.21</v>
+      </c>
+      <c r="BJ340">
+        <v>3.8</v>
+      </c>
+      <c r="BK340">
+        <v>1.36</v>
+      </c>
+      <c r="BL340">
+        <v>2.8</v>
+      </c>
+      <c r="BM340">
+        <v>1.58</v>
+      </c>
+      <c r="BN340">
+        <v>2.2</v>
+      </c>
+      <c r="BO340">
+        <v>1.89</v>
+      </c>
+      <c r="BP340">
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -71780,16 +71780,16 @@
         <v>4</v>
       </c>
       <c r="AW340">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AX340">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY340">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AZ340">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA340">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="474">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1434,6 +1434,9 @@
   <si>
     <t>['48', '83']</t>
   </si>
+  <si>
+    <t>['44', '70']</t>
+  </si>
 </sst>
 </file>
 
@@ -1794,7 +1797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP340"/>
+  <dimension ref="A1:BP341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3161,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ7">
         <v>1.47</v>
@@ -6048,7 +6051,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ21">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6869,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ25">
         <v>1.24</v>
@@ -9344,7 +9347,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR37">
         <v>1.98</v>
@@ -11404,7 +11407,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ47">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -12637,7 +12640,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ53">
         <v>1.47</v>
@@ -16966,7 +16969,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ74">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR74">
         <v>1.31</v>
@@ -18405,7 +18408,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ81">
         <v>1.41</v>
@@ -21701,7 +21704,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -22528,7 +22531,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ101">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR101">
         <v>1.81</v>
@@ -24173,7 +24176,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ109">
         <v>1.59</v>
@@ -25206,7 +25209,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ114">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -27263,7 +27266,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ124">
         <v>0.82</v>
@@ -30150,7 +30153,7 @@
         <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -33649,7 +33652,7 @@
         <v>1.43</v>
       </c>
       <c r="AP155">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ155">
         <v>1.35</v>
@@ -34476,7 +34479,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ159">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR159">
         <v>1.69</v>
@@ -37357,7 +37360,7 @@
         <v>1.25</v>
       </c>
       <c r="AP173">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ173">
         <v>0.9399999999999999</v>
@@ -38596,7 +38599,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ179">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR179">
         <v>1.54</v>
@@ -41892,7 +41895,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ195">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR195">
         <v>1.14</v>
@@ -43743,7 +43746,7 @@
         <v>2.56</v>
       </c>
       <c r="AP204">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ204">
         <v>2.24</v>
@@ -46421,7 +46424,7 @@
         <v>0.18</v>
       </c>
       <c r="AP217">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ217">
         <v>0.35</v>
@@ -48484,7 +48487,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ227">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR227">
         <v>1.4</v>
@@ -49305,7 +49308,7 @@
         <v>1.58</v>
       </c>
       <c r="AP231">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ231">
         <v>1.35</v>
@@ -52398,7 +52401,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ246">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR246">
         <v>1.24</v>
@@ -53840,7 +53843,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ253">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR253">
         <v>1.19</v>
@@ -57339,7 +57342,7 @@
         <v>1.92</v>
       </c>
       <c r="AP270">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ270">
         <v>1.82</v>
@@ -57957,7 +57960,7 @@
         <v>1.5</v>
       </c>
       <c r="AP273">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ273">
         <v>1.47</v>
@@ -60844,7 +60847,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ287">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR287">
         <v>1.74</v>
@@ -62077,7 +62080,7 @@
         <v>1.21</v>
       </c>
       <c r="AP293">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ293">
         <v>1.06</v>
@@ -62698,7 +62701,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ296">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR296">
         <v>1.61</v>
@@ -66403,7 +66406,7 @@
         <v>1</v>
       </c>
       <c r="AP314">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AQ314">
         <v>1.06</v>
@@ -66612,7 +66615,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ315">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AR315">
         <v>1.96</v>
@@ -71838,6 +71841,212 @@
       </c>
       <c r="BP340">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>7467016</v>
+      </c>
+      <c r="C341" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45778.64583333334</v>
+      </c>
+      <c r="F341">
+        <v>34</v>
+      </c>
+      <c r="G341" t="s">
+        <v>75</v>
+      </c>
+      <c r="H341" t="s">
+        <v>77</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>1</v>
+      </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
+      <c r="L341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>2</v>
+      </c>
+      <c r="N341">
+        <v>2</v>
+      </c>
+      <c r="O341" t="s">
+        <v>91</v>
+      </c>
+      <c r="P341" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q341">
+        <v>2.75</v>
+      </c>
+      <c r="R341">
+        <v>2.25</v>
+      </c>
+      <c r="S341">
+        <v>3.75</v>
+      </c>
+      <c r="T341">
+        <v>1.33</v>
+      </c>
+      <c r="U341">
+        <v>3.25</v>
+      </c>
+      <c r="V341">
+        <v>2.63</v>
+      </c>
+      <c r="W341">
+        <v>1.44</v>
+      </c>
+      <c r="X341">
+        <v>6.5</v>
+      </c>
+      <c r="Y341">
+        <v>1.11</v>
+      </c>
+      <c r="Z341">
+        <v>2.25</v>
+      </c>
+      <c r="AA341">
+        <v>3.5</v>
+      </c>
+      <c r="AB341">
+        <v>3.1</v>
+      </c>
+      <c r="AC341">
+        <v>1.05</v>
+      </c>
+      <c r="AD341">
+        <v>9.5</v>
+      </c>
+      <c r="AE341">
+        <v>1.25</v>
+      </c>
+      <c r="AF341">
+        <v>3.7</v>
+      </c>
+      <c r="AG341">
+        <v>1.7</v>
+      </c>
+      <c r="AH341">
+        <v>2.05</v>
+      </c>
+      <c r="AI341">
+        <v>1.67</v>
+      </c>
+      <c r="AJ341">
+        <v>2.1</v>
+      </c>
+      <c r="AK341">
+        <v>1.32</v>
+      </c>
+      <c r="AL341">
+        <v>1.29</v>
+      </c>
+      <c r="AM341">
+        <v>1.7</v>
+      </c>
+      <c r="AN341">
+        <v>1.94</v>
+      </c>
+      <c r="AO341">
+        <v>1.13</v>
+      </c>
+      <c r="AP341">
+        <v>1.82</v>
+      </c>
+      <c r="AQ341">
+        <v>1.24</v>
+      </c>
+      <c r="AR341">
+        <v>1.42</v>
+      </c>
+      <c r="AS341">
+        <v>1.25</v>
+      </c>
+      <c r="AT341">
+        <v>2.67</v>
+      </c>
+      <c r="AU341">
+        <v>7</v>
+      </c>
+      <c r="AV341">
+        <v>4</v>
+      </c>
+      <c r="AW341">
+        <v>9</v>
+      </c>
+      <c r="AX341">
+        <v>8</v>
+      </c>
+      <c r="AY341">
+        <v>18</v>
+      </c>
+      <c r="AZ341">
+        <v>13</v>
+      </c>
+      <c r="BA341">
+        <v>4</v>
+      </c>
+      <c r="BB341">
+        <v>5</v>
+      </c>
+      <c r="BC341">
+        <v>9</v>
+      </c>
+      <c r="BD341">
+        <v>1.82</v>
+      </c>
+      <c r="BE341">
+        <v>7</v>
+      </c>
+      <c r="BF341">
+        <v>2.35</v>
+      </c>
+      <c r="BG341">
+        <v>1.13</v>
+      </c>
+      <c r="BH341">
+        <v>5.25</v>
+      </c>
+      <c r="BI341">
+        <v>1.26</v>
+      </c>
+      <c r="BJ341">
+        <v>3.5</v>
+      </c>
+      <c r="BK341">
+        <v>1.47</v>
+      </c>
+      <c r="BL341">
+        <v>2.5</v>
+      </c>
+      <c r="BM341">
+        <v>1.8</v>
+      </c>
+      <c r="BN341">
+        <v>1.88</v>
+      </c>
+      <c r="BO341">
+        <v>2.35</v>
+      </c>
+      <c r="BP341">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="474">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -934,6 +934,9 @@
     <t>['16', '24', '34', '63', '69']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -995,9 +998,6 @@
   </si>
   <si>
     <t>['22', '45+1']</t>
-  </si>
-  <si>
-    <t>['35']</t>
   </si>
   <si>
     <t>['51']</t>
@@ -1797,7 +1797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP341"/>
+  <dimension ref="A1:BP342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2262,7 +2262,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2549,7 +2549,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ4">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3086,7 +3086,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3292,7 +3292,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3704,7 +3704,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ17">
         <v>0.82</v>
@@ -5352,7 +5352,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5558,7 +5558,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -6382,7 +6382,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6588,7 +6588,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6875,7 +6875,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ25">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>1.78</v>
@@ -7206,7 +7206,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7412,7 +7412,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7618,7 +7618,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -8030,7 +8030,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8236,7 +8236,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8648,7 +8648,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ37">
         <v>1.24</v>
@@ -9472,7 +9472,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9678,7 +9678,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9884,7 +9884,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10090,7 +10090,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10296,7 +10296,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10502,7 +10502,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11613,7 +11613,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.44</v>
@@ -12150,7 +12150,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12228,7 +12228,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ51">
         <v>1.82</v>
@@ -12356,7 +12356,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="Q52">
         <v>4.75</v>
@@ -14906,7 +14906,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ64">
         <v>1.47</v>
@@ -15321,7 +15321,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ66">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -17094,7 +17094,7 @@
         <v>91</v>
       </c>
       <c r="P75" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ83">
         <v>0.35</v>
@@ -19029,7 +19029,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ84">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -19772,7 +19772,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -22038,7 +22038,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -25003,7 +25003,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ113">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR113">
         <v>1.98</v>
@@ -26030,7 +26030,7 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ118">
         <v>0.9399999999999999</v>
@@ -27600,7 +27600,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -29738,7 +29738,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ136">
         <v>1.71</v>
@@ -29947,7 +29947,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ137">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR137">
         <v>1.42</v>
@@ -32625,7 +32625,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ150">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR150">
         <v>1.48</v>
@@ -34064,7 +34064,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ157">
         <v>1.06</v>
@@ -36127,7 +36127,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ167">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR167">
         <v>1.06</v>
@@ -36948,7 +36948,7 @@
         <v>0.75</v>
       </c>
       <c r="AP171">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ171">
         <v>1.06</v>
@@ -39217,7 +39217,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ182">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR182">
         <v>1.74</v>
@@ -42098,7 +42098,7 @@
         <v>1.33</v>
       </c>
       <c r="AP196">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ196">
         <v>1</v>
@@ -44161,7 +44161,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ206">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR206">
         <v>1.56</v>
@@ -47045,7 +47045,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ220">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR220">
         <v>1.85</v>
@@ -48278,7 +48278,7 @@
         <v>1.91</v>
       </c>
       <c r="AP226">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ226">
         <v>1.47</v>
@@ -52192,7 +52192,7 @@
         <v>1.75</v>
       </c>
       <c r="AP245">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ245">
         <v>1.59</v>
@@ -53225,7 +53225,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ250">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR250">
         <v>1.85</v>
@@ -54873,7 +54873,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ258">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR258">
         <v>1.79</v>
@@ -55694,7 +55694,7 @@
         <v>2.29</v>
       </c>
       <c r="AP262">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ262">
         <v>2.24</v>
@@ -58294,7 +58294,7 @@
         <v>270</v>
       </c>
       <c r="P275" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="Q275">
         <v>2.5</v>
@@ -60023,7 +60023,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ283">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR283">
         <v>1.16</v>
@@ -60638,7 +60638,7 @@
         <v>1.57</v>
       </c>
       <c r="AP286">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ286">
         <v>1.35</v>
@@ -62492,7 +62492,7 @@
         <v>0.57</v>
       </c>
       <c r="AP295">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ295">
         <v>0.53</v>
@@ -64349,7 +64349,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ304">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR304">
         <v>1.26</v>
@@ -65788,7 +65788,7 @@
         <v>1.64</v>
       </c>
       <c r="AP311">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ311">
         <v>1.41</v>
@@ -66946,7 +66946,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -69499,7 +69499,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ329">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AR329">
         <v>1.51</v>
@@ -70114,7 +70114,7 @@
         <v>1.44</v>
       </c>
       <c r="AP332">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AQ332">
         <v>1.35</v>
@@ -72047,6 +72047,212 @@
       </c>
       <c r="BP341">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="342" spans="1:68">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>7467027</v>
+      </c>
+      <c r="C342" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45779.66666666666</v>
+      </c>
+      <c r="F342">
+        <v>35</v>
+      </c>
+      <c r="G342" t="s">
+        <v>85</v>
+      </c>
+      <c r="H342" t="s">
+        <v>87</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>1</v>
+      </c>
+      <c r="O342" t="s">
+        <v>306</v>
+      </c>
+      <c r="P342" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q342">
+        <v>1.8</v>
+      </c>
+      <c r="R342">
+        <v>2.63</v>
+      </c>
+      <c r="S342">
+        <v>7</v>
+      </c>
+      <c r="T342">
+        <v>1.25</v>
+      </c>
+      <c r="U342">
+        <v>3.75</v>
+      </c>
+      <c r="V342">
+        <v>2.2</v>
+      </c>
+      <c r="W342">
+        <v>1.62</v>
+      </c>
+      <c r="X342">
+        <v>5</v>
+      </c>
+      <c r="Y342">
+        <v>1.17</v>
+      </c>
+      <c r="Z342">
+        <v>1.33</v>
+      </c>
+      <c r="AA342">
+        <v>5.4</v>
+      </c>
+      <c r="AB342">
+        <v>8.5</v>
+      </c>
+      <c r="AC342">
+        <v>1.01</v>
+      </c>
+      <c r="AD342">
+        <v>13</v>
+      </c>
+      <c r="AE342">
+        <v>1.17</v>
+      </c>
+      <c r="AF342">
+        <v>5</v>
+      </c>
+      <c r="AG342">
+        <v>1.53</v>
+      </c>
+      <c r="AH342">
+        <v>2.4</v>
+      </c>
+      <c r="AI342">
+        <v>1.8</v>
+      </c>
+      <c r="AJ342">
+        <v>1.95</v>
+      </c>
+      <c r="AK342">
+        <v>1.09</v>
+      </c>
+      <c r="AL342">
+        <v>1.16</v>
+      </c>
+      <c r="AM342">
+        <v>3</v>
+      </c>
+      <c r="AN342">
+        <v>2.12</v>
+      </c>
+      <c r="AO342">
+        <v>1.24</v>
+      </c>
+      <c r="AP342">
+        <v>2.17</v>
+      </c>
+      <c r="AQ342">
+        <v>1.17</v>
+      </c>
+      <c r="AR342">
+        <v>1.96</v>
+      </c>
+      <c r="AS342">
+        <v>1.33</v>
+      </c>
+      <c r="AT342">
+        <v>3.29</v>
+      </c>
+      <c r="AU342">
+        <v>3</v>
+      </c>
+      <c r="AV342">
+        <v>2</v>
+      </c>
+      <c r="AW342">
+        <v>7</v>
+      </c>
+      <c r="AX342">
+        <v>5</v>
+      </c>
+      <c r="AY342">
+        <v>12</v>
+      </c>
+      <c r="AZ342">
+        <v>7</v>
+      </c>
+      <c r="BA342">
+        <v>4</v>
+      </c>
+      <c r="BB342">
+        <v>5</v>
+      </c>
+      <c r="BC342">
+        <v>9</v>
+      </c>
+      <c r="BD342">
+        <v>1.18</v>
+      </c>
+      <c r="BE342">
+        <v>12.5</v>
+      </c>
+      <c r="BF342">
+        <v>6.2</v>
+      </c>
+      <c r="BG342">
+        <v>1.15</v>
+      </c>
+      <c r="BH342">
+        <v>4.2</v>
+      </c>
+      <c r="BI342">
+        <v>1.32</v>
+      </c>
+      <c r="BJ342">
+        <v>2.88</v>
+      </c>
+      <c r="BK342">
+        <v>1.59</v>
+      </c>
+      <c r="BL342">
+        <v>2.16</v>
+      </c>
+      <c r="BM342">
+        <v>1.99</v>
+      </c>
+      <c r="BN342">
+        <v>1.73</v>
+      </c>
+      <c r="BO342">
+        <v>2.57</v>
+      </c>
+      <c r="BP342">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="478">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -937,6 +937,15 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['26', '35']</t>
+  </si>
+  <si>
+    <t>['17', '44']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1381,9 +1390,6 @@
     <t>['34', '60']</t>
   </si>
   <si>
-    <t>['34']</t>
-  </si>
-  <si>
     <t>['38', '79']</t>
   </si>
   <si>
@@ -1436,6 +1442,12 @@
   </si>
   <si>
     <t>['44', '70']</t>
+  </si>
+  <si>
+    <t>['41', '79']</t>
+  </si>
+  <si>
+    <t>['67', '75']</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP342"/>
+  <dimension ref="A1:BP346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2137,7 +2149,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ2">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2262,7 +2274,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2546,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.17</v>
@@ -2674,7 +2686,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2752,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5">
         <v>1.35</v>
@@ -2961,7 +2973,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ6">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3086,7 +3098,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3167,7 +3179,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ7">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3292,7 +3304,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3704,7 +3716,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3988,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ11">
         <v>0.9399999999999999</v>
@@ -5227,7 +5239,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5352,7 +5364,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5430,7 +5442,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ18">
         <v>1.82</v>
@@ -5558,7 +5570,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -6254,7 +6266,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.35</v>
@@ -6382,7 +6394,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6460,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
         <v>1.35</v>
@@ -6588,7 +6600,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6669,7 +6681,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ24">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR24">
         <v>0.77</v>
@@ -7081,7 +7093,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ26">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -7206,7 +7218,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7284,10 +7296,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR27">
         <v>0.83</v>
@@ -7412,7 +7424,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7618,7 +7630,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -8030,7 +8042,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8236,7 +8248,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8523,7 +8535,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ33">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR33">
         <v>1.6</v>
@@ -8648,7 +8660,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9472,7 +9484,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9550,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ38">
         <v>1.06</v>
@@ -9678,7 +9690,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9884,7 +9896,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10090,7 +10102,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10296,7 +10308,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10502,7 +10514,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10786,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ44">
         <v>1.06</v>
@@ -10995,7 +11007,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ45">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR45">
         <v>1.78</v>
@@ -11201,7 +11213,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ46">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>0.83</v>
@@ -11610,7 +11622,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -12150,7 +12162,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12562,7 +12574,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12643,7 +12655,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ53">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12846,7 +12858,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54">
         <v>1.41</v>
@@ -12974,7 +12986,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13052,7 +13064,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.53</v>
@@ -13386,7 +13398,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13592,7 +13604,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13798,7 +13810,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -14004,7 +14016,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14210,7 +14222,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14291,7 +14303,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ61">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR61">
         <v>1.76</v>
@@ -14416,7 +14428,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14700,10 +14712,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ63">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR63">
         <v>1.12</v>
@@ -14828,7 +14840,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14909,7 +14921,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ64">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR64">
         <v>2.4</v>
@@ -15034,7 +15046,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15115,7 +15127,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ65">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -15240,7 +15252,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -15524,10 +15536,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR67">
         <v>2.4</v>
@@ -15730,7 +15742,7 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ68">
         <v>1.59</v>
@@ -16142,7 +16154,7 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ70">
         <v>1.06</v>
@@ -16270,7 +16282,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16682,7 +16694,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16888,7 +16900,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17300,7 +17312,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17506,7 +17518,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17918,7 +17930,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18124,7 +18136,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18536,7 +18548,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18614,7 +18626,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ82">
         <v>1.71</v>
@@ -18823,7 +18835,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ83">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR83">
         <v>2.31</v>
@@ -18948,7 +18960,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19154,7 +19166,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19232,10 +19244,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ85">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -19360,7 +19372,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19441,7 +19453,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ86">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -19644,10 +19656,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ87">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19772,7 +19784,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -20184,7 +20196,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20390,7 +20402,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20468,7 +20480,7 @@
         <v>3</v>
       </c>
       <c r="AP91">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>2.24</v>
@@ -21832,7 +21844,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -22038,7 +22050,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22244,7 +22256,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22656,7 +22668,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22737,7 +22749,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ102">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR102">
         <v>1.76</v>
@@ -22862,7 +22874,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -22943,7 +22955,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ103">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -23355,7 +23367,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ105">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR105">
         <v>1.17</v>
@@ -24098,7 +24110,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24304,7 +24316,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24385,7 +24397,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ110">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24716,7 +24728,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24794,7 +24806,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ112">
         <v>1.47</v>
@@ -24922,7 +24934,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25206,7 +25218,7 @@
         <v>0</v>
       </c>
       <c r="AP114">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ114">
         <v>1.24</v>
@@ -25412,7 +25424,7 @@
         <v>2.2</v>
       </c>
       <c r="AP115">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.71</v>
@@ -25540,7 +25552,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25746,7 +25758,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25824,7 +25836,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ117">
         <v>1.41</v>
@@ -25952,7 +25964,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26158,7 +26170,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26364,7 +26376,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26570,7 +26582,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26776,7 +26788,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26857,7 +26869,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ122">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -26982,7 +26994,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27063,7 +27075,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ123">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR123">
         <v>1.13</v>
@@ -27269,7 +27281,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ124">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR124">
         <v>1.52</v>
@@ -27600,7 +27612,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27806,7 +27818,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -28505,7 +28517,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ130">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR130">
         <v>1.95</v>
@@ -28836,7 +28848,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29120,7 +29132,7 @@
         <v>1.33</v>
       </c>
       <c r="AP133">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -29248,7 +29260,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29454,7 +29466,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29944,7 +29956,7 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137">
         <v>1.17</v>
@@ -30150,7 +30162,7 @@
         <v>0.17</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ138">
         <v>1.24</v>
@@ -30356,7 +30368,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ139">
         <v>1.06</v>
@@ -30896,7 +30908,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31102,7 +31114,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31386,10 +31398,10 @@
         <v>0.14</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ144">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR144">
         <v>1.54</v>
@@ -31514,7 +31526,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31720,7 +31732,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31926,7 +31938,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32007,7 +32019,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ147">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR147">
         <v>1.16</v>
@@ -32132,7 +32144,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32210,7 +32222,7 @@
         <v>1.43</v>
       </c>
       <c r="AP148">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ148">
         <v>1.35</v>
@@ -32338,7 +32350,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32750,7 +32762,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32831,7 +32843,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ151">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR151">
         <v>1.14</v>
@@ -33034,7 +33046,7 @@
         <v>0.71</v>
       </c>
       <c r="AP152">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ152">
         <v>1.06</v>
@@ -33368,7 +33380,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33449,7 +33461,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ154">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR154">
         <v>1.76</v>
@@ -33574,7 +33586,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33780,7 +33792,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33986,7 +33998,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34192,7 +34204,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34888,7 +34900,7 @@
         <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ161">
         <v>1.47</v>
@@ -35016,7 +35028,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35222,7 +35234,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35428,7 +35440,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35634,7 +35646,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35921,7 +35933,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ166">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR166">
         <v>1.59</v>
@@ -36046,7 +36058,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36124,7 +36136,7 @@
         <v>0.63</v>
       </c>
       <c r="AP167">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ167">
         <v>1.17</v>
@@ -36252,7 +36264,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36333,7 +36345,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ168">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR168">
         <v>1.46</v>
@@ -36536,7 +36548,7 @@
         <v>2.38</v>
       </c>
       <c r="AP169">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ169">
         <v>1.47</v>
@@ -36664,7 +36676,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37076,7 +37088,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37694,7 +37706,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -37775,7 +37787,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ175">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR175">
         <v>1.78</v>
@@ -38312,7 +38324,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38802,10 +38814,10 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ180">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR180">
         <v>2.03</v>
@@ -38930,7 +38942,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39008,7 +39020,7 @@
         <v>1.22</v>
       </c>
       <c r="AP181">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ181">
         <v>1.47</v>
@@ -39136,7 +39148,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39423,7 +39435,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ183">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR183">
         <v>1.34</v>
@@ -39548,7 +39560,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39629,7 +39641,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ184">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR184">
         <v>1.59</v>
@@ -39754,7 +39766,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39832,7 +39844,7 @@
         <v>1.89</v>
       </c>
       <c r="AP185">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ185">
         <v>1.71</v>
@@ -39960,7 +39972,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40372,7 +40384,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40450,7 +40462,7 @@
         <v>1.33</v>
       </c>
       <c r="AP188">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ188">
         <v>1.35</v>
@@ -40578,7 +40590,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40784,7 +40796,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40990,7 +41002,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41402,7 +41414,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41480,7 +41492,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP193">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ193">
         <v>0.53</v>
@@ -41814,7 +41826,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -42020,7 +42032,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42432,7 +42444,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42513,7 +42525,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ198">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR198">
         <v>1.57</v>
@@ -42638,7 +42650,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42844,7 +42856,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43050,7 +43062,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43131,7 +43143,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ201">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR201">
         <v>1.75</v>
@@ -43256,7 +43268,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43337,7 +43349,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ202">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR202">
         <v>1.35</v>
@@ -43462,7 +43474,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43668,7 +43680,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43874,7 +43886,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -43952,7 +43964,7 @@
         <v>1.11</v>
       </c>
       <c r="AP205">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ205">
         <v>1.41</v>
@@ -44286,7 +44298,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44364,7 +44376,7 @@
         <v>1.11</v>
       </c>
       <c r="AP207">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ207">
         <v>1.35</v>
@@ -44570,7 +44582,7 @@
         <v>1.11</v>
       </c>
       <c r="AP208">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ208">
         <v>0.9399999999999999</v>
@@ -44698,7 +44710,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -44985,7 +44997,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ210">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -45110,7 +45122,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45191,7 +45203,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ211">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR211">
         <v>1.61</v>
@@ -45316,7 +45328,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45522,7 +45534,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45728,7 +45740,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45806,10 +45818,10 @@
         <v>1.3</v>
       </c>
       <c r="AP214">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ214">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR214">
         <v>1.2</v>
@@ -45934,7 +45946,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46012,7 +46024,7 @@
         <v>1.3</v>
       </c>
       <c r="AP215">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ215">
         <v>1.35</v>
@@ -46140,7 +46152,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46346,7 +46358,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46427,7 +46439,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ217">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR217">
         <v>1.44</v>
@@ -46552,7 +46564,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46630,7 +46642,7 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ218">
         <v>0.9399999999999999</v>
@@ -46758,7 +46770,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -46964,7 +46976,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47376,7 +47388,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47663,7 +47675,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ223">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR223">
         <v>1.79</v>
@@ -47788,7 +47800,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -47994,7 +48006,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48200,7 +48212,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48406,7 +48418,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48612,7 +48624,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -48896,7 +48908,7 @@
         <v>1.2</v>
       </c>
       <c r="AP229">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ229">
         <v>1</v>
@@ -49024,7 +49036,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49436,7 +49448,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49517,7 +49529,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ232">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR232">
         <v>1.61</v>
@@ -49720,7 +49732,7 @@
         <v>0.73</v>
       </c>
       <c r="AP233">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ233">
         <v>0.53</v>
@@ -49848,7 +49860,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -49929,7 +49941,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ234">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR234">
         <v>1.13</v>
@@ -50054,7 +50066,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50466,7 +50478,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50672,7 +50684,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50956,7 +50968,7 @@
         <v>1.5</v>
       </c>
       <c r="AP239">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ239">
         <v>1.47</v>
@@ -51084,7 +51096,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51290,7 +51302,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51368,7 +51380,7 @@
         <v>2.5</v>
       </c>
       <c r="AP241">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ241">
         <v>2.24</v>
@@ -51702,7 +51714,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51780,7 +51792,7 @@
         <v>1.83</v>
       </c>
       <c r="AP243">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ243">
         <v>1.82</v>
@@ -51908,7 +51920,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -51989,7 +52001,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ244">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR244">
         <v>1.15</v>
@@ -52810,10 +52822,10 @@
         <v>0.82</v>
       </c>
       <c r="AP248">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ248">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR248">
         <v>1.52</v>
@@ -52938,7 +52950,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53556,7 +53568,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53634,7 +53646,7 @@
         <v>2.38</v>
       </c>
       <c r="AP252">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ252">
         <v>2.24</v>
@@ -53762,7 +53774,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53840,7 +53852,7 @@
         <v>0.92</v>
       </c>
       <c r="AP253">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ253">
         <v>1.24</v>
@@ -53968,7 +53980,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54046,7 +54058,7 @@
         <v>1.08</v>
       </c>
       <c r="AP254">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ254">
         <v>1.06</v>
@@ -54174,7 +54186,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54380,7 +54392,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54586,7 +54598,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -54664,7 +54676,7 @@
         <v>1.08</v>
       </c>
       <c r="AP257">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ257">
         <v>1</v>
@@ -54998,7 +55010,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55204,7 +55216,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55282,7 +55294,7 @@
         <v>1.62</v>
       </c>
       <c r="AP260">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ260">
         <v>1.47</v>
@@ -55410,7 +55422,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55616,7 +55628,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55822,7 +55834,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -56028,7 +56040,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56109,7 +56121,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ264">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR264">
         <v>1.21</v>
@@ -56315,7 +56327,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ265">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR265">
         <v>1.6</v>
@@ -56521,7 +56533,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ266">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR266">
         <v>1.91</v>
@@ -56852,7 +56864,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -56933,7 +56945,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ268">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR268">
         <v>1.55</v>
@@ -58088,7 +58100,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58169,7 +58181,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ274">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR274">
         <v>1.79</v>
@@ -58375,7 +58387,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ275">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR275">
         <v>1.59</v>
@@ -58581,7 +58593,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ276">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR276">
         <v>1.51</v>
@@ -59324,7 +59336,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59405,7 +59417,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ280">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR280">
         <v>1.76</v>
@@ -59530,7 +59542,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59736,7 +59748,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59942,7 +59954,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60226,7 +60238,7 @@
         <v>1.23</v>
       </c>
       <c r="AP284">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ284">
         <v>1</v>
@@ -60354,7 +60366,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60560,7 +60572,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60766,7 +60778,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61256,7 +61268,7 @@
         <v>1.5</v>
       </c>
       <c r="AP289">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ289">
         <v>1.47</v>
@@ -61384,7 +61396,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -61462,7 +61474,7 @@
         <v>1.08</v>
       </c>
       <c r="AP290">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ290">
         <v>1.06</v>
@@ -61668,10 +61680,10 @@
         <v>1.57</v>
       </c>
       <c r="AP291">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ291">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR291">
         <v>1.96</v>
@@ -62208,7 +62220,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62620,7 +62632,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62826,7 +62838,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -63032,7 +63044,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63113,7 +63125,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ298">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR298">
         <v>1.79</v>
@@ -63650,7 +63662,7 @@
         <v>180</v>
       </c>
       <c r="P301" t="s">
-        <v>455</v>
+        <v>309</v>
       </c>
       <c r="Q301">
         <v>6</v>
@@ -63728,7 +63740,7 @@
         <v>1.8</v>
       </c>
       <c r="AP301">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ301">
         <v>1.82</v>
@@ -63856,7 +63868,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -63937,7 +63949,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ302">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR302">
         <v>1.26</v>
@@ -64268,7 +64280,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64552,7 +64564,7 @@
         <v>1.73</v>
       </c>
       <c r="AP305">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ305">
         <v>1.71</v>
@@ -64761,7 +64773,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ306">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR306">
         <v>1.74</v>
@@ -64886,7 +64898,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65504,7 +65516,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65582,7 +65594,7 @@
         <v>1.6</v>
       </c>
       <c r="AP310">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ310">
         <v>1.59</v>
@@ -65710,7 +65722,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65916,7 +65928,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66122,7 +66134,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66534,7 +66546,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66612,7 +66624,7 @@
         <v>1.13</v>
       </c>
       <c r="AP315">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ315">
         <v>1.24</v>
@@ -66740,7 +66752,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66946,7 +66958,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67152,7 +67164,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67233,7 +67245,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ318">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR318">
         <v>1.97</v>
@@ -67645,7 +67657,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ320">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR320">
         <v>1.84</v>
@@ -67976,7 +67988,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68263,7 +68275,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ323">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR323">
         <v>1.51</v>
@@ -68388,7 +68400,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -68466,7 +68478,7 @@
         <v>1.38</v>
       </c>
       <c r="AP324">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ324">
         <v>1.47</v>
@@ -68675,7 +68687,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ325">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR325">
         <v>1.25</v>
@@ -68878,7 +68890,7 @@
         <v>1.69</v>
       </c>
       <c r="AP326">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ326">
         <v>1.59</v>
@@ -69006,7 +69018,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69212,7 +69224,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69702,7 +69714,7 @@
         <v>2.19</v>
       </c>
       <c r="AP330">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AQ330">
         <v>2.24</v>
@@ -69830,7 +69842,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -70242,7 +70254,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70320,7 +70332,7 @@
         <v>1.44</v>
       </c>
       <c r="AP333">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AQ333">
         <v>1.41</v>
@@ -70735,7 +70747,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ335">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR335">
         <v>1.66</v>
@@ -70860,7 +70872,7 @@
         <v>211</v>
       </c>
       <c r="P336" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -70941,7 +70953,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ336">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR336">
         <v>1.16</v>
@@ -71272,7 +71284,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q338">
         <v>2.2</v>
@@ -71478,7 +71490,7 @@
         <v>94</v>
       </c>
       <c r="P339" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q339">
         <v>2.25</v>
@@ -71890,7 +71902,7 @@
         <v>91</v>
       </c>
       <c r="P341" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q341">
         <v>2.75</v>
@@ -72253,6 +72265,830 @@
       </c>
       <c r="BP342">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="343" spans="1:68">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>7467020</v>
+      </c>
+      <c r="C343" t="s">
+        <v>68</v>
+      </c>
+      <c r="D343" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45780.35416666666</v>
+      </c>
+      <c r="F343">
+        <v>35</v>
+      </c>
+      <c r="G343" t="s">
+        <v>86</v>
+      </c>
+      <c r="H343" t="s">
+        <v>83</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>1</v>
+      </c>
+      <c r="L343">
+        <v>1</v>
+      </c>
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343">
+        <v>1</v>
+      </c>
+      <c r="O343" t="s">
+        <v>154</v>
+      </c>
+      <c r="P343" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q343">
+        <v>2.25</v>
+      </c>
+      <c r="R343">
+        <v>2.38</v>
+      </c>
+      <c r="S343">
+        <v>4.75</v>
+      </c>
+      <c r="T343">
+        <v>1.33</v>
+      </c>
+      <c r="U343">
+        <v>3.25</v>
+      </c>
+      <c r="V343">
+        <v>2.5</v>
+      </c>
+      <c r="W343">
+        <v>1.5</v>
+      </c>
+      <c r="X343">
+        <v>6.5</v>
+      </c>
+      <c r="Y343">
+        <v>1.11</v>
+      </c>
+      <c r="Z343">
+        <v>1.83</v>
+      </c>
+      <c r="AA343">
+        <v>3.7</v>
+      </c>
+      <c r="AB343">
+        <v>4.3</v>
+      </c>
+      <c r="AC343">
+        <v>1.04</v>
+      </c>
+      <c r="AD343">
+        <v>10</v>
+      </c>
+      <c r="AE343">
+        <v>1.25</v>
+      </c>
+      <c r="AF343">
+        <v>3.9</v>
+      </c>
+      <c r="AG343">
+        <v>1.83</v>
+      </c>
+      <c r="AH343">
+        <v>1.91</v>
+      </c>
+      <c r="AI343">
+        <v>1.7</v>
+      </c>
+      <c r="AJ343">
+        <v>2.05</v>
+      </c>
+      <c r="AK343">
+        <v>1.21</v>
+      </c>
+      <c r="AL343">
+        <v>1.25</v>
+      </c>
+      <c r="AM343">
+        <v>2</v>
+      </c>
+      <c r="AN343">
+        <v>2</v>
+      </c>
+      <c r="AO343">
+        <v>1.47</v>
+      </c>
+      <c r="AP343">
+        <v>2.06</v>
+      </c>
+      <c r="AQ343">
+        <v>1.39</v>
+      </c>
+      <c r="AR343">
+        <v>1.69</v>
+      </c>
+      <c r="AS343">
+        <v>1.54</v>
+      </c>
+      <c r="AT343">
+        <v>3.23</v>
+      </c>
+      <c r="AU343">
+        <v>4</v>
+      </c>
+      <c r="AV343">
+        <v>4</v>
+      </c>
+      <c r="AW343">
+        <v>7</v>
+      </c>
+      <c r="AX343">
+        <v>8</v>
+      </c>
+      <c r="AY343">
+        <v>13</v>
+      </c>
+      <c r="AZ343">
+        <v>14</v>
+      </c>
+      <c r="BA343">
+        <v>5</v>
+      </c>
+      <c r="BB343">
+        <v>3</v>
+      </c>
+      <c r="BC343">
+        <v>8</v>
+      </c>
+      <c r="BD343">
+        <v>1.63</v>
+      </c>
+      <c r="BE343">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF343">
+        <v>2.73</v>
+      </c>
+      <c r="BG343">
+        <v>1.12</v>
+      </c>
+      <c r="BH343">
+        <v>4.75</v>
+      </c>
+      <c r="BI343">
+        <v>1.26</v>
+      </c>
+      <c r="BJ343">
+        <v>3.22</v>
+      </c>
+      <c r="BK343">
+        <v>1.49</v>
+      </c>
+      <c r="BL343">
+        <v>2.38</v>
+      </c>
+      <c r="BM343">
+        <v>1.85</v>
+      </c>
+      <c r="BN343">
+        <v>1.85</v>
+      </c>
+      <c r="BO343">
+        <v>2.34</v>
+      </c>
+      <c r="BP343">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:68">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>7467025</v>
+      </c>
+      <c r="C344" t="s">
+        <v>68</v>
+      </c>
+      <c r="D344" t="s">
+        <v>69</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F344">
+        <v>35</v>
+      </c>
+      <c r="G344" t="s">
+        <v>73</v>
+      </c>
+      <c r="H344" t="s">
+        <v>71</v>
+      </c>
+      <c r="I344">
+        <v>2</v>
+      </c>
+      <c r="J344">
+        <v>1</v>
+      </c>
+      <c r="K344">
+        <v>3</v>
+      </c>
+      <c r="L344">
+        <v>2</v>
+      </c>
+      <c r="M344">
+        <v>2</v>
+      </c>
+      <c r="N344">
+        <v>4</v>
+      </c>
+      <c r="O344" t="s">
+        <v>307</v>
+      </c>
+      <c r="P344" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q344">
+        <v>2.1</v>
+      </c>
+      <c r="R344">
+        <v>2.25</v>
+      </c>
+      <c r="S344">
+        <v>6</v>
+      </c>
+      <c r="T344">
+        <v>1.36</v>
+      </c>
+      <c r="U344">
+        <v>3</v>
+      </c>
+      <c r="V344">
+        <v>2.75</v>
+      </c>
+      <c r="W344">
+        <v>1.4</v>
+      </c>
+      <c r="X344">
+        <v>8</v>
+      </c>
+      <c r="Y344">
+        <v>1.08</v>
+      </c>
+      <c r="Z344">
+        <v>1.69</v>
+      </c>
+      <c r="AA344">
+        <v>3.9</v>
+      </c>
+      <c r="AB344">
+        <v>5.1</v>
+      </c>
+      <c r="AC344">
+        <v>1.05</v>
+      </c>
+      <c r="AD344">
+        <v>9.5</v>
+      </c>
+      <c r="AE344">
+        <v>1.3</v>
+      </c>
+      <c r="AF344">
+        <v>3.45</v>
+      </c>
+      <c r="AG344">
+        <v>1.95</v>
+      </c>
+      <c r="AH344">
+        <v>1.8</v>
+      </c>
+      <c r="AI344">
+        <v>2</v>
+      </c>
+      <c r="AJ344">
+        <v>1.75</v>
+      </c>
+      <c r="AK344">
+        <v>1.14</v>
+      </c>
+      <c r="AL344">
+        <v>1.24</v>
+      </c>
+      <c r="AM344">
+        <v>2.3</v>
+      </c>
+      <c r="AN344">
+        <v>1.18</v>
+      </c>
+      <c r="AO344">
+        <v>0.82</v>
+      </c>
+      <c r="AP344">
+        <v>1.17</v>
+      </c>
+      <c r="AQ344">
+        <v>0.83</v>
+      </c>
+      <c r="AR344">
+        <v>1.37</v>
+      </c>
+      <c r="AS344">
+        <v>0.99</v>
+      </c>
+      <c r="AT344">
+        <v>2.36</v>
+      </c>
+      <c r="AU344">
+        <v>4</v>
+      </c>
+      <c r="AV344">
+        <v>6</v>
+      </c>
+      <c r="AW344">
+        <v>5</v>
+      </c>
+      <c r="AX344">
+        <v>7</v>
+      </c>
+      <c r="AY344">
+        <v>9</v>
+      </c>
+      <c r="AZ344">
+        <v>14</v>
+      </c>
+      <c r="BA344">
+        <v>2</v>
+      </c>
+      <c r="BB344">
+        <v>3</v>
+      </c>
+      <c r="BC344">
+        <v>5</v>
+      </c>
+      <c r="BD344">
+        <v>1.41</v>
+      </c>
+      <c r="BE344">
+        <v>9.9</v>
+      </c>
+      <c r="BF344">
+        <v>3.6</v>
+      </c>
+      <c r="BG344">
+        <v>1.13</v>
+      </c>
+      <c r="BH344">
+        <v>4.6</v>
+      </c>
+      <c r="BI344">
+        <v>1.28</v>
+      </c>
+      <c r="BJ344">
+        <v>3.08</v>
+      </c>
+      <c r="BK344">
+        <v>1.52</v>
+      </c>
+      <c r="BL344">
+        <v>2.3</v>
+      </c>
+      <c r="BM344">
+        <v>1.88</v>
+      </c>
+      <c r="BN344">
+        <v>1.82</v>
+      </c>
+      <c r="BO344">
+        <v>2.4</v>
+      </c>
+      <c r="BP344">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="345" spans="1:68">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>7467026</v>
+      </c>
+      <c r="C345" t="s">
+        <v>68</v>
+      </c>
+      <c r="D345" t="s">
+        <v>69</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45780.45833333334</v>
+      </c>
+      <c r="F345">
+        <v>35</v>
+      </c>
+      <c r="G345" t="s">
+        <v>79</v>
+      </c>
+      <c r="H345" t="s">
+        <v>84</v>
+      </c>
+      <c r="I345">
+        <v>2</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>2</v>
+      </c>
+      <c r="L345">
+        <v>2</v>
+      </c>
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <v>2</v>
+      </c>
+      <c r="O345" t="s">
+        <v>308</v>
+      </c>
+      <c r="P345" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q345">
+        <v>2.75</v>
+      </c>
+      <c r="R345">
+        <v>2.3</v>
+      </c>
+      <c r="S345">
+        <v>3.5</v>
+      </c>
+      <c r="T345">
+        <v>1.33</v>
+      </c>
+      <c r="U345">
+        <v>3.25</v>
+      </c>
+      <c r="V345">
+        <v>2.5</v>
+      </c>
+      <c r="W345">
+        <v>1.5</v>
+      </c>
+      <c r="X345">
+        <v>6.5</v>
+      </c>
+      <c r="Y345">
+        <v>1.11</v>
+      </c>
+      <c r="Z345">
+        <v>2.25</v>
+      </c>
+      <c r="AA345">
+        <v>3.5</v>
+      </c>
+      <c r="AB345">
+        <v>3.1</v>
+      </c>
+      <c r="AC345">
+        <v>1.04</v>
+      </c>
+      <c r="AD345">
+        <v>10</v>
+      </c>
+      <c r="AE345">
+        <v>1.25</v>
+      </c>
+      <c r="AF345">
+        <v>3.95</v>
+      </c>
+      <c r="AG345">
+        <v>1.8</v>
+      </c>
+      <c r="AH345">
+        <v>1.95</v>
+      </c>
+      <c r="AI345">
+        <v>1.62</v>
+      </c>
+      <c r="AJ345">
+        <v>2.2</v>
+      </c>
+      <c r="AK345">
+        <v>1.38</v>
+      </c>
+      <c r="AL345">
+        <v>1.28</v>
+      </c>
+      <c r="AM345">
+        <v>1.62</v>
+      </c>
+      <c r="AN345">
+        <v>0.53</v>
+      </c>
+      <c r="AO345">
+        <v>0.35</v>
+      </c>
+      <c r="AP345">
+        <v>0.67</v>
+      </c>
+      <c r="AQ345">
+        <v>0.33</v>
+      </c>
+      <c r="AR345">
+        <v>1.17</v>
+      </c>
+      <c r="AS345">
+        <v>1.12</v>
+      </c>
+      <c r="AT345">
+        <v>2.29</v>
+      </c>
+      <c r="AU345">
+        <v>5</v>
+      </c>
+      <c r="AV345">
+        <v>3</v>
+      </c>
+      <c r="AW345">
+        <v>10</v>
+      </c>
+      <c r="AX345">
+        <v>6</v>
+      </c>
+      <c r="AY345">
+        <v>19</v>
+      </c>
+      <c r="AZ345">
+        <v>12</v>
+      </c>
+      <c r="BA345">
+        <v>6</v>
+      </c>
+      <c r="BB345">
+        <v>7</v>
+      </c>
+      <c r="BC345">
+        <v>13</v>
+      </c>
+      <c r="BD345">
+        <v>1.85</v>
+      </c>
+      <c r="BE345">
+        <v>6.75</v>
+      </c>
+      <c r="BF345">
+        <v>2.51</v>
+      </c>
+      <c r="BG345">
+        <v>1.19</v>
+      </c>
+      <c r="BH345">
+        <v>3.78</v>
+      </c>
+      <c r="BI345">
+        <v>1.39</v>
+      </c>
+      <c r="BJ345">
+        <v>2.67</v>
+      </c>
+      <c r="BK345">
+        <v>1.71</v>
+      </c>
+      <c r="BL345">
+        <v>2.02</v>
+      </c>
+      <c r="BM345">
+        <v>2.14</v>
+      </c>
+      <c r="BN345">
+        <v>1.6</v>
+      </c>
+      <c r="BO345">
+        <v>2.83</v>
+      </c>
+      <c r="BP345">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="346" spans="1:68">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>7467019</v>
+      </c>
+      <c r="C346" t="s">
+        <v>68</v>
+      </c>
+      <c r="D346" t="s">
+        <v>69</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45780.5625</v>
+      </c>
+      <c r="F346">
+        <v>35</v>
+      </c>
+      <c r="G346" t="s">
+        <v>72</v>
+      </c>
+      <c r="H346" t="s">
+        <v>88</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+      <c r="L346">
+        <v>1</v>
+      </c>
+      <c r="M346">
+        <v>2</v>
+      </c>
+      <c r="N346">
+        <v>3</v>
+      </c>
+      <c r="O346" t="s">
+        <v>309</v>
+      </c>
+      <c r="P346" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q346">
+        <v>2.6</v>
+      </c>
+      <c r="R346">
+        <v>2.25</v>
+      </c>
+      <c r="S346">
+        <v>4</v>
+      </c>
+      <c r="T346">
+        <v>1.36</v>
+      </c>
+      <c r="U346">
+        <v>3</v>
+      </c>
+      <c r="V346">
+        <v>2.63</v>
+      </c>
+      <c r="W346">
+        <v>1.44</v>
+      </c>
+      <c r="X346">
+        <v>7</v>
+      </c>
+      <c r="Y346">
+        <v>1.1</v>
+      </c>
+      <c r="Z346">
+        <v>1.69</v>
+      </c>
+      <c r="AA346">
+        <v>3.9</v>
+      </c>
+      <c r="AB346">
+        <v>5.1</v>
+      </c>
+      <c r="AC346">
+        <v>1.05</v>
+      </c>
+      <c r="AD346">
+        <v>9.5</v>
+      </c>
+      <c r="AE346">
+        <v>1.25</v>
+      </c>
+      <c r="AF346">
+        <v>3.7</v>
+      </c>
+      <c r="AG346">
+        <v>1.83</v>
+      </c>
+      <c r="AH346">
+        <v>1.91</v>
+      </c>
+      <c r="AI346">
+        <v>1.75</v>
+      </c>
+      <c r="AJ346">
+        <v>2</v>
+      </c>
+      <c r="AK346">
+        <v>1.25</v>
+      </c>
+      <c r="AL346">
+        <v>1.27</v>
+      </c>
+      <c r="AM346">
+        <v>1.87</v>
+      </c>
+      <c r="AN346">
+        <v>2.12</v>
+      </c>
+      <c r="AO346">
+        <v>1.47</v>
+      </c>
+      <c r="AP346">
+        <v>2</v>
+      </c>
+      <c r="AQ346">
+        <v>1.56</v>
+      </c>
+      <c r="AR346">
+        <v>1.92</v>
+      </c>
+      <c r="AS346">
+        <v>1.7</v>
+      </c>
+      <c r="AT346">
+        <v>3.62</v>
+      </c>
+      <c r="AU346">
+        <v>5</v>
+      </c>
+      <c r="AV346">
+        <v>3</v>
+      </c>
+      <c r="AW346">
+        <v>9</v>
+      </c>
+      <c r="AX346">
+        <v>7</v>
+      </c>
+      <c r="AY346">
+        <v>18</v>
+      </c>
+      <c r="AZ346">
+        <v>12</v>
+      </c>
+      <c r="BA346">
+        <v>2</v>
+      </c>
+      <c r="BB346">
+        <v>3</v>
+      </c>
+      <c r="BC346">
+        <v>5</v>
+      </c>
+      <c r="BD346">
+        <v>1.49</v>
+      </c>
+      <c r="BE346">
+        <v>9.6</v>
+      </c>
+      <c r="BF346">
+        <v>3.2</v>
+      </c>
+      <c r="BG346">
+        <v>1.12</v>
+      </c>
+      <c r="BH346">
+        <v>4.7</v>
+      </c>
+      <c r="BI346">
+        <v>1.26</v>
+      </c>
+      <c r="BJ346">
+        <v>3.22</v>
+      </c>
+      <c r="BK346">
+        <v>1.5</v>
+      </c>
+      <c r="BL346">
+        <v>2.35</v>
+      </c>
+      <c r="BM346">
+        <v>1.85</v>
+      </c>
+      <c r="BN346">
+        <v>1.85</v>
+      </c>
+      <c r="BO346">
+        <v>2.34</v>
+      </c>
+      <c r="BP346">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="482">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -946,6 +946,12 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['27', '33', '70', '74']</t>
+  </si>
+  <si>
+    <t>['3', '56', '90+6']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1449,6 +1455,12 @@
   <si>
     <t>['67', '75']</t>
   </si>
+  <si>
+    <t>['14', '82', '90+5']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
 </sst>
 </file>
 
@@ -1809,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP346"/>
+  <dimension ref="A1:BP350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2274,7 +2286,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2355,7 +2367,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ3">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2686,7 +2698,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3098,7 +3110,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3304,7 +3316,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3382,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ8">
         <v>1.35</v>
@@ -3588,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ9">
         <v>1.41</v>
@@ -3716,7 +3728,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3794,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ10">
         <v>1.47</v>
@@ -4206,10 +4218,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ12">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5364,7 +5376,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5570,7 +5582,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5857,7 +5869,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ20">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6394,7 +6406,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6600,7 +6612,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -7090,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ26">
         <v>0.33</v>
@@ -7218,7 +7230,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7424,7 +7436,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7502,7 +7514,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ28">
         <v>1.47</v>
@@ -7630,7 +7642,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7708,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ29">
         <v>1.41</v>
@@ -8042,7 +8054,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8123,7 +8135,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ31">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -8248,7 +8260,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8329,7 +8341,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ32">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0.65</v>
@@ -8532,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ33">
         <v>0.83</v>
@@ -8660,7 +8672,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9484,7 +9496,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9690,7 +9702,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9896,7 +9908,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10102,7 +10114,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10183,7 +10195,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ41">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -10308,7 +10320,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10386,7 +10398,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ42">
         <v>1.47</v>
@@ -10514,7 +10526,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10595,7 +10607,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ43">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR43">
         <v>1.79</v>
@@ -11831,7 +11843,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ49">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -12034,7 +12046,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -12162,7 +12174,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12574,7 +12586,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12986,7 +12998,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13270,7 +13282,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13398,7 +13410,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13476,7 +13488,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ57">
         <v>1.35</v>
@@ -13604,7 +13616,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13685,7 +13697,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ58">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13810,7 +13822,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -14016,7 +14028,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14222,7 +14234,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14428,7 +14440,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14509,7 +14521,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ62">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR62">
         <v>1.29</v>
@@ -14840,7 +14852,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -15046,7 +15058,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15124,7 +15136,7 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -15252,7 +15264,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -15330,7 +15342,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ66">
         <v>1.17</v>
@@ -15745,7 +15757,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ68">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15948,7 +15960,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ69">
         <v>1.71</v>
@@ -16157,7 +16169,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ70">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -16282,7 +16294,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16360,7 +16372,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ71">
         <v>0.9399999999999999</v>
@@ -16694,7 +16706,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16900,7 +16912,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17312,7 +17324,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17518,7 +17530,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17930,7 +17942,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18136,7 +18148,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18548,7 +18560,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18960,7 +18972,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19038,7 +19050,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ84">
         <v>1.17</v>
@@ -19166,7 +19178,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19372,7 +19384,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19450,7 +19462,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ86">
         <v>0.83</v>
@@ -19784,7 +19796,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19862,10 +19874,10 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ88">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -20196,7 +20208,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20274,10 +20286,10 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ90">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -20402,7 +20414,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20483,7 +20495,7 @@
         <v>2</v>
       </c>
       <c r="AQ91">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR91">
         <v>2.46</v>
@@ -21844,7 +21856,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -22050,7 +22062,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22256,7 +22268,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22668,7 +22680,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22746,7 +22758,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ102">
         <v>1.56</v>
@@ -22874,7 +22886,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23158,7 +23170,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ104">
         <v>1.06</v>
@@ -23570,7 +23582,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ106">
         <v>1.47</v>
@@ -24110,7 +24122,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24191,7 +24203,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ109">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -24316,7 +24328,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24600,7 +24612,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ111">
         <v>1.82</v>
@@ -24728,7 +24740,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24934,7 +24946,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25552,7 +25564,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25758,7 +25770,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25964,7 +25976,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26170,7 +26182,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26251,7 +26263,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ119">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR119">
         <v>1.07</v>
@@ -26376,7 +26388,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26457,7 +26469,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ120">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.13</v>
@@ -26582,7 +26594,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26788,7 +26800,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26866,7 +26878,7 @@
         <v>0</v>
       </c>
       <c r="AP122">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ122">
         <v>0.33</v>
@@ -26994,7 +27006,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27484,7 +27496,7 @@
         <v>0.83</v>
       </c>
       <c r="AP125">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ125">
         <v>0.53</v>
@@ -27612,7 +27624,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27693,7 +27705,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ126">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27818,7 +27830,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27896,7 +27908,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ127">
         <v>1.82</v>
@@ -28308,7 +28320,7 @@
         <v>1.67</v>
       </c>
       <c r="AP129">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ129">
         <v>1.35</v>
@@ -28848,7 +28860,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29260,7 +29272,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29466,7 +29478,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29547,7 +29559,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ135">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR135">
         <v>1.25</v>
@@ -30371,7 +30383,7 @@
         <v>2</v>
       </c>
       <c r="AQ139">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>2.18</v>
@@ -30908,7 +30920,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31114,7 +31126,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31192,10 +31204,10 @@
         <v>1.29</v>
       </c>
       <c r="AP143">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ143">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR143">
         <v>1.7</v>
@@ -31526,7 +31538,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31732,7 +31744,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31938,7 +31950,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32144,7 +32156,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32350,7 +32362,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32634,7 +32646,7 @@
         <v>0.71</v>
       </c>
       <c r="AP150">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ150">
         <v>1.17</v>
@@ -32762,7 +32774,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33380,7 +33392,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33586,7 +33598,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33792,7 +33804,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33870,7 +33882,7 @@
         <v>0.86</v>
       </c>
       <c r="AP156">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ156">
         <v>1.41</v>
@@ -33998,7 +34010,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34079,7 +34091,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ157">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR157">
         <v>2.25</v>
@@ -34204,7 +34216,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34488,7 +34500,7 @@
         <v>0.14</v>
       </c>
       <c r="AP159">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ159">
         <v>1.24</v>
@@ -35028,7 +35040,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35106,7 +35118,7 @@
         <v>1.75</v>
       </c>
       <c r="AP162">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ162">
         <v>1.71</v>
@@ -35234,7 +35246,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35312,7 +35324,7 @@
         <v>1.38</v>
       </c>
       <c r="AP163">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ163">
         <v>1.35</v>
@@ -35440,7 +35452,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35521,7 +35533,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ164">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -35646,7 +35658,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -36058,7 +36070,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36264,7 +36276,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36676,7 +36688,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36757,7 +36769,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ170">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR170">
         <v>1.79</v>
@@ -37088,7 +37100,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37706,7 +37718,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -37784,7 +37796,7 @@
         <v>1.25</v>
       </c>
       <c r="AP175">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ175">
         <v>1.39</v>
@@ -38199,7 +38211,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ177">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR177">
         <v>1.19</v>
@@ -38324,7 +38336,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38608,7 +38620,7 @@
         <v>0.13</v>
       </c>
       <c r="AP179">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ179">
         <v>1.24</v>
@@ -38942,7 +38954,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39148,7 +39160,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39560,7 +39572,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39766,7 +39778,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39972,7 +39984,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40050,10 +40062,10 @@
         <v>2.5</v>
       </c>
       <c r="AP186">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ186">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR186">
         <v>1.43</v>
@@ -40384,7 +40396,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40590,7 +40602,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40671,7 +40683,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ189">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR189">
         <v>1.54</v>
@@ -40796,7 +40808,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40874,7 +40886,7 @@
         <v>1.67</v>
       </c>
       <c r="AP190">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ190">
         <v>1.82</v>
@@ -41002,7 +41014,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41083,7 +41095,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ191">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR191">
         <v>1.71</v>
@@ -41414,7 +41426,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41826,7 +41838,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -42032,7 +42044,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42316,7 +42328,7 @@
         <v>1.8</v>
       </c>
       <c r="AP197">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ197">
         <v>1.82</v>
@@ -42444,7 +42456,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42650,7 +42662,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42731,7 +42743,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ199">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR199">
         <v>1.79</v>
@@ -42856,7 +42868,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43062,7 +43074,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43140,7 +43152,7 @@
         <v>1.5</v>
       </c>
       <c r="AP201">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ201">
         <v>1.56</v>
@@ -43268,7 +43280,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43346,7 +43358,7 @@
         <v>1.44</v>
       </c>
       <c r="AP202">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ202">
         <v>1.39</v>
@@ -43474,7 +43486,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43552,7 +43564,7 @@
         <v>1.4</v>
       </c>
       <c r="AP203">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ203">
         <v>1.47</v>
@@ -43680,7 +43692,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43761,7 +43773,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ204">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR204">
         <v>1.5</v>
@@ -43886,7 +43898,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44298,7 +44310,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44710,7 +44722,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45122,7 +45134,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45328,7 +45340,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45406,7 +45418,7 @@
         <v>1.3</v>
       </c>
       <c r="AP212">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ212">
         <v>1.41</v>
@@ -45534,7 +45546,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45612,10 +45624,10 @@
         <v>2.4</v>
       </c>
       <c r="AP213">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ213">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR213">
         <v>1.61</v>
@@ -45740,7 +45752,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45946,7 +45958,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46152,7 +46164,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46358,7 +46370,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46564,7 +46576,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46770,7 +46782,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -46976,7 +46988,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47054,7 +47066,7 @@
         <v>0.82</v>
       </c>
       <c r="AP220">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ220">
         <v>1.17</v>
@@ -47388,7 +47400,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47466,7 +47478,7 @@
         <v>0.7</v>
       </c>
       <c r="AP222">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ222">
         <v>1.06</v>
@@ -47800,7 +47812,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -47881,7 +47893,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ224">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR224">
         <v>1.11</v>
@@ -48006,7 +48018,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48212,7 +48224,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48418,7 +48430,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48624,7 +48636,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -49036,7 +49048,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49117,7 +49129,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ230">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR230">
         <v>1.57</v>
@@ -49448,7 +49460,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49860,7 +49872,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50066,7 +50078,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50147,7 +50159,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ235">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR235">
         <v>1.81</v>
@@ -50478,7 +50490,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50556,7 +50568,7 @@
         <v>0.91</v>
       </c>
       <c r="AP237">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ237">
         <v>0.9399999999999999</v>
@@ -50684,7 +50696,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -51096,7 +51108,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51174,7 +51186,7 @@
         <v>1.18</v>
       </c>
       <c r="AP240">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ240">
         <v>1</v>
@@ -51302,7 +51314,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51383,7 +51395,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ241">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR241">
         <v>1.39</v>
@@ -51586,7 +51598,7 @@
         <v>1.75</v>
       </c>
       <c r="AP242">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ242">
         <v>1.47</v>
@@ -51714,7 +51726,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51920,7 +51932,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -52207,7 +52219,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ245">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR245">
         <v>1.98</v>
@@ -52410,7 +52422,7 @@
         <v>0.73</v>
       </c>
       <c r="AP246">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ246">
         <v>1.24</v>
@@ -52950,7 +52962,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53443,7 +53455,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ251">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR251">
         <v>1.71</v>
@@ -53568,7 +53580,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53649,7 +53661,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ252">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR252">
         <v>1.61</v>
@@ -53774,7 +53786,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53980,7 +53992,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54061,7 +54073,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ254">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR254">
         <v>1.39</v>
@@ -54186,7 +54198,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54392,7 +54404,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54598,7 +54610,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -55010,7 +55022,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55216,7 +55228,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55422,7 +55434,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55628,7 +55640,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55709,7 +55721,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ262">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR262">
         <v>1.96</v>
@@ -55834,7 +55846,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -56040,7 +56052,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56324,7 +56336,7 @@
         <v>1.69</v>
       </c>
       <c r="AP265">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ265">
         <v>1.56</v>
@@ -56530,7 +56542,7 @@
         <v>0.38</v>
       </c>
       <c r="AP266">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ266">
         <v>0.33</v>
@@ -56864,7 +56876,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -57148,7 +57160,7 @@
         <v>1.08</v>
       </c>
       <c r="AP269">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ269">
         <v>1.06</v>
@@ -57563,7 +57575,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ271">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR271">
         <v>1.81</v>
@@ -57766,7 +57778,7 @@
         <v>0.67</v>
       </c>
       <c r="AP272">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ272">
         <v>0.53</v>
@@ -58100,7 +58112,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58384,7 +58396,7 @@
         <v>1.69</v>
       </c>
       <c r="AP275">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ275">
         <v>1.39</v>
@@ -58796,7 +58808,7 @@
         <v>1.08</v>
       </c>
       <c r="AP277">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ277">
         <v>1.35</v>
@@ -59208,7 +59220,7 @@
         <v>0.62</v>
       </c>
       <c r="AP279">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ279">
         <v>0.53</v>
@@ -59336,7 +59348,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59542,7 +59554,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59748,7 +59760,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59826,10 +59838,10 @@
         <v>1.5</v>
       </c>
       <c r="AP282">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ282">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR282">
         <v>1.26</v>
@@ -59954,7 +59966,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60366,7 +60378,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60572,7 +60584,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60778,7 +60790,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61396,7 +61408,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -61477,7 +61489,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ290">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR290">
         <v>1.19</v>
@@ -62095,7 +62107,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ293">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR293">
         <v>1.45</v>
@@ -62220,7 +62232,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62632,7 +62644,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62838,7 +62850,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -62916,7 +62928,7 @@
         <v>1.21</v>
       </c>
       <c r="AP297">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ297">
         <v>1.35</v>
@@ -63044,7 +63056,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63534,7 +63546,7 @@
         <v>1.14</v>
       </c>
       <c r="AP300">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ300">
         <v>0.9399999999999999</v>
@@ -63868,7 +63880,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -63946,7 +63958,7 @@
         <v>1.53</v>
       </c>
       <c r="AP302">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ302">
         <v>1.56</v>
@@ -64280,7 +64292,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64898,7 +64910,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -64979,7 +64991,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ307">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR307">
         <v>1.6</v>
@@ -65182,7 +65194,7 @@
         <v>1.4</v>
       </c>
       <c r="AP308">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ308">
         <v>1.47</v>
@@ -65516,7 +65528,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65597,7 +65609,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ310">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR310">
         <v>1.21</v>
@@ -65722,7 +65734,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65928,7 +65940,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66006,7 +66018,7 @@
         <v>0.53</v>
       </c>
       <c r="AP312">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ312">
         <v>0.53</v>
@@ -66134,7 +66146,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66546,7 +66558,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66752,7 +66764,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66958,7 +66970,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67164,7 +67176,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67242,7 +67254,7 @@
         <v>0.87</v>
       </c>
       <c r="AP318">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ318">
         <v>0.83</v>
@@ -67451,7 +67463,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ319">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR319">
         <v>1.64</v>
@@ -67988,7 +68000,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68066,7 +68078,7 @@
         <v>1.44</v>
       </c>
       <c r="AP322">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ322">
         <v>1.35</v>
@@ -68400,7 +68412,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -68684,7 +68696,7 @@
         <v>0.31</v>
       </c>
       <c r="AP325">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ325">
         <v>0.33</v>
@@ -68893,7 +68905,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ326">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR326">
         <v>1.64</v>
@@ -69018,7 +69030,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69224,7 +69236,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69717,7 +69729,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ330">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="AR330">
         <v>1.19</v>
@@ -69842,7 +69854,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -70254,7 +70266,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70538,7 +70550,7 @@
         <v>1.13</v>
       </c>
       <c r="AP334">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ334">
         <v>1.06</v>
@@ -70872,7 +70884,7 @@
         <v>211</v>
       </c>
       <c r="P336" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -71284,7 +71296,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q338">
         <v>2.2</v>
@@ -71362,7 +71374,7 @@
         <v>1.06</v>
       </c>
       <c r="AP338">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AQ338">
         <v>1</v>
@@ -71490,7 +71502,7 @@
         <v>94</v>
       </c>
       <c r="P339" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q339">
         <v>2.25</v>
@@ -71571,7 +71583,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ339">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR339">
         <v>1.8</v>
@@ -71902,7 +71914,7 @@
         <v>91</v>
       </c>
       <c r="P341" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q341">
         <v>2.75</v>
@@ -72520,7 +72532,7 @@
         <v>307</v>
       </c>
       <c r="P344" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q344">
         <v>2.1</v>
@@ -72932,7 +72944,7 @@
         <v>309</v>
       </c>
       <c r="P346" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q346">
         <v>2.6</v>
@@ -73089,6 +73101,830 @@
       </c>
       <c r="BP346">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:68">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>7467021</v>
+      </c>
+      <c r="C347" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" t="s">
+        <v>69</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F347">
+        <v>35</v>
+      </c>
+      <c r="G347" t="s">
+        <v>77</v>
+      </c>
+      <c r="H347" t="s">
+        <v>70</v>
+      </c>
+      <c r="I347">
+        <v>2</v>
+      </c>
+      <c r="J347">
+        <v>1</v>
+      </c>
+      <c r="K347">
+        <v>3</v>
+      </c>
+      <c r="L347">
+        <v>4</v>
+      </c>
+      <c r="M347">
+        <v>3</v>
+      </c>
+      <c r="N347">
+        <v>7</v>
+      </c>
+      <c r="O347" t="s">
+        <v>310</v>
+      </c>
+      <c r="P347" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q347">
+        <v>2.1</v>
+      </c>
+      <c r="R347">
+        <v>2.4</v>
+      </c>
+      <c r="S347">
+        <v>5</v>
+      </c>
+      <c r="T347">
+        <v>1.29</v>
+      </c>
+      <c r="U347">
+        <v>3.5</v>
+      </c>
+      <c r="V347">
+        <v>2.38</v>
+      </c>
+      <c r="W347">
+        <v>1.53</v>
+      </c>
+      <c r="X347">
+        <v>5.5</v>
+      </c>
+      <c r="Y347">
+        <v>1.14</v>
+      </c>
+      <c r="Z347">
+        <v>1.83</v>
+      </c>
+      <c r="AA347">
+        <v>4.2</v>
+      </c>
+      <c r="AB347">
+        <v>3.7</v>
+      </c>
+      <c r="AC347">
+        <v>1.03</v>
+      </c>
+      <c r="AD347">
+        <v>11</v>
+      </c>
+      <c r="AE347">
+        <v>1.2</v>
+      </c>
+      <c r="AF347">
+        <v>4.5</v>
+      </c>
+      <c r="AG347">
+        <v>1.55</v>
+      </c>
+      <c r="AH347">
+        <v>2.3</v>
+      </c>
+      <c r="AI347">
+        <v>1.67</v>
+      </c>
+      <c r="AJ347">
+        <v>2.1</v>
+      </c>
+      <c r="AK347">
+        <v>1.18</v>
+      </c>
+      <c r="AL347">
+        <v>1.23</v>
+      </c>
+      <c r="AM347">
+        <v>2.15</v>
+      </c>
+      <c r="AN347">
+        <v>1.65</v>
+      </c>
+      <c r="AO347">
+        <v>1.06</v>
+      </c>
+      <c r="AP347">
+        <v>1.72</v>
+      </c>
+      <c r="AQ347">
+        <v>1</v>
+      </c>
+      <c r="AR347">
+        <v>1.64</v>
+      </c>
+      <c r="AS347">
+        <v>1.53</v>
+      </c>
+      <c r="AT347">
+        <v>3.17</v>
+      </c>
+      <c r="AU347">
+        <v>7</v>
+      </c>
+      <c r="AV347">
+        <v>6</v>
+      </c>
+      <c r="AW347">
+        <v>6</v>
+      </c>
+      <c r="AX347">
+        <v>9</v>
+      </c>
+      <c r="AY347">
+        <v>14</v>
+      </c>
+      <c r="AZ347">
+        <v>22</v>
+      </c>
+      <c r="BA347">
+        <v>7</v>
+      </c>
+      <c r="BB347">
+        <v>3</v>
+      </c>
+      <c r="BC347">
+        <v>10</v>
+      </c>
+      <c r="BD347">
+        <v>1.62</v>
+      </c>
+      <c r="BE347">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF347">
+        <v>2.77</v>
+      </c>
+      <c r="BG347">
+        <v>1.12</v>
+      </c>
+      <c r="BH347">
+        <v>4.7</v>
+      </c>
+      <c r="BI347">
+        <v>1.27</v>
+      </c>
+      <c r="BJ347">
+        <v>3.14</v>
+      </c>
+      <c r="BK347">
+        <v>1.51</v>
+      </c>
+      <c r="BL347">
+        <v>2.32</v>
+      </c>
+      <c r="BM347">
+        <v>1.87</v>
+      </c>
+      <c r="BN347">
+        <v>1.83</v>
+      </c>
+      <c r="BO347">
+        <v>2.38</v>
+      </c>
+      <c r="BP347">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="348" spans="1:68">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>7467022</v>
+      </c>
+      <c r="C348" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" t="s">
+        <v>69</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F348">
+        <v>35</v>
+      </c>
+      <c r="G348" t="s">
+        <v>80</v>
+      </c>
+      <c r="H348" t="s">
+        <v>74</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="L348">
+        <v>1</v>
+      </c>
+      <c r="M348">
+        <v>1</v>
+      </c>
+      <c r="N348">
+        <v>2</v>
+      </c>
+      <c r="O348" t="s">
+        <v>212</v>
+      </c>
+      <c r="P348" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q348">
+        <v>3.2</v>
+      </c>
+      <c r="R348">
+        <v>2.4</v>
+      </c>
+      <c r="S348">
+        <v>2.88</v>
+      </c>
+      <c r="T348">
+        <v>1.29</v>
+      </c>
+      <c r="U348">
+        <v>3.5</v>
+      </c>
+      <c r="V348">
+        <v>2.25</v>
+      </c>
+      <c r="W348">
+        <v>1.57</v>
+      </c>
+      <c r="X348">
+        <v>5.5</v>
+      </c>
+      <c r="Y348">
+        <v>1.14</v>
+      </c>
+      <c r="Z348">
+        <v>2.75</v>
+      </c>
+      <c r="AA348">
+        <v>3.6</v>
+      </c>
+      <c r="AB348">
+        <v>2.3</v>
+      </c>
+      <c r="AC348">
+        <v>1.04</v>
+      </c>
+      <c r="AD348">
+        <v>10</v>
+      </c>
+      <c r="AE348">
+        <v>1.2</v>
+      </c>
+      <c r="AF348">
+        <v>4.5</v>
+      </c>
+      <c r="AG348">
+        <v>1.57</v>
+      </c>
+      <c r="AH348">
+        <v>2.25</v>
+      </c>
+      <c r="AI348">
+        <v>1.5</v>
+      </c>
+      <c r="AJ348">
+        <v>2.5</v>
+      </c>
+      <c r="AK348">
+        <v>1.57</v>
+      </c>
+      <c r="AL348">
+        <v>1.27</v>
+      </c>
+      <c r="AM348">
+        <v>1.42</v>
+      </c>
+      <c r="AN348">
+        <v>1.65</v>
+      </c>
+      <c r="AO348">
+        <v>1.59</v>
+      </c>
+      <c r="AP348">
+        <v>1.61</v>
+      </c>
+      <c r="AQ348">
+        <v>1.56</v>
+      </c>
+      <c r="AR348">
+        <v>1.65</v>
+      </c>
+      <c r="AS348">
+        <v>1.36</v>
+      </c>
+      <c r="AT348">
+        <v>3.01</v>
+      </c>
+      <c r="AU348">
+        <v>3</v>
+      </c>
+      <c r="AV348">
+        <v>6</v>
+      </c>
+      <c r="AW348">
+        <v>3</v>
+      </c>
+      <c r="AX348">
+        <v>8</v>
+      </c>
+      <c r="AY348">
+        <v>8</v>
+      </c>
+      <c r="AZ348">
+        <v>19</v>
+      </c>
+      <c r="BA348">
+        <v>1</v>
+      </c>
+      <c r="BB348">
+        <v>4</v>
+      </c>
+      <c r="BC348">
+        <v>5</v>
+      </c>
+      <c r="BD348">
+        <v>2.11</v>
+      </c>
+      <c r="BE348">
+        <v>6.75</v>
+      </c>
+      <c r="BF348">
+        <v>2.15</v>
+      </c>
+      <c r="BG348">
+        <v>1.15</v>
+      </c>
+      <c r="BH348">
+        <v>4.2</v>
+      </c>
+      <c r="BI348">
+        <v>1.32</v>
+      </c>
+      <c r="BJ348">
+        <v>2.88</v>
+      </c>
+      <c r="BK348">
+        <v>1.59</v>
+      </c>
+      <c r="BL348">
+        <v>2.16</v>
+      </c>
+      <c r="BM348">
+        <v>2</v>
+      </c>
+      <c r="BN348">
+        <v>1.72</v>
+      </c>
+      <c r="BO348">
+        <v>2.6</v>
+      </c>
+      <c r="BP348">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>7467028</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45781.41666666666</v>
+      </c>
+      <c r="F349">
+        <v>35</v>
+      </c>
+      <c r="G349" t="s">
+        <v>76</v>
+      </c>
+      <c r="H349" t="s">
+        <v>81</v>
+      </c>
+      <c r="I349">
+        <v>1</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+      <c r="K349">
+        <v>2</v>
+      </c>
+      <c r="L349">
+        <v>1</v>
+      </c>
+      <c r="M349">
+        <v>1</v>
+      </c>
+      <c r="N349">
+        <v>2</v>
+      </c>
+      <c r="O349" t="s">
+        <v>212</v>
+      </c>
+      <c r="P349" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q349">
+        <v>2.75</v>
+      </c>
+      <c r="R349">
+        <v>2.4</v>
+      </c>
+      <c r="S349">
+        <v>3.4</v>
+      </c>
+      <c r="T349">
+        <v>1.25</v>
+      </c>
+      <c r="U349">
+        <v>3.75</v>
+      </c>
+      <c r="V349">
+        <v>2.2</v>
+      </c>
+      <c r="W349">
+        <v>1.62</v>
+      </c>
+      <c r="X349">
+        <v>5</v>
+      </c>
+      <c r="Y349">
+        <v>1.17</v>
+      </c>
+      <c r="Z349">
+        <v>2.55</v>
+      </c>
+      <c r="AA349">
+        <v>3.7</v>
+      </c>
+      <c r="AB349">
+        <v>2.55</v>
+      </c>
+      <c r="AC349">
+        <v>1.01</v>
+      </c>
+      <c r="AD349">
+        <v>13</v>
+      </c>
+      <c r="AE349">
+        <v>1.18</v>
+      </c>
+      <c r="AF349">
+        <v>4.75</v>
+      </c>
+      <c r="AG349">
+        <v>1.53</v>
+      </c>
+      <c r="AH349">
+        <v>2.4</v>
+      </c>
+      <c r="AI349">
+        <v>1.5</v>
+      </c>
+      <c r="AJ349">
+        <v>2.5</v>
+      </c>
+      <c r="AK349">
+        <v>1.38</v>
+      </c>
+      <c r="AL349">
+        <v>1.27</v>
+      </c>
+      <c r="AM349">
+        <v>1.63</v>
+      </c>
+      <c r="AN349">
+        <v>1.12</v>
+      </c>
+      <c r="AO349">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP349">
+        <v>1.11</v>
+      </c>
+      <c r="AQ349">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR349">
+        <v>1.26</v>
+      </c>
+      <c r="AS349">
+        <v>1.51</v>
+      </c>
+      <c r="AT349">
+        <v>2.77</v>
+      </c>
+      <c r="AU349">
+        <v>3</v>
+      </c>
+      <c r="AV349">
+        <v>3</v>
+      </c>
+      <c r="AW349">
+        <v>9</v>
+      </c>
+      <c r="AX349">
+        <v>5</v>
+      </c>
+      <c r="AY349">
+        <v>14</v>
+      </c>
+      <c r="AZ349">
+        <v>8</v>
+      </c>
+      <c r="BA349">
+        <v>1</v>
+      </c>
+      <c r="BB349">
+        <v>3</v>
+      </c>
+      <c r="BC349">
+        <v>4</v>
+      </c>
+      <c r="BD349">
+        <v>2.15</v>
+      </c>
+      <c r="BE349">
+        <v>6.85</v>
+      </c>
+      <c r="BF349">
+        <v>2.1</v>
+      </c>
+      <c r="BG349">
+        <v>1.1</v>
+      </c>
+      <c r="BH349">
+        <v>5.05</v>
+      </c>
+      <c r="BI349">
+        <v>1.24</v>
+      </c>
+      <c r="BJ349">
+        <v>3.34</v>
+      </c>
+      <c r="BK349">
+        <v>1.45</v>
+      </c>
+      <c r="BL349">
+        <v>2.48</v>
+      </c>
+      <c r="BM349">
+        <v>1.79</v>
+      </c>
+      <c r="BN349">
+        <v>1.92</v>
+      </c>
+      <c r="BO349">
+        <v>2.23</v>
+      </c>
+      <c r="BP349">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="350" spans="1:68">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>7467023</v>
+      </c>
+      <c r="C350" t="s">
+        <v>68</v>
+      </c>
+      <c r="D350" t="s">
+        <v>69</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45781.52083333334</v>
+      </c>
+      <c r="F350">
+        <v>35</v>
+      </c>
+      <c r="G350" t="s">
+        <v>78</v>
+      </c>
+      <c r="H350" t="s">
+        <v>89</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+      <c r="L350">
+        <v>3</v>
+      </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
+      <c r="N350">
+        <v>4</v>
+      </c>
+      <c r="O350" t="s">
+        <v>311</v>
+      </c>
+      <c r="P350" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q350">
+        <v>2.63</v>
+      </c>
+      <c r="R350">
+        <v>2.4</v>
+      </c>
+      <c r="S350">
+        <v>3.4</v>
+      </c>
+      <c r="T350">
+        <v>1.29</v>
+      </c>
+      <c r="U350">
+        <v>3.5</v>
+      </c>
+      <c r="V350">
+        <v>2.25</v>
+      </c>
+      <c r="W350">
+        <v>1.57</v>
+      </c>
+      <c r="X350">
+        <v>5.5</v>
+      </c>
+      <c r="Y350">
+        <v>1.14</v>
+      </c>
+      <c r="Z350">
+        <v>2.85</v>
+      </c>
+      <c r="AA350">
+        <v>3.3</v>
+      </c>
+      <c r="AB350">
+        <v>2.45</v>
+      </c>
+      <c r="AC350">
+        <v>1.04</v>
+      </c>
+      <c r="AD350">
+        <v>10</v>
+      </c>
+      <c r="AE350">
+        <v>1.18</v>
+      </c>
+      <c r="AF350">
+        <v>4.75</v>
+      </c>
+      <c r="AG350">
+        <v>1.65</v>
+      </c>
+      <c r="AH350">
+        <v>2.15</v>
+      </c>
+      <c r="AI350">
+        <v>1.5</v>
+      </c>
+      <c r="AJ350">
+        <v>2.5</v>
+      </c>
+      <c r="AK350">
+        <v>1.36</v>
+      </c>
+      <c r="AL350">
+        <v>1.27</v>
+      </c>
+      <c r="AM350">
+        <v>1.65</v>
+      </c>
+      <c r="AN350">
+        <v>2.06</v>
+      </c>
+      <c r="AO350">
+        <v>2.24</v>
+      </c>
+      <c r="AP350">
+        <v>2.11</v>
+      </c>
+      <c r="AQ350">
+        <v>2.11</v>
+      </c>
+      <c r="AR350">
+        <v>2.06</v>
+      </c>
+      <c r="AS350">
+        <v>2.02</v>
+      </c>
+      <c r="AT350">
+        <v>4.08</v>
+      </c>
+      <c r="AU350">
+        <v>8</v>
+      </c>
+      <c r="AV350">
+        <v>3</v>
+      </c>
+      <c r="AW350">
+        <v>10</v>
+      </c>
+      <c r="AX350">
+        <v>9</v>
+      </c>
+      <c r="AY350">
+        <v>22</v>
+      </c>
+      <c r="AZ350">
+        <v>16</v>
+      </c>
+      <c r="BA350">
+        <v>3</v>
+      </c>
+      <c r="BB350">
+        <v>6</v>
+      </c>
+      <c r="BC350">
+        <v>9</v>
+      </c>
+      <c r="BD350">
+        <v>1.96</v>
+      </c>
+      <c r="BE350">
+        <v>6.75</v>
+      </c>
+      <c r="BF350">
+        <v>2.33</v>
+      </c>
+      <c r="BG350">
+        <v>1.14</v>
+      </c>
+      <c r="BH350">
+        <v>4.4</v>
+      </c>
+      <c r="BI350">
+        <v>1.3</v>
+      </c>
+      <c r="BJ350">
+        <v>2.97</v>
+      </c>
+      <c r="BK350">
+        <v>1.56</v>
+      </c>
+      <c r="BL350">
+        <v>2.21</v>
+      </c>
+      <c r="BM350">
+        <v>1.95</v>
+      </c>
+      <c r="BN350">
+        <v>1.76</v>
+      </c>
+      <c r="BO350">
+        <v>2.51</v>
+      </c>
+      <c r="BP350">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="482">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1821,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP350"/>
+  <dimension ref="A1:BP351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -5045,7 +5045,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ16">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ34">
         <v>0.53</v>
@@ -9165,7 +9165,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ36">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1.93</v>
@@ -11840,7 +11840,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -12049,7 +12049,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ50">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -14518,7 +14518,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ62">
         <v>2.11</v>
@@ -15963,7 +15963,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ69">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR69">
         <v>1.45</v>
@@ -18641,7 +18641,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ82">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR82">
         <v>1.04</v>
@@ -20080,7 +20080,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ89">
         <v>0.9399999999999999</v>
@@ -22964,7 +22964,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ103">
         <v>1.39</v>
@@ -25439,7 +25439,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
         <v>2.22</v>
@@ -27702,7 +27702,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ126">
         <v>1.56</v>
@@ -29765,7 +29765,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ136">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR136">
         <v>2.3</v>
@@ -30998,7 +30998,7 @@
         <v>1.43</v>
       </c>
       <c r="AP142">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ142">
         <v>1.47</v>
@@ -31619,7 +31619,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ145">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR145">
         <v>1.4</v>
@@ -35121,7 +35121,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ162">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR162">
         <v>1.71</v>
@@ -35736,7 +35736,7 @@
         <v>1.5</v>
       </c>
       <c r="AP165">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ165">
         <v>1.82</v>
@@ -39444,7 +39444,7 @@
         <v>0.22</v>
       </c>
       <c r="AP183">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ183">
         <v>0.33</v>
@@ -39859,7 +39859,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ185">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR185">
         <v>1.32</v>
@@ -41710,7 +41710,7 @@
         <v>2</v>
       </c>
       <c r="AP194">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ194">
         <v>1.47</v>
@@ -42949,7 +42949,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ200">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR200">
         <v>1.18</v>
@@ -47275,7 +47275,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ221">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR221">
         <v>1.77</v>
@@ -48508,7 +48508,7 @@
         <v>0.5</v>
       </c>
       <c r="AP227">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ227">
         <v>1.24</v>
@@ -52631,7 +52631,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ247">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR247">
         <v>1.54</v>
@@ -53040,7 +53040,7 @@
         <v>0.91</v>
       </c>
       <c r="AP249">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ249">
         <v>1.06</v>
@@ -55515,7 +55515,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ261">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR261">
         <v>1.6</v>
@@ -55924,7 +55924,7 @@
         <v>1.17</v>
       </c>
       <c r="AP263">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ263">
         <v>1.35</v>
@@ -58602,7 +58602,7 @@
         <v>0.77</v>
       </c>
       <c r="AP276">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ276">
         <v>0.83</v>
@@ -60459,7 +60459,7 @@
         <v>0.41</v>
       </c>
       <c r="AQ285">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR285">
         <v>1.24</v>
@@ -64164,7 +64164,7 @@
         <v>1.53</v>
       </c>
       <c r="AP303">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ303">
         <v>1.35</v>
@@ -64579,7 +64579,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ305">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR305">
         <v>1.6</v>
@@ -68284,7 +68284,7 @@
         <v>1.5</v>
       </c>
       <c r="AP323">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AQ323">
         <v>1.56</v>
@@ -69935,7 +69935,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ331">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR331">
         <v>1.74</v>
@@ -73925,6 +73925,212 @@
       </c>
       <c r="BP350">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="351" spans="1:68">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>7467024</v>
+      </c>
+      <c r="C351" t="s">
+        <v>68</v>
+      </c>
+      <c r="D351" t="s">
+        <v>69</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45782.66666666666</v>
+      </c>
+      <c r="F351">
+        <v>35</v>
+      </c>
+      <c r="G351" t="s">
+        <v>82</v>
+      </c>
+      <c r="H351" t="s">
+        <v>75</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>1</v>
+      </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
+      <c r="N351">
+        <v>2</v>
+      </c>
+      <c r="O351" t="s">
+        <v>272</v>
+      </c>
+      <c r="P351" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q351">
+        <v>3</v>
+      </c>
+      <c r="R351">
+        <v>2.2</v>
+      </c>
+      <c r="S351">
+        <v>3.6</v>
+      </c>
+      <c r="T351">
+        <v>1.4</v>
+      </c>
+      <c r="U351">
+        <v>2.75</v>
+      </c>
+      <c r="V351">
+        <v>2.75</v>
+      </c>
+      <c r="W351">
+        <v>1.4</v>
+      </c>
+      <c r="X351">
+        <v>8</v>
+      </c>
+      <c r="Y351">
+        <v>1.08</v>
+      </c>
+      <c r="Z351">
+        <v>2.3</v>
+      </c>
+      <c r="AA351">
+        <v>3.3</v>
+      </c>
+      <c r="AB351">
+        <v>3.2</v>
+      </c>
+      <c r="AC351">
+        <v>1</v>
+      </c>
+      <c r="AD351">
+        <v>9.9</v>
+      </c>
+      <c r="AE351">
+        <v>1.3</v>
+      </c>
+      <c r="AF351">
+        <v>3.65</v>
+      </c>
+      <c r="AG351">
+        <v>2</v>
+      </c>
+      <c r="AH351">
+        <v>1.75</v>
+      </c>
+      <c r="AI351">
+        <v>1.75</v>
+      </c>
+      <c r="AJ351">
+        <v>2</v>
+      </c>
+      <c r="AK351">
+        <v>1.38</v>
+      </c>
+      <c r="AL351">
+        <v>1.31</v>
+      </c>
+      <c r="AM351">
+        <v>1.57</v>
+      </c>
+      <c r="AN351">
+        <v>1.24</v>
+      </c>
+      <c r="AO351">
+        <v>1.71</v>
+      </c>
+      <c r="AP351">
+        <v>1.22</v>
+      </c>
+      <c r="AQ351">
+        <v>1.67</v>
+      </c>
+      <c r="AR351">
+        <v>1.45</v>
+      </c>
+      <c r="AS351">
+        <v>1.37</v>
+      </c>
+      <c r="AT351">
+        <v>2.82</v>
+      </c>
+      <c r="AU351">
+        <v>4</v>
+      </c>
+      <c r="AV351">
+        <v>5</v>
+      </c>
+      <c r="AW351">
+        <v>17</v>
+      </c>
+      <c r="AX351">
+        <v>8</v>
+      </c>
+      <c r="AY351">
+        <v>26</v>
+      </c>
+      <c r="AZ351">
+        <v>18</v>
+      </c>
+      <c r="BA351">
+        <v>7</v>
+      </c>
+      <c r="BB351">
+        <v>4</v>
+      </c>
+      <c r="BC351">
+        <v>11</v>
+      </c>
+      <c r="BD351">
+        <v>1.9</v>
+      </c>
+      <c r="BE351">
+        <v>6.4</v>
+      </c>
+      <c r="BF351">
+        <v>2.08</v>
+      </c>
+      <c r="BG351">
+        <v>1.23</v>
+      </c>
+      <c r="BH351">
+        <v>3.65</v>
+      </c>
+      <c r="BI351">
+        <v>1.41</v>
+      </c>
+      <c r="BJ351">
+        <v>2.65</v>
+      </c>
+      <c r="BK351">
+        <v>1.67</v>
+      </c>
+      <c r="BL351">
+        <v>2.04</v>
+      </c>
+      <c r="BM351">
+        <v>2.06</v>
+      </c>
+      <c r="BN351">
+        <v>1.66</v>
+      </c>
+      <c r="BO351">
+        <v>2.6</v>
+      </c>
+      <c r="BP351">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="485">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1461,6 +1461,15 @@
   <si>
     <t>['89']</t>
   </si>
+  <si>
+    <t>['45+3', '70', '73']</t>
+  </si>
+  <si>
+    <t>['28', '85']</t>
+  </si>
+  <si>
+    <t>['45+6']</t>
+  </si>
 </sst>
 </file>
 
@@ -1821,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP351"/>
+  <dimension ref="A1:BP356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2364,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ3">
         <v>2.11</v>
@@ -2779,7 +2788,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ5">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3397,7 +3406,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ8">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3809,7 +3818,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ10">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4427,7 +4436,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ13">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4836,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ15">
         <v>0.53</v>
@@ -5042,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ16">
         <v>1.67</v>
@@ -5660,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ19">
         <v>1.47</v>
@@ -5866,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ20">
         <v>1.56</v>
@@ -6075,7 +6084,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ21">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -6281,7 +6290,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>1.72</v>
@@ -6487,7 +6496,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ23">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
         <v>0.86</v>
@@ -6690,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ24">
         <v>1.39</v>
@@ -7517,7 +7526,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ28">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR28">
         <v>1.25</v>
@@ -8338,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -8956,7 +8965,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -9371,7 +9380,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ37">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.98</v>
@@ -9577,7 +9586,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ38">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9780,7 +9789,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ39">
         <v>1.47</v>
@@ -10192,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ41">
         <v>1.56</v>
@@ -10604,7 +10613,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
         <v>1.56</v>
@@ -10813,7 +10822,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ44">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR44">
         <v>1</v>
@@ -11222,7 +11231,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ46">
         <v>0.83</v>
@@ -11431,7 +11440,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ47">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.75</v>
@@ -12461,7 +12470,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ52">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR52">
         <v>0.75</v>
@@ -13491,7 +13500,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ57">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR57">
         <v>1.39</v>
@@ -13694,7 +13703,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
         <v>2.11</v>
@@ -13900,10 +13909,10 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ59">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -14312,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ61">
         <v>0.33</v>
@@ -16784,10 +16793,10 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR73">
         <v>2.01</v>
@@ -16993,7 +17002,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ74">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.31</v>
@@ -17199,7 +17208,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ75">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR75">
         <v>0.91</v>
@@ -17402,7 +17411,7 @@
         <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ76">
         <v>0.53</v>
@@ -17608,10 +17617,10 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ77">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR77">
         <v>1.11</v>
@@ -17814,7 +17823,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ78">
         <v>1.82</v>
@@ -18020,10 +18029,10 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ79">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR79">
         <v>1.27</v>
@@ -20904,10 +20913,10 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ93">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR93">
         <v>1.09</v>
@@ -21110,10 +21119,10 @@
         <v>2.5</v>
       </c>
       <c r="AP94">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ94">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR94">
         <v>1.6</v>
@@ -21316,7 +21325,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ95">
         <v>0.53</v>
@@ -21525,7 +21534,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ96">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.78</v>
@@ -21934,7 +21943,7 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ98">
         <v>1.41</v>
@@ -22143,7 +22152,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ99">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR99">
         <v>1.99</v>
@@ -22552,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ101">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>1.81</v>
@@ -23173,7 +23182,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ104">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -23376,7 +23385,7 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ105">
         <v>0.33</v>
@@ -23585,7 +23594,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ106">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR106">
         <v>1.54</v>
@@ -23791,7 +23800,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ107">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR107">
         <v>1.75</v>
@@ -25024,7 +25033,7 @@
         <v>0.4</v>
       </c>
       <c r="AP113">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ113">
         <v>1.17</v>
@@ -25233,7 +25242,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ114">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -25642,10 +25651,10 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ116">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR116">
         <v>1.57</v>
@@ -26260,7 +26269,7 @@
         <v>2.6</v>
       </c>
       <c r="AP119">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ119">
         <v>2.11</v>
@@ -26466,7 +26475,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -27084,7 +27093,7 @@
         <v>0.83</v>
       </c>
       <c r="AP123">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ123">
         <v>1.56</v>
@@ -28117,7 +28126,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ128">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR128">
         <v>1.43</v>
@@ -28323,7 +28332,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ129">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR129">
         <v>1.64</v>
@@ -28735,7 +28744,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ131">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
         <v>1.72</v>
@@ -28938,7 +28947,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ132">
         <v>1.41</v>
@@ -29350,7 +29359,7 @@
         <v>2.17</v>
       </c>
       <c r="AP134">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ134">
         <v>1.47</v>
@@ -30177,7 +30186,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ138">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -30586,10 +30595,10 @@
         <v>1.67</v>
       </c>
       <c r="AP140">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ140">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR140">
         <v>1.88</v>
@@ -30792,7 +30801,7 @@
         <v>1.17</v>
       </c>
       <c r="AP141">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ141">
         <v>0.9399999999999999</v>
@@ -31001,7 +31010,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ142">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR142">
         <v>1.38</v>
@@ -31822,7 +31831,7 @@
         <v>1.57</v>
       </c>
       <c r="AP146">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ146">
         <v>1.82</v>
@@ -32028,7 +32037,7 @@
         <v>1.14</v>
       </c>
       <c r="AP147">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ147">
         <v>1.56</v>
@@ -32237,7 +32246,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ148">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR148">
         <v>1.08</v>
@@ -32852,7 +32861,7 @@
         <v>0.71</v>
       </c>
       <c r="AP151">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ151">
         <v>0.83</v>
@@ -33061,7 +33070,7 @@
         <v>2</v>
       </c>
       <c r="AQ152">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR152">
         <v>2.08</v>
@@ -33679,7 +33688,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ155">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR155">
         <v>1.52</v>
@@ -34294,7 +34303,7 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ158">
         <v>0.9399999999999999</v>
@@ -34503,7 +34512,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ159">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR159">
         <v>1.69</v>
@@ -34706,7 +34715,7 @@
         <v>1.14</v>
       </c>
       <c r="AP160">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -34915,7 +34924,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ161">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR161">
         <v>1.54</v>
@@ -35327,7 +35336,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ163">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR163">
         <v>1.48</v>
@@ -35530,7 +35539,7 @@
         <v>1.13</v>
       </c>
       <c r="AP164">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ164">
         <v>1.56</v>
@@ -35942,7 +35951,7 @@
         <v>0.13</v>
       </c>
       <c r="AP166">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ166">
         <v>0.33</v>
@@ -36975,7 +36984,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ171">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR171">
         <v>2.11</v>
@@ -37178,7 +37187,7 @@
         <v>1.13</v>
       </c>
       <c r="AP172">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ172">
         <v>1</v>
@@ -37593,7 +37602,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ174">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR174">
         <v>1.48</v>
@@ -38002,7 +38011,7 @@
         <v>1.13</v>
       </c>
       <c r="AP176">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ176">
         <v>1.41</v>
@@ -38208,7 +38217,7 @@
         <v>1.13</v>
       </c>
       <c r="AP177">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ177">
         <v>1</v>
@@ -38623,7 +38632,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ179">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR179">
         <v>1.54</v>
@@ -39035,7 +39044,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ181">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR181">
         <v>1.08</v>
@@ -39650,7 +39659,7 @@
         <v>1.56</v>
       </c>
       <c r="AP184">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ184">
         <v>1.56</v>
@@ -40268,7 +40277,7 @@
         <v>2.22</v>
       </c>
       <c r="AP187">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ187">
         <v>1.47</v>
@@ -40477,7 +40486,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ188">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR188">
         <v>1.51</v>
@@ -41298,10 +41307,10 @@
         <v>0.78</v>
       </c>
       <c r="AP192">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ192">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR192">
         <v>1.73</v>
@@ -41916,10 +41925,10 @@
         <v>0.22</v>
       </c>
       <c r="AP195">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ195">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR195">
         <v>1.14</v>
@@ -42534,7 +42543,7 @@
         <v>0.89</v>
       </c>
       <c r="AP198">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ198">
         <v>0.83</v>
@@ -42946,7 +42955,7 @@
         <v>2</v>
       </c>
       <c r="AP200">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ200">
         <v>1.67</v>
@@ -43567,7 +43576,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ203">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR203">
         <v>1.57</v>
@@ -44391,7 +44400,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ207">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR207">
         <v>1.34</v>
@@ -44800,10 +44809,10 @@
         <v>1.3</v>
       </c>
       <c r="AP209">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ209">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR209">
         <v>1.16</v>
@@ -46039,7 +46048,7 @@
         <v>2</v>
       </c>
       <c r="AQ215">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR215">
         <v>1.97</v>
@@ -46245,7 +46254,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ216">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR216">
         <v>1.58</v>
@@ -46860,10 +46869,10 @@
         <v>1.36</v>
       </c>
       <c r="AP219">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ219">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR219">
         <v>1.13</v>
@@ -47272,7 +47281,7 @@
         <v>2.09</v>
       </c>
       <c r="AP221">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ221">
         <v>1.67</v>
@@ -47481,7 +47490,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ222">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR222">
         <v>1.58</v>
@@ -47890,7 +47899,7 @@
         <v>1.64</v>
       </c>
       <c r="AP224">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ224">
         <v>1.56</v>
@@ -48096,7 +48105,7 @@
         <v>1.73</v>
       </c>
       <c r="AP225">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ225">
         <v>1.82</v>
@@ -48511,7 +48520,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ227">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR227">
         <v>1.4</v>
@@ -49126,7 +49135,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ230">
         <v>1</v>
@@ -49335,7 +49344,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ231">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR231">
         <v>1.47</v>
@@ -49950,7 +49959,7 @@
         <v>0.17</v>
       </c>
       <c r="AP234">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ234">
         <v>0.33</v>
@@ -50156,7 +50165,7 @@
         <v>2.45</v>
       </c>
       <c r="AP235">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ235">
         <v>2.11</v>
@@ -50362,10 +50371,10 @@
         <v>1.27</v>
       </c>
       <c r="AP236">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ236">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR236">
         <v>1.21</v>
@@ -50983,7 +50992,7 @@
         <v>2</v>
       </c>
       <c r="AQ239">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR239">
         <v>2</v>
@@ -52010,7 +52019,7 @@
         <v>1.58</v>
       </c>
       <c r="AP244">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ244">
         <v>1.56</v>
@@ -52425,7 +52434,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ246">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR246">
         <v>1.24</v>
@@ -52628,7 +52637,7 @@
         <v>1.92</v>
       </c>
       <c r="AP247">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ247">
         <v>1.67</v>
@@ -53043,7 +53052,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ249">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR249">
         <v>1.43</v>
@@ -53867,7 +53876,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ253">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR253">
         <v>1.19</v>
@@ -54276,10 +54285,10 @@
         <v>1.46</v>
       </c>
       <c r="AP255">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ255">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR255">
         <v>1.18</v>
@@ -54482,7 +54491,7 @@
         <v>1.08</v>
       </c>
       <c r="AP256">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ256">
         <v>0.9399999999999999</v>
@@ -54894,7 +54903,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP258">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ258">
         <v>1.17</v>
@@ -55100,7 +55109,7 @@
         <v>1.58</v>
       </c>
       <c r="AP259">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ259">
         <v>1.41</v>
@@ -55927,7 +55936,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ263">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR263">
         <v>1.48</v>
@@ -56130,7 +56139,7 @@
         <v>1.58</v>
       </c>
       <c r="AP264">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ264">
         <v>1.39</v>
@@ -56751,7 +56760,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ267">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR267">
         <v>1.78</v>
@@ -57163,7 +57172,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ269">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR269">
         <v>1.65</v>
@@ -57987,7 +57996,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ273">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR273">
         <v>1.46</v>
@@ -58811,7 +58820,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ277">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR277">
         <v>1.64</v>
@@ -59014,10 +59023,10 @@
         <v>1.08</v>
       </c>
       <c r="AP278">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ278">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR278">
         <v>1.27</v>
@@ -60044,7 +60053,7 @@
         <v>0.86</v>
       </c>
       <c r="AP283">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ283">
         <v>1.17</v>
@@ -60456,7 +60465,7 @@
         <v>1.64</v>
       </c>
       <c r="AP285">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ285">
         <v>1.67</v>
@@ -60665,7 +60674,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ286">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR286">
         <v>1.99</v>
@@ -60868,10 +60877,10 @@
         <v>1.08</v>
       </c>
       <c r="AP287">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ287">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR287">
         <v>1.74</v>
@@ -61074,7 +61083,7 @@
         <v>1.23</v>
       </c>
       <c r="AP288">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ288">
         <v>0.9399999999999999</v>
@@ -61898,7 +61907,7 @@
         <v>1.21</v>
       </c>
       <c r="AP292">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ292">
         <v>1</v>
@@ -62310,7 +62319,7 @@
         <v>1.69</v>
       </c>
       <c r="AP294">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ294">
         <v>1.41</v>
@@ -62725,7 +62734,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ296">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR296">
         <v>1.61</v>
@@ -62931,7 +62940,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ297">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR297">
         <v>1.58</v>
@@ -63134,7 +63143,7 @@
         <v>0.71</v>
       </c>
       <c r="AP298">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ298">
         <v>0.83</v>
@@ -63343,7 +63352,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ299">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR299">
         <v>1.87</v>
@@ -64167,7 +64176,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ303">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR303">
         <v>1.54</v>
@@ -64370,7 +64379,7 @@
         <v>1</v>
       </c>
       <c r="AP304">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ304">
         <v>1.17</v>
@@ -64988,7 +64997,7 @@
         <v>2.33</v>
       </c>
       <c r="AP307">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ307">
         <v>2.11</v>
@@ -65403,7 +65412,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ309">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR309">
         <v>1.52</v>
@@ -66224,10 +66233,10 @@
         <v>1.33</v>
       </c>
       <c r="AP313">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ313">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR313">
         <v>1.18</v>
@@ -66433,7 +66442,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ314">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR314">
         <v>1.42</v>
@@ -66639,7 +66648,7 @@
         <v>2</v>
       </c>
       <c r="AQ315">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR315">
         <v>1.96</v>
@@ -66842,7 +66851,7 @@
         <v>1.07</v>
       </c>
       <c r="AP316">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ316">
         <v>0.9399999999999999</v>
@@ -67666,7 +67675,7 @@
         <v>1.47</v>
       </c>
       <c r="AP320">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ320">
         <v>1.39</v>
@@ -68081,7 +68090,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ322">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR322">
         <v>1.62</v>
@@ -68493,7 +68502,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ324">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR324">
         <v>1.39</v>
@@ -69108,7 +69117,7 @@
         <v>1.38</v>
       </c>
       <c r="AP327">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ327">
         <v>1.47</v>
@@ -69314,7 +69323,7 @@
         <v>1.75</v>
       </c>
       <c r="AP328">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AQ328">
         <v>1.82</v>
@@ -70141,7 +70150,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ332">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AR332">
         <v>1.96</v>
@@ -70553,7 +70562,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ334">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AR334">
         <v>2.08</v>
@@ -70962,7 +70971,7 @@
         <v>1.38</v>
       </c>
       <c r="AP336">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AQ336">
         <v>1.39</v>
@@ -71168,7 +71177,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP337">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ337">
         <v>0.53</v>
@@ -71580,7 +71589,7 @@
         <v>1.06</v>
       </c>
       <c r="AP339">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ339">
         <v>1</v>
@@ -71995,7 +72004,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ341">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR341">
         <v>1.42</v>
@@ -74131,6 +74140,1036 @@
       </c>
       <c r="BP351">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>7467030</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F352">
+        <v>36</v>
+      </c>
+      <c r="G352" t="s">
+        <v>83</v>
+      </c>
+      <c r="H352" t="s">
+        <v>73</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352">
+        <v>2</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+      <c r="M352">
+        <v>3</v>
+      </c>
+      <c r="N352">
+        <v>4</v>
+      </c>
+      <c r="O352" t="s">
+        <v>195</v>
+      </c>
+      <c r="P352" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q352">
+        <v>2.4</v>
+      </c>
+      <c r="R352">
+        <v>2.2</v>
+      </c>
+      <c r="S352">
+        <v>4.75</v>
+      </c>
+      <c r="T352">
+        <v>1.4</v>
+      </c>
+      <c r="U352">
+        <v>2.75</v>
+      </c>
+      <c r="V352">
+        <v>3</v>
+      </c>
+      <c r="W352">
+        <v>1.36</v>
+      </c>
+      <c r="X352">
+        <v>8</v>
+      </c>
+      <c r="Y352">
+        <v>1.08</v>
+      </c>
+      <c r="Z352">
+        <v>1.91</v>
+      </c>
+      <c r="AA352">
+        <v>3.4</v>
+      </c>
+      <c r="AB352">
+        <v>4.3</v>
+      </c>
+      <c r="AC352">
+        <v>1.06</v>
+      </c>
+      <c r="AD352">
+        <v>8.5</v>
+      </c>
+      <c r="AE352">
+        <v>1.33</v>
+      </c>
+      <c r="AF352">
+        <v>3.2</v>
+      </c>
+      <c r="AG352">
+        <v>2.15</v>
+      </c>
+      <c r="AH352">
+        <v>1.65</v>
+      </c>
+      <c r="AI352">
+        <v>1.91</v>
+      </c>
+      <c r="AJ352">
+        <v>1.91</v>
+      </c>
+      <c r="AK352">
+        <v>1.22</v>
+      </c>
+      <c r="AL352">
+        <v>1.28</v>
+      </c>
+      <c r="AM352">
+        <v>1.9</v>
+      </c>
+      <c r="AN352">
+        <v>1.53</v>
+      </c>
+      <c r="AO352">
+        <v>1.06</v>
+      </c>
+      <c r="AP352">
+        <v>1.44</v>
+      </c>
+      <c r="AQ352">
+        <v>1.17</v>
+      </c>
+      <c r="AR352">
+        <v>1.56</v>
+      </c>
+      <c r="AS352">
+        <v>1.15</v>
+      </c>
+      <c r="AT352">
+        <v>2.71</v>
+      </c>
+      <c r="AU352">
+        <v>7</v>
+      </c>
+      <c r="AV352">
+        <v>8</v>
+      </c>
+      <c r="AW352">
+        <v>12</v>
+      </c>
+      <c r="AX352">
+        <v>4</v>
+      </c>
+      <c r="AY352">
+        <v>23</v>
+      </c>
+      <c r="AZ352">
+        <v>15</v>
+      </c>
+      <c r="BA352">
+        <v>5</v>
+      </c>
+      <c r="BB352">
+        <v>5</v>
+      </c>
+      <c r="BC352">
+        <v>10</v>
+      </c>
+      <c r="BD352">
+        <v>1.54</v>
+      </c>
+      <c r="BE352">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF352">
+        <v>3.02</v>
+      </c>
+      <c r="BG352">
+        <v>1.14</v>
+      </c>
+      <c r="BH352">
+        <v>4.33</v>
+      </c>
+      <c r="BI352">
+        <v>1.3</v>
+      </c>
+      <c r="BJ352">
+        <v>2.97</v>
+      </c>
+      <c r="BK352">
+        <v>1.56</v>
+      </c>
+      <c r="BL352">
+        <v>2.21</v>
+      </c>
+      <c r="BM352">
+        <v>1.95</v>
+      </c>
+      <c r="BN352">
+        <v>1.76</v>
+      </c>
+      <c r="BO352">
+        <v>2.51</v>
+      </c>
+      <c r="BP352">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>7467038</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F353">
+        <v>36</v>
+      </c>
+      <c r="G353" t="s">
+        <v>87</v>
+      </c>
+      <c r="H353" t="s">
+        <v>80</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>2</v>
+      </c>
+      <c r="N353">
+        <v>2</v>
+      </c>
+      <c r="O353" t="s">
+        <v>91</v>
+      </c>
+      <c r="P353" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q353">
+        <v>3.25</v>
+      </c>
+      <c r="R353">
+        <v>2.3</v>
+      </c>
+      <c r="S353">
+        <v>2.88</v>
+      </c>
+      <c r="T353">
+        <v>1.33</v>
+      </c>
+      <c r="U353">
+        <v>3.25</v>
+      </c>
+      <c r="V353">
+        <v>2.5</v>
+      </c>
+      <c r="W353">
+        <v>1.5</v>
+      </c>
+      <c r="X353">
+        <v>6</v>
+      </c>
+      <c r="Y353">
+        <v>1.13</v>
+      </c>
+      <c r="Z353">
+        <v>2.5</v>
+      </c>
+      <c r="AA353">
+        <v>3.5</v>
+      </c>
+      <c r="AB353">
+        <v>2.7</v>
+      </c>
+      <c r="AC353">
+        <v>1.05</v>
+      </c>
+      <c r="AD353">
+        <v>9.5</v>
+      </c>
+      <c r="AE353">
+        <v>1.25</v>
+      </c>
+      <c r="AF353">
+        <v>3.95</v>
+      </c>
+      <c r="AG353">
+        <v>1.8</v>
+      </c>
+      <c r="AH353">
+        <v>1.91</v>
+      </c>
+      <c r="AI353">
+        <v>1.57</v>
+      </c>
+      <c r="AJ353">
+        <v>2.25</v>
+      </c>
+      <c r="AK353">
+        <v>1.53</v>
+      </c>
+      <c r="AL353">
+        <v>1.29</v>
+      </c>
+      <c r="AM353">
+        <v>1.43</v>
+      </c>
+      <c r="AN353">
+        <v>1.18</v>
+      </c>
+      <c r="AO353">
+        <v>1.35</v>
+      </c>
+      <c r="AP353">
+        <v>1.11</v>
+      </c>
+      <c r="AQ353">
+        <v>1.44</v>
+      </c>
+      <c r="AR353">
+        <v>1.33</v>
+      </c>
+      <c r="AS353">
+        <v>1.48</v>
+      </c>
+      <c r="AT353">
+        <v>2.81</v>
+      </c>
+      <c r="AU353">
+        <v>4</v>
+      </c>
+      <c r="AV353">
+        <v>3</v>
+      </c>
+      <c r="AW353">
+        <v>7</v>
+      </c>
+      <c r="AX353">
+        <v>5</v>
+      </c>
+      <c r="AY353">
+        <v>13</v>
+      </c>
+      <c r="AZ353">
+        <v>9</v>
+      </c>
+      <c r="BA353">
+        <v>7</v>
+      </c>
+      <c r="BB353">
+        <v>4</v>
+      </c>
+      <c r="BC353">
+        <v>11</v>
+      </c>
+      <c r="BD353">
+        <v>2.08</v>
+      </c>
+      <c r="BE353">
+        <v>6.5</v>
+      </c>
+      <c r="BF353">
+        <v>2.21</v>
+      </c>
+      <c r="BG353">
+        <v>1.24</v>
+      </c>
+      <c r="BH353">
+        <v>3.34</v>
+      </c>
+      <c r="BI353">
+        <v>1.47</v>
+      </c>
+      <c r="BJ353">
+        <v>2.42</v>
+      </c>
+      <c r="BK353">
+        <v>1.83</v>
+      </c>
+      <c r="BL353">
+        <v>1.87</v>
+      </c>
+      <c r="BM353">
+        <v>2.34</v>
+      </c>
+      <c r="BN353">
+        <v>1.5</v>
+      </c>
+      <c r="BO353">
+        <v>3.08</v>
+      </c>
+      <c r="BP353">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="354" spans="1:68">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>7467036</v>
+      </c>
+      <c r="C354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F354">
+        <v>36</v>
+      </c>
+      <c r="G354" t="s">
+        <v>84</v>
+      </c>
+      <c r="H354" t="s">
+        <v>85</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+      <c r="O354" t="s">
+        <v>91</v>
+      </c>
+      <c r="P354" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q354">
+        <v>9</v>
+      </c>
+      <c r="R354">
+        <v>3.1</v>
+      </c>
+      <c r="S354">
+        <v>1.57</v>
+      </c>
+      <c r="T354">
+        <v>1.18</v>
+      </c>
+      <c r="U354">
+        <v>4.5</v>
+      </c>
+      <c r="V354">
+        <v>1.83</v>
+      </c>
+      <c r="W354">
+        <v>1.83</v>
+      </c>
+      <c r="X354">
+        <v>4</v>
+      </c>
+      <c r="Y354">
+        <v>1.22</v>
+      </c>
+      <c r="Z354">
+        <v>9.5</v>
+      </c>
+      <c r="AA354">
+        <v>6</v>
+      </c>
+      <c r="AB354">
+        <v>1.28</v>
+      </c>
+      <c r="AC354">
+        <v>1.01</v>
+      </c>
+      <c r="AD354">
+        <v>23</v>
+      </c>
+      <c r="AE354">
+        <v>1.1</v>
+      </c>
+      <c r="AF354">
+        <v>6.5</v>
+      </c>
+      <c r="AG354">
+        <v>1.35</v>
+      </c>
+      <c r="AH354">
+        <v>3.04</v>
+      </c>
+      <c r="AI354">
+        <v>1.8</v>
+      </c>
+      <c r="AJ354">
+        <v>1.95</v>
+      </c>
+      <c r="AK354">
+        <v>4.2</v>
+      </c>
+      <c r="AL354">
+        <v>1.11</v>
+      </c>
+      <c r="AM354">
+        <v>1.04</v>
+      </c>
+      <c r="AN354">
+        <v>0.29</v>
+      </c>
+      <c r="AO354">
+        <v>1.47</v>
+      </c>
+      <c r="AP354">
+        <v>0.33</v>
+      </c>
+      <c r="AQ354">
+        <v>1.44</v>
+      </c>
+      <c r="AR354">
+        <v>1.16</v>
+      </c>
+      <c r="AS354">
+        <v>1.78</v>
+      </c>
+      <c r="AT354">
+        <v>2.94</v>
+      </c>
+      <c r="AU354">
+        <v>0</v>
+      </c>
+      <c r="AV354">
+        <v>6</v>
+      </c>
+      <c r="AW354">
+        <v>3</v>
+      </c>
+      <c r="AX354">
+        <v>21</v>
+      </c>
+      <c r="AY354">
+        <v>5</v>
+      </c>
+      <c r="AZ354">
+        <v>38</v>
+      </c>
+      <c r="BA354">
+        <v>1</v>
+      </c>
+      <c r="BB354">
+        <v>15</v>
+      </c>
+      <c r="BC354">
+        <v>16</v>
+      </c>
+      <c r="BD354">
+        <v>9.1</v>
+      </c>
+      <c r="BE354">
+        <v>15</v>
+      </c>
+      <c r="BF354">
+        <v>1.1</v>
+      </c>
+      <c r="BG354">
+        <v>1.21</v>
+      </c>
+      <c r="BH354">
+        <v>3.58</v>
+      </c>
+      <c r="BI354">
+        <v>1.42</v>
+      </c>
+      <c r="BJ354">
+        <v>2.57</v>
+      </c>
+      <c r="BK354">
+        <v>1.75</v>
+      </c>
+      <c r="BL354">
+        <v>1.96</v>
+      </c>
+      <c r="BM354">
+        <v>2.19</v>
+      </c>
+      <c r="BN354">
+        <v>1.57</v>
+      </c>
+      <c r="BO354">
+        <v>2.88</v>
+      </c>
+      <c r="BP354">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>7467031</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45787.45833333334</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355" t="s">
+        <v>71</v>
+      </c>
+      <c r="H355" t="s">
+        <v>77</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>1</v>
+      </c>
+      <c r="K355">
+        <v>1</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>1</v>
+      </c>
+      <c r="N355">
+        <v>1</v>
+      </c>
+      <c r="O355" t="s">
+        <v>91</v>
+      </c>
+      <c r="P355" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q355">
+        <v>5</v>
+      </c>
+      <c r="R355">
+        <v>2.5</v>
+      </c>
+      <c r="S355">
+        <v>2.05</v>
+      </c>
+      <c r="T355">
+        <v>1.25</v>
+      </c>
+      <c r="U355">
+        <v>3.75</v>
+      </c>
+      <c r="V355">
+        <v>2.2</v>
+      </c>
+      <c r="W355">
+        <v>1.62</v>
+      </c>
+      <c r="X355">
+        <v>5</v>
+      </c>
+      <c r="Y355">
+        <v>1.17</v>
+      </c>
+      <c r="Z355">
+        <v>4</v>
+      </c>
+      <c r="AA355">
+        <v>3.9</v>
+      </c>
+      <c r="AB355">
+        <v>1.83</v>
+      </c>
+      <c r="AC355">
+        <v>1.03</v>
+      </c>
+      <c r="AD355">
+        <v>11</v>
+      </c>
+      <c r="AE355">
+        <v>1.18</v>
+      </c>
+      <c r="AF355">
+        <v>4.75</v>
+      </c>
+      <c r="AG355">
+        <v>1.6</v>
+      </c>
+      <c r="AH355">
+        <v>2.2</v>
+      </c>
+      <c r="AI355">
+        <v>1.57</v>
+      </c>
+      <c r="AJ355">
+        <v>2.25</v>
+      </c>
+      <c r="AK355">
+        <v>2.2</v>
+      </c>
+      <c r="AL355">
+        <v>1.22</v>
+      </c>
+      <c r="AM355">
+        <v>1.18</v>
+      </c>
+      <c r="AN355">
+        <v>0.41</v>
+      </c>
+      <c r="AO355">
+        <v>1.24</v>
+      </c>
+      <c r="AP355">
+        <v>0.39</v>
+      </c>
+      <c r="AQ355">
+        <v>1.33</v>
+      </c>
+      <c r="AR355">
+        <v>1.18</v>
+      </c>
+      <c r="AS355">
+        <v>1.26</v>
+      </c>
+      <c r="AT355">
+        <v>2.44</v>
+      </c>
+      <c r="AU355">
+        <v>5</v>
+      </c>
+      <c r="AV355">
+        <v>6</v>
+      </c>
+      <c r="AW355">
+        <v>7</v>
+      </c>
+      <c r="AX355">
+        <v>10</v>
+      </c>
+      <c r="AY355">
+        <v>13</v>
+      </c>
+      <c r="AZ355">
+        <v>22</v>
+      </c>
+      <c r="BA355">
+        <v>5</v>
+      </c>
+      <c r="BB355">
+        <v>6</v>
+      </c>
+      <c r="BC355">
+        <v>11</v>
+      </c>
+      <c r="BD355">
+        <v>2.96</v>
+      </c>
+      <c r="BE355">
+        <v>9.6</v>
+      </c>
+      <c r="BF355">
+        <v>1.55</v>
+      </c>
+      <c r="BG355">
+        <v>1.12</v>
+      </c>
+      <c r="BH355">
+        <v>4.8</v>
+      </c>
+      <c r="BI355">
+        <v>1.26</v>
+      </c>
+      <c r="BJ355">
+        <v>3.22</v>
+      </c>
+      <c r="BK355">
+        <v>1.48</v>
+      </c>
+      <c r="BL355">
+        <v>2.4</v>
+      </c>
+      <c r="BM355">
+        <v>1.84</v>
+      </c>
+      <c r="BN355">
+        <v>1.86</v>
+      </c>
+      <c r="BO355">
+        <v>2.32</v>
+      </c>
+      <c r="BP355">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>7467029</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45787.5625</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>88</v>
+      </c>
+      <c r="H356" t="s">
+        <v>86</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>0</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+      <c r="N356">
+        <v>1</v>
+      </c>
+      <c r="O356" t="s">
+        <v>91</v>
+      </c>
+      <c r="P356" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q356">
+        <v>2.88</v>
+      </c>
+      <c r="R356">
+        <v>2.38</v>
+      </c>
+      <c r="S356">
+        <v>3.1</v>
+      </c>
+      <c r="T356">
+        <v>1.29</v>
+      </c>
+      <c r="U356">
+        <v>3.5</v>
+      </c>
+      <c r="V356">
+        <v>2.25</v>
+      </c>
+      <c r="W356">
+        <v>1.57</v>
+      </c>
+      <c r="X356">
+        <v>5.5</v>
+      </c>
+      <c r="Y356">
+        <v>1.14</v>
+      </c>
+      <c r="Z356">
+        <v>2.35</v>
+      </c>
+      <c r="AA356">
+        <v>3.6</v>
+      </c>
+      <c r="AB356">
+        <v>2.9</v>
+      </c>
+      <c r="AC356">
+        <v>1.04</v>
+      </c>
+      <c r="AD356">
+        <v>10</v>
+      </c>
+      <c r="AE356">
+        <v>1.2</v>
+      </c>
+      <c r="AF356">
+        <v>4.33</v>
+      </c>
+      <c r="AG356">
+        <v>1.7</v>
+      </c>
+      <c r="AH356">
+        <v>2.05</v>
+      </c>
+      <c r="AI356">
+        <v>1.5</v>
+      </c>
+      <c r="AJ356">
+        <v>2.5</v>
+      </c>
+      <c r="AK356">
+        <v>1.46</v>
+      </c>
+      <c r="AL356">
+        <v>1.28</v>
+      </c>
+      <c r="AM356">
+        <v>1.53</v>
+      </c>
+      <c r="AN356">
+        <v>1.47</v>
+      </c>
+      <c r="AO356">
+        <v>1.35</v>
+      </c>
+      <c r="AP356">
+        <v>1.39</v>
+      </c>
+      <c r="AQ356">
+        <v>1.44</v>
+      </c>
+      <c r="AR356">
+        <v>1.76</v>
+      </c>
+      <c r="AS356">
+        <v>1.26</v>
+      </c>
+      <c r="AT356">
+        <v>3.02</v>
+      </c>
+      <c r="AU356">
+        <v>5</v>
+      </c>
+      <c r="AV356">
+        <v>4</v>
+      </c>
+      <c r="AW356">
+        <v>6</v>
+      </c>
+      <c r="AX356">
+        <v>3</v>
+      </c>
+      <c r="AY356">
+        <v>13</v>
+      </c>
+      <c r="AZ356">
+        <v>7</v>
+      </c>
+      <c r="BA356">
+        <v>10</v>
+      </c>
+      <c r="BB356">
+        <v>0</v>
+      </c>
+      <c r="BC356">
+        <v>10</v>
+      </c>
+      <c r="BD356">
+        <v>1.92</v>
+      </c>
+      <c r="BE356">
+        <v>6.85</v>
+      </c>
+      <c r="BF356">
+        <v>2.38</v>
+      </c>
+      <c r="BG356">
+        <v>1.11</v>
+      </c>
+      <c r="BH356">
+        <v>4.85</v>
+      </c>
+      <c r="BI356">
+        <v>1.25</v>
+      </c>
+      <c r="BJ356">
+        <v>3.28</v>
+      </c>
+      <c r="BK356">
+        <v>1.48</v>
+      </c>
+      <c r="BL356">
+        <v>2.4</v>
+      </c>
+      <c r="BM356">
+        <v>1.83</v>
+      </c>
+      <c r="BN356">
+        <v>1.87</v>
+      </c>
+      <c r="BO356">
+        <v>2.3</v>
+      </c>
+      <c r="BP356">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="490">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -952,6 +952,12 @@
     <t>['3', '56', '90+6']</t>
   </si>
   <si>
+    <t>['2', '90']</t>
+  </si>
+  <si>
+    <t>['25', '56']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1462,13 +1468,22 @@
     <t>['89']</t>
   </si>
   <si>
-    <t>['45+3', '70', '73']</t>
+    <t>['45+3', '70', '74']</t>
   </si>
   <si>
-    <t>['28', '85']</t>
+    <t>['29', '85']</t>
   </si>
   <si>
     <t>['45+6']</t>
+  </si>
+  <si>
+    <t>['16', '81']</t>
+  </si>
+  <si>
+    <t>['45', '48']</t>
+  </si>
+  <si>
+    <t>['26', '57']</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP356"/>
+  <dimension ref="A1:BP360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2167,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ2">
         <v>1.39</v>
@@ -2295,7 +2310,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2707,7 +2722,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2991,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ6">
         <v>0.33</v>
@@ -3119,7 +3134,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3197,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7">
         <v>1.56</v>
@@ -3325,7 +3340,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3612,7 +3627,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ9">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3737,7 +3752,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -4433,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
         <v>1.17</v>
@@ -4642,7 +4657,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4848,7 +4863,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ15">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5385,7 +5400,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5591,7 +5606,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5672,7 +5687,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ19">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6415,7 +6430,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6621,7 +6636,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6905,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ25">
         <v>1.17</v>
@@ -7239,7 +7254,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7445,7 +7460,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7651,7 +7666,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7732,7 +7747,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ29">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.08</v>
@@ -7935,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ30">
         <v>0.9399999999999999</v>
@@ -8063,7 +8078,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8141,7 +8156,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>2.11</v>
@@ -8269,7 +8284,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8681,7 +8696,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -8762,7 +8777,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ34">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR34">
         <v>1.29</v>
@@ -8968,7 +8983,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR35">
         <v>1.87</v>
@@ -9505,7 +9520,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9711,7 +9726,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9792,7 +9807,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ39">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9917,7 +9932,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9995,7 +10010,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ40">
         <v>1.82</v>
@@ -10123,7 +10138,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10329,7 +10344,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10410,7 +10425,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ42">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR42">
         <v>1.11</v>
@@ -10535,7 +10550,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11437,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -12183,7 +12198,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12467,7 +12482,7 @@
         <v>3</v>
       </c>
       <c r="AP52">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ52">
         <v>1.44</v>
@@ -12595,7 +12610,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12673,7 +12688,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ53">
         <v>1.39</v>
@@ -12882,7 +12897,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -13007,7 +13022,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13088,7 +13103,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -13294,7 +13309,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR56">
         <v>1.59</v>
@@ -13419,7 +13434,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13625,7 +13640,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13831,7 +13846,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -14037,7 +14052,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14115,7 +14130,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ60">
         <v>0.9399999999999999</v>
@@ -14243,7 +14258,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14449,7 +14464,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14861,7 +14876,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -15067,7 +15082,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15273,7 +15288,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -16303,7 +16318,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16587,10 +16602,10 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.91</v>
@@ -16715,7 +16730,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16921,7 +16936,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -16999,7 +17014,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -17205,7 +17220,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ75">
         <v>1.44</v>
@@ -17333,7 +17348,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17414,7 +17429,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ76">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR76">
         <v>0.91</v>
@@ -17539,7 +17554,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17951,7 +17966,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18157,7 +18172,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18238,7 +18253,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ80">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -18441,10 +18456,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ81">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
         <v>1.42</v>
@@ -18569,7 +18584,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18981,7 +18996,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19187,7 +19202,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19393,7 +19408,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19805,7 +19820,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -20217,7 +20232,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20423,7 +20438,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20707,7 +20722,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ92">
         <v>1.82</v>
@@ -21328,7 +21343,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ95">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR95">
         <v>1.12</v>
@@ -21737,10 +21752,10 @@
         <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR97">
         <v>1.51</v>
@@ -21865,7 +21880,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -21946,7 +21961,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ98">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.11</v>
@@ -22071,7 +22086,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22149,7 +22164,7 @@
         <v>2.5</v>
       </c>
       <c r="AP99">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ99">
         <v>1.44</v>
@@ -22277,7 +22292,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22355,10 +22370,10 @@
         <v>2.25</v>
       </c>
       <c r="AP100">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ100">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR100">
         <v>1.55</v>
@@ -22689,7 +22704,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22895,7 +22910,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -24003,10 +24018,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ108">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR108">
         <v>1.48</v>
@@ -24131,7 +24146,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24209,7 +24224,7 @@
         <v>1</v>
       </c>
       <c r="AP109">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ109">
         <v>1.56</v>
@@ -24337,7 +24352,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24415,7 +24430,7 @@
         <v>0.4</v>
       </c>
       <c r="AP110">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ110">
         <v>0.83</v>
@@ -24749,7 +24764,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24830,7 +24845,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ112">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR112">
         <v>1.12</v>
@@ -24955,7 +24970,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25573,7 +25588,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25779,7 +25794,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25860,7 +25875,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ117">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.41</v>
@@ -25985,7 +26000,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26191,7 +26206,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26397,7 +26412,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26603,7 +26618,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26681,10 +26696,10 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR121">
         <v>1.12</v>
@@ -26809,7 +26824,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -27015,7 +27030,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27299,7 +27314,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ124">
         <v>0.83</v>
@@ -27508,7 +27523,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ125">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR125">
         <v>1.7</v>
@@ -27633,7 +27648,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27839,7 +27854,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -28123,7 +28138,7 @@
         <v>0.83</v>
       </c>
       <c r="AP128">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ128">
         <v>1.17</v>
@@ -28535,7 +28550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ130">
         <v>1.39</v>
@@ -28869,7 +28884,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28950,7 +28965,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ132">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR132">
         <v>1.18</v>
@@ -29156,7 +29171,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR133">
         <v>1.02</v>
@@ -29281,7 +29296,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29362,7 +29377,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ134">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR134">
         <v>1.08</v>
@@ -29487,7 +29502,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29565,7 +29580,7 @@
         <v>2.67</v>
       </c>
       <c r="AP135">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ135">
         <v>2.11</v>
@@ -30929,7 +30944,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31135,7 +31150,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31547,7 +31562,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31625,7 +31640,7 @@
         <v>1.57</v>
       </c>
       <c r="AP145">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ145">
         <v>1.67</v>
@@ -31753,7 +31768,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31959,7 +31974,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32165,7 +32180,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32371,7 +32386,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32449,10 +32464,10 @@
         <v>2.29</v>
       </c>
       <c r="AP149">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ149">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -32783,7 +32798,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33273,10 +33288,10 @@
         <v>0.71</v>
       </c>
       <c r="AP153">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ153">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR153">
         <v>1.32</v>
@@ -33401,7 +33416,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33607,7 +33622,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33685,7 +33700,7 @@
         <v>1.43</v>
       </c>
       <c r="AP155">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ155">
         <v>1.44</v>
@@ -33813,7 +33828,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33894,7 +33909,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ156">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR156">
         <v>1.53</v>
@@ -34019,7 +34034,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34225,7 +34240,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34718,7 +34733,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR160">
         <v>1.69</v>
@@ -35049,7 +35064,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35255,7 +35270,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35461,7 +35476,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35667,7 +35682,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -36079,7 +36094,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36285,7 +36300,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36363,7 +36378,7 @@
         <v>1.38</v>
       </c>
       <c r="AP168">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ168">
         <v>1.56</v>
@@ -36572,7 +36587,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ169">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR169">
         <v>1.39</v>
@@ -36697,7 +36712,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36775,7 +36790,7 @@
         <v>2.43</v>
       </c>
       <c r="AP170">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ170">
         <v>2.11</v>
@@ -37109,7 +37124,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37190,7 +37205,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR172">
         <v>1.06</v>
@@ -37393,7 +37408,7 @@
         <v>1.25</v>
       </c>
       <c r="AP173">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ173">
         <v>0.9399999999999999</v>
@@ -37599,7 +37614,7 @@
         <v>1.25</v>
       </c>
       <c r="AP174">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ174">
         <v>1.44</v>
@@ -37727,7 +37742,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -38014,7 +38029,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ176">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR176">
         <v>1.74</v>
@@ -38345,7 +38360,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38426,7 +38441,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ178">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR178">
         <v>1.73</v>
@@ -38963,7 +38978,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39169,7 +39184,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39247,7 +39262,7 @@
         <v>0.89</v>
       </c>
       <c r="AP182">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ182">
         <v>1.17</v>
@@ -39581,7 +39596,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39787,7 +39802,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39993,7 +40008,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40280,7 +40295,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ187">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR187">
         <v>1.17</v>
@@ -40405,7 +40420,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40611,7 +40626,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40689,7 +40704,7 @@
         <v>1.33</v>
       </c>
       <c r="AP189">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ189">
         <v>1.56</v>
@@ -40817,7 +40832,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -41023,7 +41038,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41101,7 +41116,7 @@
         <v>1.5</v>
       </c>
       <c r="AP191">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ191">
         <v>1.56</v>
@@ -41435,7 +41450,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41516,7 +41531,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ193">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR193">
         <v>1.51</v>
@@ -41722,7 +41737,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ194">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR194">
         <v>1.41</v>
@@ -41847,7 +41862,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -42053,7 +42068,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42134,7 +42149,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ196">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR196">
         <v>2.09</v>
@@ -42465,7 +42480,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42671,7 +42686,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42877,7 +42892,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43083,7 +43098,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43289,7 +43304,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43495,7 +43510,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43701,7 +43716,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43779,7 +43794,7 @@
         <v>2.56</v>
       </c>
       <c r="AP204">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ204">
         <v>2.11</v>
@@ -43907,7 +43922,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -43988,7 +44003,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ205">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR205">
         <v>1.11</v>
@@ -44191,7 +44206,7 @@
         <v>0.9</v>
       </c>
       <c r="AP206">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ206">
         <v>1.17</v>
@@ -44319,7 +44334,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44731,7 +44746,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45015,7 +45030,7 @@
         <v>0.2</v>
       </c>
       <c r="AP210">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ210">
         <v>0.33</v>
@@ -45143,7 +45158,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45221,7 +45236,7 @@
         <v>1.45</v>
       </c>
       <c r="AP211">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ211">
         <v>1.56</v>
@@ -45349,7 +45364,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45430,7 +45445,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ212">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR212">
         <v>1.29</v>
@@ -45555,7 +45570,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45761,7 +45776,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45967,7 +45982,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46173,7 +46188,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46251,7 +46266,7 @@
         <v>1.45</v>
       </c>
       <c r="AP216">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ216">
         <v>1.44</v>
@@ -46379,7 +46394,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46457,7 +46472,7 @@
         <v>0.18</v>
       </c>
       <c r="AP217">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ217">
         <v>0.33</v>
@@ -46585,7 +46600,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46791,7 +46806,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -46997,7 +47012,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47409,7 +47424,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47821,7 +47836,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -48027,7 +48042,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48233,7 +48248,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48314,7 +48329,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ226">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR226">
         <v>2.02</v>
@@ -48439,7 +48454,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48645,7 +48660,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -48723,10 +48738,10 @@
         <v>0.5</v>
       </c>
       <c r="AP228">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ228">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR228">
         <v>1.71</v>
@@ -48932,7 +48947,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ229">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR229">
         <v>1.51</v>
@@ -49057,7 +49072,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49341,7 +49356,7 @@
         <v>1.58</v>
       </c>
       <c r="AP231">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ231">
         <v>1.44</v>
@@ -49469,7 +49484,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49547,7 +49562,7 @@
         <v>1.45</v>
       </c>
       <c r="AP232">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ232">
         <v>1.39</v>
@@ -49756,7 +49771,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ233">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR233">
         <v>1.37</v>
@@ -49881,7 +49896,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50087,7 +50102,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50499,7 +50514,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50705,7 +50720,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50783,10 +50798,10 @@
         <v>1.45</v>
       </c>
       <c r="AP238">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ238">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR238">
         <v>1.51</v>
@@ -51117,7 +51132,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51198,7 +51213,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ240">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR240">
         <v>1.89</v>
@@ -51323,7 +51338,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51610,7 +51625,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ242">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR242">
         <v>1.61</v>
@@ -51735,7 +51750,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51941,7 +51956,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -52971,7 +52986,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53461,7 +53476,7 @@
         <v>1.18</v>
       </c>
       <c r="AP251">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ251">
         <v>1</v>
@@ -53589,7 +53604,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53795,7 +53810,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -54001,7 +54016,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54207,7 +54222,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54413,7 +54428,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54619,7 +54634,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -54700,7 +54715,7 @@
         <v>2</v>
       </c>
       <c r="AQ257">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR257">
         <v>1.97</v>
@@ -55031,7 +55046,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55112,7 +55127,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ259">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR259">
         <v>1.64</v>
@@ -55237,7 +55252,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55318,7 +55333,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ260">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR260">
         <v>1.6</v>
@@ -55443,7 +55458,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55521,7 +55536,7 @@
         <v>1.77</v>
       </c>
       <c r="AP261">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ261">
         <v>1.67</v>
@@ -55649,7 +55664,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55855,7 +55870,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -56061,7 +56076,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56757,7 +56772,7 @@
         <v>1.38</v>
       </c>
       <c r="AP267">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ267">
         <v>1.44</v>
@@ -56885,7 +56900,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -56963,7 +56978,7 @@
         <v>0.83</v>
       </c>
       <c r="AP268">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ268">
         <v>0.83</v>
@@ -57375,7 +57390,7 @@
         <v>1.92</v>
       </c>
       <c r="AP270">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ270">
         <v>1.82</v>
@@ -57790,7 +57805,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ272">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR272">
         <v>1.27</v>
@@ -57993,7 +58008,7 @@
         <v>1.5</v>
       </c>
       <c r="AP273">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ273">
         <v>1.44</v>
@@ -58121,7 +58136,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -59232,7 +59247,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ279">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR279">
         <v>1.96</v>
@@ -59357,7 +59372,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59435,7 +59450,7 @@
         <v>1.57</v>
       </c>
       <c r="AP280">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ280">
         <v>1.56</v>
@@ -59563,7 +59578,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59641,7 +59656,7 @@
         <v>1.86</v>
       </c>
       <c r="AP281">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ281">
         <v>1.82</v>
@@ -59769,7 +59784,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59975,7 +59990,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60262,7 +60277,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ284">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR284">
         <v>1.4</v>
@@ -60387,7 +60402,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60593,7 +60608,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60799,7 +60814,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61292,7 +61307,7 @@
         <v>2</v>
       </c>
       <c r="AQ289">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR289">
         <v>1.99</v>
@@ -61417,7 +61432,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -61910,7 +61925,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ292">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR292">
         <v>1.28</v>
@@ -62113,7 +62128,7 @@
         <v>1.21</v>
       </c>
       <c r="AP293">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ293">
         <v>1</v>
@@ -62241,7 +62256,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62322,7 +62337,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ294">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR294">
         <v>1.19</v>
@@ -62528,7 +62543,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ295">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR295">
         <v>1.96</v>
@@ -62653,7 +62668,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62731,7 +62746,7 @@
         <v>1.21</v>
       </c>
       <c r="AP296">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ296">
         <v>1.33</v>
@@ -62859,7 +62874,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -63065,7 +63080,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63889,7 +63904,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64301,7 +64316,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64791,7 +64806,7 @@
         <v>0.33</v>
       </c>
       <c r="AP306">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ306">
         <v>0.33</v>
@@ -64919,7 +64934,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65206,7 +65221,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ308">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR308">
         <v>1.65</v>
@@ -65409,7 +65424,7 @@
         <v>1.4</v>
       </c>
       <c r="AP309">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ309">
         <v>1.44</v>
@@ -65537,7 +65552,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65743,7 +65758,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65824,7 +65839,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ311">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR311">
         <v>1.95</v>
@@ -65949,7 +65964,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66030,7 +66045,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ312">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR312">
         <v>1.58</v>
@@ -66155,7 +66170,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66439,7 +66454,7 @@
         <v>1</v>
       </c>
       <c r="AP314">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ314">
         <v>1.17</v>
@@ -66567,7 +66582,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66773,7 +66788,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66979,7 +66994,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67060,7 +67075,7 @@
         <v>2.59</v>
       </c>
       <c r="AQ317">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR317">
         <v>1.89</v>
@@ -67185,7 +67200,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67469,7 +67484,7 @@
         <v>1.13</v>
       </c>
       <c r="AP319">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ319">
         <v>1</v>
@@ -67881,10 +67896,10 @@
         <v>1.53</v>
       </c>
       <c r="AP321">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ321">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR321">
         <v>1.65</v>
@@ -68009,7 +68024,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68421,7 +68436,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -69039,7 +69054,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69120,7 +69135,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ327">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR327">
         <v>1.6</v>
@@ -69245,7 +69260,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69529,7 +69544,7 @@
         <v>1.13</v>
       </c>
       <c r="AP329">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ329">
         <v>1.17</v>
@@ -69863,7 +69878,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -69941,7 +69956,7 @@
         <v>1.63</v>
       </c>
       <c r="AP331">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ331">
         <v>1.67</v>
@@ -70275,7 +70290,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70356,7 +70371,7 @@
         <v>2</v>
       </c>
       <c r="AQ333">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR333">
         <v>1.94</v>
@@ -70765,7 +70780,7 @@
         <v>0.88</v>
       </c>
       <c r="AP335">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ335">
         <v>0.83</v>
@@ -70893,7 +70908,7 @@
         <v>211</v>
       </c>
       <c r="P336" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -71180,7 +71195,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ337">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR337">
         <v>1.29</v>
@@ -71305,7 +71320,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q338">
         <v>2.2</v>
@@ -71386,7 +71401,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ338">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR338">
         <v>1.63</v>
@@ -71511,7 +71526,7 @@
         <v>94</v>
       </c>
       <c r="P339" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q339">
         <v>2.25</v>
@@ -71923,7 +71938,7 @@
         <v>91</v>
       </c>
       <c r="P341" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q341">
         <v>2.75</v>
@@ -72001,7 +72016,7 @@
         <v>1.13</v>
       </c>
       <c r="AP341">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ341">
         <v>1.33</v>
@@ -72541,7 +72556,7 @@
         <v>307</v>
       </c>
       <c r="P344" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q344">
         <v>2.1</v>
@@ -72953,7 +72968,7 @@
         <v>309</v>
       </c>
       <c r="P346" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q346">
         <v>2.6</v>
@@ -73159,7 +73174,7 @@
         <v>310</v>
       </c>
       <c r="P347" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q347">
         <v>2.1</v>
@@ -73365,7 +73380,7 @@
         <v>212</v>
       </c>
       <c r="P348" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q348">
         <v>3.2</v>
@@ -73983,7 +73998,7 @@
         <v>272</v>
       </c>
       <c r="P351" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -74189,7 +74204,7 @@
         <v>195</v>
       </c>
       <c r="P352" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q352">
         <v>2.4</v>
@@ -74395,7 +74410,7 @@
         <v>91</v>
       </c>
       <c r="P353" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q353">
         <v>3.25</v>
@@ -75013,7 +75028,7 @@
         <v>91</v>
       </c>
       <c r="P356" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q356">
         <v>2.88</v>
@@ -75170,6 +75185,830 @@
       </c>
       <c r="BP356">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>7467034</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45788.33333333334</v>
+      </c>
+      <c r="F357">
+        <v>36</v>
+      </c>
+      <c r="G357" t="s">
+        <v>74</v>
+      </c>
+      <c r="H357" t="s">
+        <v>78</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
+      <c r="L357">
+        <v>2</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>2</v>
+      </c>
+      <c r="O357" t="s">
+        <v>312</v>
+      </c>
+      <c r="P357" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q357">
+        <v>2.63</v>
+      </c>
+      <c r="R357">
+        <v>2.5</v>
+      </c>
+      <c r="S357">
+        <v>3.4</v>
+      </c>
+      <c r="T357">
+        <v>1.25</v>
+      </c>
+      <c r="U357">
+        <v>3.75</v>
+      </c>
+      <c r="V357">
+        <v>2.2</v>
+      </c>
+      <c r="W357">
+        <v>1.62</v>
+      </c>
+      <c r="X357">
+        <v>5</v>
+      </c>
+      <c r="Y357">
+        <v>1.17</v>
+      </c>
+      <c r="Z357">
+        <v>2.3</v>
+      </c>
+      <c r="AA357">
+        <v>3.8</v>
+      </c>
+      <c r="AB357">
+        <v>2.85</v>
+      </c>
+      <c r="AC357">
+        <v>1.01</v>
+      </c>
+      <c r="AD357">
+        <v>13</v>
+      </c>
+      <c r="AE357">
+        <v>1.17</v>
+      </c>
+      <c r="AF357">
+        <v>5</v>
+      </c>
+      <c r="AG357">
+        <v>1.57</v>
+      </c>
+      <c r="AH357">
+        <v>2.31</v>
+      </c>
+      <c r="AI357">
+        <v>1.44</v>
+      </c>
+      <c r="AJ357">
+        <v>2.63</v>
+      </c>
+      <c r="AK357">
+        <v>1.35</v>
+      </c>
+      <c r="AL357">
+        <v>1.26</v>
+      </c>
+      <c r="AM357">
+        <v>1.71</v>
+      </c>
+      <c r="AN357">
+        <v>2.06</v>
+      </c>
+      <c r="AO357">
+        <v>1.47</v>
+      </c>
+      <c r="AP357">
+        <v>2.11</v>
+      </c>
+      <c r="AQ357">
+        <v>1.39</v>
+      </c>
+      <c r="AR357">
+        <v>1.69</v>
+      </c>
+      <c r="AS357">
+        <v>1.58</v>
+      </c>
+      <c r="AT357">
+        <v>3.27</v>
+      </c>
+      <c r="AU357">
+        <v>7</v>
+      </c>
+      <c r="AV357">
+        <v>4</v>
+      </c>
+      <c r="AW357">
+        <v>9</v>
+      </c>
+      <c r="AX357">
+        <v>7</v>
+      </c>
+      <c r="AY357">
+        <v>19</v>
+      </c>
+      <c r="AZ357">
+        <v>14</v>
+      </c>
+      <c r="BA357">
+        <v>2</v>
+      </c>
+      <c r="BB357">
+        <v>8</v>
+      </c>
+      <c r="BC357">
+        <v>10</v>
+      </c>
+      <c r="BD357">
+        <v>1.77</v>
+      </c>
+      <c r="BE357">
+        <v>9</v>
+      </c>
+      <c r="BF357">
+        <v>2.43</v>
+      </c>
+      <c r="BG357">
+        <v>1.12</v>
+      </c>
+      <c r="BH357">
+        <v>4.65</v>
+      </c>
+      <c r="BI357">
+        <v>1.27</v>
+      </c>
+      <c r="BJ357">
+        <v>3.14</v>
+      </c>
+      <c r="BK357">
+        <v>1.51</v>
+      </c>
+      <c r="BL357">
+        <v>2.32</v>
+      </c>
+      <c r="BM357">
+        <v>1.87</v>
+      </c>
+      <c r="BN357">
+        <v>1.83</v>
+      </c>
+      <c r="BO357">
+        <v>2.4</v>
+      </c>
+      <c r="BP357">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>7467035</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45788.42708333334</v>
+      </c>
+      <c r="F358">
+        <v>36</v>
+      </c>
+      <c r="G358" t="s">
+        <v>75</v>
+      </c>
+      <c r="H358" t="s">
+        <v>79</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358">
+        <v>2</v>
+      </c>
+      <c r="L358">
+        <v>2</v>
+      </c>
+      <c r="M358">
+        <v>2</v>
+      </c>
+      <c r="N358">
+        <v>4</v>
+      </c>
+      <c r="O358" t="s">
+        <v>313</v>
+      </c>
+      <c r="P358" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q358">
+        <v>1.8</v>
+      </c>
+      <c r="R358">
+        <v>2.5</v>
+      </c>
+      <c r="S358">
+        <v>7.5</v>
+      </c>
+      <c r="T358">
+        <v>1.3</v>
+      </c>
+      <c r="U358">
+        <v>3.4</v>
+      </c>
+      <c r="V358">
+        <v>2.38</v>
+      </c>
+      <c r="W358">
+        <v>1.53</v>
+      </c>
+      <c r="X358">
+        <v>6</v>
+      </c>
+      <c r="Y358">
+        <v>1.13</v>
+      </c>
+      <c r="Z358">
+        <v>1.4</v>
+      </c>
+      <c r="AA358">
+        <v>4.9</v>
+      </c>
+      <c r="AB358">
+        <v>7.5</v>
+      </c>
+      <c r="AC358">
+        <v>1.03</v>
+      </c>
+      <c r="AD358">
+        <v>11</v>
+      </c>
+      <c r="AE358">
+        <v>1.2</v>
+      </c>
+      <c r="AF358">
+        <v>4.33</v>
+      </c>
+      <c r="AG358">
+        <v>1.7</v>
+      </c>
+      <c r="AH358">
+        <v>2.05</v>
+      </c>
+      <c r="AI358">
+        <v>1.95</v>
+      </c>
+      <c r="AJ358">
+        <v>1.8</v>
+      </c>
+      <c r="AK358">
+        <v>1.07</v>
+      </c>
+      <c r="AL358">
+        <v>1.16</v>
+      </c>
+      <c r="AM358">
+        <v>3.2</v>
+      </c>
+      <c r="AN358">
+        <v>1.82</v>
+      </c>
+      <c r="AO358">
+        <v>0.53</v>
+      </c>
+      <c r="AP358">
+        <v>1.78</v>
+      </c>
+      <c r="AQ358">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR358">
+        <v>1.45</v>
+      </c>
+      <c r="AS358">
+        <v>1.03</v>
+      </c>
+      <c r="AT358">
+        <v>2.48</v>
+      </c>
+      <c r="AU358">
+        <v>5</v>
+      </c>
+      <c r="AV358">
+        <v>7</v>
+      </c>
+      <c r="AW358">
+        <v>11</v>
+      </c>
+      <c r="AX358">
+        <v>4</v>
+      </c>
+      <c r="AY358">
+        <v>21</v>
+      </c>
+      <c r="AZ358">
+        <v>11</v>
+      </c>
+      <c r="BA358">
+        <v>4</v>
+      </c>
+      <c r="BB358">
+        <v>4</v>
+      </c>
+      <c r="BC358">
+        <v>8</v>
+      </c>
+      <c r="BD358">
+        <v>1.3</v>
+      </c>
+      <c r="BE358">
+        <v>10.5</v>
+      </c>
+      <c r="BF358">
+        <v>4.5</v>
+      </c>
+      <c r="BG358">
+        <v>1.16</v>
+      </c>
+      <c r="BH358">
+        <v>4.15</v>
+      </c>
+      <c r="BI358">
+        <v>1.33</v>
+      </c>
+      <c r="BJ358">
+        <v>2.83</v>
+      </c>
+      <c r="BK358">
+        <v>1.61</v>
+      </c>
+      <c r="BL358">
+        <v>2.12</v>
+      </c>
+      <c r="BM358">
+        <v>2.03</v>
+      </c>
+      <c r="BN358">
+        <v>1.7</v>
+      </c>
+      <c r="BO358">
+        <v>2.6</v>
+      </c>
+      <c r="BP358">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>7467037</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45788.42708333334</v>
+      </c>
+      <c r="F359">
+        <v>36</v>
+      </c>
+      <c r="G359" t="s">
+        <v>81</v>
+      </c>
+      <c r="H359" t="s">
+        <v>82</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
+      <c r="L359">
+        <v>0</v>
+      </c>
+      <c r="M359">
+        <v>2</v>
+      </c>
+      <c r="N359">
+        <v>2</v>
+      </c>
+      <c r="O359" t="s">
+        <v>91</v>
+      </c>
+      <c r="P359" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q359">
+        <v>3</v>
+      </c>
+      <c r="R359">
+        <v>2.4</v>
+      </c>
+      <c r="S359">
+        <v>3</v>
+      </c>
+      <c r="T359">
+        <v>1.25</v>
+      </c>
+      <c r="U359">
+        <v>3.75</v>
+      </c>
+      <c r="V359">
+        <v>2.25</v>
+      </c>
+      <c r="W359">
+        <v>1.57</v>
+      </c>
+      <c r="X359">
+        <v>5.5</v>
+      </c>
+      <c r="Y359">
+        <v>1.14</v>
+      </c>
+      <c r="Z359">
+        <v>2.05</v>
+      </c>
+      <c r="AA359">
+        <v>3.8</v>
+      </c>
+      <c r="AB359">
+        <v>3.3</v>
+      </c>
+      <c r="AC359">
+        <v>1.04</v>
+      </c>
+      <c r="AD359">
+        <v>10</v>
+      </c>
+      <c r="AE359">
+        <v>1.2</v>
+      </c>
+      <c r="AF359">
+        <v>4.5</v>
+      </c>
+      <c r="AG359">
+        <v>1.57</v>
+      </c>
+      <c r="AH359">
+        <v>2.3</v>
+      </c>
+      <c r="AI359">
+        <v>1.5</v>
+      </c>
+      <c r="AJ359">
+        <v>2.5</v>
+      </c>
+      <c r="AK359">
+        <v>1.5</v>
+      </c>
+      <c r="AL359">
+        <v>1.27</v>
+      </c>
+      <c r="AM359">
+        <v>1.49</v>
+      </c>
+      <c r="AN359">
+        <v>1.24</v>
+      </c>
+      <c r="AO359">
+        <v>1.41</v>
+      </c>
+      <c r="AP359">
+        <v>1.17</v>
+      </c>
+      <c r="AQ359">
+        <v>1.5</v>
+      </c>
+      <c r="AR359">
+        <v>1.79</v>
+      </c>
+      <c r="AS359">
+        <v>1.37</v>
+      </c>
+      <c r="AT359">
+        <v>3.16</v>
+      </c>
+      <c r="AU359">
+        <v>2</v>
+      </c>
+      <c r="AV359">
+        <v>11</v>
+      </c>
+      <c r="AW359">
+        <v>7</v>
+      </c>
+      <c r="AX359">
+        <v>13</v>
+      </c>
+      <c r="AY359">
+        <v>11</v>
+      </c>
+      <c r="AZ359">
+        <v>29</v>
+      </c>
+      <c r="BA359">
+        <v>4</v>
+      </c>
+      <c r="BB359">
+        <v>8</v>
+      </c>
+      <c r="BC359">
+        <v>12</v>
+      </c>
+      <c r="BD359">
+        <v>1.79</v>
+      </c>
+      <c r="BE359">
+        <v>9.1</v>
+      </c>
+      <c r="BF359">
+        <v>2.39</v>
+      </c>
+      <c r="BG359">
+        <v>1.13</v>
+      </c>
+      <c r="BH359">
+        <v>4.55</v>
+      </c>
+      <c r="BI359">
+        <v>1.28</v>
+      </c>
+      <c r="BJ359">
+        <v>3.08</v>
+      </c>
+      <c r="BK359">
+        <v>1.53</v>
+      </c>
+      <c r="BL359">
+        <v>2.28</v>
+      </c>
+      <c r="BM359">
+        <v>1.9</v>
+      </c>
+      <c r="BN359">
+        <v>1.8</v>
+      </c>
+      <c r="BO359">
+        <v>2.42</v>
+      </c>
+      <c r="BP359">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>7467033</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45788.42708333334</v>
+      </c>
+      <c r="F360">
+        <v>36</v>
+      </c>
+      <c r="G360" t="s">
+        <v>70</v>
+      </c>
+      <c r="H360" t="s">
+        <v>76</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+      <c r="K360">
+        <v>1</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <v>2</v>
+      </c>
+      <c r="N360">
+        <v>2</v>
+      </c>
+      <c r="O360" t="s">
+        <v>91</v>
+      </c>
+      <c r="P360" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q360">
+        <v>2.5</v>
+      </c>
+      <c r="R360">
+        <v>2.3</v>
+      </c>
+      <c r="S360">
+        <v>4</v>
+      </c>
+      <c r="T360">
+        <v>1.33</v>
+      </c>
+      <c r="U360">
+        <v>3.25</v>
+      </c>
+      <c r="V360">
+        <v>2.5</v>
+      </c>
+      <c r="W360">
+        <v>1.5</v>
+      </c>
+      <c r="X360">
+        <v>6.5</v>
+      </c>
+      <c r="Y360">
+        <v>1.11</v>
+      </c>
+      <c r="Z360">
+        <v>2.06</v>
+      </c>
+      <c r="AA360">
+        <v>3.7</v>
+      </c>
+      <c r="AB360">
+        <v>3.59</v>
+      </c>
+      <c r="AC360">
+        <v>1.05</v>
+      </c>
+      <c r="AD360">
+        <v>9.5</v>
+      </c>
+      <c r="AE360">
+        <v>1.25</v>
+      </c>
+      <c r="AF360">
+        <v>3.85</v>
+      </c>
+      <c r="AG360">
+        <v>1.73</v>
+      </c>
+      <c r="AH360">
+        <v>1.98</v>
+      </c>
+      <c r="AI360">
+        <v>1.67</v>
+      </c>
+      <c r="AJ360">
+        <v>2.1</v>
+      </c>
+      <c r="AK360">
+        <v>1.29</v>
+      </c>
+      <c r="AL360">
+        <v>1.28</v>
+      </c>
+      <c r="AM360">
+        <v>1.77</v>
+      </c>
+      <c r="AN360">
+        <v>1.24</v>
+      </c>
+      <c r="AO360">
+        <v>1</v>
+      </c>
+      <c r="AP360">
+        <v>1.17</v>
+      </c>
+      <c r="AQ360">
+        <v>1.11</v>
+      </c>
+      <c r="AR360">
+        <v>1.51</v>
+      </c>
+      <c r="AS360">
+        <v>1.37</v>
+      </c>
+      <c r="AT360">
+        <v>2.88</v>
+      </c>
+      <c r="AU360">
+        <v>6</v>
+      </c>
+      <c r="AV360">
+        <v>5</v>
+      </c>
+      <c r="AW360">
+        <v>15</v>
+      </c>
+      <c r="AX360">
+        <v>5</v>
+      </c>
+      <c r="AY360">
+        <v>27</v>
+      </c>
+      <c r="AZ360">
+        <v>11</v>
+      </c>
+      <c r="BA360">
+        <v>8</v>
+      </c>
+      <c r="BB360">
+        <v>5</v>
+      </c>
+      <c r="BC360">
+        <v>13</v>
+      </c>
+      <c r="BD360">
+        <v>1.64</v>
+      </c>
+      <c r="BE360">
+        <v>9</v>
+      </c>
+      <c r="BF360">
+        <v>2.73</v>
+      </c>
+      <c r="BG360">
+        <v>1.15</v>
+      </c>
+      <c r="BH360">
+        <v>4.2</v>
+      </c>
+      <c r="BI360">
+        <v>1.32</v>
+      </c>
+      <c r="BJ360">
+        <v>2.88</v>
+      </c>
+      <c r="BK360">
+        <v>1.6</v>
+      </c>
+      <c r="BL360">
+        <v>2.14</v>
+      </c>
+      <c r="BM360">
+        <v>2.02</v>
+      </c>
+      <c r="BN360">
+        <v>1.71</v>
+      </c>
+      <c r="BO360">
+        <v>2.6</v>
+      </c>
+      <c r="BP360">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="492">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -958,6 +958,9 @@
     <t>['25', '56']</t>
   </si>
   <si>
+    <t>['20', '21']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1485,6 +1488,9 @@
   <si>
     <t>['26', '57']</t>
   </si>
+  <si>
+    <t>['47', '70']</t>
+  </si>
 </sst>
 </file>
 
@@ -1845,7 +1851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP360"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2310,7 +2316,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2722,7 +2728,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3134,7 +3140,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3340,7 +3346,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3752,7 +3758,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -5400,7 +5406,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5481,7 +5487,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ18">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5606,7 +5612,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -6096,7 +6102,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -6430,7 +6436,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6636,7 +6642,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -7254,7 +7260,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7460,7 +7466,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7666,7 +7672,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -8078,7 +8084,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8284,7 +8290,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8696,7 +8702,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9186,7 +9192,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -9520,7 +9526,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9726,7 +9732,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9932,7 +9938,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10013,7 +10019,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ40">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR40">
         <v>1.93</v>
@@ -10138,7 +10144,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10344,7 +10350,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10550,7 +10556,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11040,7 +11046,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45">
         <v>1.56</v>
@@ -12198,7 +12204,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12279,7 +12285,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ51">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR51">
         <v>2.05</v>
@@ -12610,7 +12616,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -13022,7 +13028,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13434,7 +13440,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13640,7 +13646,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13846,7 +13852,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -14052,7 +14058,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14258,7 +14264,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14464,7 +14470,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14876,7 +14882,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -15082,7 +15088,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15288,7 +15294,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -16318,7 +16324,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16730,7 +16736,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16936,7 +16942,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17348,7 +17354,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17554,7 +17560,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17841,7 +17847,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ78">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17966,7 +17972,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18172,7 +18178,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18250,7 +18256,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ80">
         <v>1.39</v>
@@ -18584,7 +18590,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18996,7 +19002,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19202,7 +19208,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19408,7 +19414,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19820,7 +19826,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -20232,7 +20238,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20438,7 +20444,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20725,7 +20731,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ92">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR92">
         <v>1.13</v>
@@ -21546,7 +21552,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ96">
         <v>1.44</v>
@@ -21880,7 +21886,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -22086,7 +22092,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22292,7 +22298,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22704,7 +22710,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22910,7 +22916,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23812,7 +23818,7 @@
         <v>2</v>
       </c>
       <c r="AP107">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ107">
         <v>1.44</v>
@@ -24146,7 +24152,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24352,7 +24358,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24639,7 +24645,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ111">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR111">
         <v>1.72</v>
@@ -24764,7 +24770,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24970,7 +24976,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25588,7 +25594,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25794,7 +25800,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26000,7 +26006,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26206,7 +26212,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26412,7 +26418,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26618,7 +26624,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26824,7 +26830,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -27030,7 +27036,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27648,7 +27654,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27854,7 +27860,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27935,7 +27941,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ127">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -28756,7 +28762,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ131">
         <v>1.44</v>
@@ -28884,7 +28890,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29296,7 +29302,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29502,7 +29508,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -30944,7 +30950,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31150,7 +31156,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31562,7 +31568,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31768,7 +31774,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31849,7 +31855,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ146">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR146">
         <v>1.74</v>
@@ -31974,7 +31980,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32180,7 +32186,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32386,7 +32392,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32798,7 +32804,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33416,7 +33422,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33494,7 +33500,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ154">
         <v>1.39</v>
@@ -33622,7 +33628,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33828,7 +33834,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -34034,7 +34040,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34240,7 +34246,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -35064,7 +35070,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35270,7 +35276,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35476,7 +35482,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35682,7 +35688,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35763,7 +35769,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ165">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR165">
         <v>1.31</v>
@@ -36094,7 +36100,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36300,7 +36306,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36712,7 +36718,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37124,7 +37130,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37742,7 +37748,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -38360,7 +38366,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38438,7 +38444,7 @@
         <v>0.63</v>
       </c>
       <c r="AP178">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ178">
         <v>0.5600000000000001</v>
@@ -38978,7 +38984,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39184,7 +39190,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39596,7 +39602,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39802,7 +39808,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -40008,7 +40014,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40420,7 +40426,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40626,7 +40632,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40832,7 +40838,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40913,7 +40919,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ190">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR190">
         <v>1.66</v>
@@ -41038,7 +41044,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41450,7 +41456,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41862,7 +41868,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -42068,7 +42074,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42355,7 +42361,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ197">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR197">
         <v>1.62</v>
@@ -42480,7 +42486,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42686,7 +42692,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42764,7 +42770,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ199">
         <v>1</v>
@@ -42892,7 +42898,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43098,7 +43104,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43304,7 +43310,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43510,7 +43516,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43716,7 +43722,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43922,7 +43928,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44334,7 +44340,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44746,7 +44752,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45158,7 +45164,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45364,7 +45370,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45570,7 +45576,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45776,7 +45782,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45982,7 +45988,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46188,7 +46194,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46394,7 +46400,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46600,7 +46606,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46806,7 +46812,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -47012,7 +47018,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47424,7 +47430,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47708,7 +47714,7 @@
         <v>0.9</v>
       </c>
       <c r="AP223">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ223">
         <v>0.83</v>
@@ -47836,7 +47842,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -48042,7 +48048,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48123,7 +48129,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ225">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR225">
         <v>1.21</v>
@@ -48248,7 +48254,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48454,7 +48460,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48660,7 +48666,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -49072,7 +49078,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49484,7 +49490,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49896,7 +49902,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50102,7 +50108,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50514,7 +50520,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50720,7 +50726,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -51132,7 +51138,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51338,7 +51344,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51750,7 +51756,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51831,7 +51837,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ243">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR243">
         <v>1.2</v>
@@ -51956,7 +51962,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -52986,7 +52992,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53270,7 +53276,7 @@
         <v>0.75</v>
       </c>
       <c r="AP250">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ250">
         <v>1.17</v>
@@ -53604,7 +53610,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53810,7 +53816,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -54016,7 +54022,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54222,7 +54228,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54428,7 +54434,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54634,7 +54640,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -55046,7 +55052,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55252,7 +55258,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55458,7 +55464,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55664,7 +55670,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55870,7 +55876,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -56076,7 +56082,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56900,7 +56906,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -57393,7 +57399,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ270">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR270">
         <v>1.5</v>
@@ -57596,7 +57602,7 @@
         <v>1.62</v>
       </c>
       <c r="AP271">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ271">
         <v>1.56</v>
@@ -58136,7 +58142,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58214,7 +58220,7 @@
         <v>0.36</v>
       </c>
       <c r="AP274">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ274">
         <v>0.33</v>
@@ -59372,7 +59378,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59578,7 +59584,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59659,7 +59665,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ281">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR281">
         <v>1.53</v>
@@ -59784,7 +59790,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59990,7 +59996,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60402,7 +60408,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60608,7 +60614,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60814,7 +60820,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61432,7 +61438,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -62256,7 +62262,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62668,7 +62674,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62874,7 +62880,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -63080,7 +63086,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63364,7 +63370,7 @@
         <v>1.07</v>
       </c>
       <c r="AP299">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ299">
         <v>1.17</v>
@@ -63779,7 +63785,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ301">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR301">
         <v>1.43</v>
@@ -63904,7 +63910,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64316,7 +64322,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64934,7 +64940,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65552,7 +65558,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65758,7 +65764,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65964,7 +65970,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66170,7 +66176,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66582,7 +66588,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66788,7 +66794,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66994,7 +67000,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67072,7 +67078,7 @@
         <v>1.13</v>
       </c>
       <c r="AP317">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ317">
         <v>1.11</v>
@@ -67200,7 +67206,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -68024,7 +68030,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68436,7 +68442,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -69054,7 +69060,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69260,7 +69266,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69341,7 +69347,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ328">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR328">
         <v>1.23</v>
@@ -69878,7 +69884,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -70290,7 +70296,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70908,7 +70914,7 @@
         <v>211</v>
       </c>
       <c r="P336" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -71320,7 +71326,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q338">
         <v>2.2</v>
@@ -71526,7 +71532,7 @@
         <v>94</v>
       </c>
       <c r="P339" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q339">
         <v>2.25</v>
@@ -71810,7 +71816,7 @@
         <v>1</v>
       </c>
       <c r="AP340">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AQ340">
         <v>0.9399999999999999</v>
@@ -71938,7 +71944,7 @@
         <v>91</v>
       </c>
       <c r="P341" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q341">
         <v>2.75</v>
@@ -72556,7 +72562,7 @@
         <v>307</v>
       </c>
       <c r="P344" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q344">
         <v>2.1</v>
@@ -72968,7 +72974,7 @@
         <v>309</v>
       </c>
       <c r="P346" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q346">
         <v>2.6</v>
@@ -73174,7 +73180,7 @@
         <v>310</v>
       </c>
       <c r="P347" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q347">
         <v>2.1</v>
@@ -73380,7 +73386,7 @@
         <v>212</v>
       </c>
       <c r="P348" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q348">
         <v>3.2</v>
@@ -73998,7 +74004,7 @@
         <v>272</v>
       </c>
       <c r="P351" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -74204,7 +74210,7 @@
         <v>195</v>
       </c>
       <c r="P352" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q352">
         <v>2.4</v>
@@ -74410,7 +74416,7 @@
         <v>91</v>
       </c>
       <c r="P353" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q353">
         <v>3.25</v>
@@ -75028,7 +75034,7 @@
         <v>91</v>
       </c>
       <c r="P356" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q356">
         <v>2.88</v>
@@ -75440,7 +75446,7 @@
         <v>313</v>
       </c>
       <c r="P358" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q358">
         <v>1.8</v>
@@ -75646,7 +75652,7 @@
         <v>91</v>
       </c>
       <c r="P359" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q359">
         <v>3</v>
@@ -75852,7 +75858,7 @@
         <v>91</v>
       </c>
       <c r="P360" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q360">
         <v>2.5</v>
@@ -76008,6 +76014,212 @@
         <v>2.6</v>
       </c>
       <c r="BP360">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>7467032</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45788.52083333334</v>
+      </c>
+      <c r="F361">
+        <v>36</v>
+      </c>
+      <c r="G361" t="s">
+        <v>89</v>
+      </c>
+      <c r="H361" t="s">
+        <v>72</v>
+      </c>
+      <c r="I361">
+        <v>2</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>2</v>
+      </c>
+      <c r="L361">
+        <v>2</v>
+      </c>
+      <c r="M361">
+        <v>2</v>
+      </c>
+      <c r="N361">
+        <v>4</v>
+      </c>
+      <c r="O361" t="s">
+        <v>314</v>
+      </c>
+      <c r="P361" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q361">
+        <v>2.6</v>
+      </c>
+      <c r="R361">
+        <v>2.3</v>
+      </c>
+      <c r="S361">
+        <v>3.75</v>
+      </c>
+      <c r="T361">
+        <v>1.33</v>
+      </c>
+      <c r="U361">
+        <v>3.25</v>
+      </c>
+      <c r="V361">
+        <v>2.5</v>
+      </c>
+      <c r="W361">
+        <v>1.5</v>
+      </c>
+      <c r="X361">
+        <v>6.5</v>
+      </c>
+      <c r="Y361">
+        <v>1.11</v>
+      </c>
+      <c r="Z361">
+        <v>2.37</v>
+      </c>
+      <c r="AA361">
+        <v>3.56</v>
+      </c>
+      <c r="AB361">
+        <v>3.05</v>
+      </c>
+      <c r="AC361">
+        <v>1.05</v>
+      </c>
+      <c r="AD361">
+        <v>9.5</v>
+      </c>
+      <c r="AE361">
+        <v>1.25</v>
+      </c>
+      <c r="AF361">
+        <v>3.8</v>
+      </c>
+      <c r="AG361">
+        <v>1.85</v>
+      </c>
+      <c r="AH361">
+        <v>1.85</v>
+      </c>
+      <c r="AI361">
+        <v>1.62</v>
+      </c>
+      <c r="AJ361">
+        <v>2.2</v>
+      </c>
+      <c r="AK361">
+        <v>1.32</v>
+      </c>
+      <c r="AL361">
+        <v>1.3</v>
+      </c>
+      <c r="AM361">
+        <v>1.66</v>
+      </c>
+      <c r="AN361">
+        <v>2.59</v>
+      </c>
+      <c r="AO361">
+        <v>1.82</v>
+      </c>
+      <c r="AP361">
+        <v>2.5</v>
+      </c>
+      <c r="AQ361">
+        <v>1.78</v>
+      </c>
+      <c r="AR361">
+        <v>1.9</v>
+      </c>
+      <c r="AS361">
+        <v>1.5</v>
+      </c>
+      <c r="AT361">
+        <v>3.4</v>
+      </c>
+      <c r="AU361">
+        <v>6</v>
+      </c>
+      <c r="AV361">
+        <v>8</v>
+      </c>
+      <c r="AW361">
+        <v>9</v>
+      </c>
+      <c r="AX361">
+        <v>8</v>
+      </c>
+      <c r="AY361">
+        <v>16</v>
+      </c>
+      <c r="AZ361">
+        <v>22</v>
+      </c>
+      <c r="BA361">
+        <v>3</v>
+      </c>
+      <c r="BB361">
+        <v>1</v>
+      </c>
+      <c r="BC361">
+        <v>4</v>
+      </c>
+      <c r="BD361">
+        <v>1.72</v>
+      </c>
+      <c r="BE361">
+        <v>9</v>
+      </c>
+      <c r="BF361">
+        <v>2.53</v>
+      </c>
+      <c r="BG361">
+        <v>1.15</v>
+      </c>
+      <c r="BH361">
+        <v>4.2</v>
+      </c>
+      <c r="BI361">
+        <v>1.32</v>
+      </c>
+      <c r="BJ361">
+        <v>2.88</v>
+      </c>
+      <c r="BK361">
+        <v>1.59</v>
+      </c>
+      <c r="BL361">
+        <v>2.16</v>
+      </c>
+      <c r="BM361">
+        <v>2</v>
+      </c>
+      <c r="BN361">
+        <v>1.72</v>
+      </c>
+      <c r="BO361">
+        <v>2.6</v>
+      </c>
+      <c r="BP361">
         <v>1.41</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="493">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -961,6 +961,12 @@
     <t>['20', '21']</t>
   </si>
   <si>
+    <t>['59', '73']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1238,9 +1244,6 @@
   </si>
   <si>
     <t>['6', '62', '69', '90+2', '90+4']</t>
-  </si>
-  <si>
-    <t>['71']</t>
   </si>
   <si>
     <t>['38', '71']</t>
@@ -1851,7 +1854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP361"/>
+  <dimension ref="A1:BP363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2316,7 +2319,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2728,7 +2731,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3140,7 +3143,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3346,7 +3349,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3758,7 +3761,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3836,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ10">
         <v>1.44</v>
@@ -4045,7 +4048,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ11">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4251,7 +4254,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -5406,7 +5409,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5484,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ18">
         <v>1.78</v>
@@ -5612,7 +5615,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -6436,7 +6439,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6642,7 +6645,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -7260,7 +7263,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7466,7 +7469,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7672,7 +7675,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -7750,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7959,7 +7962,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ30">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
         <v>0.47</v>
@@ -8084,7 +8087,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8290,7 +8293,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8371,7 +8374,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR32">
         <v>0.65</v>
@@ -8702,7 +8705,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9526,7 +9529,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9604,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9732,7 +9735,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9938,7 +9941,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10144,7 +10147,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10350,7 +10353,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10556,7 +10559,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11664,7 +11667,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -11873,7 +11876,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR49">
         <v>1.39</v>
@@ -12204,7 +12207,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12616,7 +12619,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -13028,7 +13031,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13440,7 +13443,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13518,7 +13521,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ57">
         <v>1.44</v>
@@ -13646,7 +13649,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13852,7 +13855,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -14058,7 +14061,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14139,7 +14142,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ60">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>1.43</v>
@@ -14264,7 +14267,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14470,7 +14473,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14882,7 +14885,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -15088,7 +15091,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15294,7 +15297,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -15990,7 +15993,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ69">
         <v>1.67</v>
@@ -16196,10 +16199,10 @@
         <v>1.33</v>
       </c>
       <c r="AP70">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -16324,7 +16327,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16405,7 +16408,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ71">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16736,7 +16739,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16942,7 +16945,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17354,7 +17357,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17560,7 +17563,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17972,7 +17975,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18178,7 +18181,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18590,7 +18593,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -19002,7 +19005,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19208,7 +19211,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19286,7 +19289,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ85">
         <v>1.56</v>
@@ -19414,7 +19417,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19826,7 +19829,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19904,7 +19907,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ88">
         <v>1.56</v>
@@ -20113,7 +20116,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ89">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR89">
         <v>1.28</v>
@@ -20238,7 +20241,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20319,7 +20322,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -20444,7 +20447,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -21886,7 +21889,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -22092,7 +22095,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22298,7 +22301,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22710,7 +22713,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22916,7 +22919,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -24152,7 +24155,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24358,7 +24361,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24642,7 +24645,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ111">
         <v>1.78</v>
@@ -24770,7 +24773,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24976,7 +24979,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25594,7 +25597,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25800,7 +25803,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25878,7 +25881,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -26006,7 +26009,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26087,7 +26090,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ118">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR118">
         <v>2.34</v>
@@ -26212,7 +26215,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26418,7 +26421,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26499,7 +26502,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR120">
         <v>1.13</v>
@@ -26624,7 +26627,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26830,7 +26833,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -27036,7 +27039,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27654,7 +27657,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27860,7 +27863,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -28350,7 +28353,7 @@
         <v>1.67</v>
       </c>
       <c r="AP129">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ129">
         <v>1.44</v>
@@ -28890,7 +28893,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29302,7 +29305,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29508,7 +29511,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -30204,7 +30207,7 @@
         <v>0.17</v>
       </c>
       <c r="AP138">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ138">
         <v>1.33</v>
@@ -30413,7 +30416,7 @@
         <v>2</v>
       </c>
       <c r="AQ139">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR139">
         <v>2.18</v>
@@ -30825,7 +30828,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ141">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR141">
         <v>1.64</v>
@@ -30950,7 +30953,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31156,7 +31159,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31440,7 +31443,7 @@
         <v>0.14</v>
       </c>
       <c r="AP144">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
         <v>0.33</v>
@@ -31568,7 +31571,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31774,7 +31777,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31980,7 +31983,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32186,7 +32189,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32392,7 +32395,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32804,7 +32807,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33422,7 +33425,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33628,7 +33631,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33834,7 +33837,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -34040,7 +34043,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34121,7 +34124,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR157">
         <v>2.25</v>
@@ -34246,7 +34249,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34327,7 +34330,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ158">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR158">
         <v>1.06</v>
@@ -34530,7 +34533,7 @@
         <v>0.14</v>
       </c>
       <c r="AP159">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ159">
         <v>1.33</v>
@@ -34942,7 +34945,7 @@
         <v>1.38</v>
       </c>
       <c r="AP161">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ161">
         <v>1.44</v>
@@ -35070,7 +35073,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35276,7 +35279,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35482,7 +35485,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35688,7 +35691,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -36100,7 +36103,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36306,7 +36309,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36718,7 +36721,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37130,7 +37133,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37417,7 +37420,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ173">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR173">
         <v>1.56</v>
@@ -37748,7 +37751,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -37826,7 +37829,7 @@
         <v>1.25</v>
       </c>
       <c r="AP175">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ175">
         <v>1.39</v>
@@ -38241,7 +38244,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ177">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR177">
         <v>1.19</v>
@@ -38366,7 +38369,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38984,7 +38987,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39190,7 +39193,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39602,7 +39605,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39808,7 +39811,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -40014,7 +40017,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40426,7 +40429,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40504,7 +40507,7 @@
         <v>1.33</v>
       </c>
       <c r="AP188">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ188">
         <v>1.44</v>
@@ -40632,7 +40635,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40838,7 +40841,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -41044,7 +41047,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41456,7 +41459,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41534,7 +41537,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP193">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ193">
         <v>0.5600000000000001</v>
@@ -41868,7 +41871,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -42074,7 +42077,7 @@
         <v>226</v>
       </c>
       <c r="P196" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="Q196">
         <v>1.73</v>
@@ -42486,7 +42489,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42692,7 +42695,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42773,7 +42776,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ199">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR199">
         <v>1.79</v>
@@ -42898,7 +42901,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43104,7 +43107,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43182,7 +43185,7 @@
         <v>1.5</v>
       </c>
       <c r="AP201">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ201">
         <v>1.56</v>
@@ -43310,7 +43313,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43516,7 +43519,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43722,7 +43725,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43928,7 +43931,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44340,7 +44343,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44627,7 +44630,7 @@
         <v>2</v>
       </c>
       <c r="AQ208">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR208">
         <v>1.98</v>
@@ -44752,7 +44755,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45164,7 +45167,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45370,7 +45373,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45576,7 +45579,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45782,7 +45785,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45988,7 +45991,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46194,7 +46197,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46400,7 +46403,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46606,7 +46609,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46687,7 +46690,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ218">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR218">
         <v>1.33</v>
@@ -46812,7 +46815,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -47018,7 +47021,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47096,7 +47099,7 @@
         <v>0.82</v>
       </c>
       <c r="AP220">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ220">
         <v>1.17</v>
@@ -47430,7 +47433,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47842,7 +47845,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -48048,7 +48051,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48254,7 +48257,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48460,7 +48463,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48666,7 +48669,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -48950,7 +48953,7 @@
         <v>1.2</v>
       </c>
       <c r="AP229">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ229">
         <v>1.11</v>
@@ -49078,7 +49081,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49159,7 +49162,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ230">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR230">
         <v>1.57</v>
@@ -49490,7 +49493,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49902,7 +49905,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50108,7 +50111,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50520,7 +50523,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50601,7 +50604,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ237">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR237">
         <v>1.59</v>
@@ -50726,7 +50729,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -51138,7 +51141,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51216,7 +51219,7 @@
         <v>1.18</v>
       </c>
       <c r="AP240">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ240">
         <v>1.11</v>
@@ -51344,7 +51347,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51756,7 +51759,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51962,7 +51965,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -52864,7 +52867,7 @@
         <v>0.82</v>
       </c>
       <c r="AP248">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ248">
         <v>0.83</v>
@@ -52992,7 +52995,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53485,7 +53488,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ251">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR251">
         <v>1.71</v>
@@ -53610,7 +53613,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53688,7 +53691,7 @@
         <v>2.38</v>
       </c>
       <c r="AP252">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ252">
         <v>2.11</v>
@@ -53816,7 +53819,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -54022,7 +54025,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54103,7 +54106,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ254">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR254">
         <v>1.39</v>
@@ -54228,7 +54231,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54434,7 +54437,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54515,7 +54518,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ256">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR256">
         <v>1.19</v>
@@ -54640,7 +54643,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -55052,7 +55055,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55258,7 +55261,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55336,7 +55339,7 @@
         <v>1.62</v>
       </c>
       <c r="AP260">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ260">
         <v>1.39</v>
@@ -55464,7 +55467,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55670,7 +55673,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55876,7 +55879,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -56082,7 +56085,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56572,7 +56575,7 @@
         <v>0.38</v>
       </c>
       <c r="AP266">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ266">
         <v>0.33</v>
@@ -56906,7 +56909,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -58142,7 +58145,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -59250,7 +59253,7 @@
         <v>0.62</v>
       </c>
       <c r="AP279">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ279">
         <v>0.5600000000000001</v>
@@ -59378,7 +59381,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59584,7 +59587,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59790,7 +59793,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59996,7 +59999,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60408,7 +60411,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60614,7 +60617,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60820,7 +60823,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61107,7 +61110,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ288">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR288">
         <v>1.6</v>
@@ -61438,7 +61441,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -61519,7 +61522,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ290">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR290">
         <v>1.19</v>
@@ -62137,7 +62140,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ293">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR293">
         <v>1.45</v>
@@ -62262,7 +62265,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62674,7 +62677,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62880,7 +62883,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -63086,7 +63089,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63576,10 +63579,10 @@
         <v>1.14</v>
       </c>
       <c r="AP300">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ300">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR300">
         <v>2</v>
@@ -63910,7 +63913,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64322,7 +64325,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64606,7 +64609,7 @@
         <v>1.73</v>
       </c>
       <c r="AP305">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ305">
         <v>1.67</v>
@@ -64940,7 +64943,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65558,7 +65561,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65764,7 +65767,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65970,7 +65973,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66176,7 +66179,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66588,7 +66591,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66794,7 +66797,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -66875,7 +66878,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ316">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR316">
         <v>1.27</v>
@@ -67000,7 +67003,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67206,7 +67209,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67284,7 +67287,7 @@
         <v>0.87</v>
       </c>
       <c r="AP318">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ318">
         <v>0.83</v>
@@ -67493,7 +67496,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ319">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR319">
         <v>1.64</v>
@@ -68030,7 +68033,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68442,7 +68445,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -68932,7 +68935,7 @@
         <v>1.69</v>
       </c>
       <c r="AP326">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ326">
         <v>1.56</v>
@@ -69060,7 +69063,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69266,7 +69269,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69884,7 +69887,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -70296,7 +70299,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70580,7 +70583,7 @@
         <v>1.13</v>
       </c>
       <c r="AP334">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ334">
         <v>1.17</v>
@@ -70914,7 +70917,7 @@
         <v>211</v>
       </c>
       <c r="P336" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -71326,7 +71329,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q338">
         <v>2.2</v>
@@ -71532,7 +71535,7 @@
         <v>94</v>
       </c>
       <c r="P339" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q339">
         <v>2.25</v>
@@ -71613,7 +71616,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ339">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR339">
         <v>1.8</v>
@@ -71819,7 +71822,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ340">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR340">
         <v>1.89</v>
@@ -71944,7 +71947,7 @@
         <v>91</v>
       </c>
       <c r="P341" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q341">
         <v>2.75</v>
@@ -72434,7 +72437,7 @@
         <v>1.47</v>
       </c>
       <c r="AP343">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ343">
         <v>1.39</v>
@@ -72562,7 +72565,7 @@
         <v>307</v>
       </c>
       <c r="P344" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q344">
         <v>2.1</v>
@@ -72974,7 +72977,7 @@
         <v>309</v>
       </c>
       <c r="P346" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q346">
         <v>2.6</v>
@@ -73180,7 +73183,7 @@
         <v>310</v>
       </c>
       <c r="P347" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q347">
         <v>2.1</v>
@@ -73261,7 +73264,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ347">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR347">
         <v>1.64</v>
@@ -73386,7 +73389,7 @@
         <v>212</v>
       </c>
       <c r="P348" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q348">
         <v>3.2</v>
@@ -73673,7 +73676,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ349">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR349">
         <v>1.26</v>
@@ -73876,7 +73879,7 @@
         <v>2.24</v>
       </c>
       <c r="AP350">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AQ350">
         <v>2.11</v>
@@ -74004,7 +74007,7 @@
         <v>272</v>
       </c>
       <c r="P351" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -74210,7 +74213,7 @@
         <v>195</v>
       </c>
       <c r="P352" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q352">
         <v>2.4</v>
@@ -74416,7 +74419,7 @@
         <v>91</v>
       </c>
       <c r="P353" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q353">
         <v>3.25</v>
@@ -75034,7 +75037,7 @@
         <v>91</v>
       </c>
       <c r="P356" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q356">
         <v>2.88</v>
@@ -75446,7 +75449,7 @@
         <v>313</v>
       </c>
       <c r="P358" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q358">
         <v>1.8</v>
@@ -75652,7 +75655,7 @@
         <v>91</v>
       </c>
       <c r="P359" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q359">
         <v>3</v>
@@ -75858,7 +75861,7 @@
         <v>91</v>
       </c>
       <c r="P360" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q360">
         <v>2.5</v>
@@ -76064,7 +76067,7 @@
         <v>314</v>
       </c>
       <c r="P361" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q361">
         <v>2.6</v>
@@ -76221,6 +76224,418 @@
       </c>
       <c r="BP361">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="362" spans="1:68">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>7467040</v>
+      </c>
+      <c r="C362" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45793.64583333334</v>
+      </c>
+      <c r="F362">
+        <v>37</v>
+      </c>
+      <c r="G362" t="s">
+        <v>86</v>
+      </c>
+      <c r="H362" t="s">
+        <v>81</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>2</v>
+      </c>
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362">
+        <v>2</v>
+      </c>
+      <c r="O362" t="s">
+        <v>315</v>
+      </c>
+      <c r="P362" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q362">
+        <v>1.8</v>
+      </c>
+      <c r="R362">
+        <v>2.88</v>
+      </c>
+      <c r="S362">
+        <v>6.5</v>
+      </c>
+      <c r="T362">
+        <v>1.2</v>
+      </c>
+      <c r="U362">
+        <v>4.33</v>
+      </c>
+      <c r="V362">
+        <v>2</v>
+      </c>
+      <c r="W362">
+        <v>1.73</v>
+      </c>
+      <c r="X362">
+        <v>4</v>
+      </c>
+      <c r="Y362">
+        <v>1.22</v>
+      </c>
+      <c r="Z362">
+        <v>1.47</v>
+      </c>
+      <c r="AA362">
+        <v>4.95</v>
+      </c>
+      <c r="AB362">
+        <v>5.65</v>
+      </c>
+      <c r="AC362">
+        <v>1.01</v>
+      </c>
+      <c r="AD362">
+        <v>23</v>
+      </c>
+      <c r="AE362">
+        <v>1.11</v>
+      </c>
+      <c r="AF362">
+        <v>6.25</v>
+      </c>
+      <c r="AG362">
+        <v>1.37</v>
+      </c>
+      <c r="AH362">
+        <v>2.95</v>
+      </c>
+      <c r="AI362">
+        <v>1.62</v>
+      </c>
+      <c r="AJ362">
+        <v>2.2</v>
+      </c>
+      <c r="AK362">
+        <v>1.1</v>
+      </c>
+      <c r="AL362">
+        <v>1.11</v>
+      </c>
+      <c r="AM362">
+        <v>2.95</v>
+      </c>
+      <c r="AN362">
+        <v>2.06</v>
+      </c>
+      <c r="AO362">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP362">
+        <v>2.11</v>
+      </c>
+      <c r="AQ362">
+        <v>0.89</v>
+      </c>
+      <c r="AR362">
+        <v>1.67</v>
+      </c>
+      <c r="AS362">
+        <v>1.47</v>
+      </c>
+      <c r="AT362">
+        <v>3.14</v>
+      </c>
+      <c r="AU362">
+        <v>8</v>
+      </c>
+      <c r="AV362">
+        <v>2</v>
+      </c>
+      <c r="AW362">
+        <v>11</v>
+      </c>
+      <c r="AX362">
+        <v>2</v>
+      </c>
+      <c r="AY362">
+        <v>23</v>
+      </c>
+      <c r="AZ362">
+        <v>5</v>
+      </c>
+      <c r="BA362">
+        <v>9</v>
+      </c>
+      <c r="BB362">
+        <v>1</v>
+      </c>
+      <c r="BC362">
+        <v>10</v>
+      </c>
+      <c r="BD362">
+        <v>1.46</v>
+      </c>
+      <c r="BE362">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF362">
+        <v>3.34</v>
+      </c>
+      <c r="BG362">
+        <v>1.11</v>
+      </c>
+      <c r="BH362">
+        <v>4.8</v>
+      </c>
+      <c r="BI362">
+        <v>1.26</v>
+      </c>
+      <c r="BJ362">
+        <v>3.22</v>
+      </c>
+      <c r="BK362">
+        <v>1.48</v>
+      </c>
+      <c r="BL362">
+        <v>2.4</v>
+      </c>
+      <c r="BM362">
+        <v>1.83</v>
+      </c>
+      <c r="BN362">
+        <v>1.87</v>
+      </c>
+      <c r="BO362">
+        <v>2.3</v>
+      </c>
+      <c r="BP362">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="363" spans="1:68">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>7467043</v>
+      </c>
+      <c r="C363" t="s">
+        <v>68</v>
+      </c>
+      <c r="D363" t="s">
+        <v>69</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45793.67708333334</v>
+      </c>
+      <c r="F363">
+        <v>37</v>
+      </c>
+      <c r="G363" t="s">
+        <v>78</v>
+      </c>
+      <c r="H363" t="s">
+        <v>70</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363">
+        <v>1</v>
+      </c>
+      <c r="O363" t="s">
+        <v>316</v>
+      </c>
+      <c r="P363" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q363">
+        <v>1.73</v>
+      </c>
+      <c r="R363">
+        <v>2.75</v>
+      </c>
+      <c r="S363">
+        <v>7</v>
+      </c>
+      <c r="T363">
+        <v>1.22</v>
+      </c>
+      <c r="U363">
+        <v>4</v>
+      </c>
+      <c r="V363">
+        <v>2.1</v>
+      </c>
+      <c r="W363">
+        <v>1.67</v>
+      </c>
+      <c r="X363">
+        <v>4.5</v>
+      </c>
+      <c r="Y363">
+        <v>1.18</v>
+      </c>
+      <c r="Z363">
+        <v>1.51</v>
+      </c>
+      <c r="AA363">
+        <v>4.5</v>
+      </c>
+      <c r="AB363">
+        <v>5.65</v>
+      </c>
+      <c r="AC363">
+        <v>1.03</v>
+      </c>
+      <c r="AD363">
+        <v>11</v>
+      </c>
+      <c r="AE363">
+        <v>1.14</v>
+      </c>
+      <c r="AF363">
+        <v>5.5</v>
+      </c>
+      <c r="AG363">
+        <v>1.48</v>
+      </c>
+      <c r="AH363">
+        <v>2.54</v>
+      </c>
+      <c r="AI363">
+        <v>1.75</v>
+      </c>
+      <c r="AJ363">
+        <v>2</v>
+      </c>
+      <c r="AK363">
+        <v>1.09</v>
+      </c>
+      <c r="AL363">
+        <v>1.11</v>
+      </c>
+      <c r="AM363">
+        <v>3</v>
+      </c>
+      <c r="AN363">
+        <v>2.11</v>
+      </c>
+      <c r="AO363">
+        <v>1</v>
+      </c>
+      <c r="AP363">
+        <v>2.16</v>
+      </c>
+      <c r="AQ363">
+        <v>0.95</v>
+      </c>
+      <c r="AR363">
+        <v>2.05</v>
+      </c>
+      <c r="AS363">
+        <v>1.54</v>
+      </c>
+      <c r="AT363">
+        <v>3.59</v>
+      </c>
+      <c r="AU363">
+        <v>4</v>
+      </c>
+      <c r="AV363">
+        <v>3</v>
+      </c>
+      <c r="AW363">
+        <v>8</v>
+      </c>
+      <c r="AX363">
+        <v>4</v>
+      </c>
+      <c r="AY363">
+        <v>16</v>
+      </c>
+      <c r="AZ363">
+        <v>7</v>
+      </c>
+      <c r="BA363">
+        <v>7</v>
+      </c>
+      <c r="BB363">
+        <v>2</v>
+      </c>
+      <c r="BC363">
+        <v>9</v>
+      </c>
+      <c r="BD363">
+        <v>1.33</v>
+      </c>
+      <c r="BE363">
+        <v>10.5</v>
+      </c>
+      <c r="BF363">
+        <v>4.15</v>
+      </c>
+      <c r="BG363">
+        <v>1.12</v>
+      </c>
+      <c r="BH363">
+        <v>4.8</v>
+      </c>
+      <c r="BI363">
+        <v>1.26</v>
+      </c>
+      <c r="BJ363">
+        <v>3.22</v>
+      </c>
+      <c r="BK363">
+        <v>1.49</v>
+      </c>
+      <c r="BL363">
+        <v>2.38</v>
+      </c>
+      <c r="BM363">
+        <v>1.84</v>
+      </c>
+      <c r="BN363">
+        <v>1.86</v>
+      </c>
+      <c r="BO363">
+        <v>2.32</v>
+      </c>
+      <c r="BP363">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="498">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -967,13 +967,22 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['6', '45+2']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['22', '43']</t>
+  </si>
+  <si>
+    <t>['28', '69']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
     <t>['25', '56', '87']</t>
-  </si>
-  <si>
-    <t>['86']</t>
   </si>
   <si>
     <t>['4', '79']</t>
@@ -1494,6 +1503,12 @@
   <si>
     <t>['47', '70']</t>
   </si>
+  <si>
+    <t>['11', '61']</t>
+  </si>
+  <si>
+    <t>['16', '68', '70']</t>
+  </si>
 </sst>
 </file>
 
@@ -1854,7 +1869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP363"/>
+  <dimension ref="A1:BP368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2194,7 +2209,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ2">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2319,7 +2334,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2603,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ4">
         <v>1.17</v>
@@ -2731,7 +2746,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2809,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ5">
         <v>1.44</v>
@@ -3018,7 +3033,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3143,7 +3158,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3349,7 +3364,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3427,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ8">
         <v>1.44</v>
@@ -3633,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ9">
         <v>1.5</v>
@@ -3761,7 +3776,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -4045,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ11">
         <v>0.89</v>
@@ -5078,7 +5093,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5284,7 +5299,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ17">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5409,7 +5424,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5615,7 +5630,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -5902,7 +5917,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ20">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -6311,7 +6326,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ22">
         <v>1.44</v>
@@ -6439,7 +6454,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6517,7 +6532,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ23">
         <v>1.44</v>
@@ -6645,7 +6660,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6726,7 +6741,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ24">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR24">
         <v>0.77</v>
@@ -7135,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -7263,7 +7278,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7341,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ27">
         <v>1.56</v>
@@ -7469,7 +7484,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7547,7 +7562,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ28">
         <v>1.44</v>
@@ -7675,7 +7690,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -8087,7 +8102,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8293,7 +8308,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8580,7 +8595,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ33">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR33">
         <v>1.6</v>
@@ -8705,7 +8720,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9198,7 +9213,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR36">
         <v>1.93</v>
@@ -9529,7 +9544,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9735,7 +9750,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q39">
         <v>3.6</v>
@@ -9941,7 +9956,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10147,7 +10162,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10228,7 +10243,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ41">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR41">
         <v>1.34</v>
@@ -10353,7 +10368,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10431,7 +10446,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ42">
         <v>1.39</v>
@@ -10559,7 +10574,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10640,7 +10655,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ43">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR43">
         <v>1.79</v>
@@ -10843,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ44">
         <v>1.17</v>
@@ -11258,7 +11273,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR46">
         <v>0.83</v>
@@ -12082,7 +12097,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR50">
         <v>1.67</v>
@@ -12207,7 +12222,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12619,7 +12634,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12700,7 +12715,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ53">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR53">
         <v>1.65</v>
@@ -12903,7 +12918,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -13031,7 +13046,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13109,7 +13124,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ55">
         <v>0.5600000000000001</v>
@@ -13315,7 +13330,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ56">
         <v>1.11</v>
@@ -13443,7 +13458,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13649,7 +13664,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13855,7 +13870,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -14061,7 +14076,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14267,7 +14282,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14348,7 +14363,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ61">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR61">
         <v>1.76</v>
@@ -14473,7 +14488,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14757,7 +14772,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ63">
         <v>1.56</v>
@@ -14885,7 +14900,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14966,7 +14981,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ64">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR64">
         <v>2.4</v>
@@ -15091,7 +15106,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15169,10 +15184,10 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR65">
         <v>1.33</v>
@@ -15297,7 +15312,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -15375,7 +15390,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ66">
         <v>1.17</v>
@@ -15581,10 +15596,10 @@
         <v>0</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ67">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR67">
         <v>2.4</v>
@@ -15787,10 +15802,10 @@
         <v>1.33</v>
       </c>
       <c r="AP68">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ68">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR68">
         <v>1.37</v>
@@ -15996,7 +16011,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ69">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR69">
         <v>1.45</v>
@@ -16327,7 +16342,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16739,7 +16754,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16945,7 +16960,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17357,7 +17372,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17563,7 +17578,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17975,7 +17990,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18181,7 +18196,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18593,7 +18608,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18671,10 +18686,10 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ82">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR82">
         <v>1.04</v>
@@ -18880,7 +18895,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ83">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR83">
         <v>2.31</v>
@@ -19005,7 +19020,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19211,7 +19226,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19417,7 +19432,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19495,10 +19510,10 @@
         <v>0.5</v>
       </c>
       <c r="AP86">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR86">
         <v>1.7</v>
@@ -19701,10 +19716,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ87">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19829,7 +19844,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -19910,7 +19925,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ88">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR88">
         <v>1.67</v>
@@ -20241,7 +20256,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20319,7 +20334,7 @@
         <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ90">
         <v>0.95</v>
@@ -20447,7 +20462,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20525,7 +20540,7 @@
         <v>3</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ91">
         <v>2.11</v>
@@ -21889,7 +21904,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -22095,7 +22110,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22301,7 +22316,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22713,7 +22728,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22791,7 +22806,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ102">
         <v>1.56</v>
@@ -22919,7 +22934,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23000,7 +23015,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ103">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -23203,7 +23218,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ104">
         <v>1.17</v>
@@ -23412,7 +23427,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ105">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR105">
         <v>1.17</v>
@@ -24155,7 +24170,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24236,7 +24251,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ109">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR109">
         <v>1.61</v>
@@ -24361,7 +24376,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24442,7 +24457,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ110">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR110">
         <v>1.96</v>
@@ -24773,7 +24788,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24851,7 +24866,7 @@
         <v>2</v>
       </c>
       <c r="AP112">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ112">
         <v>1.39</v>
@@ -24979,7 +24994,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25263,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="AP114">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ114">
         <v>1.33</v>
@@ -25469,10 +25484,10 @@
         <v>2.2</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ115">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR115">
         <v>2.22</v>
@@ -25597,7 +25612,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25803,7 +25818,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26009,7 +26024,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26215,7 +26230,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26421,7 +26436,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26627,7 +26642,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26833,7 +26848,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26914,7 +26929,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ122">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -27039,7 +27054,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27326,7 +27341,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ124">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR124">
         <v>1.52</v>
@@ -27529,7 +27544,7 @@
         <v>0.83</v>
       </c>
       <c r="AP125">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ125">
         <v>0.5600000000000001</v>
@@ -27657,7 +27672,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27738,7 +27753,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ126">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27863,7 +27878,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -27941,7 +27956,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ127">
         <v>1.78</v>
@@ -28562,7 +28577,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ130">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR130">
         <v>1.95</v>
@@ -28893,7 +28908,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29177,7 +29192,7 @@
         <v>1.33</v>
       </c>
       <c r="AP133">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ133">
         <v>1.11</v>
@@ -29305,7 +29320,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29511,7 +29526,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29798,7 +29813,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ136">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR136">
         <v>2.3</v>
@@ -30001,7 +30016,7 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ137">
         <v>1.17</v>
@@ -30413,7 +30428,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ139">
         <v>0.95</v>
@@ -30953,7 +30968,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31159,7 +31174,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31237,10 +31252,10 @@
         <v>1.29</v>
       </c>
       <c r="AP143">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ143">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR143">
         <v>1.7</v>
@@ -31446,7 +31461,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ144">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR144">
         <v>1.54</v>
@@ -31571,7 +31586,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31652,7 +31667,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ145">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR145">
         <v>1.4</v>
@@ -31777,7 +31792,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31983,7 +31998,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32189,7 +32204,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32267,7 +32282,7 @@
         <v>1.43</v>
       </c>
       <c r="AP148">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ148">
         <v>1.44</v>
@@ -32395,7 +32410,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32679,7 +32694,7 @@
         <v>0.71</v>
       </c>
       <c r="AP150">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ150">
         <v>1.17</v>
@@ -32807,7 +32822,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -32888,7 +32903,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ151">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR151">
         <v>1.14</v>
@@ -33091,7 +33106,7 @@
         <v>0.71</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ152">
         <v>1.17</v>
@@ -33425,7 +33440,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33506,7 +33521,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ154">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR154">
         <v>1.76</v>
@@ -33631,7 +33646,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33837,7 +33852,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -34043,7 +34058,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34249,7 +34264,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -35073,7 +35088,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35151,10 +35166,10 @@
         <v>1.75</v>
       </c>
       <c r="AP162">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ162">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR162">
         <v>1.71</v>
@@ -35279,7 +35294,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35357,7 +35372,7 @@
         <v>1.38</v>
       </c>
       <c r="AP163">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ163">
         <v>1.44</v>
@@ -35485,7 +35500,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35566,7 +35581,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ164">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR164">
         <v>1.2</v>
@@ -35691,7 +35706,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35978,7 +35993,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ166">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR166">
         <v>1.59</v>
@@ -36103,7 +36118,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36181,7 +36196,7 @@
         <v>0.63</v>
       </c>
       <c r="AP167">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ167">
         <v>1.17</v>
@@ -36309,7 +36324,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36593,7 +36608,7 @@
         <v>2.38</v>
       </c>
       <c r="AP169">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ169">
         <v>1.39</v>
@@ -36721,7 +36736,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37133,7 +37148,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37751,7 +37766,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -37832,7 +37847,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ175">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR175">
         <v>1.78</v>
@@ -38369,7 +38384,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38859,10 +38874,10 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ180">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR180">
         <v>2.03</v>
@@ -38987,7 +39002,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39065,7 +39080,7 @@
         <v>1.22</v>
       </c>
       <c r="AP181">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ181">
         <v>1.44</v>
@@ -39193,7 +39208,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39480,7 +39495,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ183">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR183">
         <v>1.34</v>
@@ -39605,7 +39620,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39811,7 +39826,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39889,10 +39904,10 @@
         <v>1.89</v>
       </c>
       <c r="AP185">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ185">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR185">
         <v>1.32</v>
@@ -40017,7 +40032,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40095,7 +40110,7 @@
         <v>2.5</v>
       </c>
       <c r="AP186">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ186">
         <v>2.11</v>
@@ -40429,7 +40444,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40635,7 +40650,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40716,7 +40731,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ189">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR189">
         <v>1.54</v>
@@ -40841,7 +40856,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -40919,7 +40934,7 @@
         <v>1.67</v>
       </c>
       <c r="AP190">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ190">
         <v>1.78</v>
@@ -41047,7 +41062,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41128,7 +41143,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ191">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR191">
         <v>1.71</v>
@@ -41459,7 +41474,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41871,7 +41886,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -42489,7 +42504,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42570,7 +42585,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ198">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR198">
         <v>1.57</v>
@@ -42695,7 +42710,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42901,7 +42916,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -42982,7 +42997,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ200">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR200">
         <v>1.18</v>
@@ -43107,7 +43122,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43313,7 +43328,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43391,10 +43406,10 @@
         <v>1.44</v>
       </c>
       <c r="AP202">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ202">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR202">
         <v>1.35</v>
@@ -43519,7 +43534,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43597,7 +43612,7 @@
         <v>1.4</v>
       </c>
       <c r="AP203">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ203">
         <v>1.44</v>
@@ -43725,7 +43740,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43931,7 +43946,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44009,7 +44024,7 @@
         <v>1.11</v>
       </c>
       <c r="AP205">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ205">
         <v>1.5</v>
@@ -44343,7 +44358,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44421,7 +44436,7 @@
         <v>1.11</v>
       </c>
       <c r="AP207">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ207">
         <v>1.44</v>
@@ -44627,7 +44642,7 @@
         <v>1.11</v>
       </c>
       <c r="AP208">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ208">
         <v>0.89</v>
@@ -44755,7 +44770,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45042,7 +45057,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ210">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -45167,7 +45182,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45373,7 +45388,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45451,7 +45466,7 @@
         <v>1.3</v>
       </c>
       <c r="AP212">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ212">
         <v>1.5</v>
@@ -45579,7 +45594,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45657,7 +45672,7 @@
         <v>2.4</v>
       </c>
       <c r="AP213">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ213">
         <v>2.11</v>
@@ -45785,7 +45800,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -45863,10 +45878,10 @@
         <v>1.3</v>
       </c>
       <c r="AP214">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ214">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR214">
         <v>1.2</v>
@@ -45991,7 +46006,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46069,7 +46084,7 @@
         <v>1.3</v>
       </c>
       <c r="AP215">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ215">
         <v>1.44</v>
@@ -46197,7 +46212,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46403,7 +46418,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46484,7 +46499,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ217">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR217">
         <v>1.44</v>
@@ -46609,7 +46624,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46687,7 +46702,7 @@
         <v>1</v>
       </c>
       <c r="AP218">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ218">
         <v>0.89</v>
@@ -46815,7 +46830,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -47021,7 +47036,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47308,7 +47323,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ221">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR221">
         <v>1.77</v>
@@ -47433,7 +47448,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47720,7 +47735,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ223">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR223">
         <v>1.79</v>
@@ -47845,7 +47860,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -47926,7 +47941,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ224">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR224">
         <v>1.11</v>
@@ -48051,7 +48066,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48257,7 +48272,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48463,7 +48478,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48669,7 +48684,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -49081,7 +49096,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49493,7 +49508,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49574,7 +49589,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ232">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR232">
         <v>1.61</v>
@@ -49777,7 +49792,7 @@
         <v>0.73</v>
       </c>
       <c r="AP233">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ233">
         <v>0.5600000000000001</v>
@@ -49905,7 +49920,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -49986,7 +50001,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ234">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR234">
         <v>1.13</v>
@@ -50111,7 +50126,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50523,7 +50538,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50601,7 +50616,7 @@
         <v>0.91</v>
       </c>
       <c r="AP237">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ237">
         <v>0.89</v>
@@ -50729,7 +50744,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -51013,7 +51028,7 @@
         <v>1.5</v>
       </c>
       <c r="AP239">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ239">
         <v>1.44</v>
@@ -51141,7 +51156,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51347,7 +51362,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51425,7 +51440,7 @@
         <v>2.5</v>
       </c>
       <c r="AP241">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ241">
         <v>2.11</v>
@@ -51759,7 +51774,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51837,7 +51852,7 @@
         <v>1.83</v>
       </c>
       <c r="AP243">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ243">
         <v>1.78</v>
@@ -51965,7 +51980,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -52252,7 +52267,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ245">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR245">
         <v>1.98</v>
@@ -52455,7 +52470,7 @@
         <v>0.73</v>
       </c>
       <c r="AP246">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ246">
         <v>1.33</v>
@@ -52664,7 +52679,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ247">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR247">
         <v>1.54</v>
@@ -52870,7 +52885,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ248">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR248">
         <v>1.52</v>
@@ -52995,7 +53010,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53613,7 +53628,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53819,7 +53834,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -53897,7 +53912,7 @@
         <v>0.92</v>
       </c>
       <c r="AP253">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ253">
         <v>1.33</v>
@@ -54025,7 +54040,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54103,7 +54118,7 @@
         <v>1.08</v>
       </c>
       <c r="AP254">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ254">
         <v>0.95</v>
@@ -54231,7 +54246,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54437,7 +54452,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54643,7 +54658,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -54721,7 +54736,7 @@
         <v>1.08</v>
       </c>
       <c r="AP257">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ257">
         <v>1.11</v>
@@ -55055,7 +55070,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55261,7 +55276,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55467,7 +55482,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55548,7 +55563,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ261">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR261">
         <v>1.6</v>
@@ -55673,7 +55688,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55879,7 +55894,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -56085,7 +56100,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56166,7 +56181,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ264">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR264">
         <v>1.21</v>
@@ -56578,7 +56593,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ266">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR266">
         <v>1.91</v>
@@ -56909,7 +56924,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -56990,7 +57005,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ268">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR268">
         <v>1.55</v>
@@ -57193,7 +57208,7 @@
         <v>1.08</v>
       </c>
       <c r="AP269">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ269">
         <v>1.17</v>
@@ -57608,7 +57623,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ271">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR271">
         <v>1.81</v>
@@ -57811,7 +57826,7 @@
         <v>0.67</v>
       </c>
       <c r="AP272">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ272">
         <v>0.5600000000000001</v>
@@ -58145,7 +58160,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58226,7 +58241,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ274">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR274">
         <v>1.79</v>
@@ -58432,7 +58447,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ275">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR275">
         <v>1.59</v>
@@ -58638,7 +58653,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ276">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR276">
         <v>1.51</v>
@@ -58841,7 +58856,7 @@
         <v>1.08</v>
       </c>
       <c r="AP277">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ277">
         <v>1.44</v>
@@ -59381,7 +59396,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59587,7 +59602,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59793,7 +59808,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -59871,10 +59886,10 @@
         <v>1.5</v>
       </c>
       <c r="AP282">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ282">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR282">
         <v>1.26</v>
@@ -59999,7 +60014,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60283,7 +60298,7 @@
         <v>1.23</v>
       </c>
       <c r="AP284">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ284">
         <v>1.11</v>
@@ -60411,7 +60426,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60492,7 +60507,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ285">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR285">
         <v>1.24</v>
@@ -60617,7 +60632,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60823,7 +60838,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61313,7 +61328,7 @@
         <v>1.5</v>
       </c>
       <c r="AP289">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ289">
         <v>1.39</v>
@@ -61441,7 +61456,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -61519,7 +61534,7 @@
         <v>1.08</v>
       </c>
       <c r="AP290">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ290">
         <v>0.95</v>
@@ -61725,10 +61740,10 @@
         <v>1.57</v>
       </c>
       <c r="AP291">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ291">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR291">
         <v>1.96</v>
@@ -62265,7 +62280,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62677,7 +62692,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62883,7 +62898,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -63089,7 +63104,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63170,7 +63185,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ298">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR298">
         <v>1.79</v>
@@ -63785,7 +63800,7 @@
         <v>1.8</v>
       </c>
       <c r="AP301">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ301">
         <v>1.78</v>
@@ -63913,7 +63928,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -63991,7 +64006,7 @@
         <v>1.53</v>
       </c>
       <c r="AP302">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ302">
         <v>1.56</v>
@@ -64325,7 +64340,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64612,7 +64627,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ305">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR305">
         <v>1.6</v>
@@ -64818,7 +64833,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ306">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR306">
         <v>1.74</v>
@@ -64943,7 +64958,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65227,7 +65242,7 @@
         <v>1.4</v>
       </c>
       <c r="AP308">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ308">
         <v>1.39</v>
@@ -65561,7 +65576,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65639,10 +65654,10 @@
         <v>1.6</v>
       </c>
       <c r="AP310">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ310">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR310">
         <v>1.21</v>
@@ -65767,7 +65782,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65973,7 +65988,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66179,7 +66194,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66591,7 +66606,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66669,7 +66684,7 @@
         <v>1.13</v>
       </c>
       <c r="AP315">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ315">
         <v>1.33</v>
@@ -66797,7 +66812,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -67003,7 +67018,7 @@
         <v>293</v>
       </c>
       <c r="P317" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q317">
         <v>1.8</v>
@@ -67209,7 +67224,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -67290,7 +67305,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ318">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR318">
         <v>1.97</v>
@@ -67702,7 +67717,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ320">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR320">
         <v>1.84</v>
@@ -68033,7 +68048,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68111,7 +68126,7 @@
         <v>1.44</v>
       </c>
       <c r="AP322">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ322">
         <v>1.44</v>
@@ -68445,7 +68460,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -68523,7 +68538,7 @@
         <v>1.38</v>
       </c>
       <c r="AP324">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ324">
         <v>1.44</v>
@@ -68729,10 +68744,10 @@
         <v>0.31</v>
       </c>
       <c r="AP325">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ325">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR325">
         <v>1.25</v>
@@ -68938,7 +68953,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ326">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR326">
         <v>1.64</v>
@@ -69063,7 +69078,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69269,7 +69284,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69759,7 +69774,7 @@
         <v>2.19</v>
       </c>
       <c r="AP330">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ330">
         <v>2.11</v>
@@ -69887,7 +69902,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -69968,7 +69983,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ331">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR331">
         <v>1.74</v>
@@ -70299,7 +70314,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70377,7 +70392,7 @@
         <v>1.44</v>
       </c>
       <c r="AP333">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ333">
         <v>1.5</v>
@@ -70792,7 +70807,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ335">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR335">
         <v>1.66</v>
@@ -70917,7 +70932,7 @@
         <v>211</v>
       </c>
       <c r="P336" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -70998,7 +71013,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ336">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR336">
         <v>1.16</v>
@@ -71329,7 +71344,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q338">
         <v>2.2</v>
@@ -71535,7 +71550,7 @@
         <v>94</v>
       </c>
       <c r="P339" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q339">
         <v>2.25</v>
@@ -71947,7 +71962,7 @@
         <v>91</v>
       </c>
       <c r="P341" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="Q341">
         <v>2.75</v>
@@ -72440,7 +72455,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ343">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR343">
         <v>1.69</v>
@@ -72565,7 +72580,7 @@
         <v>307</v>
       </c>
       <c r="P344" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Q344">
         <v>2.1</v>
@@ -72643,10 +72658,10 @@
         <v>0.82</v>
       </c>
       <c r="AP344">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ344">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AR344">
         <v>1.37</v>
@@ -72849,10 +72864,10 @@
         <v>0.35</v>
       </c>
       <c r="AP345">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AQ345">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AR345">
         <v>1.17</v>
@@ -72977,7 +72992,7 @@
         <v>309</v>
       </c>
       <c r="P346" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Q346">
         <v>2.6</v>
@@ -73055,7 +73070,7 @@
         <v>1.47</v>
       </c>
       <c r="AP346">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ346">
         <v>1.56</v>
@@ -73183,7 +73198,7 @@
         <v>310</v>
       </c>
       <c r="P347" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Q347">
         <v>2.1</v>
@@ -73261,7 +73276,7 @@
         <v>1.06</v>
       </c>
       <c r="AP347">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ347">
         <v>0.95</v>
@@ -73389,7 +73404,7 @@
         <v>212</v>
       </c>
       <c r="P348" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Q348">
         <v>3.2</v>
@@ -73470,7 +73485,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ348">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR348">
         <v>1.65</v>
@@ -73673,7 +73688,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP349">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AQ349">
         <v>0.89</v>
@@ -74007,7 +74022,7 @@
         <v>272</v>
       </c>
       <c r="P351" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -74088,7 +74103,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ351">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AR351">
         <v>1.45</v>
@@ -74213,7 +74228,7 @@
         <v>195</v>
       </c>
       <c r="P352" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="Q352">
         <v>2.4</v>
@@ -74419,7 +74434,7 @@
         <v>91</v>
       </c>
       <c r="P353" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="Q353">
         <v>3.25</v>
@@ -75037,7 +75052,7 @@
         <v>91</v>
       </c>
       <c r="P356" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="Q356">
         <v>2.88</v>
@@ -75449,7 +75464,7 @@
         <v>313</v>
       </c>
       <c r="P358" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="Q358">
         <v>1.8</v>
@@ -75655,7 +75670,7 @@
         <v>91</v>
       </c>
       <c r="P359" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="Q359">
         <v>3</v>
@@ -75861,7 +75876,7 @@
         <v>91</v>
       </c>
       <c r="P360" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Q360">
         <v>2.5</v>
@@ -76067,7 +76082,7 @@
         <v>314</v>
       </c>
       <c r="P361" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="Q361">
         <v>2.6</v>
@@ -76636,6 +76651,1036 @@
       </c>
       <c r="BP363">
         <v>1.51</v>
+      </c>
+    </row>
+    <row r="364" spans="1:68">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>7467045</v>
+      </c>
+      <c r="C364" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" t="s">
+        <v>69</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45795.33333333334</v>
+      </c>
+      <c r="F364">
+        <v>37</v>
+      </c>
+      <c r="G364" t="s">
+        <v>73</v>
+      </c>
+      <c r="H364" t="s">
+        <v>84</v>
+      </c>
+      <c r="I364">
+        <v>2</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>2</v>
+      </c>
+      <c r="L364">
+        <v>2</v>
+      </c>
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364">
+        <v>2</v>
+      </c>
+      <c r="O364" t="s">
+        <v>317</v>
+      </c>
+      <c r="P364" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q364">
+        <v>1.91</v>
+      </c>
+      <c r="R364">
+        <v>2.4</v>
+      </c>
+      <c r="S364">
+        <v>7.5</v>
+      </c>
+      <c r="T364">
+        <v>1.33</v>
+      </c>
+      <c r="U364">
+        <v>3.25</v>
+      </c>
+      <c r="V364">
+        <v>2.63</v>
+      </c>
+      <c r="W364">
+        <v>1.44</v>
+      </c>
+      <c r="X364">
+        <v>6.5</v>
+      </c>
+      <c r="Y364">
+        <v>1.11</v>
+      </c>
+      <c r="Z364">
+        <v>1.5</v>
+      </c>
+      <c r="AA364">
+        <v>4.35</v>
+      </c>
+      <c r="AB364">
+        <v>6.1</v>
+      </c>
+      <c r="AC364">
+        <v>1.04</v>
+      </c>
+      <c r="AD364">
+        <v>10</v>
+      </c>
+      <c r="AE364">
+        <v>1.22</v>
+      </c>
+      <c r="AF364">
+        <v>4</v>
+      </c>
+      <c r="AG364">
+        <v>1.75</v>
+      </c>
+      <c r="AH364">
+        <v>2</v>
+      </c>
+      <c r="AI364">
+        <v>2</v>
+      </c>
+      <c r="AJ364">
+        <v>1.75</v>
+      </c>
+      <c r="AK364">
+        <v>1.08</v>
+      </c>
+      <c r="AL364">
+        <v>1.14</v>
+      </c>
+      <c r="AM364">
+        <v>2.9</v>
+      </c>
+      <c r="AN364">
+        <v>1.17</v>
+      </c>
+      <c r="AO364">
+        <v>0.33</v>
+      </c>
+      <c r="AP364">
+        <v>1.26</v>
+      </c>
+      <c r="AQ364">
+        <v>0.32</v>
+      </c>
+      <c r="AR364">
+        <v>1.37</v>
+      </c>
+      <c r="AS364">
+        <v>1.11</v>
+      </c>
+      <c r="AT364">
+        <v>2.48</v>
+      </c>
+      <c r="AU364">
+        <v>6</v>
+      </c>
+      <c r="AV364">
+        <v>3</v>
+      </c>
+      <c r="AW364">
+        <v>8</v>
+      </c>
+      <c r="AX364">
+        <v>4</v>
+      </c>
+      <c r="AY364">
+        <v>17</v>
+      </c>
+      <c r="AZ364">
+        <v>9</v>
+      </c>
+      <c r="BA364">
+        <v>4</v>
+      </c>
+      <c r="BB364">
+        <v>5</v>
+      </c>
+      <c r="BC364">
+        <v>9</v>
+      </c>
+      <c r="BD364">
+        <v>1.33</v>
+      </c>
+      <c r="BE364">
+        <v>10.25</v>
+      </c>
+      <c r="BF364">
+        <v>4.2</v>
+      </c>
+      <c r="BG364">
+        <v>1.16</v>
+      </c>
+      <c r="BH364">
+        <v>4.15</v>
+      </c>
+      <c r="BI364">
+        <v>1.33</v>
+      </c>
+      <c r="BJ364">
+        <v>2.83</v>
+      </c>
+      <c r="BK364">
+        <v>1.6</v>
+      </c>
+      <c r="BL364">
+        <v>2.14</v>
+      </c>
+      <c r="BM364">
+        <v>2.02</v>
+      </c>
+      <c r="BN364">
+        <v>1.71</v>
+      </c>
+      <c r="BO364">
+        <v>2.6</v>
+      </c>
+      <c r="BP364">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="365" spans="1:68">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>7467048</v>
+      </c>
+      <c r="C365" t="s">
+        <v>68</v>
+      </c>
+      <c r="D365" t="s">
+        <v>69</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45795.42708333334</v>
+      </c>
+      <c r="F365">
+        <v>37</v>
+      </c>
+      <c r="G365" t="s">
+        <v>76</v>
+      </c>
+      <c r="H365" t="s">
+        <v>75</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365">
+        <v>1</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365">
+        <v>2</v>
+      </c>
+      <c r="N365">
+        <v>3</v>
+      </c>
+      <c r="O365" t="s">
+        <v>318</v>
+      </c>
+      <c r="P365" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q365">
+        <v>3.25</v>
+      </c>
+      <c r="R365">
+        <v>2.2</v>
+      </c>
+      <c r="S365">
+        <v>3.2</v>
+      </c>
+      <c r="T365">
+        <v>1.4</v>
+      </c>
+      <c r="U365">
+        <v>2.75</v>
+      </c>
+      <c r="V365">
+        <v>2.75</v>
+      </c>
+      <c r="W365">
+        <v>1.4</v>
+      </c>
+      <c r="X365">
+        <v>8</v>
+      </c>
+      <c r="Y365">
+        <v>1.08</v>
+      </c>
+      <c r="Z365">
+        <v>2.8</v>
+      </c>
+      <c r="AA365">
+        <v>3.25</v>
+      </c>
+      <c r="AB365">
+        <v>2.5</v>
+      </c>
+      <c r="AC365">
+        <v>1.06</v>
+      </c>
+      <c r="AD365">
+        <v>8.5</v>
+      </c>
+      <c r="AE365">
+        <v>1.3</v>
+      </c>
+      <c r="AF365">
+        <v>3.35</v>
+      </c>
+      <c r="AG365">
+        <v>1.91</v>
+      </c>
+      <c r="AH365">
+        <v>1.8</v>
+      </c>
+      <c r="AI365">
+        <v>1.75</v>
+      </c>
+      <c r="AJ365">
+        <v>2</v>
+      </c>
+      <c r="AK365">
+        <v>1.5</v>
+      </c>
+      <c r="AL365">
+        <v>1.28</v>
+      </c>
+      <c r="AM365">
+        <v>1.44</v>
+      </c>
+      <c r="AN365">
+        <v>1.11</v>
+      </c>
+      <c r="AO365">
+        <v>1.67</v>
+      </c>
+      <c r="AP365">
+        <v>1.05</v>
+      </c>
+      <c r="AQ365">
+        <v>1.74</v>
+      </c>
+      <c r="AR365">
+        <v>1.26</v>
+      </c>
+      <c r="AS365">
+        <v>1.37</v>
+      </c>
+      <c r="AT365">
+        <v>2.63</v>
+      </c>
+      <c r="AU365">
+        <v>6</v>
+      </c>
+      <c r="AV365">
+        <v>6</v>
+      </c>
+      <c r="AW365">
+        <v>11</v>
+      </c>
+      <c r="AX365">
+        <v>5</v>
+      </c>
+      <c r="AY365">
+        <v>23</v>
+      </c>
+      <c r="AZ365">
+        <v>15</v>
+      </c>
+      <c r="BA365">
+        <v>8</v>
+      </c>
+      <c r="BB365">
+        <v>7</v>
+      </c>
+      <c r="BC365">
+        <v>15</v>
+      </c>
+      <c r="BD365">
+        <v>1.95</v>
+      </c>
+      <c r="BE365">
+        <v>6.5</v>
+      </c>
+      <c r="BF365">
+        <v>2.38</v>
+      </c>
+      <c r="BG365">
+        <v>1.21</v>
+      </c>
+      <c r="BH365">
+        <v>3.58</v>
+      </c>
+      <c r="BI365">
+        <v>1.42</v>
+      </c>
+      <c r="BJ365">
+        <v>2.57</v>
+      </c>
+      <c r="BK365">
+        <v>1.76</v>
+      </c>
+      <c r="BL365">
+        <v>1.95</v>
+      </c>
+      <c r="BM365">
+        <v>2.23</v>
+      </c>
+      <c r="BN365">
+        <v>1.55</v>
+      </c>
+      <c r="BO365">
+        <v>2.92</v>
+      </c>
+      <c r="BP365">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="366" spans="1:68">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>7467041</v>
+      </c>
+      <c r="C366" t="s">
+        <v>68</v>
+      </c>
+      <c r="D366" t="s">
+        <v>69</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45795.45833333334</v>
+      </c>
+      <c r="F366">
+        <v>37</v>
+      </c>
+      <c r="G366" t="s">
+        <v>77</v>
+      </c>
+      <c r="H366" t="s">
+        <v>83</v>
+      </c>
+      <c r="I366">
+        <v>2</v>
+      </c>
+      <c r="J366">
+        <v>1</v>
+      </c>
+      <c r="K366">
+        <v>3</v>
+      </c>
+      <c r="L366">
+        <v>2</v>
+      </c>
+      <c r="M366">
+        <v>3</v>
+      </c>
+      <c r="N366">
+        <v>5</v>
+      </c>
+      <c r="O366" t="s">
+        <v>319</v>
+      </c>
+      <c r="P366" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q366">
+        <v>2.4</v>
+      </c>
+      <c r="R366">
+        <v>2.4</v>
+      </c>
+      <c r="S366">
+        <v>4</v>
+      </c>
+      <c r="T366">
+        <v>1.29</v>
+      </c>
+      <c r="U366">
+        <v>3.5</v>
+      </c>
+      <c r="V366">
+        <v>2.25</v>
+      </c>
+      <c r="W366">
+        <v>1.57</v>
+      </c>
+      <c r="X366">
+        <v>5.5</v>
+      </c>
+      <c r="Y366">
+        <v>1.14</v>
+      </c>
+      <c r="Z366">
+        <v>2.08</v>
+      </c>
+      <c r="AA366">
+        <v>3.8</v>
+      </c>
+      <c r="AB366">
+        <v>3.15</v>
+      </c>
+      <c r="AC366">
+        <v>1.03</v>
+      </c>
+      <c r="AD366">
+        <v>11</v>
+      </c>
+      <c r="AE366">
+        <v>1.18</v>
+      </c>
+      <c r="AF366">
+        <v>4.75</v>
+      </c>
+      <c r="AG366">
+        <v>1.57</v>
+      </c>
+      <c r="AH366">
+        <v>2.25</v>
+      </c>
+      <c r="AI366">
+        <v>1.57</v>
+      </c>
+      <c r="AJ366">
+        <v>2.25</v>
+      </c>
+      <c r="AK366">
+        <v>1.25</v>
+      </c>
+      <c r="AL366">
+        <v>1.2</v>
+      </c>
+      <c r="AM366">
+        <v>1.85</v>
+      </c>
+      <c r="AN366">
+        <v>1.72</v>
+      </c>
+      <c r="AO366">
+        <v>1.39</v>
+      </c>
+      <c r="AP366">
+        <v>1.63</v>
+      </c>
+      <c r="AQ366">
+        <v>1.47</v>
+      </c>
+      <c r="AR366">
+        <v>1.65</v>
+      </c>
+      <c r="AS366">
+        <v>1.53</v>
+      </c>
+      <c r="AT366">
+        <v>3.18</v>
+      </c>
+      <c r="AU366">
+        <v>7</v>
+      </c>
+      <c r="AV366">
+        <v>8</v>
+      </c>
+      <c r="AW366">
+        <v>5</v>
+      </c>
+      <c r="AX366">
+        <v>9</v>
+      </c>
+      <c r="AY366">
+        <v>15</v>
+      </c>
+      <c r="AZ366">
+        <v>24</v>
+      </c>
+      <c r="BA366">
+        <v>5</v>
+      </c>
+      <c r="BB366">
+        <v>3</v>
+      </c>
+      <c r="BC366">
+        <v>8</v>
+      </c>
+      <c r="BD366">
+        <v>1.67</v>
+      </c>
+      <c r="BE366">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF366">
+        <v>2.63</v>
+      </c>
+      <c r="BG366">
+        <v>1.11</v>
+      </c>
+      <c r="BH366">
+        <v>5</v>
+      </c>
+      <c r="BI366">
+        <v>1.24</v>
+      </c>
+      <c r="BJ366">
+        <v>3.34</v>
+      </c>
+      <c r="BK366">
+        <v>1.46</v>
+      </c>
+      <c r="BL366">
+        <v>2.45</v>
+      </c>
+      <c r="BM366">
+        <v>1.8</v>
+      </c>
+      <c r="BN366">
+        <v>1.9</v>
+      </c>
+      <c r="BO366">
+        <v>2.25</v>
+      </c>
+      <c r="BP366">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="367" spans="1:68">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>7467046</v>
+      </c>
+      <c r="C367" t="s">
+        <v>68</v>
+      </c>
+      <c r="D367" t="s">
+        <v>69</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45795.45833333334</v>
+      </c>
+      <c r="F367">
+        <v>37</v>
+      </c>
+      <c r="G367" t="s">
+        <v>79</v>
+      </c>
+      <c r="H367" t="s">
+        <v>71</v>
+      </c>
+      <c r="I367">
+        <v>1</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>1</v>
+      </c>
+      <c r="L367">
+        <v>2</v>
+      </c>
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>2</v>
+      </c>
+      <c r="O367" t="s">
+        <v>320</v>
+      </c>
+      <c r="P367" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q367">
+        <v>2.88</v>
+      </c>
+      <c r="R367">
+        <v>2.3</v>
+      </c>
+      <c r="S367">
+        <v>3.4</v>
+      </c>
+      <c r="T367">
+        <v>1.33</v>
+      </c>
+      <c r="U367">
+        <v>3.25</v>
+      </c>
+      <c r="V367">
+        <v>2.5</v>
+      </c>
+      <c r="W367">
+        <v>1.5</v>
+      </c>
+      <c r="X367">
+        <v>6.5</v>
+      </c>
+      <c r="Y367">
+        <v>1.11</v>
+      </c>
+      <c r="Z367">
+        <v>2.26</v>
+      </c>
+      <c r="AA367">
+        <v>3.55</v>
+      </c>
+      <c r="AB367">
+        <v>3</v>
+      </c>
+      <c r="AC367">
+        <v>1.05</v>
+      </c>
+      <c r="AD367">
+        <v>9.5</v>
+      </c>
+      <c r="AE367">
+        <v>1.25</v>
+      </c>
+      <c r="AF367">
+        <v>3.95</v>
+      </c>
+      <c r="AG367">
+        <v>1.73</v>
+      </c>
+      <c r="AH367">
+        <v>2</v>
+      </c>
+      <c r="AI367">
+        <v>1.62</v>
+      </c>
+      <c r="AJ367">
+        <v>2.2</v>
+      </c>
+      <c r="AK367">
+        <v>1.4</v>
+      </c>
+      <c r="AL367">
+        <v>1.25</v>
+      </c>
+      <c r="AM367">
+        <v>1.6</v>
+      </c>
+      <c r="AN367">
+        <v>0.67</v>
+      </c>
+      <c r="AO367">
+        <v>0.83</v>
+      </c>
+      <c r="AP367">
+        <v>0.79</v>
+      </c>
+      <c r="AQ367">
+        <v>0.79</v>
+      </c>
+      <c r="AR367">
+        <v>1.19</v>
+      </c>
+      <c r="AS367">
+        <v>1.01</v>
+      </c>
+      <c r="AT367">
+        <v>2.2</v>
+      </c>
+      <c r="AU367">
+        <v>4</v>
+      </c>
+      <c r="AV367">
+        <v>3</v>
+      </c>
+      <c r="AW367">
+        <v>6</v>
+      </c>
+      <c r="AX367">
+        <v>18</v>
+      </c>
+      <c r="AY367">
+        <v>13</v>
+      </c>
+      <c r="AZ367">
+        <v>30</v>
+      </c>
+      <c r="BA367">
+        <v>2</v>
+      </c>
+      <c r="BB367">
+        <v>2</v>
+      </c>
+      <c r="BC367">
+        <v>4</v>
+      </c>
+      <c r="BD367">
+        <v>1.74</v>
+      </c>
+      <c r="BE367">
+        <v>6.8</v>
+      </c>
+      <c r="BF367">
+        <v>2.73</v>
+      </c>
+      <c r="BG367">
+        <v>1.17</v>
+      </c>
+      <c r="BH367">
+        <v>4.05</v>
+      </c>
+      <c r="BI367">
+        <v>1.34</v>
+      </c>
+      <c r="BJ367">
+        <v>2.78</v>
+      </c>
+      <c r="BK367">
+        <v>1.63</v>
+      </c>
+      <c r="BL367">
+        <v>2.09</v>
+      </c>
+      <c r="BM367">
+        <v>2.06</v>
+      </c>
+      <c r="BN367">
+        <v>1.68</v>
+      </c>
+      <c r="BO367">
+        <v>2.67</v>
+      </c>
+      <c r="BP367">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="368" spans="1:68">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>7467039</v>
+      </c>
+      <c r="C368" t="s">
+        <v>68</v>
+      </c>
+      <c r="D368" t="s">
+        <v>69</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45795.52083333334</v>
+      </c>
+      <c r="F368">
+        <v>37</v>
+      </c>
+      <c r="G368" t="s">
+        <v>72</v>
+      </c>
+      <c r="H368" t="s">
+        <v>74</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>1</v>
+      </c>
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368">
+        <v>1</v>
+      </c>
+      <c r="O368" t="s">
+        <v>157</v>
+      </c>
+      <c r="P368" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q368">
+        <v>2.5</v>
+      </c>
+      <c r="R368">
+        <v>2.3</v>
+      </c>
+      <c r="S368">
+        <v>4</v>
+      </c>
+      <c r="T368">
+        <v>1.33</v>
+      </c>
+      <c r="U368">
+        <v>3.25</v>
+      </c>
+      <c r="V368">
+        <v>2.5</v>
+      </c>
+      <c r="W368">
+        <v>1.5</v>
+      </c>
+      <c r="X368">
+        <v>6.5</v>
+      </c>
+      <c r="Y368">
+        <v>1.11</v>
+      </c>
+      <c r="Z368">
+        <v>1.72</v>
+      </c>
+      <c r="AA368">
+        <v>3.95</v>
+      </c>
+      <c r="AB368">
+        <v>4.5</v>
+      </c>
+      <c r="AC368">
+        <v>1.05</v>
+      </c>
+      <c r="AD368">
+        <v>9.5</v>
+      </c>
+      <c r="AE368">
+        <v>1.25</v>
+      </c>
+      <c r="AF368">
+        <v>3.95</v>
+      </c>
+      <c r="AG368">
+        <v>1.67</v>
+      </c>
+      <c r="AH368">
+        <v>2.1</v>
+      </c>
+      <c r="AI368">
+        <v>1.62</v>
+      </c>
+      <c r="AJ368">
+        <v>2.2</v>
+      </c>
+      <c r="AK368">
+        <v>1.28</v>
+      </c>
+      <c r="AL368">
+        <v>1.22</v>
+      </c>
+      <c r="AM368">
+        <v>1.8</v>
+      </c>
+      <c r="AN368">
+        <v>2</v>
+      </c>
+      <c r="AO368">
+        <v>1.56</v>
+      </c>
+      <c r="AP368">
+        <v>2.05</v>
+      </c>
+      <c r="AQ368">
+        <v>1.47</v>
+      </c>
+      <c r="AR368">
+        <v>1.9</v>
+      </c>
+      <c r="AS368">
+        <v>1.38</v>
+      </c>
+      <c r="AT368">
+        <v>3.28</v>
+      </c>
+      <c r="AU368">
+        <v>5</v>
+      </c>
+      <c r="AV368">
+        <v>6</v>
+      </c>
+      <c r="AW368">
+        <v>8</v>
+      </c>
+      <c r="AX368">
+        <v>9</v>
+      </c>
+      <c r="AY368">
+        <v>17</v>
+      </c>
+      <c r="AZ368">
+        <v>19</v>
+      </c>
+      <c r="BA368">
+        <v>10</v>
+      </c>
+      <c r="BB368">
+        <v>7</v>
+      </c>
+      <c r="BC368">
+        <v>17</v>
+      </c>
+      <c r="BD368">
+        <v>1.5</v>
+      </c>
+      <c r="BE368">
+        <v>9.4</v>
+      </c>
+      <c r="BF368">
+        <v>3.18</v>
+      </c>
+      <c r="BG368">
+        <v>1.15</v>
+      </c>
+      <c r="BH368">
+        <v>4.3</v>
+      </c>
+      <c r="BI368">
+        <v>1.31</v>
+      </c>
+      <c r="BJ368">
+        <v>2.92</v>
+      </c>
+      <c r="BK368">
+        <v>1.57</v>
+      </c>
+      <c r="BL368">
+        <v>2.19</v>
+      </c>
+      <c r="BM368">
+        <v>1.98</v>
+      </c>
+      <c r="BN368">
+        <v>1.74</v>
+      </c>
+      <c r="BO368">
+        <v>2.54</v>
+      </c>
+      <c r="BP368">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="500">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -979,6 +979,9 @@
     <t>['28', '69']</t>
   </si>
   <si>
+    <t>['32', '69', '85']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1509,6 +1512,9 @@
   <si>
     <t>['16', '68', '70']</t>
   </si>
+  <si>
+    <t>['9', '45+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1869,7 +1875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP368"/>
+  <dimension ref="A1:BP369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2334,7 +2340,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2415,7 +2421,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ3">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2746,7 +2752,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3364,7 +3370,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3776,7 +3782,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -4266,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ12">
         <v>0.95</v>
@@ -5424,7 +5430,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5630,7 +5636,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -6454,7 +6460,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6660,7 +6666,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -7278,7 +7284,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7484,7 +7490,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7690,7 +7696,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -8102,7 +8108,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8183,7 +8189,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.62</v>
@@ -8308,7 +8314,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8592,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ33">
         <v>0.79</v>
@@ -8720,7 +8726,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -9544,7 +9550,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9956,7 +9962,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10162,7 +10168,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10368,7 +10374,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10574,7 +10580,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -12094,7 +12100,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ50">
         <v>1.74</v>
@@ -12222,7 +12228,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12634,7 +12640,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -13046,7 +13052,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13458,7 +13464,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13664,7 +13670,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13745,7 +13751,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ58">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13870,7 +13876,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -14076,7 +14082,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14282,7 +14288,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14488,7 +14494,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14569,7 +14575,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ62">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>1.29</v>
@@ -14900,7 +14906,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -15106,7 +15112,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15312,7 +15318,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -16342,7 +16348,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16420,7 +16426,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ71">
         <v>0.89</v>
@@ -16754,7 +16760,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16960,7 +16966,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17372,7 +17378,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17578,7 +17584,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17990,7 +17996,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18196,7 +18202,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18608,7 +18614,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -19020,7 +19026,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19098,7 +19104,7 @@
         <v>0.25</v>
       </c>
       <c r="AP84">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ84">
         <v>1.17</v>
@@ -19226,7 +19232,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19432,7 +19438,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19844,7 +19850,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -20256,7 +20262,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20462,7 +20468,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -20543,7 +20549,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ91">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR91">
         <v>2.46</v>
@@ -21904,7 +21910,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -22110,7 +22116,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22316,7 +22322,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22728,7 +22734,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22934,7 +22940,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23630,7 +23636,7 @@
         <v>2</v>
       </c>
       <c r="AP106">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ106">
         <v>1.44</v>
@@ -24170,7 +24176,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24376,7 +24382,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24788,7 +24794,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24994,7 +25000,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25612,7 +25618,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25818,7 +25824,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26024,7 +26030,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26230,7 +26236,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26311,7 +26317,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ119">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR119">
         <v>1.07</v>
@@ -26436,7 +26442,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26642,7 +26648,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26848,7 +26854,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -26926,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="AP122">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ122">
         <v>0.32</v>
@@ -27054,7 +27060,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27672,7 +27678,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27878,7 +27884,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -28908,7 +28914,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29320,7 +29326,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29526,7 +29532,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29607,7 +29613,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ135">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR135">
         <v>1.25</v>
@@ -30968,7 +30974,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31174,7 +31180,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31586,7 +31592,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31792,7 +31798,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -31998,7 +32004,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32204,7 +32210,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32410,7 +32416,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32822,7 +32828,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33440,7 +33446,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33646,7 +33652,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33852,7 +33858,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -33930,7 +33936,7 @@
         <v>0.86</v>
       </c>
       <c r="AP156">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ156">
         <v>1.5</v>
@@ -34058,7 +34064,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34264,7 +34270,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -35088,7 +35094,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35294,7 +35300,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35500,7 +35506,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35706,7 +35712,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -36118,7 +36124,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36324,7 +36330,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36736,7 +36742,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -36817,7 +36823,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ170">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR170">
         <v>1.79</v>
@@ -37148,7 +37154,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37766,7 +37772,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -38384,7 +38390,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -38668,7 +38674,7 @@
         <v>0.13</v>
       </c>
       <c r="AP179">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ179">
         <v>1.33</v>
@@ -39002,7 +39008,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39208,7 +39214,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39620,7 +39626,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39826,7 +39832,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -40032,7 +40038,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40113,7 +40119,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ186">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR186">
         <v>1.43</v>
@@ -40444,7 +40450,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40650,7 +40656,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40856,7 +40862,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -41062,7 +41068,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41474,7 +41480,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41886,7 +41892,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -42376,7 +42382,7 @@
         <v>1.8</v>
       </c>
       <c r="AP197">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ197">
         <v>1.78</v>
@@ -42504,7 +42510,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42710,7 +42716,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42916,7 +42922,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43122,7 +43128,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43328,7 +43334,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43534,7 +43540,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43740,7 +43746,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43821,7 +43827,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ204">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR204">
         <v>1.5</v>
@@ -43946,7 +43952,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44358,7 +44364,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44770,7 +44776,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45182,7 +45188,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45388,7 +45394,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45594,7 +45600,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45675,7 +45681,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ213">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR213">
         <v>1.61</v>
@@ -45800,7 +45806,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -46006,7 +46012,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46212,7 +46218,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46418,7 +46424,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46624,7 +46630,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46830,7 +46836,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -47036,7 +47042,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47448,7 +47454,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47526,7 +47532,7 @@
         <v>0.7</v>
       </c>
       <c r="AP222">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ222">
         <v>1.17</v>
@@ -47860,7 +47866,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -48066,7 +48072,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48272,7 +48278,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48478,7 +48484,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48684,7 +48690,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -49096,7 +49102,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49508,7 +49514,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49920,7 +49926,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50126,7 +50132,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50207,7 +50213,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ235">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR235">
         <v>1.81</v>
@@ -50538,7 +50544,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50744,7 +50750,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -51156,7 +51162,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51362,7 +51368,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51443,7 +51449,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ241">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR241">
         <v>1.39</v>
@@ -51646,7 +51652,7 @@
         <v>1.75</v>
       </c>
       <c r="AP242">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ242">
         <v>1.39</v>
@@ -51774,7 +51780,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51980,7 +51986,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -53010,7 +53016,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53628,7 +53634,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53709,7 +53715,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ252">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR252">
         <v>1.61</v>
@@ -53834,7 +53840,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -54040,7 +54046,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54246,7 +54252,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54452,7 +54458,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54658,7 +54664,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -55070,7 +55076,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55276,7 +55282,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55482,7 +55488,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55688,7 +55694,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55769,7 +55775,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ262">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR262">
         <v>1.96</v>
@@ -55894,7 +55900,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -56100,7 +56106,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56384,7 +56390,7 @@
         <v>1.69</v>
       </c>
       <c r="AP265">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ265">
         <v>1.56</v>
@@ -56924,7 +56930,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -58160,7 +58166,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58444,7 +58450,7 @@
         <v>1.69</v>
       </c>
       <c r="AP275">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ275">
         <v>1.47</v>
@@ -59396,7 +59402,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59602,7 +59608,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59808,7 +59814,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -60014,7 +60020,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60426,7 +60432,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60632,7 +60638,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60838,7 +60844,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61456,7 +61462,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -62280,7 +62286,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62692,7 +62698,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62898,7 +62904,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -62976,7 +62982,7 @@
         <v>1.21</v>
       </c>
       <c r="AP297">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ297">
         <v>1.44</v>
@@ -63104,7 +63110,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63928,7 +63934,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64340,7 +64346,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64958,7 +64964,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65039,7 +65045,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ307">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR307">
         <v>1.6</v>
@@ -65576,7 +65582,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65782,7 +65788,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65988,7 +65994,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66066,7 +66072,7 @@
         <v>0.53</v>
       </c>
       <c r="AP312">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ312">
         <v>0.5600000000000001</v>
@@ -66194,7 +66200,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66606,7 +66612,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66812,7 +66818,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -67224,7 +67230,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -68048,7 +68054,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68460,7 +68466,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -69078,7 +69084,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69284,7 +69290,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69777,7 +69783,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ330">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR330">
         <v>1.19</v>
@@ -69902,7 +69908,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -70314,7 +70320,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70932,7 +70938,7 @@
         <v>211</v>
       </c>
       <c r="P336" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -71344,7 +71350,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q338">
         <v>2.2</v>
@@ -71422,7 +71428,7 @@
         <v>1.06</v>
       </c>
       <c r="AP338">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ338">
         <v>1.11</v>
@@ -71550,7 +71556,7 @@
         <v>94</v>
       </c>
       <c r="P339" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q339">
         <v>2.25</v>
@@ -71962,7 +71968,7 @@
         <v>91</v>
       </c>
       <c r="P341" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q341">
         <v>2.75</v>
@@ -72580,7 +72586,7 @@
         <v>307</v>
       </c>
       <c r="P344" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q344">
         <v>2.1</v>
@@ -72992,7 +72998,7 @@
         <v>309</v>
       </c>
       <c r="P346" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q346">
         <v>2.6</v>
@@ -73198,7 +73204,7 @@
         <v>310</v>
       </c>
       <c r="P347" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q347">
         <v>2.1</v>
@@ -73404,7 +73410,7 @@
         <v>212</v>
       </c>
       <c r="P348" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q348">
         <v>3.2</v>
@@ -73482,7 +73488,7 @@
         <v>1.59</v>
       </c>
       <c r="AP348">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AQ348">
         <v>1.47</v>
@@ -73897,7 +73903,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ350">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR350">
         <v>2.06</v>
@@ -74022,7 +74028,7 @@
         <v>272</v>
       </c>
       <c r="P351" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -74228,7 +74234,7 @@
         <v>195</v>
       </c>
       <c r="P352" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q352">
         <v>2.4</v>
@@ -74434,7 +74440,7 @@
         <v>91</v>
       </c>
       <c r="P353" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q353">
         <v>3.25</v>
@@ -75052,7 +75058,7 @@
         <v>91</v>
       </c>
       <c r="P356" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q356">
         <v>2.88</v>
@@ -75464,7 +75470,7 @@
         <v>313</v>
       </c>
       <c r="P358" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q358">
         <v>1.8</v>
@@ -75670,7 +75676,7 @@
         <v>91</v>
       </c>
       <c r="P359" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q359">
         <v>3</v>
@@ -75876,7 +75882,7 @@
         <v>91</v>
       </c>
       <c r="P360" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q360">
         <v>2.5</v>
@@ -76082,7 +76088,7 @@
         <v>314</v>
       </c>
       <c r="P361" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q361">
         <v>2.6</v>
@@ -76906,7 +76912,7 @@
         <v>318</v>
       </c>
       <c r="P365" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q365">
         <v>3.25</v>
@@ -77112,7 +77118,7 @@
         <v>319</v>
       </c>
       <c r="P366" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q366">
         <v>2.4</v>
@@ -77681,6 +77687,212 @@
       </c>
       <c r="BP368">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="369" spans="1:68">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>7467042</v>
+      </c>
+      <c r="C369" t="s">
+        <v>68</v>
+      </c>
+      <c r="D369" t="s">
+        <v>69</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45796.66666666666</v>
+      </c>
+      <c r="F369">
+        <v>37</v>
+      </c>
+      <c r="G369" t="s">
+        <v>80</v>
+      </c>
+      <c r="H369" t="s">
+        <v>89</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>2</v>
+      </c>
+      <c r="K369">
+        <v>3</v>
+      </c>
+      <c r="L369">
+        <v>3</v>
+      </c>
+      <c r="M369">
+        <v>2</v>
+      </c>
+      <c r="N369">
+        <v>5</v>
+      </c>
+      <c r="O369" t="s">
+        <v>321</v>
+      </c>
+      <c r="P369" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q369">
+        <v>3</v>
+      </c>
+      <c r="R369">
+        <v>2.5</v>
+      </c>
+      <c r="S369">
+        <v>2.88</v>
+      </c>
+      <c r="T369">
+        <v>1.22</v>
+      </c>
+      <c r="U369">
+        <v>4</v>
+      </c>
+      <c r="V369">
+        <v>2.1</v>
+      </c>
+      <c r="W369">
+        <v>1.67</v>
+      </c>
+      <c r="X369">
+        <v>4.5</v>
+      </c>
+      <c r="Y369">
+        <v>1.18</v>
+      </c>
+      <c r="Z369">
+        <v>3.25</v>
+      </c>
+      <c r="AA369">
+        <v>3.85</v>
+      </c>
+      <c r="AB369">
+        <v>2.02</v>
+      </c>
+      <c r="AC369">
+        <v>1.01</v>
+      </c>
+      <c r="AD369">
+        <v>17</v>
+      </c>
+      <c r="AE369">
+        <v>1.15</v>
+      </c>
+      <c r="AF369">
+        <v>5.25</v>
+      </c>
+      <c r="AG369">
+        <v>1.42</v>
+      </c>
+      <c r="AH369">
+        <v>2.74</v>
+      </c>
+      <c r="AI369">
+        <v>1.4</v>
+      </c>
+      <c r="AJ369">
+        <v>2.75</v>
+      </c>
+      <c r="AK369">
+        <v>1.53</v>
+      </c>
+      <c r="AL369">
+        <v>1.22</v>
+      </c>
+      <c r="AM369">
+        <v>1.5</v>
+      </c>
+      <c r="AN369">
+        <v>1.61</v>
+      </c>
+      <c r="AO369">
+        <v>2.11</v>
+      </c>
+      <c r="AP369">
+        <v>1.68</v>
+      </c>
+      <c r="AQ369">
+        <v>2</v>
+      </c>
+      <c r="AR369">
+        <v>1.61</v>
+      </c>
+      <c r="AS369">
+        <v>1.98</v>
+      </c>
+      <c r="AT369">
+        <v>3.59</v>
+      </c>
+      <c r="AU369">
+        <v>13</v>
+      </c>
+      <c r="AV369">
+        <v>6</v>
+      </c>
+      <c r="AW369">
+        <v>13</v>
+      </c>
+      <c r="AX369">
+        <v>13</v>
+      </c>
+      <c r="AY369">
+        <v>30</v>
+      </c>
+      <c r="AZ369">
+        <v>26</v>
+      </c>
+      <c r="BA369">
+        <v>3</v>
+      </c>
+      <c r="BB369">
+        <v>3</v>
+      </c>
+      <c r="BC369">
+        <v>6</v>
+      </c>
+      <c r="BD369">
+        <v>2.15</v>
+      </c>
+      <c r="BE369">
+        <v>6.75</v>
+      </c>
+      <c r="BF369">
+        <v>1.85</v>
+      </c>
+      <c r="BG369">
+        <v>1.19</v>
+      </c>
+      <c r="BH369">
+        <v>4</v>
+      </c>
+      <c r="BI369">
+        <v>1.34</v>
+      </c>
+      <c r="BJ369">
+        <v>2.9</v>
+      </c>
+      <c r="BK369">
+        <v>1.56</v>
+      </c>
+      <c r="BL369">
+        <v>2.23</v>
+      </c>
+      <c r="BM369">
+        <v>1.9</v>
+      </c>
+      <c r="BN369">
+        <v>1.79</v>
+      </c>
+      <c r="BO369">
+        <v>2.38</v>
+      </c>
+      <c r="BP369">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="503">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -982,6 +982,12 @@
     <t>['32', '69', '85']</t>
   </si>
   <si>
+    <t>['27', '32', '50', '86']</t>
+  </si>
+  <si>
+    <t>['14', '38', '89']</t>
+  </si>
+  <si>
     <t>['60', '65']</t>
   </si>
   <si>
@@ -1515,6 +1521,9 @@
   <si>
     <t>['9', '45+1']</t>
   </si>
+  <si>
+    <t>['24', '62']</t>
+  </si>
 </sst>
 </file>
 
@@ -1875,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP369"/>
+  <dimension ref="A1:BP371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2340,7 +2349,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q3">
         <v>6.5</v>
@@ -2627,7 +2636,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2752,7 +2761,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -3245,7 +3254,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ7">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3370,7 +3379,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3782,7 +3791,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -4684,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ14">
         <v>1.11</v>
@@ -5302,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ17">
         <v>0.79</v>
@@ -5430,7 +5439,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -5636,7 +5645,7 @@
         <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q19">
         <v>4.5</v>
@@ -6460,7 +6469,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q23">
         <v>4.75</v>
@@ -6666,7 +6675,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q24">
         <v>3.4</v>
@@ -6953,7 +6962,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR25">
         <v>1.78</v>
@@ -7284,7 +7293,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -7365,7 +7374,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ27">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR27">
         <v>0.83</v>
@@ -7490,7 +7499,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -7696,7 +7705,7 @@
         <v>111</v>
       </c>
       <c r="P29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q29">
         <v>2.1</v>
@@ -8108,7 +8117,7 @@
         <v>91</v>
       </c>
       <c r="P31" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q31">
         <v>3.75</v>
@@ -8314,7 +8323,7 @@
         <v>91</v>
       </c>
       <c r="P32" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q32">
         <v>4.5</v>
@@ -8726,7 +8735,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -8804,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ34">
         <v>0.5600000000000001</v>
@@ -9422,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -9550,7 +9559,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -9962,7 +9971,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -10168,7 +10177,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -10374,7 +10383,7 @@
         <v>91</v>
       </c>
       <c r="P42" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q42">
         <v>3.5</v>
@@ -10580,7 +10589,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -11073,7 +11082,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ45">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR45">
         <v>1.78</v>
@@ -11691,7 +11700,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR48">
         <v>1.44</v>
@@ -11894,7 +11903,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ49">
         <v>0.95</v>
@@ -12228,7 +12237,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q51">
         <v>2.4</v>
@@ -12306,7 +12315,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ51">
         <v>1.78</v>
@@ -12640,7 +12649,7 @@
         <v>91</v>
       </c>
       <c r="P53" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -13052,7 +13061,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q55">
         <v>1.57</v>
@@ -13464,7 +13473,7 @@
         <v>129</v>
       </c>
       <c r="P57" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13670,7 +13679,7 @@
         <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q58">
         <v>6.5</v>
@@ -13876,7 +13885,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -14082,7 +14091,7 @@
         <v>91</v>
       </c>
       <c r="P60" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -14288,7 +14297,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q61">
         <v>2.1</v>
@@ -14494,7 +14503,7 @@
         <v>91</v>
       </c>
       <c r="P62" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q62">
         <v>5.5</v>
@@ -14572,7 +14581,7 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -14781,7 +14790,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ63">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR63">
         <v>1.12</v>
@@ -14906,7 +14915,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q64">
         <v>1.67</v>
@@ -14984,7 +14993,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ64">
         <v>1.47</v>
@@ -15112,7 +15121,7 @@
         <v>135</v>
       </c>
       <c r="P65" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -15318,7 +15327,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q66">
         <v>2.5</v>
@@ -15399,7 +15408,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR66">
         <v>1.43</v>
@@ -16348,7 +16357,7 @@
         <v>138</v>
       </c>
       <c r="P71" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q71">
         <v>3.2</v>
@@ -16760,7 +16769,7 @@
         <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16966,7 +16975,7 @@
         <v>140</v>
       </c>
       <c r="P74" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q74">
         <v>2.1</v>
@@ -17378,7 +17387,7 @@
         <v>141</v>
       </c>
       <c r="P76" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -17584,7 +17593,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17996,7 +18005,7 @@
         <v>143</v>
       </c>
       <c r="P79" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -18202,7 +18211,7 @@
         <v>144</v>
       </c>
       <c r="P80" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18614,7 +18623,7 @@
         <v>94</v>
       </c>
       <c r="P82" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18898,7 +18907,7 @@
         <v>0</v>
       </c>
       <c r="AP83">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ83">
         <v>0.32</v>
@@ -19026,7 +19035,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q84">
         <v>2.1</v>
@@ -19107,7 +19116,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ84">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -19232,7 +19241,7 @@
         <v>147</v>
       </c>
       <c r="P85" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q85">
         <v>2.5</v>
@@ -19313,7 +19322,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ85">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR85">
         <v>1.28</v>
@@ -19438,7 +19447,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q86">
         <v>2.25</v>
@@ -19850,7 +19859,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q88">
         <v>2.3</v>
@@ -20134,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ89">
         <v>0.89</v>
@@ -20262,7 +20271,7 @@
         <v>152</v>
       </c>
       <c r="P90" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -20468,7 +20477,7 @@
         <v>153</v>
       </c>
       <c r="P91" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -21910,7 +21919,7 @@
         <v>160</v>
       </c>
       <c r="P98" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q98">
         <v>3.2</v>
@@ -22116,7 +22125,7 @@
         <v>161</v>
       </c>
       <c r="P99" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q99">
         <v>2.38</v>
@@ -22322,7 +22331,7 @@
         <v>162</v>
       </c>
       <c r="P100" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -22734,7 +22743,7 @@
         <v>164</v>
       </c>
       <c r="P102" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q102">
         <v>2.88</v>
@@ -22815,7 +22824,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ102">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR102">
         <v>1.76</v>
@@ -22940,7 +22949,7 @@
         <v>91</v>
       </c>
       <c r="P103" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q103">
         <v>3.2</v>
@@ -23018,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ103">
         <v>1.47</v>
@@ -24176,7 +24185,7 @@
         <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24382,7 +24391,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q110">
         <v>1.62</v>
@@ -24794,7 +24803,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -25000,7 +25009,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q113">
         <v>2.2</v>
@@ -25081,7 +25090,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ113">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR113">
         <v>1.98</v>
@@ -25618,7 +25627,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25824,7 +25833,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -26030,7 +26039,7 @@
         <v>91</v>
       </c>
       <c r="P118" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -26108,7 +26117,7 @@
         <v>0.8</v>
       </c>
       <c r="AP118">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ118">
         <v>0.89</v>
@@ -26236,7 +26245,7 @@
         <v>176</v>
       </c>
       <c r="P119" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -26442,7 +26451,7 @@
         <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q120">
         <v>4.75</v>
@@ -26648,7 +26657,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -26854,7 +26863,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q122">
         <v>1.91</v>
@@ -27060,7 +27069,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q123">
         <v>3.25</v>
@@ -27141,7 +27150,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ123">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR123">
         <v>1.13</v>
@@ -27678,7 +27687,7 @@
         <v>149</v>
       </c>
       <c r="P126" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q126">
         <v>3.4</v>
@@ -27756,7 +27765,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ126">
         <v>1.47</v>
@@ -27884,7 +27893,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -28914,7 +28923,7 @@
         <v>91</v>
       </c>
       <c r="P132" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29326,7 +29335,7 @@
         <v>188</v>
       </c>
       <c r="P134" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29532,7 +29541,7 @@
         <v>189</v>
       </c>
       <c r="P135" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -29816,7 +29825,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ136">
         <v>1.74</v>
@@ -30025,7 +30034,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ137">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR137">
         <v>1.42</v>
@@ -30974,7 +30983,7 @@
         <v>196</v>
       </c>
       <c r="P142" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q142">
         <v>5.5</v>
@@ -31052,7 +31061,7 @@
         <v>1.43</v>
       </c>
       <c r="AP142">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ142">
         <v>1.44</v>
@@ -31180,7 +31189,7 @@
         <v>197</v>
       </c>
       <c r="P143" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q143">
         <v>3.2</v>
@@ -31592,7 +31601,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q145">
         <v>2.25</v>
@@ -31798,7 +31807,7 @@
         <v>188</v>
       </c>
       <c r="P146" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q146">
         <v>5.5</v>
@@ -32004,7 +32013,7 @@
         <v>199</v>
       </c>
       <c r="P147" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32085,7 +32094,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ147">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR147">
         <v>1.16</v>
@@ -32210,7 +32219,7 @@
         <v>200</v>
       </c>
       <c r="P148" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q148">
         <v>4.75</v>
@@ -32416,7 +32425,7 @@
         <v>201</v>
       </c>
       <c r="P149" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -32703,7 +32712,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ150">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR150">
         <v>1.48</v>
@@ -32828,7 +32837,7 @@
         <v>203</v>
       </c>
       <c r="P151" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q151">
         <v>2.5</v>
@@ -33446,7 +33455,7 @@
         <v>205</v>
       </c>
       <c r="P154" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q154">
         <v>1.73</v>
@@ -33652,7 +33661,7 @@
         <v>206</v>
       </c>
       <c r="P155" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q155">
         <v>3.2</v>
@@ -33858,7 +33867,7 @@
         <v>90</v>
       </c>
       <c r="P156" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q156">
         <v>2.5</v>
@@ -34064,7 +34073,7 @@
         <v>117</v>
       </c>
       <c r="P157" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q157">
         <v>2.05</v>
@@ -34142,7 +34151,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ157">
         <v>0.95</v>
@@ -34270,7 +34279,7 @@
         <v>91</v>
       </c>
       <c r="P158" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -35094,7 +35103,7 @@
         <v>91</v>
       </c>
       <c r="P162" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q162">
         <v>2.88</v>
@@ -35300,7 +35309,7 @@
         <v>125</v>
       </c>
       <c r="P163" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q163">
         <v>3.25</v>
@@ -35506,7 +35515,7 @@
         <v>91</v>
       </c>
       <c r="P164" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q164">
         <v>4.5</v>
@@ -35712,7 +35721,7 @@
         <v>188</v>
       </c>
       <c r="P165" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q165">
         <v>5.5</v>
@@ -35790,7 +35799,7 @@
         <v>1.5</v>
       </c>
       <c r="AP165">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ165">
         <v>1.78</v>
@@ -36124,7 +36133,7 @@
         <v>91</v>
       </c>
       <c r="P167" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -36205,7 +36214,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ167">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR167">
         <v>1.06</v>
@@ -36330,7 +36339,7 @@
         <v>91</v>
       </c>
       <c r="P168" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q168">
         <v>2.38</v>
@@ -36411,7 +36420,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ168">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR168">
         <v>1.46</v>
@@ -36742,7 +36751,7 @@
         <v>210</v>
       </c>
       <c r="P170" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q170">
         <v>3.75</v>
@@ -37026,7 +37035,7 @@
         <v>0.75</v>
       </c>
       <c r="AP171">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ171">
         <v>1.17</v>
@@ -37154,7 +37163,7 @@
         <v>91</v>
       </c>
       <c r="P172" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q172">
         <v>3.6</v>
@@ -37772,7 +37781,7 @@
         <v>133</v>
       </c>
       <c r="P175" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q175">
         <v>1.95</v>
@@ -38390,7 +38399,7 @@
         <v>215</v>
       </c>
       <c r="P178" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q178">
         <v>1.4</v>
@@ -39008,7 +39017,7 @@
         <v>91</v>
       </c>
       <c r="P181" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q181">
         <v>7</v>
@@ -39214,7 +39223,7 @@
         <v>216</v>
       </c>
       <c r="P182" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q182">
         <v>1.91</v>
@@ -39295,7 +39304,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ182">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR182">
         <v>1.74</v>
@@ -39498,7 +39507,7 @@
         <v>0.22</v>
       </c>
       <c r="AP183">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ183">
         <v>0.32</v>
@@ -39626,7 +39635,7 @@
         <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -39707,7 +39716,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ184">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR184">
         <v>1.59</v>
@@ -39832,7 +39841,7 @@
         <v>91</v>
       </c>
       <c r="P185" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -40038,7 +40047,7 @@
         <v>91</v>
       </c>
       <c r="P186" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q186">
         <v>5.5</v>
@@ -40450,7 +40459,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q188">
         <v>2.4</v>
@@ -40656,7 +40665,7 @@
         <v>91</v>
       </c>
       <c r="P189" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q189">
         <v>3.2</v>
@@ -40862,7 +40871,7 @@
         <v>221</v>
       </c>
       <c r="P190" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q190">
         <v>6</v>
@@ -41068,7 +41077,7 @@
         <v>222</v>
       </c>
       <c r="P191" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q191">
         <v>3.2</v>
@@ -41480,7 +41489,7 @@
         <v>224</v>
       </c>
       <c r="P193" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q193">
         <v>1.8</v>
@@ -41764,7 +41773,7 @@
         <v>2</v>
       </c>
       <c r="AP194">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ194">
         <v>1.39</v>
@@ -41892,7 +41901,7 @@
         <v>91</v>
       </c>
       <c r="P195" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q195">
         <v>3.2</v>
@@ -42176,7 +42185,7 @@
         <v>1.33</v>
       </c>
       <c r="AP196">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ196">
         <v>1.11</v>
@@ -42510,7 +42519,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q198">
         <v>2.1</v>
@@ -42716,7 +42725,7 @@
         <v>229</v>
       </c>
       <c r="P199" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q199">
         <v>1.67</v>
@@ -42922,7 +42931,7 @@
         <v>91</v>
       </c>
       <c r="P200" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q200">
         <v>3.6</v>
@@ -43128,7 +43137,7 @@
         <v>230</v>
       </c>
       <c r="P201" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q201">
         <v>2.1</v>
@@ -43209,7 +43218,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ201">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR201">
         <v>1.75</v>
@@ -43334,7 +43343,7 @@
         <v>231</v>
       </c>
       <c r="P202" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q202">
         <v>3.25</v>
@@ -43540,7 +43549,7 @@
         <v>232</v>
       </c>
       <c r="P203" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q203">
         <v>4.33</v>
@@ -43746,7 +43755,7 @@
         <v>233</v>
       </c>
       <c r="P204" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43952,7 +43961,7 @@
         <v>91</v>
       </c>
       <c r="P205" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44239,7 +44248,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ206">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR206">
         <v>1.56</v>
@@ -44364,7 +44373,7 @@
         <v>91</v>
       </c>
       <c r="P207" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q207">
         <v>3.75</v>
@@ -44776,7 +44785,7 @@
         <v>91</v>
       </c>
       <c r="P209" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -45188,7 +45197,7 @@
         <v>111</v>
       </c>
       <c r="P211" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q211">
         <v>2.2</v>
@@ -45269,7 +45278,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ211">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR211">
         <v>1.61</v>
@@ -45394,7 +45403,7 @@
         <v>91</v>
       </c>
       <c r="P212" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q212">
         <v>3.1</v>
@@ -45600,7 +45609,7 @@
         <v>91</v>
       </c>
       <c r="P213" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -45806,7 +45815,7 @@
         <v>91</v>
       </c>
       <c r="P214" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q214">
         <v>4</v>
@@ -46012,7 +46021,7 @@
         <v>237</v>
       </c>
       <c r="P215" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -46218,7 +46227,7 @@
         <v>94</v>
       </c>
       <c r="P216" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q216">
         <v>2.63</v>
@@ -46424,7 +46433,7 @@
         <v>238</v>
       </c>
       <c r="P217" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q217">
         <v>1.95</v>
@@ -46630,7 +46639,7 @@
         <v>239</v>
       </c>
       <c r="P218" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q218">
         <v>3.25</v>
@@ -46836,7 +46845,7 @@
         <v>91</v>
       </c>
       <c r="P219" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q219">
         <v>7</v>
@@ -47042,7 +47051,7 @@
         <v>240</v>
       </c>
       <c r="P220" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q220">
         <v>1.73</v>
@@ -47123,7 +47132,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ220">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR220">
         <v>1.85</v>
@@ -47454,7 +47463,7 @@
         <v>91</v>
       </c>
       <c r="P222" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q222">
         <v>2.2</v>
@@ -47866,7 +47875,7 @@
         <v>107</v>
       </c>
       <c r="P224" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q224">
         <v>6</v>
@@ -48072,7 +48081,7 @@
         <v>91</v>
       </c>
       <c r="P225" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q225">
         <v>6.5</v>
@@ -48278,7 +48287,7 @@
         <v>243</v>
       </c>
       <c r="P226" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q226">
         <v>2.38</v>
@@ -48356,7 +48365,7 @@
         <v>1.91</v>
       </c>
       <c r="AP226">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ226">
         <v>1.39</v>
@@ -48484,7 +48493,7 @@
         <v>155</v>
       </c>
       <c r="P227" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q227">
         <v>2.63</v>
@@ -48562,7 +48571,7 @@
         <v>0.5</v>
       </c>
       <c r="AP227">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ227">
         <v>1.33</v>
@@ -48690,7 +48699,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q228">
         <v>1.91</v>
@@ -49102,7 +49111,7 @@
         <v>91</v>
       </c>
       <c r="P230" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49514,7 +49523,7 @@
         <v>95</v>
       </c>
       <c r="P232" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q232">
         <v>2.2</v>
@@ -49926,7 +49935,7 @@
         <v>151</v>
       </c>
       <c r="P234" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q234">
         <v>2.6</v>
@@ -50132,7 +50141,7 @@
         <v>91</v>
       </c>
       <c r="P235" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q235">
         <v>4.5</v>
@@ -50544,7 +50553,7 @@
         <v>91</v>
       </c>
       <c r="P237" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50750,7 +50759,7 @@
         <v>91</v>
       </c>
       <c r="P238" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -51162,7 +51171,7 @@
         <v>249</v>
       </c>
       <c r="P240" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q240">
         <v>1.8</v>
@@ -51368,7 +51377,7 @@
         <v>250</v>
       </c>
       <c r="P241" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q241">
         <v>6</v>
@@ -51780,7 +51789,7 @@
         <v>91</v>
       </c>
       <c r="P243" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q243">
         <v>9</v>
@@ -51986,7 +51995,7 @@
         <v>203</v>
       </c>
       <c r="P244" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q244">
         <v>5</v>
@@ -52067,7 +52076,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ244">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR244">
         <v>1.15</v>
@@ -52270,7 +52279,7 @@
         <v>1.75</v>
       </c>
       <c r="AP245">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ245">
         <v>1.47</v>
@@ -53016,7 +53025,7 @@
         <v>254</v>
       </c>
       <c r="P249" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q249">
         <v>2.63</v>
@@ -53094,7 +53103,7 @@
         <v>0.91</v>
       </c>
       <c r="AP249">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ249">
         <v>1.17</v>
@@ -53303,7 +53312,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ250">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR250">
         <v>1.85</v>
@@ -53634,7 +53643,7 @@
         <v>256</v>
       </c>
       <c r="P252" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q252">
         <v>4</v>
@@ -53840,7 +53849,7 @@
         <v>91</v>
       </c>
       <c r="P253" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q253">
         <v>3.6</v>
@@ -54046,7 +54055,7 @@
         <v>257</v>
       </c>
       <c r="P254" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q254">
         <v>3.25</v>
@@ -54252,7 +54261,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q255">
         <v>5</v>
@@ -54458,7 +54467,7 @@
         <v>117</v>
       </c>
       <c r="P256" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q256">
         <v>3.75</v>
@@ -54664,7 +54673,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q257">
         <v>1.73</v>
@@ -54951,7 +54960,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ258">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR258">
         <v>1.79</v>
@@ -55076,7 +55085,7 @@
         <v>91</v>
       </c>
       <c r="P259" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q259">
         <v>2.75</v>
@@ -55282,7 +55291,7 @@
         <v>258</v>
       </c>
       <c r="P260" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q260">
         <v>3.1</v>
@@ -55488,7 +55497,7 @@
         <v>259</v>
       </c>
       <c r="P261" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q261">
         <v>2.38</v>
@@ -55694,7 +55703,7 @@
         <v>91</v>
       </c>
       <c r="P262" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q262">
         <v>3.1</v>
@@ -55772,7 +55781,7 @@
         <v>2.29</v>
       </c>
       <c r="AP262">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ262">
         <v>2</v>
@@ -55900,7 +55909,7 @@
         <v>260</v>
       </c>
       <c r="P263" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q263">
         <v>3.2</v>
@@ -55978,7 +55987,7 @@
         <v>1.17</v>
       </c>
       <c r="AP263">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ263">
         <v>1.44</v>
@@ -56106,7 +56115,7 @@
         <v>261</v>
       </c>
       <c r="P264" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q264">
         <v>3.5</v>
@@ -56393,7 +56402,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ265">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR265">
         <v>1.6</v>
@@ -56930,7 +56939,7 @@
         <v>264</v>
       </c>
       <c r="P268" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q268">
         <v>2.05</v>
@@ -58166,7 +58175,7 @@
         <v>269</v>
       </c>
       <c r="P274" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q274">
         <v>1.4</v>
@@ -58656,7 +58665,7 @@
         <v>0.77</v>
       </c>
       <c r="AP276">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ276">
         <v>0.79</v>
@@ -59402,7 +59411,7 @@
         <v>273</v>
       </c>
       <c r="P280" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59483,7 +59492,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ280">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR280">
         <v>1.76</v>
@@ -59608,7 +59617,7 @@
         <v>274</v>
       </c>
       <c r="P281" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q281">
         <v>5.5</v>
@@ -59814,7 +59823,7 @@
         <v>91</v>
       </c>
       <c r="P282" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q282">
         <v>3.5</v>
@@ -60020,7 +60029,7 @@
         <v>275</v>
       </c>
       <c r="P283" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60101,7 +60110,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ283">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR283">
         <v>1.16</v>
@@ -60432,7 +60441,7 @@
         <v>277</v>
       </c>
       <c r="P285" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q285">
         <v>4</v>
@@ -60638,7 +60647,7 @@
         <v>278</v>
       </c>
       <c r="P286" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q286">
         <v>2.2</v>
@@ -60716,7 +60725,7 @@
         <v>1.57</v>
       </c>
       <c r="AP286">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ286">
         <v>1.44</v>
@@ -60844,7 +60853,7 @@
         <v>195</v>
       </c>
       <c r="P287" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q287">
         <v>2.25</v>
@@ -61462,7 +61471,7 @@
         <v>91</v>
       </c>
       <c r="P290" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q290">
         <v>4.33</v>
@@ -62286,7 +62295,7 @@
         <v>172</v>
       </c>
       <c r="P294" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q294">
         <v>5.5</v>
@@ -62570,7 +62579,7 @@
         <v>0.57</v>
       </c>
       <c r="AP295">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ295">
         <v>0.5600000000000001</v>
@@ -62698,7 +62707,7 @@
         <v>282</v>
       </c>
       <c r="P296" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q296">
         <v>2.2</v>
@@ -62904,7 +62913,7 @@
         <v>91</v>
       </c>
       <c r="P297" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q297">
         <v>2.6</v>
@@ -63110,7 +63119,7 @@
         <v>283</v>
       </c>
       <c r="P298" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q298">
         <v>1.83</v>
@@ -63934,7 +63943,7 @@
         <v>285</v>
       </c>
       <c r="P302" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64015,7 +64024,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ302">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR302">
         <v>1.26</v>
@@ -64218,7 +64227,7 @@
         <v>1.53</v>
       </c>
       <c r="AP303">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ303">
         <v>1.44</v>
@@ -64346,7 +64355,7 @@
         <v>133</v>
       </c>
       <c r="P304" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q304">
         <v>3.5</v>
@@ -64427,7 +64436,7 @@
         <v>0.39</v>
       </c>
       <c r="AQ304">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR304">
         <v>1.26</v>
@@ -64964,7 +64973,7 @@
         <v>289</v>
       </c>
       <c r="P307" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q307">
         <v>4.5</v>
@@ -65582,7 +65591,7 @@
         <v>91</v>
       </c>
       <c r="P310" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q310">
         <v>6</v>
@@ -65788,7 +65797,7 @@
         <v>290</v>
       </c>
       <c r="P311" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q311">
         <v>2.05</v>
@@ -65866,7 +65875,7 @@
         <v>1.64</v>
       </c>
       <c r="AP311">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ311">
         <v>1.5</v>
@@ -65994,7 +66003,7 @@
         <v>291</v>
       </c>
       <c r="P312" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q312">
         <v>1.73</v>
@@ -66200,7 +66209,7 @@
         <v>91</v>
       </c>
       <c r="P313" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q313">
         <v>5.5</v>
@@ -66612,7 +66621,7 @@
         <v>227</v>
       </c>
       <c r="P315" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q315">
         <v>2.1</v>
@@ -66818,7 +66827,7 @@
         <v>292</v>
       </c>
       <c r="P316" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q316">
         <v>2.88</v>
@@ -67230,7 +67239,7 @@
         <v>294</v>
       </c>
       <c r="P318" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="Q318">
         <v>1.73</v>
@@ -68054,7 +68063,7 @@
         <v>297</v>
       </c>
       <c r="P322" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q322">
         <v>2.88</v>
@@ -68338,10 +68347,10 @@
         <v>1.5</v>
       </c>
       <c r="AP323">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ323">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR323">
         <v>1.51</v>
@@ -68466,7 +68475,7 @@
         <v>91</v>
       </c>
       <c r="P324" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q324">
         <v>4.33</v>
@@ -69084,7 +69093,7 @@
         <v>172</v>
       </c>
       <c r="P327" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q327">
         <v>3.4</v>
@@ -69290,7 +69299,7 @@
         <v>91</v>
       </c>
       <c r="P328" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Q328">
         <v>7</v>
@@ -69577,7 +69586,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ329">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR329">
         <v>1.51</v>
@@ -69908,7 +69917,7 @@
         <v>90</v>
       </c>
       <c r="P331" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q331">
         <v>3</v>
@@ -70192,7 +70201,7 @@
         <v>1.44</v>
       </c>
       <c r="AP332">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ332">
         <v>1.44</v>
@@ -70320,7 +70329,7 @@
         <v>300</v>
       </c>
       <c r="P333" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q333">
         <v>2</v>
@@ -70938,7 +70947,7 @@
         <v>211</v>
       </c>
       <c r="P336" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Q336">
         <v>5</v>
@@ -71350,7 +71359,7 @@
         <v>304</v>
       </c>
       <c r="P338" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q338">
         <v>2.2</v>
@@ -71556,7 +71565,7 @@
         <v>94</v>
       </c>
       <c r="P339" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q339">
         <v>2.25</v>
@@ -71968,7 +71977,7 @@
         <v>91</v>
       </c>
       <c r="P341" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q341">
         <v>2.75</v>
@@ -72252,10 +72261,10 @@
         <v>1.24</v>
       </c>
       <c r="AP342">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AQ342">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AR342">
         <v>1.96</v>
@@ -72586,7 +72595,7 @@
         <v>307</v>
       </c>
       <c r="P344" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q344">
         <v>2.1</v>
@@ -72998,7 +73007,7 @@
         <v>309</v>
       </c>
       <c r="P346" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q346">
         <v>2.6</v>
@@ -73079,7 +73088,7 @@
         <v>2.05</v>
       </c>
       <c r="AQ346">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AR346">
         <v>1.92</v>
@@ -73204,7 +73213,7 @@
         <v>310</v>
       </c>
       <c r="P347" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q347">
         <v>2.1</v>
@@ -73410,7 +73419,7 @@
         <v>212</v>
       </c>
       <c r="P348" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q348">
         <v>3.2</v>
@@ -74028,7 +74037,7 @@
         <v>272</v>
       </c>
       <c r="P351" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q351">
         <v>3</v>
@@ -74106,7 +74115,7 @@
         <v>1.71</v>
       </c>
       <c r="AP351">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AQ351">
         <v>1.74</v>
@@ -74234,7 +74243,7 @@
         <v>195</v>
       </c>
       <c r="P352" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q352">
         <v>2.4</v>
@@ -74440,7 +74449,7 @@
         <v>91</v>
       </c>
       <c r="P353" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Q353">
         <v>3.25</v>
@@ -75058,7 +75067,7 @@
         <v>91</v>
       </c>
       <c r="P356" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q356">
         <v>2.88</v>
@@ -75470,7 +75479,7 @@
         <v>313</v>
       </c>
       <c r="P358" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q358">
         <v>1.8</v>
@@ -75676,7 +75685,7 @@
         <v>91</v>
       </c>
       <c r="P359" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="Q359">
         <v>3</v>
@@ -75882,7 +75891,7 @@
         <v>91</v>
       </c>
       <c r="P360" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q360">
         <v>2.5</v>
@@ -76088,7 +76097,7 @@
         <v>314</v>
       </c>
       <c r="P361" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q361">
         <v>2.6</v>
@@ -76912,7 +76921,7 @@
         <v>318</v>
       </c>
       <c r="P365" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q365">
         <v>3.25</v>
@@ -77118,7 +77127,7 @@
         <v>319</v>
       </c>
       <c r="P366" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q366">
         <v>2.4</v>
@@ -77736,7 +77745,7 @@
         <v>321</v>
       </c>
       <c r="P369" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q369">
         <v>3</v>
@@ -77893,6 +77902,418 @@
       </c>
       <c r="BP369">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:68">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>7467044</v>
+      </c>
+      <c r="C370" t="s">
+        <v>68</v>
+      </c>
+      <c r="D370" t="s">
+        <v>69</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45797.66666666666</v>
+      </c>
+      <c r="F370">
+        <v>37</v>
+      </c>
+      <c r="G370" t="s">
+        <v>82</v>
+      </c>
+      <c r="H370" t="s">
+        <v>87</v>
+      </c>
+      <c r="I370">
+        <v>2</v>
+      </c>
+      <c r="J370">
+        <v>1</v>
+      </c>
+      <c r="K370">
+        <v>3</v>
+      </c>
+      <c r="L370">
+        <v>4</v>
+      </c>
+      <c r="M370">
+        <v>2</v>
+      </c>
+      <c r="N370">
+        <v>6</v>
+      </c>
+      <c r="O370" t="s">
+        <v>322</v>
+      </c>
+      <c r="P370" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q370">
+        <v>2.88</v>
+      </c>
+      <c r="R370">
+        <v>2.2</v>
+      </c>
+      <c r="S370">
+        <v>3.75</v>
+      </c>
+      <c r="T370">
+        <v>1.4</v>
+      </c>
+      <c r="U370">
+        <v>2.75</v>
+      </c>
+      <c r="V370">
+        <v>2.75</v>
+      </c>
+      <c r="W370">
+        <v>1.4</v>
+      </c>
+      <c r="X370">
+        <v>8</v>
+      </c>
+      <c r="Y370">
+        <v>1.08</v>
+      </c>
+      <c r="Z370">
+        <v>2.18</v>
+      </c>
+      <c r="AA370">
+        <v>3.3</v>
+      </c>
+      <c r="AB370">
+        <v>3.35</v>
+      </c>
+      <c r="AC370">
+        <v>1.06</v>
+      </c>
+      <c r="AD370">
+        <v>8.5</v>
+      </c>
+      <c r="AE370">
+        <v>1.33</v>
+      </c>
+      <c r="AF370">
+        <v>3.25</v>
+      </c>
+      <c r="AG370">
+        <v>1.95</v>
+      </c>
+      <c r="AH370">
+        <v>1.8</v>
+      </c>
+      <c r="AI370">
+        <v>1.75</v>
+      </c>
+      <c r="AJ370">
+        <v>2</v>
+      </c>
+      <c r="AK370">
+        <v>1.35</v>
+      </c>
+      <c r="AL370">
+        <v>1.28</v>
+      </c>
+      <c r="AM370">
+        <v>1.62</v>
+      </c>
+      <c r="AN370">
+        <v>1.22</v>
+      </c>
+      <c r="AO370">
+        <v>1.17</v>
+      </c>
+      <c r="AP370">
+        <v>1.32</v>
+      </c>
+      <c r="AQ370">
+        <v>1.11</v>
+      </c>
+      <c r="AR370">
+        <v>1.49</v>
+      </c>
+      <c r="AS370">
+        <v>1.3</v>
+      </c>
+      <c r="AT370">
+        <v>2.79</v>
+      </c>
+      <c r="AU370">
+        <v>11</v>
+      </c>
+      <c r="AV370">
+        <v>4</v>
+      </c>
+      <c r="AW370">
+        <v>3</v>
+      </c>
+      <c r="AX370">
+        <v>9</v>
+      </c>
+      <c r="AY370">
+        <v>14</v>
+      </c>
+      <c r="AZ370">
+        <v>18</v>
+      </c>
+      <c r="BA370">
+        <v>0</v>
+      </c>
+      <c r="BB370">
+        <v>10</v>
+      </c>
+      <c r="BC370">
+        <v>10</v>
+      </c>
+      <c r="BD370">
+        <v>1.72</v>
+      </c>
+      <c r="BE370">
+        <v>6.4</v>
+      </c>
+      <c r="BF370">
+        <v>2.38</v>
+      </c>
+      <c r="BG370">
+        <v>1.26</v>
+      </c>
+      <c r="BH370">
+        <v>3.4</v>
+      </c>
+      <c r="BI370">
+        <v>1.47</v>
+      </c>
+      <c r="BJ370">
+        <v>2.48</v>
+      </c>
+      <c r="BK370">
+        <v>1.76</v>
+      </c>
+      <c r="BL370">
+        <v>1.94</v>
+      </c>
+      <c r="BM370">
+        <v>2.18</v>
+      </c>
+      <c r="BN370">
+        <v>1.58</v>
+      </c>
+      <c r="BO370">
+        <v>2.8</v>
+      </c>
+      <c r="BP370">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="371" spans="1:68">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>7467047</v>
+      </c>
+      <c r="C371" t="s">
+        <v>68</v>
+      </c>
+      <c r="D371" t="s">
+        <v>69</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45797.66666666666</v>
+      </c>
+      <c r="F371">
+        <v>37</v>
+      </c>
+      <c r="G371" t="s">
+        <v>85</v>
+      </c>
+      <c r="H371" t="s">
+        <v>88</v>
+      </c>
+      <c r="I371">
+        <v>2</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>2</v>
+      </c>
+      <c r="L371">
+        <v>3</v>
+      </c>
+      <c r="M371">
+        <v>1</v>
+      </c>
+      <c r="N371">
+        <v>4</v>
+      </c>
+      <c r="O371" t="s">
+        <v>323</v>
+      </c>
+      <c r="P371" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q371">
+        <v>2</v>
+      </c>
+      <c r="R371">
+        <v>2.6</v>
+      </c>
+      <c r="S371">
+        <v>5.5</v>
+      </c>
+      <c r="T371">
+        <v>1.25</v>
+      </c>
+      <c r="U371">
+        <v>3.75</v>
+      </c>
+      <c r="V371">
+        <v>2.2</v>
+      </c>
+      <c r="W371">
+        <v>1.62</v>
+      </c>
+      <c r="X371">
+        <v>5</v>
+      </c>
+      <c r="Y371">
+        <v>1.17</v>
+      </c>
+      <c r="Z371">
+        <v>1.55</v>
+      </c>
+      <c r="AA371">
+        <v>4.45</v>
+      </c>
+      <c r="AB371">
+        <v>5.3</v>
+      </c>
+      <c r="AC371">
+        <v>1.01</v>
+      </c>
+      <c r="AD371">
+        <v>13</v>
+      </c>
+      <c r="AE371">
+        <v>1.15</v>
+      </c>
+      <c r="AF371">
+        <v>5.25</v>
+      </c>
+      <c r="AG371">
+        <v>1.45</v>
+      </c>
+      <c r="AH371">
+        <v>2.63</v>
+      </c>
+      <c r="AI371">
+        <v>1.62</v>
+      </c>
+      <c r="AJ371">
+        <v>2.2</v>
+      </c>
+      <c r="AK371">
+        <v>1.15</v>
+      </c>
+      <c r="AL371">
+        <v>1.15</v>
+      </c>
+      <c r="AM371">
+        <v>2.45</v>
+      </c>
+      <c r="AN371">
+        <v>2.17</v>
+      </c>
+      <c r="AO371">
+        <v>1.56</v>
+      </c>
+      <c r="AP371">
+        <v>2.21</v>
+      </c>
+      <c r="AQ371">
+        <v>1.47</v>
+      </c>
+      <c r="AR371">
+        <v>1.93</v>
+      </c>
+      <c r="AS371">
+        <v>1.67</v>
+      </c>
+      <c r="AT371">
+        <v>3.6</v>
+      </c>
+      <c r="AU371">
+        <v>6</v>
+      </c>
+      <c r="AV371">
+        <v>3</v>
+      </c>
+      <c r="AW371">
+        <v>7</v>
+      </c>
+      <c r="AX371">
+        <v>6</v>
+      </c>
+      <c r="AY371">
+        <v>15</v>
+      </c>
+      <c r="AZ371">
+        <v>11</v>
+      </c>
+      <c r="BA371">
+        <v>3</v>
+      </c>
+      <c r="BB371">
+        <v>1</v>
+      </c>
+      <c r="BC371">
+        <v>4</v>
+      </c>
+      <c r="BD371">
+        <v>1.3</v>
+      </c>
+      <c r="BE371">
+        <v>7.5</v>
+      </c>
+      <c r="BF371">
+        <v>3.9</v>
+      </c>
+      <c r="BG371">
+        <v>1.17</v>
+      </c>
+      <c r="BH371">
+        <v>4.35</v>
+      </c>
+      <c r="BI371">
+        <v>1.3</v>
+      </c>
+      <c r="BJ371">
+        <v>3.05</v>
+      </c>
+      <c r="BK371">
+        <v>1.5</v>
+      </c>
+      <c r="BL371">
+        <v>2.35</v>
+      </c>
+      <c r="BM371">
+        <v>1.8</v>
+      </c>
+      <c r="BN371">
+        <v>1.89</v>
+      </c>
+      <c r="BO371">
+        <v>2.23</v>
+      </c>
+      <c r="BP371">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/England Premier League_20242025.xlsx
@@ -78065,10 +78065,10 @@
         <v>0</v>
       </c>
       <c r="BB370">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC370">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD370">
         <v>1.72</v>
